--- a/processed_hromadske.xlsx
+++ b/processed_hromadske.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e5afc8ce8b0783b/KPI/Дипломне/diploma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_2A9133B5D38054106BB83211595ED87656D1A2DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B049564D-ED46-4C51-914D-51FAF5EF542F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_7479F1ABD3F05F79DB393511595ED87656D10B1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF86D03-916B-4FAB-892F-1D4FEC40FC5F}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3600" yWindow="-885" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="762">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -52,10 +52,10 @@
     <t>У «Слузі народу» відхрестилися від заяви Богдана про регіональну російську мову «для Донецька і Луганська». У президентській партії «Слуга народу» заявили, що пропозиція глави Офісу президента Андрія Богдана надати статус регіональної для російської мови на Донбасі є його особистою позицією і не відображує позицію партії.Про це в ефірі телеканалу ICTV заявив представник президента в парламенті, другий номер списку «Слуги народу» Руслан Стефанчук.«Я думаю, це однозначно варто трактувати як особисту позицію Андрія Богдана, оскільки вона не зовсім корелює з тим, що заявлено в програмі нашої партії. Для нас визначальним є положення статті 10 Конституції, згідно з якою, єдиною державною мовою є українська», — сказав він.Нагадаємо, Богдан запропонував надати «Донецьку і Луганську» російську мову як регіональну «за умови, що після цього вони — територія України». Водночас державну він пропонує залишити одну — українську.Раніше співвласник групи «Квартал 95» Борис Шефір заявив, що як працівник телекіноіндустрії чекає від президента Володимира Зеленського, свого ексбізнес-партнера, скасування мовного закону та зменшення мовних квот.Сам Зеленський заявив, що після вступу на посаду президента ретельно проаналізує ухвалений парламентом закон про українську мову на предмет дотримання конституційних прав та інтересів громадян України.25 квітня Верховна Рада ухвалила законопроект №5670-д «Про забезпечення функціонування української мови як державної».</t>
   </si>
   <si>
-    <t>Servant of the People Rebaptize Statement Bogdan Regional Russian Language Donetsk Luhansk Presidential Party Servant of the People State Proposal Head of Office President Andriy Bohdan Give Status Regional Russian Language Donbas Personal Position Display Position Party Air TV Channel ictv State Representative President Parliament Number List Servant of the People Ruslan Stefanchuk Think unequivocally worth interpreting personal Andriy Bohdan's position, because correlate, state the program of the party, the determining provision, the article, the constitution, according to which the single state language Ukrainian remind Bohdan offer to provide Donetsk Luhansk Russian language regional condition territory of Ukraine at the same time state offer to leave one Ukrainian co-owner group quarter Boris Shefir declare employee television film industry wait president Volodymyr Zelensky ex-business partner cancellation language law decrease language quota Zelensky declare entry position president will carefully analyze the law passed by the parliament Ukrainian language, the subject of observance of the constitutional right, the interest of the citizen, April, the Supreme Council to adopt a bill of provision the functioning of the Ukrainian state language</t>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
+    <t>servant of the people renounce statement bogdan regional Russian language donetsk luhansk presidential party servant of the people declare proposal head office president andriy bogdan provide status regional Russian language donbas personal position display position party broadcast ictv channel declare representative president parliament number list servant of the people ruslan stefanchuk think unambiguously worth interpreting personal position andriy bogdan because correlate declare program party defining provision article constitution according to which single state language ukrainian remind bogdan propose provide donetsk luhansk russian language regional condition territory ukraine at the same time state propose leave one ukrainian co-owner group quarter boris shefir declare employee telecine industry wait president volodymyr zelensky ex-business partner cancellation language law reduction language quota zelensky declare entry position president will carefully analyze adopted parliament law ukrainian language subject compliance constitutional right interest citizen april supreme council adopt bill ensuring functioning ukrainian language state</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>Політика</t>
@@ -76,6 +76,9 @@
     <t>Litvinov release colony Kharkov rf nobody transfer human rights activist Sergey Litvinov hold colony Kharkov some reason release Russia accuse Ukraine violation relevant convention stop transfer Ukrainian convicted air program now public declare coordinator media initiative right person Maria Tomak explain Litvinova convicted Russia accusation of robbery transfer Ukraine convention Council of Europe provide for transfer serving sentence person territory country citizenship procedure provided for passing sentence Litvinova pardons president release some reason Russia stop transfer convicted Ukrainian violation convention Russia nobody transfer Ukraine that is say say ordinary citizen Ukraine hundred Russian prison express desire transferred territory Ukraine note Tomak tell Ukrainian ask to transfer Russian prison Ukrainian court Ukraine confirm sentence passed Russian court case Litvinov word Tomak relative Russia come Ukrainian court request confirm sentence to transfer territory Ukraine can visit relatives remind learn public Litvinov month stay colony Kharko transfer RF Russia serve sentence alleged robbery want to condemn murder of non-existent in fact person Luhansk Litvinov composition battalion confirm competent authority Russia transfer Litvinov Ukraine detail case</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>На Дніпропетровщині від вибуху постраждали 6 дітей, одна у важкому стані. У селищі Пашена Балка Дніпропетровської області від вибуху невідомого предмету постраждали шестеро дітей, одна дитина у важкому стані.Про це повідомляє поліція області.«Попередньо встановлено, що під час гри з невідомим предметом він вибухнув, в результаті чого 6 дітей отримали травми різного ступеню тяжкості», — йдеться у повідомленні.Одна дитина перебуває у важкому стані. Попередньо, постраждали діти віком від 4 до 16 років.За цим фактом поліція порушила справу за статтями 263 (Незаконне поводження зі зброєю, бойовими припасами або вибуховими речовинами) та 264 (Недбале зберігання вогнепальної зброї або бойових припасів) Кримінального кодексу.Нагадаємо, 1 липня на Одещині внаслідок пожежі у будинку загинули четверо дітей.</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>Нацбанк визнав 14 українських банків системно важливими. Раніше їх було 3. Національний банк представив перелік із 14 системно важливих банків після зміни методології визначення таких установ. Раніше системно важливими вважались лише 3 банки.Про це повідомляє прес-служба регулятора.З 2016 року в Україні незмінно системно важливими були лише 3 установи — державні ПриватБанк, Ощадбанк та Укрексімбанк.Проте наприкінці червня НБУ змінив підходи до визначення системно важливих банків, банкрутство та ліквідація яких неможлива.Згідно з оновленою методологією, системно важливими банками в Україні є:«Водночас цей статус жодним чином не гарантує банкам особливих умов підтримки ліквідності в періоди стресу — вона буде надаватися на загальних для усієї системи умовах. Також системно важливі банки (окрім державних) не можуть та не повинні розраховувати на отримання коштів від уряду з метою капіталізації», — наголосили в НБУ.Системно важливий банк — термін у законодавстві багатьох країн світу, яким визначають фінустанови, банкрутство або неналежне функціонування яких може створити системні ризики для фінансової системи.</t>
   </si>
   <si>
-    <t>National Bank to recognize a Ukrainian bank as a systemically important national bank to present a list of a systemically important bank, a change in the methodology for defining such an institution as systemically important, to be considered a bank, to notify the press service of the regulator of Ukraine, an unchanged systemically important institution, a state-owned private bank, Savings Bank, Ukreximbank, at the end of June, NBU, to change the approach to defining a systemically important bank, bankruptcy, liquidation is impossible according to the updated methodology systemically important bank of Ukraine status no rank to guarantee bank special condition support liquidity period stress to be provided general whole system condition systemically important bank state must calculate receipt of funds government goal capitalization emphasize important bank term legislation many countries world which to determine financial institution bankruptcy improper functioning create systemic risk financial system</t>
+    <t>National Bank to recognize Ukrainian bank as systemically important National Bank to present list of systemically important bank change methodology definition such institution systemically important to be considered bank to report press service regulator Ukraine unchanged systemically important institution state private bank savings bank Ukreximbank at the end of June NBU to change approach definition systemically important bank bankruptcy liquidation impossible according to updated methodology systemically important bank Ukraine status no rank guarantee bank special condition support liquidity period stress provided general all system condition systemically important bank state must calculate receipt of funds government goal capitalization emphasize important bank term legislation many country world which define financial institution bankruptcy improper functioning create systemic risk financial system</t>
   </si>
   <si>
     <t>Ми не відійшли з позицій, а в якомусь сенсі їх покращили — заступник командувача штабу ООС. Заступник командувача штабу операції Об’єднаних сил на Донбасі генерал—майор Богдан Бондар запевнив, що українські військові не відійшли з позицій поблизу Станиці Луганської, де відбулось розведення сил, а покращили їх.Про це генерал-майор заявив в ефірі програми «Нині вже» на Громадському.«Ми покращили в певному сенсі і зайняли позиції, скажімо так, більш підготовані. У тому числі, можливостями протидії артилерії бойовиків, протитанкових ракетних комплексів, як це було, наприклад, сьогодні з санітарним автомобілем», — розповів Бондар.Він також наголосив, що разом з тим, вдалось змусити бойовиків суттєво змінити позиції.«Ми змусили бойовиків відійти з нашого берега і реально відійти на 1500-1600 метрів від тих позицій на яких вони знаходились», — підкреслив заступник командувача штабу ООС.Раніше у штабі операції Об’єднаних сил повідомили про завершення першого етапу відведення сил з боку українських військових. Влада Станиці Луганської підтвердила, що бойовики також відвели свої сили, для чого з блокпостів так званої «ЛНР» прибрали найманців і «козаків», і замінили їх на кадрових військових РФ.27 червня спостерігачі ОБСЄ підтвердили розведення підрозділів ЗСУ та бойовиків біля Станиці Луганської. У штабі ж розповіли про подальші дії в разі успішного розведення сил біля Станиці Луганської.Згідно з домовленостями, розведення сил можливе лише тоді, коли у зоні бойових дій упродовж тижня немає обстрілів. Українські військові та бойовики мають відійти від лінії зіткнення одночасно на відстань до одного кілометра. Першочергово це потрібно, аби на передовій припинилися обстріли і почалися ремонтні роботи, зокрема відновлення мосту в Станиці Луганській.Леонід Кучма повідомив, що за умови дотримання перемир'я, міст відремонтують протягом 1,5 — 3 місяців.читайте також</t>
@@ -148,13 +151,10 @@
     <t>Canada allocates Ukraine million reform government Canada allocates Ukraine dollar aid implementation reform development democracy increase support monitoring mission OSCE Donbas declare minister Canada Justin Trudeau press conference president Ukraine Volodymyr Zelensky word Ukraine receive within six Trudeau remind increased aid mission observer OSCE Canada work east Ukraine Trudeau touch topic investment Ukraine noting Canadian company invest factory ammunition Ukraine word Zelensky Ukraine Canada work expansion action bilateral agreement free trade service investment note Toronto hold international conference Ukraine reform conference dedicated expert discussion progress reform Ukraine event to be held consecutively take place London Copenhagen initiated government Ukraine platform Ukrainian international state official businessman top level representative country EU NATO civil society to summarize annual summary reform process Ukraine discussion further priority step perspective remind at the end of May become known Canadian company plan jointly oil and gas extract gas Ukraine</t>
   </si>
   <si>
-    <t>POSITIVE</t>
-  </si>
-  <si>
     <t>На ZIK соратника Медведчука заборонили висвітлювати мітинг проти Клюєва. Редактор показав стрім Громадського. Працівникам телеканалу ZIK, який нещодавно купив соратник Медведчука Тарас Козак, заборонили висвітлювати акцію протесту на Майдані Незалежності. Втім, попри заборону, випусковий редактор показав мітинг, який транслювало Громадське.Про це Громадському повідомив випусковий редактор ZIK Ігор Кримов.У центрі Києва протестували проти реєстрації кандидатами в депутати голови Адміністрації президента часів Януковича Андрія Клюєва та відеоблогера Анатолія Шарія.За словами Кримова, показувати акцію у прямому ефірі заборонила шеф-редакторка телеканалу Дар’я Гордійко, аргументуючи тим, що ця подія нібито «не цікава».«Наслідки дізнаюсь після ефіру, певно. Втім уже в АСБ (апаратно-студійному блоці — ред.) Дарина прибігала й заборонила показувати. Кілька хвилин свободи було» — розповів Кримов.Втім, попри заборону, він як випусковий редактор все ж показав цю акцію, яку на цей час транслювало Громадське.Пізніше Кримов розповів, що за рішенням шеф-редакторки його відсторонили від ефіру, а вже з 3 липня замість нього буде новий випусковий редактор.Нагадаємо, соратник кума Путіна Віктора Медведчука Тарас Козак купив телеканал ZIK і створив медіахолдинг за участі каналів «112 Україна» та NewsOne.Після цього з телеканалу ZIK почали масово звільнятися журналісти і топ-менеджери.Також у травні журналісти Дмитро Гордон і Олеся Бацман припинили співпрацю з телеканалом «112 Україна» через пропаганду «руского міра» з боку Медведчука.читайте також</t>
   </si>
   <si>
-    <t>zik comrade medvedchuk ban cover rally klyuyev editor show stream public worker zik ​​channel buy comrade medvedchuk taras kozak ban cover action protest maidan independence despite ban release editor show rally broadcast public public inform release editor zik ​​games krymov center kiev protest registration candidate deputy chairman administration president time yanukovich andriy klyuyev video blogger anatoly shariy word krymova show action live broadcast ban chief editor tv channel proudly arguing event supposedly learn broadcast probably already abc hardware studio block red darina pribregat ban show minute freedom tell krymov despite ban release editor show action which broadcast public krymov tell decision chief editor suspend broadcast july instead new release editor remind comrade kum putin viktor medvedchuk taras kozak buy zik channel create media holding participation channel ukraine newsone zik channel start mass layoffs journalist top manager may journalist dmytro gordon olesia batsman stop cooperation tv channel ukraine propaganda russkogo mira side</t>
+    <t>zik comrade medvedchuk ban cover rally klyuyev editor show stream public worker zik ​​channel buy comrade medvedchuk taras kozak ban cover action protest maidan independence despite ban release editor show rally broadcast public public inform release editor zik ​​games krymov center kiev protest registration candidate deputy chairman administration president time yanukovich andriy klyuyev video blogger anatoly shariy word krymova show action live broadcast ban chief editor tv channel proudly arguing event supposedly learn broadcast probably already abc hardware studio block red darina pribregat ban show minute freedom tell krymov despite ban release editor show action which broadcast public krymov tell decision chief editor suspend broadcast july instead new release editor remind comrade kum putin viktor medvedchuk taras kozak buy zik channel create media holding participation channel ukraine newsone zik channel start mass layoffs journalist top manager may journalist dmitry gordon olesia batsman stop cooperation tv channel ukraine propaganda russkogo mira side</t>
   </si>
   <si>
     <t>Громадські організації звернулись до Держкіно із проханням анулювати прокатне посвідчення «Сватів». Низка громадських організацій звернулись до Державного агентства з питань кіно з проханням анулювати прокатне посвідчення серіалу «Свати», який з 1 липня знову почав показувати телеканал «1+1».Про це в ефірі програми «Нині вже» на Громадському заявив член експертної комісії при Держкіно Сергій Стуканов.За його словами, серіал підпадає під заборону на показ в Україні, бо в ньому з’являється російська державна символіка, а серед героїв стрічки є працівники правоохоронних органів РФ, що заборонено законом.«Я вже не кажу, що в шостому сезоні, який почав показувати телеканал «1+1», з’являється портрет президента Путіна, Йосипа Сталіна, з’являється «георгієвська стрічка», яка так само визнана ворожою символікою, але вже згідно з іншими законами, зокрема про декомунізацію. Шостий сезон не має бути зараз на екранах», — зазанчив Стуканов.Саме у зв’язку з цим, за його словами, громадські організації звернулись до Держкіно з проханням анулювати прокатне посвідчення «Сватів».«І я думаю державне агентство має всі підстави це зробити, навіть не звертаючись до експертної комісії», — резюмував Стуканов.Нагадаємо, 27 березня Окружний адмінсуд Києва скасував заборону на показ телесеріалу «Свати» і дозволив в'їзд в Україну російському акторові Федору Добронравову.За рішенням суду Мінкультури виключило Добронравова з переліку осіб, які створюють загрозу національній безпеці України.3 червня комісія Держкіно проголосувала за заборонудругого сезону серіалу «Свати» виробництва ТОВ «Кіноквартал». 1+1 media оскаржуватиме рішення в суді.22 листопада 2017 року Служба безпеки України заборонила в'їзд Добронравову, після чого шоумен, сценарист і продюсер серіалу «Свати», а нині президент України Володимир Зеленський звернувся до СБУ через заборону.</t>
@@ -172,7 +172,7 @@
     <t>У сад мешканця Лондона з неба впав мертвий чоловік . В сад жителя південно—західного Лондона з неба впало тіло людини. Британські правоохоронці припускають, що чоловік летів у відсіку шасі літака зі столиці Кенії Найробі в аеропорт Хітроу, бо не мав квитка.Як повідомляє CNN із посиланням на Скотленд-Ярд, тіло впало з літака авіакомпанії Kenya Airways під час посадки в аеропорту. Пасажир взяв із собою воду та їжу, яку пізніше виявили у відсіку шасі, де він ховався. Переліт із Найробі в Лондон триває майже дев'ять годин.Особу чоловіка у поліції поки не встановили. Kenya Airways пообіцяли співпрацювати зі слідством.Сусід розповів журналістам ВВС, що тіло впало в метрі від власника саду, коли той засмагав.«Я поговорив із представниками Хітроу. За їх словами, таке відбувається приблизно раз в п'ять років», — пояснив мешканець району Клепхем у південно-західному Лондоні, який став очевидцем події.Це не перший подібний випадок. Наприклад, в 2015 році тіло людини знайшли на даху будівлі у Річмонд-на-Темзі. Він теж впав з відсіку шасі літака British Airways.Як зазначає ВВС, навіть якщо долетіти до місця призначення вдається, організм може не витримати переохолодження і брак кисню. Так, у серпні 2012 року чоловік помер усередині відсіку шасі літака, що прилетів до Лондона з Кейптауна.Раніше в американському місті Даллас у штаті Техас під час зльоту розбився двомоторний літак з десятьма людьми на борту.</t>
   </si>
   <si>
-    <t>garden resident london sky fall dead man garden resident south west london sky fall body man british law enforcement officer assume man fly landing gear plane capital kenya nairobi heathrow airport have ticket report cnn link scotland yard body fall plane airline kenya airways landing airport passenger take water food which detect landing gear hide flight nairobi london last hour person man police establish kenya airways promise cooperate investigation neighbor tell journalist air force body fall meter owner garden sunbathe talk representative heathrow word happen approximately explain resident clapham area south west london eyewitness event similar case example body man find roof building richmond thames fall landing gear plane british airways mark air force fly to destination resort body endure hypothermia lack oxygen august man die inside landing gear plane arrive london cape town american city dallas texas takeoff crash twin-engine plane ten people on board</t>
+    <t>garden resident london sky fall dead man garden resident south west london sky fall body man british law enforcement officer assume man fly landing gear plane capital kenya nairobi heathrow airport have ticket report cnn link scotland yard body fall plane airline kenya airways landing airport passenger take water food which detect landing gear hide flight nairobi london last hour person man police establish kenya airways promise cooperate investigation neighbor tell journalist air force body fall meter owner garden sunbathe talk representative heathrow word happen approximately explain resident clapham area south west london eyewitness event similar case example body man find roof building richmond thames fall landing gear plane british airways mark air force fly to destination resort body endure hypothermia lack of oxygen august man die inside landing gear plane arrive london cape town american city dallas texas takeoff crash twin-engine plane ten people on board</t>
   </si>
   <si>
     <t>Справу проти екс-«регіонала» Іванющенка закрили, його зняли з розшуку. Прокуратура закрила кримінальну справу проти колишнього «регіонала» та соратника Януковича Юрія Іванющенка, відомого як «Юра Єнакієвський». У зв’язку з цим поліція зняла його з розшуку.Ще минулого тижня Іванющенко був у базі Міністерства внутрішніх справ як особа, що переховується від слідства, проте зараз його вже там немає.У коментарі Громадському речник Нацполіції Ярослав Тракало підтвердив зняття з розшуку колишнього «регіонала». Це зробили на підставі інформації, отриманої від прокуратури Одещини.«На початку червня ми отримали постанову прокуратури області про закриття кримінального провадження щодо вказаного громадянина. За законом це автоматично тягне за собою внесення змін до розшукових баз і зняття з розшуку», — пояснив він.Речник розповів, що згодом поліція побачила в ЗМІ інформацію про нібито поновлення справи проти Іванющенка і направила запит до прокуратури Одещини.«25 червня прокуратура Одеської області надіслала офіційний документ (копію постанови), в якому вказано про прийняте рішення щодо закриття кримінального провадження у зв’язку з відсутністю складу злочину в діях цього громадянина», — сказав Тракало.У прокуратурі Одеської області Громадському підтвердили цю інформацію,. Там заявили, що закрили справу проти Іванющенка в квітні 2019 року, зокрема через скасування Конституційним судом відповідальності за незаконне збагачення, а також через рішення Солом'янського суду, який зобов’язав закрити справу в частині щодо рейдерського захоплення одеського ринку «7 кілометр».«Ми оскаржували це рішення в апеляційній інстанції, втім Апеляційний суд підтримав рішення суду першої інстанції», — заявили в прес-службі відомства.Водночас у прокуратурі стверджують, що вони досі проводять досудове розслідування «за фактом можливого вимагання права на майно та заволодіння бюджетними коштами».Депутата від «Партії Регіонів» Юрія Іванющенка називають «Юрою Єнакіївським» (чоловік родом з Єнакієвого — ред.). Після втечі екс-регіонала з України його оголосили у міжнародний розшук. Прокуратура почала розслідування двох кримінальних проваджень щодо розкрадання 177 мільйонів гривень так званих «кіотських коштів», які були виділені на утеплення та ремонт шкіл Донецької, Луганської областей та рейдерське захоплення Одеського ринку «7-й кілометр». У березні 2017 року два провадження об’єнали в одну справу, також стало відомо про нібито закриття справ щодо екс-регіонала, а у травні того ж року генеральний прокурор Юрій Луценко назвав це поразкою відомства. Втім на інформаційний запит журналістки Громадського у ГПУ відповіли, що слідство за підозрою Іванющенку зупинено, але рішення про закриття кримінальних проваджень на підставі ухвали суду не приймались. У березні 2018 року він зник із санкційного списку ЄС.</t>
@@ -190,7 +190,7 @@
     <t>У Києві на Майдані протестують проти участі у виборах Шарія та Клюєва. На Майдані незалежності в Києві влаштували акцію протесту проти реєстрації кандидатами в депутати відеоблогера Анатолія Шарія та голови Адміністрації президента часів Януковича Андрія Клюєва.Також 2 липня Центральна виборча комісія зареєструвала ексглаву Адміністрації президента часів Віктора Януковича Андрія Клюєва кандидатом на дострокових виборах до Верховної Ради. Громадському в ГПУ повідомили, що Клюєва мають затримати, щойно він повернеться в Україну.До цього Клюєву відмовляли у реєстрації кандидатом через те, що він не проживав на території України з 2014 року як того вимагає закон. За українським законодавством, одна з вимог до кандидатів в депутати — проживання в Україні протягом останніх п'яти років.Однак, адвокат Клюєва у суді довів, що його клієнт останні п'ять років проживав не в Москві і не Підмосков'ї, а в окупованому Донецьку. Суд у своєму рішенні рекомендував ЦВК знову розглянути документи Клюєва, але Центрвиборчком більшістю голосів вирішив таки зареєстрували ексочільник АП Януковича кандидатом.Андрія Клюєва підозрюють в організації розгону студентів на Майдані 30 листопада 2013 року. На момент розстрілу протестувальників під час Євромайдану Клюєв очолював Адміністрацію президента Віктора Януковича. З країни він зник безперешкодно, попри підозру в причетності до масових убивств.Також Клюєва підозрюють у заволодінні державним майном шляхом зловживання своїм службовим становищем за попередньою змовою групою осіб, повторно і в особливо великих розмірах.читайте також</t>
   </si>
   <si>
-    <t>Kyiv Maidan protest participation elections Shary Klyuyev Maidan Independence Kyiv hold a protest registration candidate deputy video blogger Anatoly Sharyy head of the administration President Chas Yanukovych Andriy Klyuyev July Central Election Commission register ex-head administration President Chas Viktor Yanukovych Andriy Klyuyev candidate early elections Supreme Council Public GPU notify Klyueva's mother detain Just returned from Ukraine, Klyuyev refused registration, candidate, reside in the territory of Ukraine, demand a law, Ukrainian legislation, one requirement, a candidate, a deputy, residence in Ukraine during the last lawyer, Klyuyev, the court, prove the client, the last, live in Moscow, the occupied Donetsk court, recommend his decision, recommend the Central Committee to consider the document, Klyuyev, the electoral center, the majority vote, decide to register the ex-leader AP Yanukovych, candidate Andriy Klyuyev, suspect the organization of dispersal student Maidan November moment shooting protester Euromaidan Klyuyev head the administration President Viktor Yanukovych, the country, disappear without hindrance despite suspicion, involvement, mass murder, Klyuyev, suspect, taking possession of state property by abusing his official position, previous conspiracy, group, person, repeated, large</t>
+    <t>kyy maidan protest participation elections shariy klyuyev maidan independence kyy arrange action protest registration candidate deputy video blogger anatoly shariy chairman administration president time yanukovich andriy klyuyev july central election commission register ex-head administration president time viktor yanukovich andriy klyuyev candidate early elections supreme council public gpu notify klyuyev have detain just return ukraine klyuyev refuse registration candidate reside territory ukraine demand law ukrainian legislation one requirement candidate deputy residence ukraine during last lawyer klyuyev court prove client last reside moscow occupied donetsk court his decision recommend cvc consider document klyuyev central electoral commission majority vote decide yes register ex-leader ap yanukovich candidate andriy klyuyev suspect organization dispersal student maidan november moment shooting protester euromaidan klyuyev lead administration president viktor yanukovich country disappear unhindered despite suspicion of involvement in the mass murder of Klyuev, suspected of taking over state property by abusing his official position, previous conspiracy, group, person, repeatedly, large</t>
   </si>
   <si>
     <t>Клюєв супроводжував Януковича і свідчив у Росії про «державний переворот»: лист ГПУ до ЦВК . Колишній глава Адміністрації президента часів Віктора Януковича Андрій Клюєв, якого Центрвиборчком зареєстрував кандидатом на дострокових виборах до Верховної Ради 21 липня 2019—го, супроводжував президента—утікача з РФ до Криму й свідчив у Москві у справі про події у лютому на Майдані.Водночас, у листі ідеться, що за даними Державної прикордонної служби України 1.01.2014 Клюєв А.П. вилетів з аеропорту Бориспіль рейсом Київ-Саллалах, а 11.01.2014 прибув звідти. Іншої інформації про перетинання державного кордону України Клюєвим у базах даних немає.«Клюєв А.П. за сприяння органів влади РФ разом з Януковичем В.Ф. та самостійно мав можливість перетинати державний кордон України та Росії поза митним та прикордонним контролем для переховування від слідства та суду з метою уникнення кримінальної відповідальності», – зазначили в ГПУ.Раніше Громадському в ГПУ повідомили, що Клюєва мають затримати щойно він повернеться в Україну.читайте також Нагадаємо, 2 липня Центральна виборча комісія зареєструвала ексглаву Адміністрації президента часів Віктора Януковича Андрія Клюєва кандидатом на дострокових виборах до Верховної Ради.До цього Клюєву відмовляли у реєстрації кандидатом через те, що він не проживав на території України з 2014 року як того вимагає закон. За українським законодавством, одна з вимог до кандидатів в депутати — проживання в Україні протягом останніх п'яти років.</t>
@@ -256,7 +256,7 @@
     <t>ДБР порушило справу проти судді Баришівського суду, яка позбавила ліцензії лоукостер SkyUp. Після розслідування журналістів Державне бюро розслідувань відкрило кримінальне провадження щодо судді Баришівського районного суду Олени Литвиненко, яка припинила дію ліцензії українського лоукостера SkyUp.Про це повідомляє програма «Схеми», після розслідування якої й порушили справу.Журналісти знайшли жінку, нібито за позовом якої суддя позбавила перевізника ліцензії. Водночас жінка заявила, що послугами SkyUp ніколи не користувалася і позов не подавала.24 червня ДБР порушило справу за статтею 375 (Постановлення суддею (суддями) завідомо неправосудного вироку, рішення, ухвали або постанови) Кримінального кодексу.У Бюро розповіли, що збирають докази та отримують свідчення у цій справі, проте підозру поки нікому не оголошували.Журналісти хотіли поспілкуватися із самою Литвиненко, але в суді заявили, що вона зараз у відпустці.12 червня стало відомо, що Баришівський суд Київської області призупинив ліцензію на здійснення перельотів українській авіакомпанії SkyUp. За словами представників авіакомпанії, позов подала особа, яка навіть не була її клієнтом.SkyUp оскаржила рішення суду в апеляції, згодом в уряді доручили забезпечити діяльність української авіакомпанії.SkyUp отримала ліцензію на здійснення перельотів 18 травня 2018 року.читайте також</t>
   </si>
   <si>
-    <t>SBR to initiate a case judge Baryshivskyi court to deprive the license of the low-cost airline Skyup investigation journalist state bureau of investigation to open criminal proceedings judge Baryshivskyi district court Olena Litvinenko to terminate the action of the license Ukrainian low-cost airline Skyup to report program scheme of investigation to initiate a case journalist to find a woman allegedly a lawsuit judge to deprive the carrier of a license at the same time a woman to declare the service Skyup to use the lawsuit June SBR to initiate a case article ruling judge judge knowingly unjust verdict decision ruling resolution criminal code bureau to tell to collect evidence to receive testimony case suspicion nobody to announce journalist to want to communicate himself Litvinenko court to declare June to become known Baryshivskyi court Kyiv region to suspend the license to operate the flight Ukrainian airline Skyup word representative airline to file a claim person client Skyup to appeal the decision court appeal subsequently government to instruct to ensure the activity of Ukrainian airline Skyup to obtain a license to operate the flight May</t>
+    <t>SBR to initiate a case judge Baryshivskyi court to deprive the license of the low-cost airline Skyup investigation journalist state bureau of investigation to open criminal proceedings judge Baryshivskyi district court Olena Litvinenko to terminate the action of the license Ukrainian low-cost airline Skyup to report program scheme of investigation to initiate a case journalist to find a woman allegedly a lawsuit judge to deprive the carrier of a license at the same time a woman to declare the service Skyup to use the lawsuit June SBR to initiate a case article ruling judge judge knowingly unjust verdict decision ruling resolution criminal code bureau to tell to collect evidence receive testimony case suspicion nobody to announce journalist to want to communicate himself Litvinenko court to declare June to become known Baryshivskyi court Kyiv region to suspend the license to operate the flight Ukrainian airline Skyup word representative airline to file a claim person client Skyup to appeal the decision court appeal subsequently government to instruct to ensure the activities of Ukrainian airline Skyup to obtain a license to operate the flight May</t>
   </si>
   <si>
     <t>Прессекретарка Зеленського прийшла на допит у ГПУ, але відмовилась свідчити. Прессекретарка президента України Володимира Зеленського Юлія Мендель приходила на допит у Генеральну прокуратуру, проте відмовилася давати свідчення.Про це повідомляє theБабель.Так, у ГПУ заявили, що під час допиту Мендель відмовилася давати свідчення, вказати джерело інформації, зазначивши, що сам допит є політизованим і може бути використаний проти неї.«Хоча задані слідчим питання не торкалися особистого життя, а були спрямовані на роз’яснення її дій як особи, уповноваженої оприлюднити офіційну позицію глави держави», — йдеться у відповіді ГПУ.Військова прокуратура викликала Мендель на допит у зв’язку з її заявою про те, що українські військові піддаються на провокації бойовиків і обстрілюють мирне населення в Донбасі.Нагадаємо, 3 червня на сайті президента з'явився указ про призначення журналістки Юлії Мендель прессекретаркою Володимира Зеленського.</t>
@@ -292,7 +292,7 @@
     <t>Пожежу у замінованому лісі біля Станиці Луганської загасили. Пожежу у замінованому лісі біля села Колесниківка Станично—Луганського району на Луганщині загасили.Як повідомляє прес-центр Державної служби України з надзвичайних ситуацій, загасити вогонь вдалося 4 липня о 19:30 пожежу.Нагадаємо, 3 липня біля села Колесниківка на Луганщині на території Піщаного лісництва виникла пожежа загальною площею близько 20 га. Спершу вогонь не гасили, оскільки ця територія замінована. За даними рятувальників, під час пожежі стався вибух, унаслідок чого отримав контузію і поранення руки тракторист лісового господарства.</t>
   </si>
   <si>
-    <t>fire mined forest stanitsa luhansky extinguish fire mined forest village kolesnykivka stanitsa luhansky district luhansk region extinguish report press center state service ukraine emergency situation extinguish fire resort to july fire remind july village kolesnykivka luhansk region territory sandy forestry occur fire general area ha first fire extinguish because territory mined data rescuer fire occur explosion as a result of receive contusion injury hand tractor driver forestry</t>
+    <t>fire mined forest stanitsa luhansky extinguish fire mined forest village kolesnykivka stanitsa luhanskyi district luhansk region extinguish report press center state service ukraine emergency situation extinguish fire resort to july fire remind july village kolesnykivka luhansk region territory sandy forestry occur fire general area ha first fire extinguish because territory mined data rescuer fire occur explosion as a result of receive contusion injury hand tractor driver forestry</t>
   </si>
   <si>
     <t>Голова партії «Голос» Клименко не вважає концерти «Океану Ельзи» передвиборною агітацією. Голова партії «Голос» Юлія Клименко не вважає концерти «Океану Ельзи» передвиборною агітацією.Про це Клименко заявила в ефірі програми «Мокрик По Живому» на Громадському.Зокрема, Клименко сказала, що концерти Святослава Вакарчука наразі поза політикою, і вони не є частиною агітації.«Святослав давав концерти до того, дає їх зараз, і більше того концерти вже заплановані на вересень і жовтень», — сказала вона.«Концерти не відносяться до партії, і ми не претендуємо на будь-яке обговорення концертів», — додала Клименко.Зазначимо, що така форма агітації як концерт згадується у Законі «Про вибори народних депутатів».Раніше лідер партії «Голос» співак Святослав Вакарчук відкинув порівняння концертів групи «Океан Ельзи» з «гречкою» під час передвиборчої кампанії.читайте також</t>
@@ -361,7 +361,7 @@
     <t>Суд поновив на посаді міськголови Конотопа Семеніхіна, який нещодавно потрапив в реанімацію після побиття. Сумський окружний адмінсуд поновив на посаді міського голови Конотопа Артема Семеніхіна, який нещодавно потрапив в реанімацію після побиття.Про це повідомляє прес-служба суду.Суд задовольнив позов Семеніхіна і скасував рішення Конотопської міської ради від 28 серпня 2018 року про дострокове припинення його повноважень.Також суд зобов’язав виплатити йому різницю між середнім заробітком за час вимушеного прогулу та тими доходами, які Семеніхін отримав як військовий контрактної служби.«Рішення в частині поновлення позивача на посаді міського голови м. Конотоп та виплаті середнього заробітку за час вимушеного прогулу в межах суми за один місяць підлягає негайному виконанню», — йдеться у повідомленні.Водночас відповідач може подати апеляцію упродовж 30 днів з дня складення повного рішення суду.Нагадаємо, Семеніхін балотується в народні депутати. 27 червня на нього напали і побили, після чого він потрапив у реанімацію.У нападі на себе Семеніхін звинуватив конкурента на окрузі від «Волі народу» Ігоря Молотка. Водночас той ці звинувачення відкидає.</t>
   </si>
   <si>
-    <t>court to renew the position of mayor of Konotop Semenikhin get resuscitation beating Sumy district administrative court to renew the position of mayor of Konotop Artem Semenikhin get resuscitation beating report press service court court to satisfy the claim Semenikhin cancel the decision Konotop city council August early termination of powers court to pay the difference average earnings forced absenteeism income Semenikhin receive military contract service part of the renewal plaintiff position of mayor of Konotop payment average earnings forced absenteeism limit amount month subject to immediate execution go notification at the same time defendant file an appeal during the day of drawing up the full decision court remind Semenikhin run for people's deputy June attack beat get resuscitation attack Semenikhin accused competitor district will people games hammer at the same time accusations reject</t>
+    <t>court to renew the position of mayor of Konotop Semenikhin get into intensive care beating Sumy district administrative court to renew the position of mayor of Konotop Artem Semenikhin get into intensive care beating report press service court court to satisfy the claim Semenikhin cancel the decision Konotop city council August early termination of powers court to pay the difference average earnings forced absenteeism income Semenikhin receive military contract service part of the renewal plaintiff position of mayor of Konotop payment average earnings forced absenteeism limit amount month subject to immediate execution go notification at the same time defendant file an appeal during the day of drawing up the full decision court remind Semenikhin run for people's deputy June attack beat get into intensive care attack Semenikhin accused a competitor of the district will people games hammer at the same time accusations reject</t>
   </si>
   <si>
     <t>Офіс президента не відповів на запит ГПУ щодо заяви прес-секретарки Зеленського про обстріли на Донбасі. Офіс президента Володимира Зеленського не відповів на запит Генпрокуратури щодо слів його прес—секретарки Юлії Мендель про обстріли на Донбасі. В ОПУ вважають, що прокурори не мали підстав надсилати такий запит.Про це повідомляє прес-служба глави держави.В Офісі президента заявили, що ГПУ для витребування документів має діяти на підставі Кримінально-процесуального кодексу, який передбачає згоду на це від слідчого судді.«У зв’язку з цим лист і запит, які надійшли до Офісу президента, повернуто Генпрокуратурі без розгляду», — йдеться у повідомленні.ГПУ направила запит в Офіс президента у зв’язку з тим, що Мендель відмовилася свідчити на допиті. Її викликали туди через заяву про те, що існують випадки, коли українські військові, відповідаючи на провокації бойовиків, обстрілюють цивільні об’єкти, в результаті чого гинуть мирні жителі. Викликали речницю президента як свідка.Нагадаємо, раніше ГПУ порушила три провадження після закликів про заборону стріляти у відповідь та торгівлю з так званими «ДНР» і «ЛНР».</t>
@@ -379,7 +379,7 @@
     <t>Вавилон внесли до списку світової спадщини ЮНЕСКО. Стародавнє місто Вавилон, розташоване на території сучасного Іраку, включили в список світової спадщини ЮНЕСКО.Про це повідомляє прес-служба організації.За таке рішення проголосували на 43-й сесії комітету світової спадщини ЮНЕСКО, яка відбувається в Баку. Влада Іраку домагалася цього з 1983 року.Водночас комітет відмовився включити руїни міста до списку об’єктів культурної спадщини, які перебувають під загрозою.Руїни Вавилону розташовані за 90 кілометрів від Багдаду, їхня територія — 10 тисяч квадратних кілометрів. Місто заснували в II–I тисячолітті до нашої ери, воно було столицею Вавилонського царства.Вавилоном правили царі Хаммурапі, який запровадив одну з перших у світі збірку законів, та Навуходоносор, відомий створенням Висячих садів, одного з Чудес світу.Місто оголосили пам’яткою археології у 1935 році, воно частково стало доступним завдяки проведеним розкопкам. Проте донині розкопки провели лише на 15% території.Нагадаємо, Україна пропонує внести печери Тернопільщини до природної спадщини ЮНЕСКО.</t>
   </si>
   <si>
-    <t>Babylon to list world heritage UNESCO ancient city Babylon is located in the territory of modern Iraq to include in the list world heritage report press service organization decision vote session committee world heritage UNESCO take place bak government Iraq sought at the same time committee refuse to include ruins city list cultural heritage be threat ruins Babylon is located kilometer Baghdad their territory square kilometer city founded ii i millennium era capital Babylonian kingdom Babylon ruled king Hammurabi introduce one first world collection law Nebuchadnezzar famous creation hanging garden miracle world city announce archaeology partially become accessible thanks to conducted excavation to this day excavation conduct territory remind Ukraine propose to introduce cave Ternopil region natural heritage UNESCO</t>
+    <t>Babylon to list world heritage UNESCO ancient city Babylon is located in the territory of modern Iraq to include in the list world heritage report press service organization decision vote session committee world heritage UNESCO take place bak government Iraq sought at the same time committee refuse to include ruins city list cultural heritage be threat ruins Babylon is located kilometer Baghdad their territory square kilometer city founded ii i millennium era capital Babylonian kingdom Babylon ruled king Hammurabi introduce one first world collection law Nebuchadnezzar famous creation hanging garden miracle world city declare archeology partially become accessible thanks to conducted excavation to this day excavation conduct territory remind Ukraine propose to introduce cave Ternopil region natural heritage UNESCO</t>
   </si>
   <si>
     <t>Партія пенсіонерів хоче через суд зняти з виборів Саакашвілі . Партія пенсіонерів подала до суду позов із вимогою скасувати реєстрацію Міхеіла Саакашвілі як кандидата в депутати від партії «Рух нових сил».Про це повідомив адвокат Павел Богомаз, який є членом Партії пенсіонерів, передає «Інтерфакс-Україна».У цій політсилі вважають, що Саакашвілі не жив в Україні 5 років безперервно, як того вимагає закон.Позов поданий до Шостого апеляційного адміністративного суду, його розгляд запланований на 6 липня.Нагадаємо, 21 червня суд вирішив, що Саакашвілі проживав останні 5 років в Україні, тому він може брати участь у парламентських виборах.Як відомо, 28 травня президент Володимир Зеленський повернув Саакашвілі громадянство України. 29 травня він вже повернувся в Україну.Нагадаємо, 26 липня 2017-го Петро Порошенко припинив громадянство Саакашвілі. Жодних заяв стосовно цього ні президент, ні співробітники адміністрації не робили.У вересні 2017 року Саакашвілі незаконно перетнув державний кордон Польщі та України, що підтверджується рішеннями місцевого та апеляційного судів. У зв’язку з цим йому заборонили в’їзді в Україну до 2021 року.У грудні 2017-го Саакашвілі, як лідер партії «Рух нових сил» організував в центрі Києва кілька протестів.5 грудня співробітники СБУ та ГПУ затримали колишнього президента Грузії на даху будинку по вулиці Костьольній у Києві, в якому він мешкає. Утім, доставити в СІЗО не змогли — його соратники спочатку заблокували автівки силовиків, а відтак буквально вирвали політика в них із рук.12 лютого 2018 року Саакашвілі все ж затримали у Києві. Згодом прикордонники повідомили, що його повернули до країни попереднього перебування, тобто, до Польщі за процедурою реадмісії.читайте також</t>
@@ -391,7 +391,7 @@
     <t>Влада Тунісу заборонила носіння нікабу в держустановах. Прем'єр—міністр Тунісу Юсеф Шахед підписав указ, який забороняє носити у державних установах одяг, що повністю приховує обличчя.Як зазначив телеканал Al-Arabiya, під заборону потрапив нікаб — мусульманський жіночий головний убір, що закриває обличчя, з вузьким прорізом для очей.Таке рішення стало реакцією на останні теракти, скоєні минулого тижня, пояснило джерело агентства Reuters.На минулому тижні в Тунісі було скоєно відразу три теракти, відповідальність за які взяла за себе терористична організація «Ісламська держава». Один вибух стався в 100 метрах від посольства Франції, другий — на парковці Національного контртерористичного управління. Загинули двоє людей, сім отримали поранення. Теракти можуть бути пов'язаними із парламентськими виборами, які відбудуться в жовтні, а також піком туристичного сезону.Заборона на носіння одягу, що приховує обличчя, діє у Франції, Бельгії, Нідерландах і Швейцарії. 31 травня 2018 року таке обмеження почало діяти і у Данії.Нагадаємо, Європейський суд з прав людини визнав законною заборону носити паранджу (бурку) та нікаб жінкам у громадських місцях Бельгії.</t>
   </si>
   <si>
-    <t>Tunisian authorities ban wearing niqab state institution Tunisian minister Youssef Shahed signed a decree banning wearing a state institution clothing that completely covers the face note Al Arabiya TV channel ban on entering the niqab Muslim women's headscarf covering the face narrow slit eye decision to become a reaction to the latest terrorist attack committed last week explain source Reuters agency last week Tunisia commit immediately terrorist attack responsibility take terrorist organization Islamic state explosion happen meter embassy France parking national counter-terrorism department die two people get injured terrorist attack parliamentary elections take place October peak tourist season ban on wearing clothing that covers the face act France Belgium Netherlands Switzerland May restrictions came into effect Denmark remind European Court of Justice right person recognize legal ban on wearing a burqa burqa niqab woman public place Belgium</t>
+    <t>Tunisian authorities ban wearing niqab state institution Tunisian minister Youssef Shahed signed a decree banning wearing a state institution clothing that completely covers the face note Al Arabiya TV channel ban on entering the niqab Muslim women's headscarf covering the face narrow slit eye decision to become a reaction to the latest terrorist attack committed last week explain source Reuters agency last week Tunisia commit immediately a terrorist attack responsibility take terrorist organization Islamic state explosion happen meter embassy France parking national counter-terrorism department die two people get injured terrorist attack parliamentary elections take place October peak tourist season ban on wearing clothing that covers the face act France Belgium Netherlands Switzerland May restrictions came into effect Denmark remind European Court of Justice right person recognize legal ban on wearing a burqa burqa niqab woman public place Belgium</t>
   </si>
   <si>
     <t>Верховний суд остаточно заборонив депутату-втікачу Онищенку балотуватися в Раду. Верховний суд не задовольнив новий позов депутата—втікача Олександра Онищенка та остаточно заборонив йому брати участь у дострокових виборах до Верховної Ради.Про це повідомляє прес-служба суду.Верховний суд повторно розглядав цю справу, бо Онищенко надав додаткові докази, які, на його думку, доводять, що він представляв України на кінних змаганнях і це є поважною причиною, чому він останні 5 років проживав не в Україні.Однак суд відхилив позов Онищенка і залишив у силі попереднє рішення, яким депутату-втікачу заборонено брати участь у парламентських виборахЦВК відмовила Онищенку у реєстрації, бо той з 2016 року не проживає на території України, тоді як кандидат має проживати в країні останні 5 років перед виборами. Однак суд першої інстанції зобов’язав ЦВК зареєструвати депутата-втікача Онищенка кандидатом, бо той «представляв Україну на кінних змаганнях».Своєю чергою, міністр молоді та спорту України Ігор Жданов заявив, що Онищенко не міг представляти Україну на кінних змаганнях.Нагадаємо:читайте також</t>
@@ -409,7 +409,7 @@
     <t>Юні орли та молоді вовчиці: репортаж з концерту Винника на підтримку «аграріїв» та Поплавського. Вакарчук, актори «Студії 95 квартал», шоумени Притула, Тищенко та Скічко — на цих парламентських виборів як ніколи велика кількість артистів хоче потрапити до Ради. Вони дають безкоштовні концерти і заперечують усі закиди про політичну агітацію. Але є і вічний гравець на передвиборчому полі — Михайло Поплавський, який очолює «Аграрну партію України». Цього разу він вирішив використати свій головний козир, підтримку Олега Винника, та разом розпочати тур містами України. Журналістка Громадського спробувала декілька годин побути молодою вовчицею і юною орлицею, і поїхала на концерт до Фастова. Хто такий Винник?— А у вас сьогодні в місті щось буде? Звідки це музика грає?— Концерт Винника, — засоромлено відповідає продавчиня овочів і фруктів одразу біля залізничного вокзалу Фастова.— А ви йдете?— Як зберу товар, то хотілося б піти. Я люблю і слухаю всі його пісні.Фастів — місто неподалік Києва. І округ, де колись Михайло Поплавський балотувався по мажоритарці. Тому саме звідси він вирішив розпочати свій передвиборчий тур містами України.Нині ж тут балотується інша кандидатка в депутати — Інна Костиря, проректорка Київського національного університету культури і мистецтв.Її невеликі агітаційні плакати розвішені по всьому місту разом із запрошеннями на концерт Винника та Поплавського. Кольори та стиль оформлення схожі на «Слугу народу», але ні, вона — самовисуванка.Не помітити ці яскраві плакати з анонсом концерту на обдертих парканах, ущент вклеєних оголошеннями про пошуки роботи та житла, неможливо.Хоча можна обійтися і без них, достатньо просто йти на звук.Що ближче до площі, де має відбутися концерт, то краще чути музику. За три години до початку будівельники неподалік площі кладуть плитку на доріжці, музиканти роблять саундчек. Усім відомі музичні мотиви чергуються з рекламою партії. На величезному екрані, що встановлений на сцені, показують відео з пшеничними полями та молодим Поплавським.— Дівчата, а чого така велика сцена на площі? Має щось відбутися?— Концерт Винника. Але ми не підемо, ми таке не слухаємо, — сміються школярки і швидко тікають.На площі перед сценою пусто, лише декілька кремезних чоловіків у чорних окулярах і декілька — в офіційних костюмах.Центральну дорогу ще не перекрили, час від часу їздять маршрутки. На тротуарі стоять агітаційні намети від «Батьківщини» та автобуси з безкоштовним проїздом, обклеєні агітацією мажоритарника-самовисуванця Руслана Сольвара.— Ще позавчора почали робити цю сцену. По верхах лазили. Кажуть, хороший концерт має бути, — розповідає жінка з намету Сольвара.— На тих виборах усе сфальсифікували, бачте, тепер потрібно старатися.— Юлю треба підтягнути, без неї діла не буде,— долинає розмова з намету «Батьківщини».Згодом з’являються і представники «Аграрної партії України». Жінки стають у коло, уважно слухають інструкції, як правильно роздавати агітаційний матеріал.— Розділіться по різних палатках і нагадуйте про концерт.Кожна отримує по 200 гривень і починає працювати. Чоловіки в цей час збирають для них намети.Близько 16-ої години неподалік сцени з’являється фастівчанка Лариса. Вона вдягнена в бузковий костюм, на плечі міцно тримає сумку темнішого кольору.— Хто такий Винник?— Ну його по телевізору постійно показують. Концерт його тут буде.— А ви прийдете?— Я вже прийшла.Ми вийшли з селаУ коридорі Будинку культури фарбуються дівчата. Вони старанно затоновують шкіру, підмальовують очі — за декілька годин потрібно виходити на сцену.Натомість у світлому та просторому холі з великими скляними люстрами на стелі вже все готово до брифінгу Поплавського та Винника. Виставлений банер партії, світло, стійка для мікрофонів, грає музика, неначе після першого столу на весіллі — весела, але не настільки, щоб уже знімати підбори і танцювати.— У нас не часто буває, щоб так багато преси зібралося, — каже журналіст місцевого видання.Трохи пізніше від запланованого часу з’являються артисти в оточенні охорони. Вони одразу ж фотографуються з мажоритарницею Інною Костирею, яку вирішили підтримати.— Ми з Олегом вийшли з села, — починає Поплавський. — Заради наших батьків, заради нашого майбутнього села, заради того, щоб українські села, як казав Олег Винник, стали європейськими. Ми за це сьогодні починаємо всеукраїнський тур з прекрасного міста Фастова, — урочисто каже Поплавський і передає слово Виннику.— Якщо говорити про аграріїв, то для мене — це не політика, а наше життя, без цього нашої країни не може бути, — каже Винник. Поплавський у цей час задоволено киває головою в такт його слів.До вікон холу, де відбувається брифінг, заглядають діти. Вони через скло на телефон знімають зірок. Поряд ходить і поліція.— У першу чергу, я підтримую Михайла Михайловича тому, що я довіряю йому як людині слова, бізнесу, справи. Я знаю його немалий час. Я хочу, щоб ця людина зайшла достойно в Раду. Я вважаю, що нашої Ради без аграріїв не має бути взагалі.Поки Поплавський переконує не вірити попереднім рейтингам, бо ж його партія буде змагатися за друге, а в ідеалі за перше місце, а Винник розповідає про європейські села та бажання, аби українці жили на своїй землі, на вулиці починають збиратися люди на концерт.Під будинком культури бігають діти з розфарбованими обличчями, солодкою ватою і повітряними кульками від «Аграрної партії».Каньє Вест приїдеКонцерт затримують рівно на півгодини. Люди чекають, але ще не нервують. Щоправда, до сцени вже не дістатися, там усе щільно заповнено фанатами.З’являються і усміхнені жінки з фан-клубу Олега Винника. З собою мають квіти і прапор із зображенням кумира.— Для нас це можливість відвідати ще не один концерт Олега Винника. Ми не боїмося, що Олег перейде в політику. Я впевнена, що творчість для нього — це головне, він не може жити без сцени і пісень, — розповідає Валерія Барон, організаторка-адміністраторка офіційної фан-групи Олега Винника «Многосчастьевск».— І для мене виступ артиста на заході якоїсь партії — це ще не привід прийти і проголосувати за неї.дивіться такожУтім першим під запалювання бенгальських вогнів виходить Поплавський. У піджаку, що переливається й виблискує, і в темних окулярах. Починає Михайло Михайлович культовим «Юним орлом». Все за класикою, так само як і декілька років тому в ефірі Першого національного, навіть оплески та сміх, що лунає з колонок, той самий.Після декількох пісень Поплавський визнає, що сьогодні він — не головна зірка. Каже, що лише на розігріві.— А, може, Винник і не вийде…, — провокативно з посмішкою каже Поплавський у перерві між піснями. — Ну здрастє, — чути з натовпу. — До нас скоро і Каньє Вест приїде, — долинає від молоді, яка пробивається вперед через натовп.Поплавський співає декілька пісень. Жінки зі сльозами на очах віддано слухають і підспівують тій, що про батьків.Остання пісня — і з’являється Винник. Атмосфера й настрій стрімко змінюються. Старші жінки, які сиділи на парапеті біля клумби, встають.— Кого більше любите — Винника чи Поплавського?— Ми вже старі, щоб когось любить, — каже Галина Семенівна.— Молодого ми любимо, — додає її подруга Валентина Миколаївна.Потім Галина Семенівна все-таки засоромлено зізнається:— Винника, канєшно, ми любимо.— А голосувати за кого будете?— А це секрет, ми не скажемо.Біля паркану, що відгороджує прихильників від сцени, стоять переважно жінки, ані сантиметру вільного. Вони знімають усе на телефони і підспівують кожній пісні.Одна з прихильниць навіть паралельно говорить по телефону і співає.Варто Виннику підняти палець — і перед ним уже океан рук.— Передайте йому, що я його абажаю!— «Ніно»! Давайте «Ніно»!— «Вовчицю»!Фанатки з першого ряду кричать у сподіванні, що Винник їх почує. І той або відчуває, або й чує, але бажання виконує — співає і «Ніно», і «Вовчицю».— Не пускають, мене не пускають. Он моя маленька внучка там і донька, їх пустили, — розповідає багатодітна мама, фастівчанка Віта, і водночас підспівує артисту.— А за «Аграрну партію» будете голосувати?— Да, чесно.Що далі від сцени, то настрої виборців змінюються.— Будете голосувати за «Аграрну партію»?— Ні, я буду за «Слугу народу», — каже фастівчанка Ніна. — А сьогодні прийшла просто на концерт.— А ви кого більше любите — Винника чи Поплавського?— Ні, я за іншу партію, не за аграрну, — додає подруга Ніни.Темніє, Олег Винник уже встиг змінити одяг, фанатки — втомитися, але концерт триває. Лише поодинокі прихильники починають розходитися.— Обвішаю ним усю-усю стіну в кімнаті.— А ти набрала плакатів?— Є трохи, — задоволенокаже жінка, показує на наповнений чорний пакет і прямує в протилежну сторону від центральної площі міста.А Лариса в бузковому костюмі, яка першою прийшла на концерт, і далі віддано слухає свого улюбленого співака.читайте також</t>
   </si>
   <si>
-    <t>young eagle young she-wolf report concert vinnik support agrarian poplavsky vakarchuk actor studio quarter showman pritula tyshchenko skichko parliamentary elections large number artist want to get in advice give a free concert deny reproach political agitation eternal player election field mykhailo poplavsky lead agrarian party ukraine decide use your main trump card support oleg vinnik together start a tour city ukraine journalist public try hour to stay young she-wolf young orlytsia go concert fastiv vinnik city from where music play concert vinnik shame answer saleswoman vegetable fruit immediately fastiv railway station go collect goods want to go love listen song fastiv city nearby kiev district once mykhailo poplavsky run for office majoritarian decide start your election tour city ukraine now run for office candidate deputy inna kostirya vice-rector kyiv national university culture art small agitation poster hung city together invitation concert vinnik poplavsky color style design similar servant people self-nominated notice bright poster announcement concert torn fence completely pasted announcement search for work housing impossible to do enough go sound closer square take place concert hear music hour builder nearby square lay tile path musician do soundcheck famous musical motif take turns advertising party huge screen set scene show video wheat field young poplavsky girl big scene square take place concert vinnik go listen laugh schoolgirl quickly run away square scene empty stocky man black glasses official suit central road block ride minibus sidewalk stand campaign tent homeland bus free travel pasted agitation majoritarian self-nominated Ruslan Solvara the day before yesterday start doing scene top climb say good concert tell woman tent Solvara elections rigged see try Yulia pull up business reach conversation tent later representative agrarian party Ukraine woman become circle listen carefully instructions to distribute campaign material correctly divide different tent remind concert receive hryvnia start working man assemble tent hour nearby scene Fastivchanka Larisa dressed in lilac suit shoulder tightly hold bag darker color winemaker TV constantly show concert come come leave selau corridor house culture paint girl carefully tone skin highlight eye hour leave scene instead light spacious hall large glass chandelier stele ready briefing Poplavsky winemaker displayed banner party light steady microphone play music like first table wedding cheerful so much shoot heel dance press gather journalist local edition planned artist surroundings security immediately take pictures majoritarian Inna Kostyra who decide to support Oleg leave village</t>
+    <t>young eagle young she-wolf report concert vinnik support agrarian poplavsky vakarchuk actor studio quarter showman pritula tyshchenko skichko parliamentary elections large number artist want to get in advice give a free concert deny reproach political agitation eternal player election field mykhailo poplavsky lead agrarian party ukraine decide use your main trump card support oleg vinnik together start a tour city ukraine journalist public try hour to stay young she-wolf young orlytsia go concert fastiv vinnik city from where music play concert vinnik shame answer saleswoman vegetable fruit immediately fastiv railway station go collect goods want to go love listen song fastiv city nearby kiev district once mykhailo poplavsky run for office majoritarian decide start your election tour city ukraine now run for office candidate deputy inna kostirya vice-rector kyiv national university culture art small agitation poster hung city together invitation concert vinnik poplavsky color style design similar servant people self-nominated notice bright poster announcement concert torn fence completely pasted announcement search for work housing impossible to do enough go sound closer square take place concert hear music hour builder nearby square lay tile path musician do soundcheck famous musical motif take turns advertising party huge screen set scene show video wheat field young poplavsky girl big scene square take place concert vinnik go listen laugh schoolgirl quickly run away square scene empty stocky man black glasses official suit central road block ride minibus sidewalk stand campaign tent homeland bus free travel pasted agitation majoritarian self-nominated Ruslan Solvara the day before yesterday start doing scene top climb say good concert tell woman tent Solvara elections rigged see try Yulia pull up business reach conversation tent later representative agrarian party Ukraine woman become circle listen carefully instructions to distribute campaign material correctly divide different tent remind concert receive hryvnia start working man assemble tent hour nearby scene Fastivchanka Larisa dressed in lilac suit shoulder tightly hold bag darker color winemaker TV constantly show concert come come leave selau corridor house culture paint girl carefully tone skin highlight eye hour leave scene instead light spacious hall large glass chandelier stele ready briefing Poplavsky winemaker displayed banner party light steady microphone play music like first table wedding cheerful so much shoot selection dance press gather journalist local edition planned artist surroundings security immediately take a picture majoritarian Inna Kostyra who decide to support Oleg leave village</t>
   </si>
   <si>
     <t>Операція «Нічна варта»: в Амстердамі починається масштабна реставрація картини Рембрандта. Фахівці художнього Державного музею в Амстердамі починають реставрацію монументального групового портрету «Нічна варта» Рембрандта Гарменсзона ван Рейна, написаного в XVII столітті.При цьому полотно, розміри якого складають 3,8 на 4,5 метра, вага — 337 кілограмів, залишиться на своєму місці — в Залі Слави амстердамського Рейксмузеума, повідомляє The Guardian.12 реставраторів працюватимуть над однією з найвідоміших і амбітних картин нідерландського митця близько 10 місяців усередині спеціально сконструйованої скляній камери, яку спроектував французький архітектор Жан-Мішель Вільмотт. Весь процес можна спостерігати як безпосередньо на місці, так і онлайн.Директор музею Тако Діббітс зазначив, що це буде «грандіозний захід» і «найбільший проект із дослідження і консервації в історії Рейксмузеума», який можна порівняти за масштабами із відновленням фресок Сікстинської капели у Ватиканському палаці.При цьому керівник не вказав вартість реставрації, яка почнеться 7 липня 2019 року. Він тільки повідомив, що це будуть «мільйони, принаймні протягом кількох наступних років». Він також зазначив, що реставратори та мистецтвознавці вже встигли порівняти її із військовою операцією.За свою історію «Нічна варта» перенісла кілька актів вандалізму. У 1700-х роках від неї були відрізані великі шматки, у 1911-му чоловік вдарив картину ножем, а у вересні 1939-го її евакуювали перед нападом нацистів і сховали у печері.Останній раз картину реставрували більше 40 років тому, коли психічно хворий відвідувач музею 12 разів ударив полотно хлібним ножем. Тоді фахівці змогли відновити цілісність полотна і заретушувати поверхню, але тепер перефарбування місцями пожовклі, що необхідно виправити.Рейксмузеум відвів приблизно вісім місяців на вивчення картини за допомогою новітніх технологій, які не були доступні під час попередніх реставрацій.«Зазвичай реставрація відбувається за закритими дверима. Але це дуже важлива картина, яку всі люблять, і ми відчуваємо, що публіка, яка володіє нею, має право бачити, що ми з нею робимо», — пояснив директор Рейксмузеума.Він згадав, як спостерігав за попередньою реставрацією «Нічної варти», коли був 9-річною дитиною.«Це дуже вражає, тому що ви бачите процес, як ніби перебуваєте в операційному залі», — сказав він.«Нічна варта» — назва, під якою традиційно відома картина Рембрандта «Виступ стрілецької роти капітана Франса Баннінга Кока і лейтенанта Віллема ван Рейтенбюрга». Нідерландський художник написав її в 1642 році на замовлення Гільдії Стрільців Амстердама. Рембрандт, на відміну від своїх попередників і колег-сучасників, не став розміщувати портретованих в одну горизонтальну лінію. Він виконав «динамічну п'єсу» — портрет роти на марші — де бійці громадянського ополчення та мешканці Амстердаму збираються з міських вулиць під високою аркою і готуються вирушити у важливих справах.Раніше кішка Падме британського мистецтвознавця та працівника BBC Бендора Гросвенора зіпсувала портрет 17 століття, придбаний ним за понад 6 тисяч доларів. Мистецтвознавець зазначив, що картину не вдасться повернути до початкового стану, а її реставрація буде коштувати стільки ж, скільки сама картина.</t>
@@ -427,7 +427,7 @@
     <t>Кличко подасть в суд на гендиректора «1+1» для «захисту честі і гідності». Міський голова Києва Віталій Кличко має намір подати позов про захист честі та гідності проти генерального директора телекомпанії «1+1» Олександра Ткаченка.Про це Кличко повідомив у коментарі «Радіо НВ».«В останні часи маніпуляції в передачах стосовно мера несподівано піднялися. І маніпуляції неприємні, я буду зараз подавати (позов — ред.) за захист честі та гідності до суду», — заявив Кличко.Він також навів приклад цих, на його думку, маніпуляцій.«Наприклад, озвучили, що скляний «міст Кличка» — вкрали гроші, що міст коштував стількісь грошей, а став удвічі дорожчим... Вартість мосту не зросла, вони зманіпулювали: взяли всі гроші, які пішли на Володимирську гірку, на парк Хрещатий, на укріплення стінок тощо», — сказав міськголова.Зі свого боку, «1+1 медіа» оприлюднила свою заяву, в якій ідеться, що «їм не страшно», і що Кличко використовує судову систему як «інструмент залякування незалежних ЗМІ», та не назвав, що саме викликало його обурення.Нагадаємо, п’ятий президент Петро Порошенко наприкінці березня заявив, що подасть позов проти каналу «1+1» — вимагатиме спростування інформації про нього, але не компенсації.У квіті група «1+1 медіа» подала позов проти Порошенка із вимогою спростувати «недостовірну інформацію» та виплатити 1 мільйон гривень компенсації.Нагадаємо, 25 травня у Києві відбулася церемонія відкриття пішохідного мосту між Аркою дружби народів та Володимирською гіркою. Його будівництво обійшлося у понад 400 мільйонів гривень.</t>
   </si>
   <si>
-    <t>Klitschko sue CEO protection honor dignity mayor of Kyiv Vitaliy Klitschko intention to sue protection honor dignity CEO of the television company Oleksandr Tkachenko Klitschko report comment radio recent manipulation broadcast regarding the mayor unexpectedly rise manipulation unpleasant sue ed protection honor dignity court declare Klitschko give an example opinion manipulation voice glass bridge Klitschko steal money bridge cost so much money twice as expensive cost of bridges grow manipulate take money go Volodymyrskyi hill park cross fortification wall etc. mayor side media publish statement go scary Klitschko use judicial system tool intimidation independent media call cause outrage remind president Petro Poroshenko at the end of March declare file a lawsuit channel demand refutation information compensation April media group file a lawsuit Poroshenko demand refute unreliable information pay a million hryvnia compensation remind May cue take place ceremony opening pedestrian bridge arch friendship people Volodymyr hill construction get by with more than hryvnia</t>
+    <t>Klitschko sue CEO protection honor dignity mayor of Kyiv Vitaliy Klitschko intention to sue protection honor dignity CEO of the television company Oleksandr Tkachenko Klitschko report comment radio recent manipulation broadcast regarding the mayor unexpectedly rise manipulation unpleasant file a lawsuit ed protection honor dignity court declare Klitschko give an example opinion manipulation voice glass bridge Klitschko steal money bridge cost so much money twice as expensive cost of bridges grow manipulate take money go Volodymyrskyi hill park cross fortification wall etc. mayor side media publish statement go scary Klitschko use judicial system tool intimidation independent media call cause outrage remind president Petro Poroshenko at the end of March declare file a lawsuit channel demand refutation information compensation April media group file a lawsuit Poroshenko demand refute unreliable information pay a million hryvnia compensation remind May cue take place ceremony opening pedestrian bridge arch friendship people Volodymyr hill construction get by with more than hryvnia</t>
   </si>
   <si>
     <t>Кандидат від «Слуги народу» Куницький підтвердив наявність у нього паспорта Ізраїлю. Кандидат в депутати від партії «Слуга народу» по округу № 169 в Харкові Олександр Куницький підтвердив, що має громадянство Ізраїлю.Про це він заявив 6 липня на зустрічі з виборцями в Харкові, повідомляє «UA:Харків».«Я емігрував зі своїм батьком в 12 років до Ізраїлю. У 2002 році вступив на службу в армію Ізраїлю. Чим я дуже пишаюся. У 2005 році, після армії, я повернувся в Україну. З того часу я проживаю в Україні», — сказав Куницький.Він також додав, що звернувся в посольство Ізраїлю із заявою про відмову від громадянства.«З моменту подачі моєї заяви в ЦВК, я написав заяву до Генерального консульства Ізраїлю в Києві про відмову від ізраїльського громадянства», — додав Куницький.Раніше Куницького звинуватили у тому, що він має громадянство Ізраїлю, через що він не може брати участь у виборах. Центрвиборчком розпочав перевірку. Водночас, сам кандидат інформацію про другий паспорт заперечував.читайте також</t>
@@ -463,7 +463,7 @@
     <t>До Одеси вперше доставили партію американської нафти. До Одеси 6 червня вперше в історії України доставили партію нафти зі Сполучених Штатів Америки.Про це повідомляє адміністрація Одеського морського порту.Згідно з інформацією, о 7:20 ранку на причалі №2Н Одеського порту було поставлено танкер Wisdom Venture, який йшов під прапором Гонконгу, що доставив з США 75 тис. тонн нафти. Партія нафти була закуплена ПАТ «Укртантнафта» для переробки на потужностях Кременчуцького НПЗ.Начальник Одеського порту Ігор Ткачук заявив, що їх підприємство має великий досвід роботи з нафтопродуктами. Він розповів, що у свій час через порт транзитом проходила у великих обсягах нафта для Мозирського НПЗ в Білорусі.«Новому грузопотоку з США також буде надано якісний сервіс по перевалці. Нафторайон порту являє собою великий універсальний термінал пропускною здатністю до 25 млн. тонн на рік і оснащений обладнанням для роботи практично з усіма видами нафтоналивних вантажів», — заявив Ткачук.Також в адміністрації Одеського морського порту заявили, що наступний танкер з нафтою може прибути до Одеси вже в серпні цього року.Нагадаємо, 4 липня Королівська морська піхота Великої Британії захопила нафтовий танкер у Гібралтарі, підозрюваний в постачанні нафти в Сирію в порушення санкцій ЄС.На борту танкера є громадяни України.</t>
   </si>
   <si>
-    <t>Odesa for the first time to deliver a batch of American oil Odesa June for the first time history Ukraine to deliver a batch of oil United States of America report the administration of the Odessa seaport according to information morning pier Odessa port to deliver the tanker wisdom venture go flag Hong Kong deliver the USA thousand tons of oil batch of oil purchased pat ukrtantnafta processing capacity Kremenchuk Odessa port Igor Tkachuk declare the enterprise extensive experience work oil product tell your port transit pass a large volume of oil Mozyr oil refinery Belarus cargo flow USA provide quality service transshipment Naftoraion port represent a large universal terminal throughput million tons equipped equipment work practically type oil tanker declare Tkachuk administration of the Odessa seaport declare the next tanker oil arrive Odesa August remind July Royal Marines Great Britain seize oil tanker Gibraltar suspected supply oil Syria violation sanction board tanker citizen Ukraine</t>
+    <t>Odesa for the first time to deliver a batch of American oil Odesa June for the first time history Ukraine to deliver a batch of oil United States of America report administration Odessa seaport according to information morning pier Odessa port deliver tanker wisdom venture go flag Hong Kong deliver USA thousand tons of oil batch of oil purchased pat ukrtantnafta processing capacity Kremenchuk Odessa port Igor Tkachuk declare enterprise extensive experience work oil product tell your port transit pass large volume of oil Mozyr oil refinery Belarus cargo flow USA provide quality service transshipment Naftoraion port represent large universal terminal throughput million tons equipped equipment work practically type oil tanker declare Tkachuk administration Odessa seaport declare next tanker oil arrive Odesa August remind July Royal Marines Great Britain seize oil tanker Gibraltar suspected supply oil Syria violation sanction board tanker citizen Ukraine</t>
   </si>
   <si>
     <t>Україна може відновити водопостачання до Криму в обмін на деокупацію Північної частини півострова — Бабін. Україна може запропонувати Росії відновити водопостачання через Північно—Кримський канал в обмін на деокупацію Північної частини анексованого Криму.Про це заявив колишній представник Президента України в Автономній Республіці Крим Борис Бабін у коментарі Громадському.Він зазначив, що одним із небагатьох важелів, які Україна може застосовувати до російської окупаційної адміністрації — непостачання води Північно-Кримським каналом. У середньостроковій перспективі, це знищує промисловий потенціал регіону та змушує Росію нести величезні збитки, або переходити до інших форм освоювання цих місцевостей, пояснив Бабін.На його думку, відновлення водопостачання 400-кілометровим каналом «буде крахом усіх надій на деокупацію, це буде державною зрадою у кримінально-правовому сенсі, і, звісно, це буде зрадою інтересів українського народу».За словами Бабіна, українська сторона може запропонувати переговори.«Наприклад, у нас є територія Північного Криму, це два мономіста - Красноперекопськ і Армянськ, які сьогодні найбільше страждають від відсутності води, бо підприємства скоро будуть закриватися, водні горизонти пусті, і звідти люди будуть їхати у першу чергу», — розповів Громадському колишній представник Президента України в АРК.Бабін вважає, що українська сторона може запропонувати РФ відновити водопостачання через Північно-Кримський канал в обмін на деокупацію Північної частини Криму, що допоможе уникнути гуманітарної катастрофи і перетворити півострів «на пустелю»«І це єдиний шлях забезпечити ці міста далі, бо за 2-3 роки, або за 5 років, залежно від карти дощів у Криму, це будуть міста-привиди. Росія має чітко сказати сама собі, а також населенню на окупованих територіях — так, ми хочемо, щоб тут ніхто не жив, і тому ми далі будемо вести таку політику. Або: ми хочемо вас врятувати, тому йдемо на переговори з Україною і будемо визначати формат вашого існування далі», — підсумував громадський і політичний діяч.Коментуючи пікет в окупованому Армянську за відновлення водопостачання Північно-Кримськомим каналом, що відбувся 5 липня, Бабін заявив, що російська окупаційна влада використовує громадських діячів для висування публічних вимог, оскільки безпосередньо зробити це вона не може.«Сьогодні ми бачимо черговий сплеск активності росіян, які хочуть цю воду, але мають велику політичну проблему — вони не можуть в цьому зізнатися. Адже вся російська пропаганда останні 5 років заточена під те, що процвітання півострова можливе і буде забезпечене без будь-якої участі України», — каже експредставник Президента в АРК.Нагадаємо, на півночі анексованого Криму в ніч з 23 на 24 серпня 2018 стався викид невідомої речовини. Російські ЗМІ про викид повідомили лише 27 серпня. Вони також зазначили, що у зв'язку з цим утворився маслянистий наліт на дахах будинків і листі дерев у місті Армянськ. На початку вересня 2018 окупаційна влада анексованого Криму вирішила зупинити завод «Кримський титан»через неконтрольовані викиди. Також стало відомо, що через викиди на заводі «Кримський титан» в анексованому Армянську евакуюють дітей. Вже в жовтні 2018 року «Кримський титан» відновив роботу. Жителі Армянська і Красноперекопська повідомляли про рецидив екологічного лиха, але окупаційна влада Криму цю інформацію заперечувала.В середині липня 2018 року Міністерство у справах тимчасово окупованих територій України оприлюднило дані дистанційного зондування за індексом NDVI — показником кількості активної рослинної біомаси. Дослідження міністерства підтверджують: посуха швидко змінює екосистему півострова.Наскільки серйозною сьогодні є проблема водозабезпечення окупованого півострова та як за 4 роки без дніпровської води змінилася кримська природа — у спеціальному випуску програми Громадське.Крим.читайте також</t>
@@ -475,13 +475,13 @@
     <t>На Одещині 5 липня п'ятеро людей зникли в катакомбах, їх вже знайшли. В Одеській області п'ятеро людей спустилися у катакомби, але не вийшли на поверхню.Про це повідомив прес-секретар заступника мера Одеси Микола Покровський на своїй сторінці в Facebook.Так, згідно з інформацією, група, в якій також була жінка, 5 липня спустилася в катакомби системи «Центральна», що в селі Холодна Балка Біляївського району.6 липня о 9:00 вони не вийшли на зв'язок.Для пошуків зниклих організували добровольчу групу. Місцеві рятувальники попросили допомоги у спеціалістів, які мають досвід пошукових робіт під землею.Пізніше Покровський повідомив, що людей знайшли, всі вони живі.Нагадаємо, у Дніпропетровській області правоохоронці знайшли тіло дівчинки, яку розшукували з 29 червня, і затримали підозрюваного у вбивстві чоловіка.</t>
   </si>
   <si>
-    <t>Odessa July person disappear catacomb find Odessa region person go down catacomb exit surface report press secretary deputy mayor of Odesa Mykola Pokrovsky facebook page according to information group woman July go down catacombs system central village cold balka beliaivskogo July exit search for missing organize volunteer group local rescuer ask for help specialist have experience search work land Pokrovsky report person find alive remind Dnipropetrovsk region law enforcement officer find body girl who was wanted June detain suspect murder man</t>
+    <t>Odessa July person disappear catacomb find Odessa region person go down catacomb exit surface report press secretary deputy mayor Odesa Mykola Pokrovsky facebook page according to information group woman July go down catacombs system central village cold balka beliaivskogo July exit search for missing organize volunteer group local rescuer ask for help specialist have experience search work land Pokrovsky report person find alive remind Dnipropetrovsk region law enforcement officer find body girl wanted June detain suspect murder man</t>
   </si>
   <si>
     <t>Т.в.о. голови СБУ Баканов представив нового керівника відомства на Закарпатті. Тимчасовий виконувач обов’язків голови Служби безпеки України Іван Баканов представив нового керівника відомства в Закарпатській області Івана Рудницького.Про це повідомляє прес-служба СБУ у Facebook.Представлення відбулося за участі президента України Володимира Зеленського на нараді з питань облаштування прикордонної, митної та дорожньої інфраструктури в Ужгороді.«В Ужгороді т.в.о. голови Служби представив Івана Рудницького на посаду керівника Управління СБУ в Закарпатській області», — йдеться у повідомленні.Баканов визначив перед новопризначеними керівниками регіональних управлінь СБ України першочергові завдання із забезпечення державної безпеки, зокрема боротьби з контрабандою та протидії системній корупції.Раніше президент Володимир Зеленський провів кадрові зміни Служби безпеки. Він призначив, начальника головного слідчого управління СБУ, а також двох заступників голови Служби безпеки.</t>
   </si>
   <si>
-    <t>head of SBU Bakanov to introduce the new head of the Transcarpathia department temporary acting head of the Security Service of Ukraine Ivan Bakanov to introduce the new head of the department Transcarpathian region Ivan Rudnytskyi to inform the press service of the SBU facebook presentation to take place the participation of the President of Ukraine Volodymyr Zelenskyi at the meeting issues of arrangement border customs road infrastructure Uzhgorod Uzhgorod head of the service to introduce Ivan Rudnytskyi position head of SBU Zakarpattia Oblast to go message Bakanov to determine the newly appointed head of the regional administration of the SBU of Ukraine, the primary task is to ensure state security, in particular, the fight against smuggling, countering systemic corruption, President Volodymyr Zelenskyi, conduct personnel changes, the security service, appoint the head of the chief investigator of the Security Service, deputy head of the security service</t>
+    <t>SBU Chairman Bakanov introduce new head of department Transcarpathia interim head of security service Ukraine Ivan Bakanov introduce new head of department Transcarpathian region Ivan Rudnytsky report press SBU Facebook presentation take place participation President Ukraine Volodymyr Zelensky meeting issues of arrangement border customs road infrastructure Uzhgorod Uzhgorod Head of service introduce Ivan Rudnytsky position head of department SBU Transcarpathian region go message Bakanov determine newly appointed head of regional department SBU Ukraine priority task of ensuring state security in particular fight against smuggling counteraction systemic corruption President Volodymyr Zelensky conduct personnel change security service appoint head of chief investigator department SBU deputy head security service</t>
   </si>
   <si>
     <t>В анексованому Армянську пройшов пікет за відновлення водопостачання Північно-Кримським каналом. Ванексованому Армянську ввечері 5 липня пройшов пікет за відновлення водопостачання анексованого півострова Північно—Кримським каналом.У коментарі «Крим.Реалії» проросійський активіст Сергій Акімов підкреслив, що акція була заздалегідь узгоджена з російською владою міста.За словами організаторів, напередодні вони розраховували побачити до 500 людей, але в підсумку до пікету доєдналися близько 100-150, переважна більшість — люди похилого віку.«Молодь, напевно, не цікавить дане питання, а зацікавить у серпні, коли температура зміниться і, можливо, повториться трагедія, яка була в минулому році (йдеться про хімічні викиди на заводі «Кримський титан» у серпні 2018 року – ред.)», — пояснив журналістам Владислав Пивовар, організатор акції за подачу води із материка.Україна забезпечувала до 85% потреб Криму в прісній воді через 400-кілометровий Північно-Кримський канал, що з'єднує головне русло Дніпра з півостровом. Після анексії Криму Російською Федерацією в 2014 році, постачання води на півострів припинили. Офіційна причина — окупаційна російська влада, не уклавши договір із Держводагентством, використовувала воду безкоштовно, борги досягли 1,5 мільйонів гривень.В середині липня 2018 року Міністерство у справах тимчасово окупованих територій України оприлюднило дані дистанційного зондування за індексом NDVI — показником кількості активної рослинної біомаси. Дослідження міністерства підтверджують: посуха швидко змінює екосистему півострова.Наскільки серйозною сьогодні є проблема водозабезпечення окупованого півострова та як за 4 роки без дніпровської води змінилася кримська природа — у спеціальному випуску програми Громадське.Крим.Нагадаємо, на півночі анексованого Криму в ніч з 23 на 24 серпня 2018 стався викид невідомої речовини. Російські ЗМІ про викид повідомили лише 27 серпня. Вони також зазначили, що у зв'язку з цим утворився маслянистий наліт на дахах будинків і листі дерев у місті Армянськ. На початку вересня 2018 окупаційна влада анексованого Криму вирішила зупинити завод «Кримський титан»через неконтрольовані викиди. Також стало відомо, що через викиди на заводі «Кримський титан» в анексованому Армянську евакуюють дітей. Вже в жовтні 2018 року «Кримський титан» відновив роботу. Жителі Армянська і Красноперекопська повідомляли про рецидив екологічного лиха, але окупаційна влада Криму цю інформацію заперечувала.читайте також</t>
@@ -535,7 +535,7 @@
     <t>У Швеції археологи відкопали вікінга з собакою, конем і кораблем. В районі шведського міста Уппсала на подвір'ї середньовічної церкви археологи розкопали рештки вікінга, похованого разом з собакою, конем та цілим кораблем.Про це повідомляє BBC.Так, вчені знайшли дві «корабельні могили», одна з яких збереглася майже повністю.Чоловік був похований не менше тисячі років тому і був, мабуть, видатним воїном або вождем. У могилу вікінга поклали також його меч, спис і щит, а також прикрашений різьбленням гребінець.Могили, коли цілий човен з небіжчиком всередині закопували в землю — вкрай рідкісні, оскільки давні скандинави зазвичай спалювали тіла померлих.За всю історію розкопок у Швеції було виявлено сім таких закопаних човнів, у Норвегії — три. Подібні корабельні могили» вікінгів були виявлені і в Данії, і в Британії. На думку шведських вчених, швидше за все, вони належать або до епохи вікінгів (800 - 1050 рр. н.е.), або до більш раннього вендельского періоду, що завершив германський залізний вік у історії Швеції (близько 550-800 рр. н.е).Кістки тварин, похованих з господарем, були у носовій частині корабля, а рештки людини — в кормовійЗбереглися не тільки скелети чоловіка, собаки і коня, а й залізні заклепки та дерев'яні частини човна, довжина якого становить сім метрів.Частина Уппсальских знахідок буде виставлена ​​в Стокгольмському історичному музеї восени 2019 року.Нагадаємо, у кінці червня біля південного узбережжя Кіпру знайдено затонуле давньоримське судно, що перевозило амфори, швидше за все із Сирії та Сицилії.</t>
   </si>
   <si>
-    <t>Sweden archaeologist dig up Viking dog horse ship district Swedish city Uppsala medieval church archaeologist dig up remains Viking buried together dog horse whole ship report scientist find ship grave one preserved completely man buried thousand probably prominent warrior chieftain grave Viking put sword spear shield decorated carving comb grave whole boat dead inside buried earth extremely rare because ancient Scandinavian burn body of the dead history excavation Sweden discover such buried boat Norway similar ship grave Viking discovered Denmark Britain opinion Swedish scientist rather belong to Viking era 2000 early Vendel period complete Germanic Iron Age history Sweden 2000 animal buried master bow part ship remains man stern preserved skeleton man dog horse iron rivet part boat length constitute meter part Uppsala find exhibited Stockholm Historical Museum autumn remind end of June southern coast of Cyprus find sunken ancient Roman ship transport amphora faster Syria Sicily</t>
+    <t>Sweden archaeologist dig up Viking dog horse ship district Swedish city Uppsala medieval church archaeologist dig up remains Viking buried together dog horse whole ship report scientist find ship grave one preserved completely man buried thousand probably prominent warrior chieftain grave Viking put sword spear shield decorated carving comb grave whole boat dead inside buried earth extremely rare because ancient Scandinavian burn body of the dead history excavation Sweden discover such buried boat Norway similar ship grave Viking discovered Denmark Britain opinion Swedish scientist rather belong to Viking era 2000 early Vendel period complete Germanic Iron Age history Sweden 2000 animal buried master bow part ship remains man stern preserved skeleton man dog horse iron rivet part boat length constitute meter part Uppsala find exhibited Stockholm Historical Museum autumn remind end of June southern coast of cyprus find sunken ancient roman ship transport amphora faster syria sicily</t>
   </si>
   <si>
     <t>В Афганістані внаслідок потужного вибуху загинули щонайменше 12 людей, ще 179 поранені. Внаслідок вибуху автомобіля, скоєного бойовиком—смертником, в багатолюдному районі міста Газні в Афганістані щонайменше 12 людей загинули і 179 дістали поранення.Про це повідомляє «Радіо Свобода».Згідно з інформацією, група бойовиків руху «Талібан» взяла на себе відповідальність за напад.Цього ж дня його представники зустрілися з офіційними особами зі США для нового раунду мирних переговорів в Катарі.Так, за даними місцевої влади, об’єктом для нападу в Газні став офіс Національного управління безпеки. Водночас повідомляється, що понад 50 поранених — це діти зі школи, що розташована неподалік.Крім того, у МОЗ Афганістану повідомили, що 13 людей у критичному стані транспортували до лікарні в столиці Кабулі.Раніше повідомлялось, що бойовики терористичного руху «Талібан» убили щонайменше 26 членів проурядового ополчення на півночі Афганістану.Нагадаємо, 9 травня 9 людей стали жертвами атаки на американську неурядову організацію Counterpart International бойовиками терористичним угрупування «Талібан» у Кабулі. Ще 20 мирних жителів дістали поранення.Талібан — радикальний ісламістський рух, що діє в Афганістані та Пакистані. Виник у 1994 році. Його перші члени вербувалися з афганських біженців, які залишили Афганістан через війну 1979-1989 рр. і отримували релігійну освіту на території Пакистану. Назва руху походить від арабського «таліб» — учень. Сьогодні, за різними оцінками, чисельність бойовиків «Талібан» становить від 25 до 45 тисяч людей. У 2003 році Радою Безпеки ООН рух визнано терористичною організацією.</t>
@@ -649,7 +649,7 @@
     <t>Упродовж доби в Україні зареєстрували 4 статеві злочини проти дітей — поліція. Лише протягом однієї доби 8 липня правоохоронці зареєстрували чотири статеві злочини проти дітей.Про це повідомив перший заступник голови Нацполіції В’ячеслав Аброськін.За його словами, у Львівській та Миколаївській області підозрюваними у зґвалтуванні є 24-річні чоловіки, першого затримали, другого оголосили в розшук.На Тернопільщині чоловік 1964 року народження зізнався у розбещенні дітей, а у Вінницькій області підозрюваний у зґвалтуванні — чоловік 1959 року народження.«І це тільки ті факти злочинів, де батьки перебороли страх та звернулися до поліції, а скільки ще латентних статевих злочинів скоюються відносно дітей, можна лише здогадуватися», — зазначив Аброськін.Цю інформацію він навів, пояснюючи необхідність ухвалення парламентом законопроекту №6607, який передбачає створення єдиного реєстру педофілів та запровадження добровільної хімічної кастрації для хворих на педофілію.3 липня профільний комітет Верховної Ради рекомендував депутатам схвалити цей документ.</t>
   </si>
   <si>
-    <t>during the day Ukraine register a sex crime child police within a day July law enforcement officer register a sex crime child report deputy head of the national police Abroskin word Lviv Mykolaiv region suspect rape man first detain second announce search Ternopil region man birth confess molestation child Vinnytsia region suspect rape man birth fact crime father overcome fear contact the police latent sex crime commit relative to the child, guess, note, abroskin, information, provide, explaining the need for adoption of the parliament, the draft law, provide for the creation of a unified register of pedophiles, the introduction of voluntary chemical castration, the patient, July, the profile committee, the Supreme Council, recommend the deputy to approve the document</t>
+    <t>during the day ukraine register a sexual crime child police during the day july law enforcement officer register a sexual crime child report deputy head of the national police abroskin word lviv mykolaiv region suspect rape man first detain second declare wanted ternopil region man birth confess corruption child vinnytsia region suspect rape man birth fact crime father overcame fear contact police latent sexual crime commit relative child guess note abroskin information provide explaining necessity adoption parliament bill provide creation unified register pedophile introduction voluntary chemical castration sick july profile committee supreme council recommend deputy approve document</t>
   </si>
   <si>
     <t>Влада Парижа оголосила про надзвичайну ситуацію з кліматом. У зв’язку з рекордною спекою у Франції влада Парижа оголосила надзвичайну кліматичну ситуацію.Про це повідомляє France24.У мерії Парижа заявили про необхідність дотримуватися цілей Паризької кліматичної угоди, а також оголосили про створення «кліматичної академії» для освіти людей з питань зміни клімату.За даними організації The Climate Mobilization, вже близько 650 місцевих органів влади в різних містах і населених пунктах у всьому світі оголосили про надзвичайну кліматичну ситуацію.1 травня 2019 року парламент Великої Британії першим у світі оголосив надзвичайну ситуацію, згодом парламент Ірландії ухвалив аналогічне рішення.Раніше повідомлялося, що захід Європи в 2019 році зіткнеться з аномальною спекою. Найбільше вона торкнулася Іспанії та Франції, де влада оголошувала найвищі рівні небезпеки через погоду. В 11 провінціях на сході та в центрі Іспанії 27 червня температура була вища за 40 градусів за Цельсієм.На півдні Франції 28 червня був встановлений рекорд найвищої температури повітря за всю історію метеоспостережень в країні. Протягом дня в комуні Карпентра в південному департаменті Воклюз повітря прогрілося до 44,3 градуси за Цельсієм.Нагадаємо, в Індії з початку літа через найтривалішу спеку в історії країни загинули щонайменше 36 людей.Червень 2019 року став найспекотнішим у Києві за 139 років спостереження, середньомісячна температура перевищила норму на 5 градусів.Паризька угода — міжнародна угода 2015 року, яка регулює заходи зі зменшення викидів вуглекислого газу. Відповідно до неї, індустріально розвинуті країни мають вжити всі можливі заходи до 2020 року заради стримання росту глобальної температури в межах 1,5-2 градусів Цельсія до кінця сторіччя.</t>
@@ -673,7 +673,7 @@
     <t>Кум дружини Медведчука, який йде в Раду від «Слуги народу», не має права балотуватися — «Схеми». Номер 22 у списку «Слуги народу» Андрій Холодов, який є кумом дружини Віктора Медведчука Оксани Марченко, не може балотуватися в парламент, бо останні 5 років не жив безперервно в Україні.Про це повідомляють «Схеми».Як дізнались журналісти від джерел в Прикордонслужбі, Холодов «живе на дві країни» — в Австрії та Україні.«Найбільш показовим є 2015 рік: Андрій Холодов щонайменше 204 дні протягом цього року знаходився за межами України. Журналісти проаналізували дані його перельотів з початку січня по кінець грудня, переважна більшість яких — до Відня», — йдеться в матеріалі.Водночас за українським законодавством, безперервним проживання в Україні вважається, якщо разовий виїзд особи за кордон у приватних справах не перевищував 90 днів, а в сумі за рік — 180 днів.Таким чином, Холодов порушує вимогу виборчого законодавства, яка забороняє балотуватися в депутати особам, що не проживали в Україні останні 5 років.Сам Холодов на прохання журналістів про коментар не відповів.Раніше «Схеми» повідомляли, що Холодов є кумом дружини Медведчука, а у його родини журналісти знайшли маєток в елітному районі Відня за 6 мільйонів євро. Біля цієї вілли нині проживає український олігарх Дмитро Фірташ.Глава партії Дмитро Разумков відмовився коментувати інформацію «Схем» про Холодова та інших сумнівних кандидатів від «Слуги народу».На з'їзді партії «Слуга народу» 7 липня виключили 7 кандидатів з її списку, проте Холодов залишився.читайте також</t>
   </si>
   <si>
-    <t>godfather wife Medvedchuk go council servant people right to run scheme number list servant people Andriy Kholodov godfather wife Viktor Medvedchuk Oksana Marchenko run parliament last live Ukraine report learn journalist source border service Kholodov live country Austria Ukraine indicative Andriy Kholodov at least day during stay border Ukraine journalist analyze data flight January end December overwhelming majority Vienna go material at the same time Ukrainian legislation continuous residence Ukraine considered one-time departure person border private matter exceed day amount day such rank Kholodov violate requirement electoral legislation prohibit run deputy person live Ukraine last Kholodov request journalist comment reply scheme report Kholodov godfather wife Medvedchuk family journalist find estate elite district Vienna euro villa currently live Ukrainian oligarch Dmitry Firtash party leader Dmitry Razumkov refuse to comment information scheme Kholodov dubious candidate servant party servant people July exclude candidate list Kholodov</t>
+    <t>godfather wife Medvedchuk go council servant people right to run scheme number list servant people Andriy Kholodov godfather wife Viktor Medvedchuk Oksana Marchenko run parliament last live Ukraine report find out journalist source border service Kholodov live country Austria Ukraine indicative Andriy Kholodov at least day during be border Ukraine journalist analyze data flight January end December overwhelming majority Vienna go material at the same time Ukrainian legislation continuous residence Ukraine considered one-time departure person border private matter exceed day amount day such rank Kholodov violate requirement electoral legislation prohibit run deputy person live Ukraine last Kholodov request journalist comment reply scheme report Kholodov godfather wife Medvedchuk family journalist find estate elite district Vienna euro villa currently live Ukrainian oligarch Dmitry Firtash party leader Dmitry Razumkov refuse comment information scheme Kholodov dubious candidate servant party servant people July exclude candidate list Kholodov</t>
   </si>
   <si>
     <t>Помер мільярдер і колишній кандидат у президенти США Росс Перо. У Техасі у віці 89 років помер бізнесмен, філантроп і мільярдер Росс Перо.Як повідомляє «Бі-бі-сі», Перо помер в оточенні своєї родини у Далласі. У лютому у нього знайшли лейкемію.У 1962 році Перо заснував IT-компанію Electronic Data Systems, а пізніше і Perot Systems. Після їх продажу бізнесмен став мільярдером.У 1992 році підприємець вперше взяв участь у виборах президента США як незалежний кандидат. Він зайняв третє місце з 19 відсотками голосів, поступившись республіканцеві Джорджу Бушу-старшому і демократу Біллу Клінтону. Через чотири роки Перо знову брав участь у президентських перегонах, його підтримали вісім відсотків виборців, із великим відривом поступившись Біллу Клінтону (49,2%) і Бобу Доулу (40,7%).Нагадаємо, 17 червня американська акторка, художниця, письменниця та «джинсова королева» 1970-х і 80-х років Глорія Лаура Морган Вандербільт померла у віці 95 років.читайте також</t>
@@ -685,7 +685,7 @@
     <t>Росія проводить масштабні військові навчання в Криму. Росія проводить масштабні військові навчання в анексованому Криму: морська піхота виконує парашутні стрибки з гелікоптера, а флот разом з авіацією відпрацьовує нанесення удару по кораблях «умовного противника».Про це повідомляє Міністерство оборони РФ.9 липня підрозділи морської авіації і протиповітряна оборона відпрацювали пошук і знищення десантного загону кораблів умовного противника.Бомбардувальники Су-24 та винищувачі Су-27 виконали нанесення бомбового удару по морських цілях. Загалом було задіяно 5 літаків, 2 безпілотні літальні апарати та 4 кораблі.8 липня морська піхота Чорноморського флоту виконувала парашутні стрибки з гелікоптера МІ-8. У навчаннях беруть участь 300 російських військовослужбовців.4 липня російські військові в анексованому Криму провели навчання зі знищення крилатих ракет умовного противника системами С-400 «Тріумф» і комплексами «Панцир».Нагадаємо, в Міноборони РФ заявляли, що російський флот проводить бойові маневри, аби «контролювати» навчання України і НАТО.В Україні 1 липня розпочалися українсько-американські навчання «Сі Бриз-2019», які триватимуть до 12 липня на території Одеської, Миколаївської та Херсонської областей. У навчаннях беруть участь близько 30 кораблів, 30 літальних апаратів і більше 900 військових з різних країн світу.У межах цих навчань в Україну вперше прибуло американське судно забезпечення типу JHSV.</t>
   </si>
   <si>
-    <t>Russia conducts a large-scale military exercise Crimea Russia conducts a large-scale military exercise annexed Crimea Marine Corps perform a parachute jump helicopter fleet together aviation practice striking a ship conditional notify the Ministry of Defense July unit naval aviation air defense practice search for destruction amphibious detachment ship conditional enemy bomber fighter carried out a bombing strike naval target In general engage the aircraft unmanned aerial vehicle July Marine Corps Black Sea Fleet perform a parachute jump helicopter training participate Russian July Russian military annexed Crimea conduct destruction training cruise missile conditional enemy system triumph complex remind the Ministry of Defense of the Russian Federation to declare the Russian Navy conduct a combat maneuver to control the training Ukraine Ukraine July begin Ukrainian American training Continue July Odesa Mykolaiv territory Kherson region training participate ship aircraft military various country world border training Ukraine first arrive American vessel provision type jhsv</t>
+    <t>Russia conducts large-scale military exercises Crimea Russia conducts large-scale military exercises annexed Crimea Marines perform parachute jump helicopter fleet together aviation practice strike ship conventional report ministry defense July unit naval aviation anti-aircraft defense practice search destruction landing party ship conventional enemy bomber fighter carried out bombing strike sea target In general use aircraft unmanned aerial vehicle July Marines Black Sea Fleet perform parachute jump helicopter training participate Russian July Russian military annexed Crimea conduct training destruction cruise missile conventional enemy system Triumph complex remind Ministry of Defense of the Russian Federation declare Russian fleet conduct combat maneuver to control training Ukraine Ukraine July begin Ukrainian American training continue July territory Odessa Mykolaiv Kherson region training participate ship aircraft military different country world border training ukraine first arrive american ship supply type jhsv</t>
   </si>
   <si>
     <t>На вулицях Києва з’являться 600 нових камер відеоспостереження. У 2019 році система відеоспостереження Києва поповниться щонайменше 600 новими камерами. Зокрема камери встановили на пішохідному мосту між Володимирською гіркою і Аркою дружби народів.Про це повідомив заступник голови Київської міської державної адміністрації Дмитро Давтян.За його словами, зараз система відеоспостереження Києва налічує близько 7 тисяч камер «із сучасним функціоналом».Більшість нових камер встановлять у місцях масового перебування людей, біля пам’яток культурної спадщини та у паркових зонах. Зокрема 10 відеокамер встановили на новому пішохідному мосту між Аркою дружби народів та Володимирською гіркою.«Там встановлено 10 відеокамер, дві з яких роботизовані — мають широкий огляд та функцію розпізнавання обличь», — розповів Давтян.Нагадаємо, 25 травня у Києві відбулася церемонія відкриття пішохідного мосту між Аркою дружби народів та Володимирською гіркою. Його будівництво обійшлося у понад 400 мільйонів гривень.Раніше швейцарська архітектурна компанія заявила про незаконне використання її концепції й конструктивних рішень при будівництві пішохідно-велосипедного мостового переходу в Києві. У КМДА заявили, що міст будують за українським проектом.</t>
@@ -721,7 +721,7 @@
     <t>Українського мандрівника випустили з іранської в'язниці. Українського блогера і мандрівника Артема Суріна 10 липня звільнили з іранської в'язниці. Зараз він в Азербайджані, звідки планує поїхати в Баку до друзів, а потім додому в Україну.Про це повідомив сам Артем у FacebookСуріна, який здійснює навколосвітню подорож, 8 липня затримали в Ірані за те, що він вів зйомку за допомогою дрона. Йому закидали шпигунство. Після звільнення з тюрми його одразу забрали в посольство України.«Я був фактично евакуйований нашими дипломатами з Ардакана, і укритий в безпечному місці — посольстві України», — розповів він.Там я побачив, усвідомив, і був вражений тією підтримкою, яку надавали дипломати тут, і багато людей в Україні, поки я був в іранської в'язниці. Я дуже вдячний Вам», — зазначив він.Зазначимо, що в рекомендаціях Міністерства закордонних справ України подорожуючим в Іран наголошується на забороні вести зйомку в багатьох місцях.«В Ірані суворо заборонено фотографувати державні установи, військові об’єкти та осіб в уніформі. Відеозйомка в більшості громадських місць, у портах та прикордонних районах країни обмежена», — пише відомство.МЗС радить звертати увагу на обмежувальні знаки, оголошення та повідомлення.«У разі виявлення правоохоронцями зйомки заборонених місць, підозрювана особа може бути заарештована за звинуваченням у шпіонажі», — попереджають у відомстві.Нагадаємо, 4 липня поліцейські і митні органи Гібралтару затримали іранський танкер, частина членів екіпажу якого — українці. Танкер звинувачують у порушенні санкцій проти Сирії, проте члени екіпажу проходять у справі як свідки.</t>
   </si>
   <si>
-    <t>Ukrainian traveler release Iranian Ukrainian blogger traveler Artem Surina July release Iranian Azerbaijan from where to plan to go tank friend home Ukraine report Artem Facebook Surina carry out a round-the-world trip July detain Iran conduct filming help drone throw espionage release prison immediately pick up embassy Ukraine actually evacuated diplomat Ardakan sheltered safe place embassy Ukraine tell see realize amazed support which provide diplomat person Ukraine Iranian grateful note note recommendation ministry foreign Ukraine traveling Iran emphasize prohibition conduct filming many place Iran strictly prohibit photographing state institution military person uniform video recording most public place port border area country limited write department MFA advise pay attention restrictive sign announcement message case detection law enforcement officer filming prohibited place suspect person arrested accusation espionage warn department remind July police customs authority Gibraltar detain Iranian tanker part crew member Ukrainian tanker accuse violation sanction Syria crew member pass case witness</t>
+    <t>Ukrainian traveler release Iranian Ukrainian blogger traveler Artem Surina July release Iranian Azerbaijan from where to plan to go tank friend home Ukraine report Artem Facebook Surina carry out a round-the-world trip July detain Iran conduct filming help drone throw espionage release prison immediately pick up embassy Ukraine actually evacuated diplomat Ardakan sheltered safe place embassy Ukraine tell see realize impressed support which provide diplomat person Ukraine Iranian grateful note note recommendation ministry foreign Ukraine traveling Iran emphasize prohibition conduct filming many place Iran strictly prohibit photographing state institution military person uniform video recording most public place port border area country limited write department MFA advise pay attention restrictive sign announcement message case detection law enforcement officer filming prohibited place suspect person arrested accusation espionage warn department remind July police customs authority Gibraltar detain Iranian tanker part crew member Ukrainian tanker accuse violation sanction Syria crew member pass case witness</t>
   </si>
   <si>
     <t>Без теми</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">«Команди, якій би я довіряв повністю і яка би відповідала моїм очікуванням, я не знайшов», — Павло Клімкін. Міністр закордонних справ Павло Клімкін бачився з новообраним президентом Зеленським лише після інавгурації. Відтоді не говорив і з експрезидентом Петром Порошенком. Він не домовився про похід на вибори з лідером партії «Голос» Святославом Вакарчуком.Топ-дипломат заявив про свою відставку ще до того, як Зеленський обійняв свою посаду, однак Верховна Рада її не прийняла.Як працює міністерство і як зараз формується зовнішня політика України? За яких обставин мала б відбутися зустріч із Путіним і за якими «червоними лініями» варто стежити?Ситуація із захопленими Москвою моряками, засуджений РФ політв’язень, що відбуває свій строк в Україні, підсумки 5-річної роботи, та як далі Україні будувати відносини зі світом – в інтерв’ю Клімкіна Громадському.Цей тиждень почався зі звернення президента Зеленського щодо зустрічі з Путіним. Він говорив, що Мінський формат ми ніби не порушуємо, але він запрошує Трампа, Терезу Мей, Меркель, наших західних партнерів на зустріч до Мінська. Чи були якісь доручення?Коли мені кажуть: а можна так спілкуватися? Я кажу: абсолютно без проблем. Твітами спілкуються? Спілкуються. Чому б Зеленському не спілкуватися за допомогою відео?Насправді наші партнери зараз над цим міркують. Оскільки заздалегідь це відео обговорювалося, але їх про це не попереджали. Тобто МЗС Франції й інші міркують і будуть обговорювати.Але бачите, Путін вийшов втомлений після складної ночі дискусії в Радбезі, не сказав: зустріч — так зустріч, Мінськ — так Мінськ, здаюся — так здаюся. Тому ще доведеться попрацювати.Як ви особисто спілкуєтеся з президентом Зеленським?Я зараз перебуваю у відпустці і не здійснюю оперативного керівництва міністерством. Але я не хочу, щоб була будь-яка дискусія всередині, оскільки назовні ми маємо бути єдині. Тому я сьогодні я у відпустці.В попередніх інтерв'ю ви згадували, що замало було цієї комунікації. Тож ви зустрічалися, чи ще тільки перед інавгурацією?Це було перед інавгурацією. Це право президента Зеленського — будувати комунікацію, координацію. Наразі ані стратегії в нас немає, ані системи.Я сподіваюся, що після парламентських виборів це все буде. Яким чином — не запитуйте мене, я не знаю, це не я буду будувати. Я давно сказав, що чесно хочу піти у відставку і займатися чимось іншим.До виборів два тижні, все одно буде формуватися уряд. Як зараз працює міністерство?Політичне лідерство — це важливо, але є професійна команда дипломатів. Я скажу одну річ: я не знаю, хто далі буде менеджити зовнішню політику, але я проти того, щоб її менеджили.Менеджмент у зовнішній політиці не проходить. Має бути політичний драйв, і це повинні бути люди з принципами і переконанням. А як це буде побудовано — це питання до нової команди.Ще до того, як ви пішли у відпустку, вашу заступницю Лану Зеркаль у перший же день призначили в Адміністрацію президента. Згодом указ зник із сайту, а пані Зеркаль написала, що це непорозуміння, і що її поки що не звільнили. Ви її тоді не звільняли?Я точно не звільняв. Усе було просто. Ви маєте запитати в тих, хто призначав, і в тих, хто не призначав. Може, я зараз щось скажу, що вплине на шанси когось у майбутніх призначеннях.Ми всі — достойні люди і професіонали. Ми самі ухвалюємо рішення. Лана своє рішення ухвалила і я його поважаю.Ви радили цій команді, скажімо, Вадима Пристайка, вашого колишнього заступника, зараз уже посла в НАТО.Я назвав кандидату в президенти Зеленському декілька прізвищ, серед яких були Вадим і Лана. Інших називати не буду.Ви з ними комунікуєте? Наприклад, з паном Пристайком?Звичайно. Коли потрібно, в рутинних питаннях.Але до таких подій, як поїздка до Торонто чи саміт Україна-ЄС, який готувався, ви вже не мали стосунку?В Торонто я мав їхати, але свідомо вирішив цього не робити. Багато друзів мені телефонували, зокрема — українських канадців, мовляв, давай обговоримо, порозуміємося. Але я не хочу, щоб ця дискусія взагалі велася. Я поговорив з організаторами цього форуму. Я все одно намагався піти цього тижня у відпустку. Торонто міг би бути останнім акордом. Відповідно, останній акорд був інший.З колишнім президентом Петром Порошенком ви комунікуєте? Телефонували?Із дня інавгурації ми не розмовляли жодного разу.Ви казали, що йдете в політику. Чому не з «Європейською солідарністю»?Дуже просто. По-перше, у мене були пропозиції, не буду казати від кого. Мене розкрутили на те, що я вів перемовини зі Славою Вакарчуком. Але команди, якій би я довіряв повністю і яка би відповідала моїм очікуванням, я не знайшов.По-друге, я вважаю, що настав час зробити нелідерську команду в цій країні. Такі приклади були, про комуністичну партію не будемо згадувати, але був «Народний рух».Усі проекти, які я бачу зараз, — суто лідерські. З ними політику в Україні аж ніяк змінити не можна. Тому я сказав, що я з друзями і тими, хто поділяє мої переконання, буду поступово будувати на довгу перспективу таку команду.А «Європейській солідарності» я бажаю успіху, хоча вони самі себе призначили захищати і ЄС, і НАТО. Тобто це їхнє питання — яким чином вони позиціонують, де вони є, для чого вони є в політиці тощо.ЧИТАЙТЕ ТАКОЖ усе про позачергові парламентські вибориЩо відбувається з українськими моряками? Які були домовленості, коли ви ще були в курсі справи? Чи міг бути пакет «азовських санкцій»? Мене запитували, чому на саміті Україна-ЄС не було пакету «азовських санкцій». Я всім чесно скажу: не звинувачуйте нікого, оскільки санкції — це предмет саміту ЄС, а не саміту Україна-ЄС. Не потрібно плутати одне з іншим.Так написав президент Порошенко у своєму Телеграмі.Колись санкції презентувалися на саміті Україна-ЄС? Ні. Але тут є важливий момент і це хороше запитання, оскільки ми справді працювали над пакетом «азовських санкцій».На жаль, ті дуже потужні речі, які ми хотіли, поки що не пройшли. Вони ще обговорюються, і стосуються, наприклад, обмеження військово-морської діяльності Росії, обмеження заходу російських суден, які приписані до азовських і чорноморських портів тощо.Деякі з цих речей, я дуже сподіваюся, будуть імплементовані на двосторонньому рівні країнами, які традиційно вважаються нашими друзями. З деякими буде складно.В нас є короткий перелік санкцій — 8 людей. От не вважайте це пакетом «азовським санкцій». Це перший крок, і ці санкції за визначенням нас не влаштовують.Але це ж не проблема — скаржитися і казати: нам не подобається, нам замало. Тому потрібно працювати з ЄС далі. Зараз атмосферу всередині ЄС ви самі знаєте. Все змінюється, відбувається перезавантаження, тому подивимося, як це буде обговорюватися найближчим часом.Дуже популярний термін, який часто виникає в часі конфліктів — «червоні лінії». Що для вас є червоними лініями у відносинах з Росією? Які сигнали того, що щось йде не так? Реальні, не символічні.Дві речі: одна — глобальна, і вона стосується нас як України, інша стосується Донбасу.Перше — це не потрапити знову в зону російського впливу і не потрапити під російський менеджмент. А зараз Кремль намагається пояснити тій Європі: давайте домовимося, ми будемо тримати стабільність, а з вами якось будемо погоджувати.І друге — не дати Кремлю запустити процес фрагментації України. Тобто щодо Донбасу ми можемо йти на складні компроміси і будемо вимушені це робити. Але це не повинно запустити процес федералізації і фрагментації України, про що насправді мріють у Москві. От усе інше можемо обговорювати.Все інше — це, скажімо, економічна блокада, розведення військ, вибори на окупованій території, російська мова — те, що є в Мінську.Моя пропозиція така — заведіть туди міжнародну адміністрацію. Нехай не ми, а міжнародна адміністрація, в якій може бути вплив Росії, готує там вибори за конкретним мандатом. Це може бути історія ОБСЄ або ООН.Ці вибори не будуть ідеальні. Але після них, щонайменше, будуть ті, з ким ми можемо говорити.Можемо ми це зробити? Можемо. Лавров під час останньої нормандської міністерської зустрічі сказав на це: але ж тоді ви виберете, кого хочете. Я сказав: але ж ви теж слідкуватимете за процесом. Він сказав: а ми все одно розуміємо, що втратимо контроль над Донбасом. У цьому є сенс.Як узагалі відбувалася комунікація з Лавровим? Ви багато з ним спілкувалися. Він змінився. Це ж був колись шанований у світі дипломат з усією проблемною та інколи неприйнятною для України російською позицією, який потім, окрім всього, просто почав брехати.З позиції його знань і досвіду — це людина, яка дуже багато знає і пройшла через багато переговорів. Я вважаю, що він став дуже цинічним. Чи він дозволив собі стати дуже цинічним. Це питання до нього, насправді.Комунікація, переважно, відбувалась у форматі Нормандії. Ми зустрічалися удвох останніми роками тільки двічі. На цих зустрічах обговорювали два питання: звільнення політичних в'язнів і Донбас із Кримом. Все, більше ні про що не говорили.По Донбасу — це був можливий формат миротворчої місії, по Криму — те, що вони там роблять, а також доступ міжнародних організацій і міжнародних гуманітарних організацій.Ви бачите взагалі, за яких обставин повинна відбуватися зустріч президента Зеленського з президентом Путіним?Я однозначно був би за те, щоб ця зустріч була з нашими друзями і партнерами. На них потрібно покладатися. Іноді з ними теж непросто розмовляти, але вони нам у цій історії конче потрібні.Який це буде формат — нормандський, Штати, комбінація, ЄС — про це можна розмовляти. Але я однозначно раджу президенту Зеленському зустрічатися з Путіним за столом з нашими друзями і партнерами. Це такий мега знак оклику.А з Медведчуком ви зустрічалися, говорили за цей час, поки були на посаді?Я з ним бачився двічі влітку 2014 року, коли йшла мова про те, що він може грати роль у звільненні заручників. Потім — ні.Нещодавня історія Громадського — про українського політв'язня Сергія Літвінова. Його засудили в Росії. А ми його всюди декларували як політв'язня. Ви йому писали листи в Магадан, він сам це сказав. І от виявилося, що він перебуває у Харківській колонії вже 5-й місяць. В нього немає належних умов, немає грошей. Він сидить там у робі. Що з цим робити? Це питання правової допомоги. Я вважаю, що це маразм. Звичайно, в тих, хто відповідає за юридичні аспекти, є ще такі міркування: а як ми будемо витягувати всіх інших, кого можна? Але я вважаю, що тут має бути наша юридична логіка і рішення нашого суду, яке юридично ситуацію владнає.Яка відповідальність вашого міністерства, яке так багато говорить про політв'язнів, багато робить для них? Можна завжди казати — мін'юст, решта. Але ви з цією справою мали дуже багато взаємодії.На жаль, коли українські громадяни повертаються на нашу територію, ми свою частину повноважень втрачаємо. Це вже не наша компетенція. Я так обережно скажу, щоб нікого не підставляти. Ми намагалися рухати це далі. Я дуже сподіваюся, що найближчим часом це вирішать. Свідомо не буду далі нічого казати, щоб нікого не підставляти.А ви можете уявити, що в такій ситуації опиняється якась відома людина, як Олег Сенцов, про яку всі говорили? От його звільняють, а виявляється, що він уже в нас, тут у колонії. На жаль, ви кажете це як про віртуальну ситуацію. Це може статися. Реально були спроби закидати ідеї про повернення. Але по гарантії, як було написано в цій ноті, так само про відбування покарання і так далі. От уявляєте — Олег повертається і сідає до української в'язниці? Такі провокації були.Але Літвінов сів.Але це юридичне питання. Я не можу сказати за тих, хто його повинен вирішити. Не тому, що я не хочу. Якщо я зараз щось скажу, це буде моя позиція. А я вважаю, що позиція повинна бути юридична.Ви сказали, що зовнішню політику не можна менеджити. З іншого боку, ви кажете, що не бачите зовнішньої політики чинного президента. Багато аналітиків скажуть, що зовнішня політика Петра Порошенка була побудована на тому, що ми створювали хороші особисті відносини з федеральною канцлеркою Меркель, з Дональдом Туском, очільником Європейської Ради, й іншими політиками. І от, зрештою, немає президента — немає цих відносин. Ні, це так банально не працює. Зовнішня політика — це стратегія, тобто пріоритети, розуміння, як їх виконувати, і система, щоб їх виконувати.Я сподіваюся, що вони з'являться. Можливо, після парламентських виборів. А щодо президента Порошенка — особисті відносини завжди важливі.Але воно так не працює. І якщо тобі не довіряють, і нам не довіряють, то воно за визначенням не працює. Тому сенс абсолютно не в особистих відносинах.Упродовж останніх кількох років певні люди з республіканської партії США звинувачували Україну у втручанні в американські вибори. Йдеться про Сергія Лещенка, амбарну книгу «Партії Регіонів». Ми частково втягнуті у внутрішню політику США. Як ви вибудовували політику зі США, особливо останній рік? Чи ставили ці питання вам?Поки що ми не втягнуті, але ризик є. І якщо це станеться — зламається весь двопартійний консенсус нашої підтримки.Мені особисто ці питання ніхто не ставив. Всі знають, що МЗС жодним чином ні на кого не впливало.Історія з амбарною книгою розійшлася у Штатах. Якщо ви подивитесь — є звинувачення, є чутки. Але поки що на контекст відносин між нами це не впливає. Якщо почне — це буде реальна катастрофа.Як ви відреагували на інтерв'ю українського генпрокурора Луценка, яке він давав виданню The Hill, де фактично порушене внутрішньополітичне питання?Я вважаю, що ми ніяк за визначенням не впливали. Я потім розмовляв з паном Юрієм. Він мені сказав, що це була його позиція, він ні з ким це не погоджував. Це була його особиста ініціатива — дати це інтерв'ю.Що ви подумали, відчули, крім, можливо, полегшення, коли дізналися, що Аркадій Бабченко живий, а ви перед цим в ООН говорили про трагедію, яка сталася?Мені було сумно. Але, насамперед, ви маєте рацію — це буле фантастичне «фух». Але це маразм внутрішньої комунікації. Нічого поганого не сталося — з точки зору ставлення до мене, до дипломатії. Вони прекрасно розуміють, що ми говорили щиро. Але щодо внутрішньої організації нашої системи — це, звичайно, сумно.Я чесно сказав нашим партнерам, як це відбувалося. Такі речі насправді збивають довіру дуже швидко. Це реальна шкода.Ви зараз зрозуміли, чому треба було саме так комунікувати і чому вас не попередили?Я так зрозумів, що це була звичайна помилка комунікації. Але вони хотіли, щоб це було конфіденційно. Це була їхня логіка, вони визнали, що вона була помилковою. Але це нам особливо нічим не допомагає. Крім того, ви знаєте, що в Україні, як правило, на помилках ніхто не вчиться, навіть на власних.Дуже складно було зібрати голоси за кримську резолюцію, якщо ти системно не працюєш з Африкою, куди зараз заходить Росія, з Латинською Америкою, з Середньою Азією, з Китаєм, з яким відносини за ці кілька років ми не побудували. У нас є великі країни-друзі. З іншого боку, є ось ці країні, дуже далекі. Чому так мало було системної роботи в Африці, в Латинській Америці, і ми не маємо ширшої світової підтримки? Ми ніби на одну Європу опираємося.Це абсолютно різні історії. Скільки часу я присвятив Польщі, я навіть сказати не можу... Але мішати в одну купу Середню Азію, Китай, Індію...Щодо Індії та Китаю — мені принципово одразу сказали: вони не можуть за це голосувати, оскільки питання прав людини і конфліктів вони не хочуть розглядати взагалі на нью-йоркському майданчику. Вони це пропонують розглядати тільки в Женеві.Але ти не можеш з цим працювати, якщо немає інших серйозних відносин. Ну не можна просто один раз попросити про це.З Китаєм та Індією це так не працює. Ти мені ту резолюцію — я тобі ту резолюцію. В них є фундаментальна позиція. Є позиція у Китаю, є в Індії. Вони її ніколи не змінять, оскільки це для них позиція національної безпеки. Ви знаєте, там Тібет, Кашмір. Тут у нас зрушень не буде.Я вважаю, що з Африкою ми працювали досить системно — і їздили туди, і розмовляли на всіх майданчиках. І те, що, попри шалений російський тиск, Африка голосує саме так і переважно утримується, я вважаю, це супер. Я кажу це не заради реклами.Стосовно Латинської Америки. Тут чесно скажу — країни, які не є умовно лівими і проросійськими, з ними все доволі нормально. З іншими країнами в нас можливості набагато менші.У нас є така країна, як Уругвай, з якою безвіз. Економіки з Уругваєм ми знаємо скільки. Але є позиції.Є країни, як Венесуела або Нікарагуа, які переконати набагато складніше. І ви всі прекрасно це розумієте. Але є багато країн Латинської Америки, зокрема — вся Центральна Америка, які голосують за наші резолюції. Подивіться — тільки 5 голосів ми зібрали по Центральній Америці. За кримські резолюції, зокрема.Я приймаю те, що в нас немає реального можливого ресурсу весь світ окучувати, як Росія. Але в Африці ми справді працювали доволі системно, це я вам точно кажу.А якщо говорити про сусідів. Останній рік, а то й більше, Угорщина порушує питання закону про освіту і вивчення угорської мови на Закарпатті. Звісно, в Угорщині це внутрішньополітичне питання.Не тільки, але зокрема.Є закид, що, можливо, можна було скоординувати раніше питання з міністерством освіти і прокомунікувати з Угорщиною наперед. А зараз ми другий рік відповідаємо на всіх європейських самітах.Закон був змінений в залі Ради. До речі, деякі з наших угорських колег досі вважають, що це була свідома провокація проти Угорщини, оскільки закон був попередньо погоджений в абсолютно інших формулюваннях.Це було, відповідно, несподівано. І що почалося після — це питання нашого дуже складного діалогу з Угорщиною.Я розмовляв з угорцями, був на Закарпатті не один, не два і не три рази. Можу вам сказати, що якби ми щось робити для Закарпаття всі ці роки, ситуація була би іншою.Якби ми змінили методику викладання українською, ситуація була би абсолютно іншою. Якби у нас існувало достатньо підручників і посібників, ситуація була би іншою. Якби ми давали стимули школам, де є і угорські, і українські дітки, ситуація були би іншою. Тому це системна проблема, і потрібно її системно вирішувати. Насправді, на Закарпатті має бути більше України. України там замало, а контрабанди забагато.Вам бракувало координації з іншими міністерствами? Ви весь час, поки працювали, могли спокійно подзвонити міністру оборони?З міністром оборони ніколи не бракувало. Це завжди відбувалося і з Полтораком, і з генштабом. Це було реально на рівні й особистих контактів, і на рівні системи. Тому це працювало завжди дуже добре. Під час війни брак комунікації — це катастрофа.Перед тим, як піти з посади, президент Порошенко надав кілька рангів. Скажімо, дипломатичний ранг надзвичайного повноважного посла Володимиру Ар'єву, голові постійної делегації ВР в ПАРЄ, Артуру Герасимову, також депутату БПП, голові постійної делегації ВР в Парламентській асамблеї ОБСЄ. Це дуже потужне звання до кінця життя. Ви самі номінували цих людей?Це була ініціатива Порошенка. Там було декілька інших людей, але стосовно цих я підтримав і підтримую зараз. Якщо ви побачите, що саме ці дві людини зробили в ПАРЄ і в ОБСЄ за ці 5 років... Я комунікую з нашими делегаціями і знаю, хто що робив у режимі реального часу. Саме вони на це заслуговують. До того ж, це символіка, воно практично нічого їм не дає. Але так, як вони працювали, повинні працювати найкращі дипломати.Ви боїтеся реваншу? Ви його помічаєте? Я вважаю, що реванш може стати реальністю. Поки що це не так, але може стати. І якщо вдатися до тотальної бездіяльності і дивитися отак навколо, то шанс абсолютно реальний.Але я більше боюся, що Росія знову буде втягувати нас у російський мир і російську сферу впливу, і запустить процес фрагментації України.читайте також </t>
   </si>
   <si>
-    <t>team trusted fully meet expectations find pavlo klimkin minister foreign pavlo klimkin see newly elected president zelensky inauguration since then ex-president petro poroshenko agree campaign elections leader party voice svyatoslav vakarchuk top diplomat declare resignation zelensky take office supreme council accept work ministry form foreign policy ukraine circumstance have to take place meeting putin which red line guard captured moscow sailor convicted rf serve his term ukraine result work ukraine build relations world klimkin public week begin address president zelensky meeting putin minsk format violate invite trump theresa may merkel western partner meeting minsk some say communicate say absolutely problem tweet communicate communicate zelensky communicate help partner think because in advance video discuss warn i.e. mfa france think discuss see putin get out tired difficult night discussion sadbez meeting meeting minsk minsk seem seem to prove to work personally communicate president stay vacation carry out operational leadership ministry want discussion inside because outside have only vacation previous remember not enough communication so meet inauguration right president Zelensky build communication coordination currently neither strategy nor system hope parliamentary elections what rank ask know build honestly want to leave resignation do something else elections week one form government work leadership important professional team diplomat say one thing know manage foreign policy managed management foreign policy pass political drive must people principle conviction build question new team go vacation deputy lana zerkal appoint administration president later decree disappear site mrs zerkal write misunderstanding dismiss exactly dismissed have ask appoint appoint say influence chance someone future appointment worthy people professional make decision lana decision make respect advise team say vadym prystaiko former deputy already ambassador name candidate president zelensky surname among vadym lana name communicate for example Mr. routine question such event trip toronto summit ukraine es prepare have toronto have to go consciously decide to do friend call in particular Ukrainian Canadian say give discuss get along want discussion generally be conducted talk organizer forum one try go week vacation toronto last chord accordingly last chord former president petro poroshenko communicate inauguration talk none say go politics european first proposal say promote negotiate slava vakarchuk team trusted fully meet expectations find second consider come make non-leader team country example communist</t>
+    <t>team trusted fully meet expectations find pavlo klimkin minister foreign pavlo klimkin see newly elected president zelensky inauguration since then ex-president petro poroshenko agree campaign elections leader party voice svyatoslav vakarchuk top diplomat declare resignation zelensky take office supreme council accept work ministry form foreign policy ukraine circumstance have to take place meeting putin which red line guard captured moscow sailor convicted rf serve his term ukraine result work ukraine build relations world klimkin public week begin address president zelensky meeting putin minsk format violate invite trump theresa may merkel western partner meeting minsk some say communicate say absolutely problem tweet communicate communicate zelensky communicate help partner think because in advance video discuss warn i.e. mfa france think discuss see putin get out tired difficult night discussion sadbez meeting meeting minsk minsk seem seem to prove to work personally communicate president stay vacation carry out operational leadership ministry want discussion inside because outside have only vacation previous remember not enough communication so meet inauguration right president Zelensky build communication coordination currently neither strategy nor system hope parliamentary elections what rank ask know build honestly want to leave resignation do something else elections week one form government work leadership important professional team diplomat say one thing know manage foreign policy managed management foreign policy pass political drive must people principle conviction build question new team go vacation deputy lana zerkal appoint administration president later decree disappear site mrs zerkal write misunderstanding dismiss exactly dismissed have ask appoint appoint say influence chance someone future appointment worthy people professional make decision lana decision make respect advise team say vadym prystaiko former deputy already ambassador name candidate president zelensky surname among vadym lana name communicate for example Mr. routine question such event trip toronto summit ukraine yes prepare have toronto have to go consciously decide to do friend call in particular Ukrainian Canadian say give discuss get along want discussion generally be conducted talk organizer forum one try go week vacation toronto last chord accordingly last chord former president petro poroshenko communicate inauguration talk none say go politics european first proposal say promote negotiate slava vakarchuk team trusted fully meet expectations find second consider come make non-leader team country example communist</t>
   </si>
   <si>
     <t>Фестиваль Atlas Weekend став доступний для людей з порушеннями слуху. На музичному фестивалі Atlas Weekend у Києві презентували унікальну інклюзивну платформу: тепер люди люди з порушеннями слуху зможуть разом з іншими насолоджуватися музикою за допомогою спеціального майданчика та перекладачів жесту.Про це повідомили організатори фестивалю.Для людей з інвалідністю 1 та 2 групи цьогоріч вхід на фестиваль безкоштовний. Біля головної сцени для них організували інклюзивну платформу, де встановлено дві спеціальні сфери — одна з них діаметром у 2 метри трансформує музику у вібрації, а інша виводить її на екран кольоровим еквалайзером. Так музику можна побачити в кольорі.дивіться також«Музика дає безцінні емоції, а тому ми прагнемо щоб вона була доступна для більшої кількості людей. Особливо тішить, що Україна перша в Європі, де ми впроваджуємо такий проєкт. Вона стала відправною точкою на шляху до включення людей з інвалідністю у світ музики та потужних музичних фестивалів», — зазначила Інга Андреєва, гендиректорка головного партнера фестивалю Mastercard в Україні, який організував цей проєкт.Також для людей з порушеннями слуху запросили відому американську перекладачку Амбер Галловей Галлео. Вона розробила унікальний стиль перекладу музики на мову жестів: зосереджується не на словах, а на емоції від пісні, передає ритм та гучність звучання інструментів. Для досконалості техніки американка довго вивчала лінгвістику та психологію, досліджувала потреби людей з вадами слуху. Тепер вона співпрацює з відомими музичними гуртами та поширює новий тренд у світі.«Є багато країн, які не забезпечують доступ для спільноти людей з вадами слуху на фестивалі та концерти. Це взагалі не трапляється часто у світі. Частіше люди мають боротися за свої базові права людини — спілкування. Це щоденна річ для них. Ми тут, щоби дати цю можливість», — наголосила Амбер Галловей.Упродовж фестивалю вона разом із командою перекладатиме мовою жестів виступи хедлайнерів. Це будуть транслювати на великому екрані, який додатково встановлений поруч із головною сценою.Зазначимо, що американка навчила своєму унікальному стилю і п’ятьох українських колег. Вони на Atlas Weekend перекладають пісні Софії Ротару та гурту «Сплін».Atlas Weekend триватиме до кінця тижня. Організатори сподіваються, що за допомогою подібних проєктів зможуть стерти межі між людьми та зробити культуру в Україні інклюзивнішою.читайте також</t>
@@ -832,13 +832,13 @@
     <t>Обстріл вантажівки на Донбасі: військові виконували завдання на рубежі, що робив голова Донецької ОДА — невідомо. Українські військові, які у вантажівці потрапили під обстріл під Гранітним Донецької області, виконували завдання на першому рубежі оборони.Про це заявив заступник командувача операції Об’єднаних сил Богдан Бондар, пишуть «Новости Донбасса».За його словами, постріл з протитанкового ракетного комплексу здійснили з позицій бойовиків, це не була диверсійно-розвідувальна група.Заступник командувача ООС запевнив, що усі передбачені законом виплати для сім’ї загиблого військовослужбовця та постраждалим будуть здійснені.Бондар відмовився коментувати присутність машини глави Донецької облдержадміністрації Павла Кириленка поруч з місцем обстрілу, однак зазначив, що найімовірніше, командувач ООС знав про поїздку Кириленко.«У нас є комунікація, ми розуміємо коли й куди він виїжджає. Безпосередньо мені він не повідомляє, тому що я ж не командувач, а заступник командувача. Звичайно, вони комунікують, вони практично щодня обмінюються [інформацією], кілька разів на добу усіма цими питаннями. Тим більше людина тільки приступив до виконання обов’язків, тобто там дуже багато питань», — сказав Бондар.Раніше повідомлялося, що Кириленко не узгоджував поїздку з військовими.Нагадаємо, 10 липня біля Гранітного на Донеччині бойовики поцілили ракетою у вантажівку ЗСУ, внаслідок чого один військовий загинув, ще один дістав поранення. Вантажівка була в колоні, в якій був голова Донецької ОДА Павло Кириленко, його машина і він сам не постраждали.Президент Володимир Зеленський доручив посилити боротьбу проти диверсійних груп.На посаді очільника Донецької ОДА Кириленка 5 липня представив сам Зеленський.</t>
   </si>
   <si>
-    <t>shelling truck Donbas military perform tasks frontiers do head Donetsk ode unknown Ukrainian military truck hit shelling Granite Donetsk region perform tasks first frontier defense declare deputy commander operation force Bogdan Bondar write news word shot anti-tank missile system carry out position militant sabotage reconnaissance group deputy commander of the OAS assure provided law payment deceased serviceman victims carried out Bondar refuse to comment presence car head Donetsk regional state administration Pavlo Kirilenko place shelling indicate most likely commander of the OAS know trip Kirilenko communication understand leave directly report commander deputy commander communicate practically daily exchange information once a day question person proceed execution i.e. question Bondar reported Kirilenko agree trip military remind July Granite Donetsk militant hit missile truck ZSU as a result military die get injured truck column head Donetsk ode Pavlo Kirilenko car suffer president Volodymyr Zelenskyy instruct to strengthen the fight sabotage group position head Donetsk ode kyrilenko July introduce Zelenskyy</t>
+    <t>shelling truck Donbas military perform tasks frontiers do head Donetsk Ode unknown Ukrainian military truck hit shelling Granite Donetsk region perform tasks first frontier defense declare deputy commander operation force Bogdan Bondar write news word shot anti-tank missile complex carry out position militant sabotage reconnaissance group deputy commander of the OOS assure provided law payment deceased serviceman victims carried out Bondar refuse to comment presence car head Donetsk regional state administration Pavlo Kirilenko place shelling indicate most likely commander of the OOS know trip Kirilenko communication understand leave directly report commander deputy commander communicate practically daily exchange information once a day question person proceed execution i.e. question Bondar reported Kirilenko agree trip military remind July Granite Donetsk militant hit missile truck ZSU as a result military die get injured truck column head Donetsk Ode Pavlo Kirilenko car suffer president Volodymyr Zelenskyy instruct to strengthen the fight sabotage group position head Donetsk ode kyrilenko July introduce Zelenskyy</t>
   </si>
   <si>
     <t>Нацрада не має доказів зв’язку телеканалів «112. Україна», NewsOne і ZIK з Медведчуком. Національна рада з питань телебачення і радіомовлення не має доказів зв’язку телеканалів «112. Україна», NewsOne і ZIK з головою політради партії «Опозиційна платформа — За життя», кумом Путіна Віктором Медведчуком.Про це заявила заступниця глави Нацради Уляна Фещук на вечірньому засіданні Верховної Ради, передає «Інтерфакс-Україна».«Ми живемо в правовій державі, тому керуємося виключно нормами закону ... Насправді ці канали куплені підставною особою, тобто зв’язку з Медведчуком ми довести не можемо», — зазначила вона.За словами Фещук, Нацрада співпрацює з Антимонопольним комітетом України для встановлення зв’язку між кінцевими бенефіціарними власниками зазначених телеканалів.читайте такожНагадаємо, телеканал бізнес-партнера Віктора Медведчука NewsOne і російський пропагандистський канал «Росія24» планували провести телеміст під назвою «Треба поговорити».У зв'язку з цим СБУ ініціювала засідання РНБО та запропонувала запровадити санкції проти телеканалів NewsOne та «112 Україна».Після цього NewsOne заявив про скасування телемосту з Росією через погрози. Також на каналі пояснили, що хотіли телеміст з українцями в Росії та без політиків і пропагандистів.Президент України Володимир Зеленський назвав анонсований телеміст дешевим піарходом, який має на меті розділити українців на два табори. Також він звернувся до президента РФ Володимира Путіна із пропозицією провести переговори в Мінську.А ГПУ відкрила провадження про замах на держзраду через телеміст NewsOne з РФ, причетних викликали на допит. Генпрокурор Юрій Луценко також заявив, що кінцеві власники NewsOne можуть бути пов’язані з російським «Промсвязьбанком».читайте також</t>
   </si>
   <si>
-    <t>national council proof TV channel ukraine newsone zik medvedchuk national council issue television broadcasting proof TV channel ukraine newsone zik Politburo chairman party opposition platform life kum putin Viktor Medvedchuk declare deputy head of the National Council Ulyana Feschuk evening meeting Supreme Council transmit Interfax live legal state guided exclusively norm law actually channel purchased dummy person i.e. Medvedchuk prove be able to specify word Feschuk National Council cooperate antimonopoly committee Ukraine establishment ultimate beneficial owner specified also remind TV channel business partner Viktor Medvedchuk newsone Russian propaganda channel plan to hold a teleconference name SBU initiate meeting RNBO propose to introduce sanction TV channel newsone newsone declare cancellation of teleconference Russia threat channel explain want teleconference Ukrainian Russia politician propagandist president Ukraine Volodymyr Zelensky name announced teleconference cheap PR goal divide Ukrainian camp address President of the Russian Federation Vladimir Putin proposal to hold negotiations Minsk GPU open proceedings for attempted treason, Newsone TV station, Russia, is involved, call for questioning, Prosecutor General Yuri Lutsenko, declare the ultimate owner of Newsone, Russian</t>
+    <t>national council proof TV channel ukraine newsone zik medvedchuk national council issue television broadcasting proof TV channel ukraine newsone zik Politburo chairman party opposition platform life kum putin Viktor Medvedchuk declare deputy head of the National Council Ulyana Feschuk evening meeting Supreme Council transmit Interfax live legal state guided exclusively norm law actually channel purchased dummy person i.e. Medvedchuk prove be able to specify word Feschuk National Council cooperate antimonopoly committee Ukraine establishment ultimate beneficial owner specified also remind TV channel business partner Viktor Medvedchuk newsone Russian propaganda channel plan to hold a teleconference name SBU initiate meeting RNBO propose to introduce sanction TV channel newsone newsone declare cancellation of teleconference Russia threat channel explain want teleconference Ukrainian Russia politician propagandist president Ukraine Volodymyr Zelensky name announced teleconference cheap PR goal divide Ukrainian camp address President of the Russian Federation Vladimir Putin proposal to hold negotiations Minsk GPU open proceedings for attempted treason, TV host Newsone RF is involved, call for questioning, Prosecutor General Yuri Lutsenko declare the ultimate owner of Newsone Russian</t>
   </si>
   <si>
     <t>Чисті озера: як визначити безпечні для відпочинку водойми. 10 липня президент Володимир Зеленський провів нараду в Борисполі, під час якої посперечався з мером Борисполя Анатолієм Федорчуком щодо скарг на фекалії в одному з міських озер.За словами президента, перед нарадою йому хтось дав папірець, в якому стверджувалося, що місцева влада не провела очистку водойми, на яку у 2018 році було виділено кілька мільйонів гривень.Про стан українських озер та як визначити безпечні водойма журналісти Громадського запитали в інженера-еколога, старшого наукового співробітника екологічної лабораторії Дніпровського Національного Університету залізничного транспорту Максима Сороки в ефірі програми «Нині вже».«Загалом по Україні це є досить типовою ситуацією, оскільки впродовж 2-х десятиліть програми очищення та екологічного відновлення таких малих екологічних об'єктів майже не фінансувалися. Наразі маємо іншу ситуацію, у нас з’являються екологічні фонди, у тому числі завдяки децентралізації і відповідно їх спрямовують, але ця ситуація є досить типовою», — розповів еколог.Він зазначив, що якщо говорити про екологічний моніторинг малих озер по всій Україні, то тільки ті озера, які призначені для відпочинку щорічно перевіряються і мають відповідні санітарні паспорти.«Інші озера, на жаль, ми не маємо такої ситуації, у більшості випадків. І казати про те, в чому причина забруднення досить важко і голослівно», — сказав Сорока.Еколог також розповів, як саме розпізнати озеро, в якому можна купатися.«Згідно з українським законодавством, у нас є природні об'єкти озера – це просто природній об'єкт, вам ніхто не може заборонити там купатися. Але згідно законодавства є спеціальні призначені місця», — зазначив експерт.Ці місця, як пояснив Сорока, визначає орган місцевого самоврядування за участю обласних адміністрацій. Кожного року перед купальним сезоном водойма перевіряються згідно правил охорони життя людей на воді та санітарних правил утримання територій, на них складається паспорт, який зберігається в органах місцевого самоврядування.«В цьому випадку, так, має бути табличка «пляж длоя купання», він має бути обладнаний малими архітектурними формами. В усіх інших випадках це не є спеціальне місце для купання, ваша безпека не забезпечується і не гарантується», — підкреслив експерт.Нагадаємо, мерія грузинського міста Батумі очистила озеро Ардагані після того, як посол Швеції в країні Ульрік Тідестрьом написав у Twitter про його забруднення. Тідестрьом написав 26 квітня, що здалеку озеро виглядає гарно, але зблизька можна побачити бруд. Так, на опублікованих фото видно велику пляму та сміття біля берега.читайте також</t>
@@ -868,7 +868,7 @@
     <t>Адвокат нацгвардійця Марківа заявив, що втратив довіру до італійського правосуддя. Адвокат нацгвардійця Віталія Марківа, засудженого в Італії до 24 років в’язниці, заявив, що втратив довіру до італійського правосуддя, бо цей вирок є політичним.Про це адвокат Рафаеле Дела Валле заявив після завершення судового засідання, повідомила в ефірі програми «Нині вже» кореспондентка Громадського Ольга Токарюк.«У розмові з нами він сказав, що за всю його 56-річну кар’єру він не бачив такого абсурдного вироку. Він каже, що немає абсолютно жодного ґрунту, на чому базується такий суворий вирок. Говорить він навіть, що дуже розчарований діями італійських суддів і втратив довіру до італійського правосуддя і навіть до італійської держави», — розповіла вона.У розмові з «Радіо Свобода» Дела Валле заявив, що такий вердикт суду — привід емігрувати з Італії.Навіть прокурор у цій справі Андреа Дзанончеллі був здивований таким суворим вироком, бо сторона обвинувачення просила 17 років тюрми, а не 24.12 липня нацгвардійця Віталія Марківа, звинуваченого у причетності до вбивства італійського фотографа Андреа Роккеллі на Донбасі у 2014 році, суд Італії засудив до 24 років ув'язнення. При цьому італійський прокурор вимагав засудити Марківа до 17 років ув’язнення. Цей вирок будуть оскаржувати.В останньому слові Марків сказав, що є українським військовим, простим солдатом, патріотом, і додав, що завжди захищатиме Україну.Президент України Володимир Зеленський доручив Міністерству закордонних справ і Генпрокуратурі терміново зайнятися питанням повернення нацгвардійця Віталія Марківа.читайте такожчитайте також</t>
   </si>
   <si>
-    <t>lawyer national guard markiv declare lose trust italian justice lawyer national guard vitali markiv convicted italy declare lose trust italian justice verdict political lawyer raffaele della valle declare completion court session report broadcast program now correspondent public olga tokaryuk conversation see such an absurd verdict absolutely no ground to be based harsh verdict disappointed action italian judge lose trust italian justice italian state tell conversation radio freedom della valle declare verdict court reason to emigrate italy prosecutor case andrea zanoncelli surprised such a harsh verdict prosecution request prison july national guard vitali markiv accused involvement murder italian photographer andrea roccelli donbas court italy convict italian prosecutor demand convict markiv verdict appeal last word markiv ukrainian military simple soldier patriot add protect Ukraine President of Ukraine Volodymyr Zelensky instruct the Ministry of Foreign Affairs Prosecutor General's Office to urgently deal with the issue of the return of National Guard member Vitaly also read</t>
+    <t>lawyer national guard markiv declare lose trust italian justice lawyer national guard vitali markiv convicted italy declare lose trust italian justice verdict political lawyer raffaele della valle declare completion court hearing report broadcast program now correspondent public olga tokaryuk conversation see such an absurd verdict absolutely no basis based harsh verdict disappointed action italian judge lose trust italian justice italian state tell conversation radio freedom della valle declare verdict court reason to emigrate italy prosecutor case andrea zanoncelli surprised such a harsh verdict prosecution request prison july national guard vitali markiv accused involvement murder italian photographer andrea roccelli donbas court italy convict italian prosecutor demand convict markiv verdict appeal last word markiv ukrainian military simple soldier patriot add protect Ukraine President of Ukraine Volodymyr Zelensky instruct the Ministry of Foreign Affairs Prosecutor General's Office to urgently deal with the issue of the return of National Guard member Vitaly also read</t>
   </si>
   <si>
     <t>ЦВК відмовилась реєструвати спостерігачів ОБСЄ від Росії на виборах у Раду. Центральна виборча комісія відмовила у реєстрації 17 спостерігачам Організації з безпеки та співробітництва у Європі (ОБСЄ) від Росії на виборах до Верховної Ради.Про це повідомили в прес-службі ЦВК.На засідання 12 липня ЦВК погодила реєстрацію 658 офіційних спостерігачів від іноземних держав та міжнародної організації. Левова частка з них — 595 — від Бюро демократичних інститутів і прав людини ОБСЄ.Росіянам у реєстрації відмовили на підставі закону «Про особливості державної політики із забезпечення державного суверенітету України на тимчасово окупованих територіях у Донецькій та Луганській областях».Загалом ЦВК вже зареєструвала на вибори в Раду 1 413 офіційних спостерігачів: від 10 іноземних держав — 58 спостерігачів, від 15 міжнародних організацій — 1 355.Нагадаємо, на президентських виборах в Україні також не було спостерігачів від Росії.7 лютого Верховна Рада ухвалила законопроект про заборону участі громадянам Росії спостерігачами на виборах в Україні. Директорка Бюро з демократичних інститутів і прав людини ОБСЄ Інгібйорг Гісладоттір висловила через це невдоволення. Водночас спецпредставник Держдепу США з питань України Курт Волкер заявив, що «занепокоєння України цілком реальні».8 лютого РФ передумала направляти спостерігачів на вибори в Україну, бо «небезпечно».читайте також</t>
@@ -880,7 +880,7 @@
     <t>«Голос» не експлуатує популярність Вакарчука, як це робить «Слуга народу» із Зеленським — Притула. Партія «Голос» хоче завойовувати прихильність людей фахівцями в своєму списку, а не «експлуатувати» популярність її лідерів, як це зокрема робить «Слуга народу» з упізнаваністю президента Володимира Зеленського.Про це в ефірі програми «Нині вже» на Громадському заявив кандидату у депутати від партії «Голос», шоумен Сергій Притула.«У нас просто є зараз на виборах одна партія, яка намагається максимально задовольнити попит людей на нові обличчя. Щоправда ці люди, на мою думку, беруть не так своєю харизмою, своїм списком, як харизмою свого беззаперечного лідера Володимира Зеленського, який на своєму авторитеті і на своєму бренді заводить (у парламент — ред.) цих людей», — сказав він.Притула підкреслив, що «Голос» не намагається експлуатувати популярність деяких членів партії, зокрема його самого або Святослава Вакарчука.«Звичайно, ми є локомотивами цього списку, але ми намагаємося людям показати, що голосувати треба не за лідера, як це в нас завжди прийнято — у нас завжди іменні партії і блоки — Ляшка, Тимошенко, Гройсмана, Порошенка. Ми намагаємося людям сказати — подивіться на наш список, на наших фахівців», — пояснив шоумен.Водночас Притула допускає, що для більшості українців такий підхід є незвичним.Нагадаємо, коли Притула оголосив, що піде на вибори від «Голосу», він розповів, що попросив поставити себе не в першу десятку списку, а на 30-те місце. Таким чином, аби він став депутатом, «Голос» повинен набрати на виборах понад 10%.Згідно з останнім опитуванням, «Голос» посідає четверте місце з 6,6%.читайте також</t>
   </si>
   <si>
-    <t>voice exploit popularity Vakarchuk make a servant people Zelensky shelter party voice want to win favor person specialist own list exploit popularity leader in particular make a servant people recognition President Volodymyr Zelensky air program now public declare candidate deputy party voice showman Serhiy shelter elections one party try to satisfy demand as much as possible person new face, indeed, people's opinion, take your charisma, your list of charisma, the undisputed leader, Volodymyr Zelenskyi, your authority build your own brand parliament ed man shelter emphasize voice try to exploit popularity some member of the party in particular Svyatoslav Vakarchuk locomotive list try person show vote leader accept nominal party block Lyashko Tymoshenko Groysman Poroshenko try person look at list specialist explain showman at the same time shelter admit majority Ukrainian approach unusual remind shelter announce go to the elections, vote, tell, ask to put in the top ten, list, place, such rank, that the deputy vote must win the election more than the last poll vote to take fourth place</t>
+    <t>voice exploit popularity vakarchuk do servant people Zelenskyy hid party voice want to win favor person specialist own list exploit popularity leader in particular do servant people recognition president Volodymyr Zelenskyy broadcast program now public declare candidate deputy party voice showman serhiy hid elections one party try to satisfy demand person new face true people opinion take your charisma your list charisma undisputed leader Volodymyr Zelenskyy your authority your brand start parliament red person hid emphasize voice try to exploit popularity some member party in particular svyatoslav vakarchuk locomotive list try person show vote leader accept nominal party bloc Lyashko Tymoshenko Groysman Poroshenko try person look list specialist explain showman at the same time hid allow majority Ukrainian approach unusual remind hid announce go elections voice tell ask to put top ten list place such rank so that deputy vote should gain elections over last poll vote to take fourth place</t>
   </si>
   <si>
     <t>Нацрада буде «моніторити» показ фільму Олівера Стоуна за участі Медведчука «про українську кризу» . Національна рада з питань телебачення і радіомовлення «здійснюватиме моніторинг» показу на каналі «112 Україна» фільму режисера Олівера Стоуна «Відкриваючи Україну», в якій головним коментатором подій є кум Путіна Віктор Медведчук.Про це повідомили в прес-службі регулятора.У Нацраді наголосили, що приділяють особливу увагу захисту інформаційного простору України.«Зокрема в питаннях заперечення територіальної цілісності країни, розпалювання в суспільстві ворожнечі, пропаганди органів держави-агресора та розповсюдження недостовірної інформації», — йдеться у повідомленні.Тому регулятор обіцяє здійснювати моніторинг фільму Стоуна, який ніби-то стане «правдивою розповіддю про події останніх років в Україні».За наявності порушень закону Нацрада ініціюватиме позапланову перевірку каналу «112 Україна» та застосування санкцій проти нього.Олівер Стоун зняв фільм Revealing Ukraine («Відкриваючи Україну»), де головним коментатором українських подій виступив кум Путіна Віктор Медведчук. Прем’єра стрічки відбулася на сицилійському кінофестивалі у Таорміні, де в 2016 році презентували також і «Україну у вогні» — попередню картину Стоуна про українські події.В інтерв'ю Оліверу Стоуну президент РФ Володимир Путін заявив, що українці й росіяни — одна нація і зближення країн «неминуче».Зазначимо, що власником каналу «112 Україна» є народний депутат Тарас Козак, соратник Медведчука.читайте також</t>
@@ -892,7 +892,7 @@
     <t>«Потрапляючи в Раду, ти автоматично втрачаєш довіру людей», — Мустафа Найєм | Почую кожного. Каденція Мустафи Найєма в якості народного депутата Верховної Ради України VIII скликання за пару місяців закінчиться. В 2014 році журналіст-розслідувач разом зі своїм колегою Сергієм Лещенком та громадською активісткою Світланою Заліщук потрапили до Ради за списком Блоку Петра Порошенка. Мустафа не балотується на дострокових виборах в парламент цього року і поки лише думає про те, чим буде займатися далі.Громадське зустрілося з народним депутатом і поговорило про те, чому він не йде до Верховної Ради з партією Святослава Вакарчука «Голос», які сфери діяльності його цікавлять, як змінилась його репутація після роботи в парламенті, про фракцію БПП, некомандну гру та розмову з Петром Порошенком. Про погану карму будівлі Ради, про постійне відчуття провини на посаді народного депутата, про ейфорію від влади, помилки, допомогу людям, зарплату чиновників, реформу поліції, соціальну державу та про те, чому люди не виходять на протести — дивіться в програмі «Почую кожного».Ти цього разу не балотуєшся до Верховної Ради. Ти ж знаєш, що кажуть про людей, які пишуть публічне визнання: я вирішив не йти до Верховної Ради?Я навіть перерахую: нікуди не потрапив, не дали грошей, втомився, одружився, зкурвився, скорумпувався, що більше не хоче, заробив достатньо.Злі язики формулюють так: просто не отримав місця в прохідному списку, ось і не йде.По-перше, це стосується 80% цього парламенту. По-друге, не було з тих партій, які йдуть, жодної прохідної, яка влаштовувала за списками, крім партії «Голос». Та вони не беруть старих депутатів, депутатів цього скликання.Ти не такий вже старий. І мені здавалося, що ти в гарних стосунках з лідером партії Святославом Вакарчуком.Є особисті стосунки, а є політика. І я про це їхнє рішення дізнався зі ЗМІ. Вважаю, що це нормально, вони так політично збудували свою стратегію. Знову ж, ми зараз говоримо в такому наративі, ніби шкода, що я не потрапив. Але ще є моє життя, я хотів би присвятити його іншому, залишаючись у цій же історії.Чому ти хочеш присвятити своє життя?Коли я ще був журналістом, найбільше презирство викликали депутати в останній рік своєї каденції. Це була агонія. Починалися «кидки», переходи з фракції у фракцію, пошук грошей, округів, чого завгодно. На твоїх очах люди ставали несамовитими, агресивними. Або навпаки — показова народність, відкритість. Це мені завжди не подобалося.Я радий, що з цієї історії ми пішли. Пішли спокійно. Я дуже радію за Єгора Соболєва (колишній журналіст, депутат VIII скликання, ексголова громадського люстраційного комітету — ред.), Аню Гопко ( депутатка VIII скликання, членкиня координаційної ради «Реанімаційного пакету реформ» — ред.), за багатьох колег, які добре пішли, зрозуміли, що життя триває.Це не означає, що вони зрозуміли, що не можуть нічого змінити?Насправді зробили багато. Але парламент і політика — це топка, в неї ми повинні будемо кидати нових людей, нові ідеї, нові репутації. Там все одно все вигорає. Це машина, яка виходить з салону і вже втрачає 20%. Потрапляючи в парламент, ти автоматично втрачаєш довіру. Просто тому, що люди ставляться до цієї інституції так, як вони до неї ставляться останні 20 років.Що ти втратив після того, як потрапив до Верховної Ради?Є дві сторони цієї втрати. Одна — це те, що до величезної кількості людей, щоб я їм не казав, не пояснював, я не достукаюсь — ну, коли він був депутатом, то це як клеймо.Друга історія набагато важливіша для мене. З більшістю моїх колег, з якими я спілкувався, дружив, співпрацював до парламенту, я зараз спокійно говорю. Це не ввічливі посмішки. Ми п'ємо, збираємося, зустрічаємося, лаємося, довіряємо одне одному. І це дуже приємно. Так, втратив у широкому колі, але у вузькому колі — навпаки.«Було висловлено жаль з приводу некомандної гри»Про що ти думав, коли балотувався від Блоку Петра Порошенка? Які ілюзії в тебе були, як вони розвіялися?Я розумів, що є ризик, що ми потрапляємо в команду, в якій будуть робити не зовсім правильні речі. Але це ж було наше бажання йти до парламенту. Я скажу чесно, мене ніхто не кликав, ніхто не пропонував, ніхто не підкуповував. Я сам прийшов до Петра Олексійовича Порошенка: я хочу в парламент, ось нас троє.Ти, Сергій Лещенко та Світлана Заліщук.Червоною лінією було те, що ми не агітуватимемо за мажоритарників, яких не знаємо. І що у нас є програма. Вся дотрималися цих формальностей, а потім почалося те, що почалося. Але вони ж розуміли, чим ми займалися, чому вони думали, що ми будемо діяти інакше? Чому потрібно було брати людей, які все життя займалися боротьбою з корупцією, до партії, яка буде займатися корупцією, сподіваючись, що ці люди нічого не писатимуть?Як ти думаєш, вони йшли в парламент і вже знали — ми йдемо, щоб пиляти?Не всі. Те, що інстинкти в них такі були, і що більшість людей йдуть туди заради цього, це правда. Адже багато з них витратили багато грошей, щоб потрапити в парламент. Хтось купив місце, заплатив за мажоритарку, хтось — за кампанію тощо. Ці гроші треба відбивати. Хтось заробляв потім на потоках, купував об'єкти, вирішував чиїсь питання.Після того, як ви почали відкрито виступати з трибуни чи в ЗМІ критикувати те, що відбувається, до вас повинні були підійти, взяти за лацкан і сказати: ви що, очманіли? Як це відбувалося?Так не робили. Наприклад, ми казали, що дядько Вася вкрав 100 мільйонів, нам ніхто не казав: дядько Вася не вкрав, ось документи. Вони казали: ти поливаєш брудом всю команду, в якій ти прийшов. Нехай розбираються правоохоронні органи.Чому ви не декларували, що дядько Вася вкрав 100 мільйонів?Слухай, ми ж не розкривали топ-секретів. Всі знали, що Ігор Кононенко займається енергетикою. Це не секрет. Це знають топ-чиновники. Всі бачили, що відбувається з регулятором. Всі розуміють, як вигравали вибори на довиборах в округах. Ми бачили по бюджету, як виділялися якісь гроші на незрозумілі пісенні конкурси. Я вже не кажу про те, яку велику кількість кримінальних справ і виробництв було злито та закрито. З колишніх регіоналів зняті санкції Генеральним прокурором. Дійшло до того, що тепер, через 5 років, ми стояли на акціях, щоб Андрій Клюєв не в'їхав до країни і не став депутатом.Коли ви востаннє спілкувалися з Петром Порошенком не на офіційній зустрічі фракції?Востаннє ми бачилися після виборів. Ця була абсолютно людська, проста розмова. Ми нічого не обговорювали секретного.Про що була розмова?Це було його бачення того, що відбувається. Було висловлено жаль з приводу некомандної гри.«Ти не можеш очікувати від людини, у якої голодна родина, що вона не крастиме»Ти зараз бачиш, як новий президент ставить навколо тільки своїх друзів.Уявіть собі, що ви призначаєтеся на якусь посаду з величезною відповідальністю. І вам треба призначити, умовно кажучи, свій штат. І тоді всі призначення поділяються на два типи.Перший — ті, де тобі потрібні жорсткі професіонали, наприклад, правоохоронні органи. Складно уявити Генпрокурора без юридичної освіти. Можна, але це неправильно. Але якщо йдеться про твій офіс, особистого помічника, я вважаю, там можуть бути твої люди.Чи можеш ти призначати головою Служби безпеки свого знайомого? Напевно, так, політично це твоя відповідальність, можеш робити — роби. Правильно це чи ні? Ні, неправильно, адже це про традиції і охайність. Тоді й ти крадеш, як і твій друг. А якщо він не краде, якщо він професійно працює — окей, подивимося. Зараз такий період — вони призначили низку людей, і ми дивимося, як вони себе поводять.Або друга історія — призначають Генпрокурора не за законом. Не подобається закон, нумо приберемо критерії і поставимо кого хочемо. І потім Генпрокурор покриває багато злочинів, закриває очі на купу крадіжок. Це неправильна історія.Ти залишаєш Раду і припиняєш бути політиком чи залишаєшся?Є три-чотири дороги, які простягаються переді мною. Чесно скажу, два тижні тому, коли я вирішував, що не йду в парламент, це було болісно і довго. Було не надто страшно, а було некомфортно.Нині в мене інша проблема — я розумію, що є багато напрямків, де можна щось робити. Політика є в уряді, в громадському секторі, в державних корпораціях. Я сподіваюся, в якусь із цих галузей я подамся. Можна займатися громадським сектором, громадськими ініціативами. У мене є наша організація Go Global, яка займається англійською з дітьми і сходом.Другий напрям — це бізнес. Я отримав досить багато досвіду у сфері комунікацій, зокрема стратегічних комунікацій. Я розуміюся на цьому і можу консультувати.Третє — це виконавча влада. Зараз є усвідомлення, що можлива перспектива певних призначень.Якщо мені запропонують стати заступником у міністерстві, а міністром буде людина, яку я не сприймаю ідеологічно, то нащо йти на роботу, з якої будеш звільнятися?Я так розумію, що на депутатську зарплату тобі жити набридло? А зарплата чиновника — це не ті гроші, на які можна нормально жити. Я в парламенті заробляв у рази менше, ніж поза парламентом. На цю зарплату можна жити. Цю зарплату неможливо накопичувати. З нею дуже важко зняти квартиру в Києві. Я ніколи не отримував компенсацію за квартиру і жив у своїй. Я писав, крім цього ще й викладав. Тепер хочу якось облаштовувати і життя теж. І мені доведеться шукати додатковий прибуток.У державній службі, на позиції міністра, заступника міністра досить висока зарплата, до 70 — 80 тисяч гривень ($ 2700 — $ 3100). У державних корпораціях є висока зарплата, оскільки це господарюючі суб'єкти. Вони заробляють ринковим методом. Можливість є, треба дивитися.Ти ініціював, щоб підняли зарплату народним депутатам?Я першим про це сказав, я вважаю, що це правильно. Тоді на мене багато образилися. Нині я розумію, що ми були тим криголамом для тих, хто піде зараз.Щоби було зрозуміло: зарплата була 5 тисяч гривень ($ 194), вони прийдуть на зарплату майже в 40 тисяч гривень ($ 1552). Багато хто прийде з громадського сектора, в них іншого джерела доходів немає.Я скажу простим людям: не можна знущатися і казати, що депутат може прожити на ці гроші. Я розумію, що в країні все погано, мінімальна пенсія — 1500 гривень ($ 58), а зарплата — 4000 гривень ($ 155). Але тоді не довіряйте цим людям мільярди. Ця спокуса завелика. Ти не можеш очікувати від людини, у якої голодна родина, що вона не крастиме. Якщо ми як держава кажемо: «Ось наші гроші, там їхні мільярди, керуй ними, але ти отримуватимеш копійки», то ми самі себе обманюємо.«У нас дуже пасивна соціальна держава»Поговоримо про метафізику. Ми нині підходимо до Верховної Ради, багато хто каже, що там погана карма, погана атмосфера.Є одна така історія: коли потрапляєш до зали Верховної Ради, справді  досить швидко починаєш втомлюватися. Я не знаю природи цього явища. Я думаю, це шум, галас, 450 людей на одному місці.Друге — це постійна необхідність концентрувати на чомусь увагу.Третє, напевно, концентрація егоїзму, амбіцій, гріхів.Прокляте місце?Ні. Ми повинні розуміти, що серед 450 людей левова частка тих, для кого потрапити до парламенту було сенсом життя, вони — лідери для своїх середовищ. Вони вважають себе небожителями. Для багатьох вони герої. В них величезні амбіції. Вони керують якимись грошима. Багато хто пішов з бізнесу.Поза парламентом вони ходять з охороною, мигалками, хтось з глушилками. У когось будинок, вілла, дача, яхти, бізнес, заводи тощо. А тут він просто стоїть у костюмі і розмовляє з такими ж депутатами. І все це сконцентровано на одному майданчину. Звісно, це позначається на загальних настроях.Гаразд, а влада п’янить? У тебе було відчуття ейфорії? Так, але скажу, в якому сенсі. Коли влада п’янить, ти її використовуєш для себе, якихось історій. Та коли у тебе в руках є ресурс і ти не собі якісь плюшечки... До тебе приходить людина по допомогу, ти розумієш, що вона потрапила в несправедливу ситуацію. В цей момент у тебе вмикається драйв. Ти комусь щось доводиш, тоді і розумієш — це круто.У своїх останніх інтерв'ю ти кажеш, що припускався помилок. Яких головних помилок ти припустився?Були моменти, коли я пропускав важливі голосування. Або я, скажімо, помилково голосував не за ту поправку.Я знаю, що ти пишаєшся поліцейською реформою. Спершу була така ейфорія, а нині є відтік, зокрема через зарплати?По-перше, те, що буде відтік, ми завжди розуміли. По-друге, так, ейфорія, яка була, і ті очікування, які були від поліції, вони не збіглися, м'яко кажучи. З іншого боку, та частина, до якої я був причетний, стала ліпше, ніж була до.Це означає, що вони ідеальні? Ні. Означає, що це те, чого ми хотіли? Теж ні. Означає, що вони не беруть хабарі, не травмують людей? Ні, не означає. Але казати, що все погано і поліція все робить неправильно — теж неправда. Питання в тому, яке це контролювати.Фактично можна сказати просту річ: реформу розпочато. Величезна частина зроблена. А величезна частина — ні.Ти бачиш наш політичний цикл, ці гойдалки, коли обрали одних, потім цих не хочемо, повернімо старих. Переміг Ющенко, повернули Януковича. Переміг Порошенко. Тепер повернемо Бойка? Ні, я думаю, не повернемо. Думаю, “Партія регіонів” буде сходити нанівець, це такий вимираючий динозавр.У суспільстві завжди є попит на нових. Це нормально. Не зробили — давайте наступних. Ми ж гроші вам платимо. Це нормальне ставлення громадян до влади, якій вони платять. Будь-хто, хто заходить до будівлі парламенту, автоматично відчуває себе винуватим.Я пам'ятаю першу зустріч на цій площі, коли ми тільки прийшли. Це був перший місяць після обрання. Кажуть: але ж ви вкрали у нас пенсію. Я, лише ставши депутатом, зрозумів, що це зовсім інша реальність. У ній ти «вкрав пенсії, підвищив тарифи, вкрав у людей майбутнє, розпочав війну», в цій реальності ти винний. Тобі доведеться завжди відповідати, чому ти це не робив, а ось це — робив. Мені здається, це один з найбільших обов'язків політиків, на це йде багато часу і сил. Це нормальний стан політика — відчувати себе винним. Поки люди не стали щасливим, ти винний. Не подобається? Так не йди в політику. Тебе ніхто не примушував.Ми — соціальна держава?Ми не просто соціальна держава. Ми дуже швидко рухаємося в бік скандинавських країн, де величезний рівень перерозподілу, але там хороший рівень життя. А в нас великий перерозподіл, але низький рівень життя. Це означає, що десь хтось краде, щось йде не так.Треба навчити людей двох речей: перше — рахувати свої податки. Спитай будь-яку людину, скільки податків вона сплачує. Більшість скаже, що взагалі не сплачує. А ті, хто сплачують, не знають, скільки і за що. Коли ти порахуєш, що за дороги ти платиш мільйон чи півмільйона, ти скажеш: хлопці, дайте мені дорогу.Друге — вчити ставити державі питання з приводу своїх проблем, звертатися по інформацію, контролювати її. Багато людей забувають, що їм обіцяють. Вони пам'ятають, що обіцяли зниження тарифів, а не те, хто це робитиме, як, а робиться це чи ні?І це одне з головних очікувань виборців чинного президента?Всі люди кажуть про корупцію, тарифи, несправедливість тощо. Та найважче — зібрати людей на акції. Чому, вибач мені, сидіти вдома на кухні і обкладати всіх матом, розповідати, що всі політики мудаки — можна, але вийти один раз на акцію і вимагати антикорупційний суд — ні? Я думаю, тут дві причини. Перше — абстрагованість, відчуття, що влада, депутати, суспільне життя — там, а наше життя — тут. Мало хто виходить на акції. У нас дуже пасивна соціальна держава.Це при тому, що в нас було дві революції?Будьмо чесними щодо двох революцій. Скільки людей стояло на Майданах? Навіть якщо стояло два мільйони громадян, ми розуміємо, який це процес для держави. Ми забули, що коли в цьому парку забивали людей лопатами, на Оболоні було свято, дні народження, багато хто не знав, що тут відбувалося.Це не означає, що вони погані. Це означає, що ми повинні максимально розширити свою територію контролю. Не треба, щоб всі ходили на акції, протестували і не працювали. Але треба, щоб люди чітко усвідомлювали, що це — інструмент. Треба цим користуватися, це круто. Не просто так у Конституції написано, що люди можуть мирно збиратися і вимагати. Якщо ми не довіряємо владі, ми її обрали, але вона нам не подобається, тоді треба щось робити. Ось що мене розчаровує, якщо говорити про останні п'ять років. Загалом я вважаю, що люди сьогодні набагато освіченіші, ніж п'ять років тому.</t>
   </si>
   <si>
-    <t>getting on the council automatically lose trust person Mustafa Nayem I will hear each cadence Mustafa Nayem quality people's deputy Supreme Council Ukraine viii convocation couple month end journalist investigator together your colleague Sergey Leshchenko public activist Svetlana Zalishchuk get on the council list bloc Petro Poroshenko Mustafa run early elections parliament think engage public meet people's deputy talk go Supreme Council party Svyatoslav Vakarchuk voice sphere activity interest change reputation work parliament faction BPP non-team game conversation Petro Poroshenko bad karma building council permanent feeling of guilt position people's deputy euphoria power mistake help person salary official reform police social state people go out protest watch program I will hear run Supreme Council know say person write public recognition decide go Supreme I will count get give money get tired get married fucked up corrupt want to earn enough evil tongue formulate get a place passing list go first concern parliament second party go none passable arrange list party vote take old deputy deputy convocation old seem good relationship leader party svyatoslav vakarchuk personal relationship politics their decision learn media consider normal politically build strategy speak such narrative pity get life want dedicate other remaining history dedicate journalist greatest contempt cause deputy last cadence agony begin throw transition faction faction search money district any eye people become frantic aggressive opposite indicative nationality openness like glad history go go calmly rejoice yegor sobolev former journalist deputy viii convocation ex-chair public lustration committee ed ania hopko deputy viii convocation member coordinating council resuscitation package reform ed many colleague go understand life continue understand make parliament politics furnace must throw new person new idea new reputation one burn car leave salon lose getting into parliament automatically lose trust people treat institution treat last lose get supreme side loss one huge number person say explain reach out deputy stigma second history much more important majority colleague who communicate befriend cooperate parliament calmly speak polite smile gather meet swear trust each other nice lose wide circle narrow circle on the contrary express regret reason non-team think run for office bloc petro poroshenko illusion understand risk get into team do the right thing desire to go parliament say honestly nobody call nobody offer nobody bribe come petro oleksiyovych poroshenko want parliament three sergey leshchenko svetlana zalischuk red line we will campaign majoritarian know program adhere to formality</t>
+    <t>getting on the council automatically lose trust person Mustafa Nayem I will hear each cadence Mustafa Nayem quality people's deputy Supreme Council Ukraine viii convocation couple month end journalist investigator together your colleague Sergey Leshchenko public activist Svetlana Zalishchuk get on the council list bloc Petro Poroshenko Mustafa run early elections parliament think engage public meet people's deputy talk go Supreme Council party Svyatoslav Vakarchuk voice sphere activity interest change reputation work parliament faction BPP non-team game conversation Petro Poroshenko bad karma building council permanent feeling of guilt position people's deputy euphoria power mistake help person salary official reform police social state people go out protest watch program I will hear run Supreme Council know say person write public recognition decide go Supreme I will count get give money get tired get married fucked up corrupt want to earn enough evil tongue formulate get a place passing list go first concern parliament second party go none passable arrange list party vote take old deputy deputy convocation old seem good relationship leader party svyatoslav vakarchuk personal relationship politics their decision learn media consider normal politically build strategy speak such narrative pity get life want dedicate other remaining history dedicate journalist greatest contempt cause deputy last cadence agony begin throw transition faction faction search money district any eye people become frantic aggressive opposite indicative nationality openness like glad history go go calmly rejoice yegor sobolev former journalist deputy viii convocation ex-chair public lustration committee ed ania hopko deputy viii convocation member coordinating council resuscitation package reform ed many colleague go understand life continue understand make parliament politics furnace must throw new person new idea new reputation one burn car leave salon lose getting into parliament automatically lose trust people treat institution treat last lose get supreme side loss one huge number person say explain reach out deputy stigma second history much more important majority colleague who communicate befriend cooperate parliament calmly speak polite smile gather meet swear trust each other nice lose wide circle narrow circle on the contrary express regret reason non-team think run for office bloc petro poroshenko illusion understand risk get into team do the right thing desire to go parliament say honestly nobody call nobody offer nobody bribe come petro oleksiyovych poroshenko want parliament three sergiy leshchenko svetlana zalischuk red line we will campaign majoritarian know program adhere to formality</t>
   </si>
   <si>
     <t>Нафтогаз випустив євробонди на $1 млрд для підготовки до опалювального сезону. Нафтогаз завершив випуск єврооблігацій на 600 мільйонів євро та 335 мільйонів доларів для підготовки до опалювального сезону.Про це повідомляє прес-служба компанії.У євро компанія залучила загалом 600 мільйонів євро під 7,12% річних на 5 років. На 335 мільйонів доларів український газовий монополіст випустив євробонди на 3 роки під 7,35% річних. Сумарно в еквіваленті це близько 1 мільярда доларів.«Таким чином, розміщення відповідає максимальній сумі, погодженій Кабінетом міністрів України, та відбулося дешевше максимальної погодженої ставки. Єврооблігації випущені без державних гарантій», — розповіли в Нафтогазі.Там також зазначили, що попит на їхні цінні папери перевищував пропозицію у 2,5 рази. Тобто, якби уряд надав Нафтогазу відповідний дозвіл, то компанія могла б залучити 2,5 мільярди доларів.У Нафтогазі також зазначили, що готові були вийти на ринок євробондів ще у травні, однак дозвіл на випуск єврооблігацій уряд надав лише в липні.8 липня Нафтогаз розпочав road show єврооблігацій.Зазначимо, що Нафтогаз наразі прагне закачати до підземних сховищ щонайменше 20 мільярдів кубометрів газу — на 2 мільярди кубометрів більше, ніж зазвичай. Причина цього — ймовірна зупинка Росією транзиту газу до ЄС через Україну, яка ускладнить майбутній імпорт газу з ЄС.Нагадаємо, під час засідання Ради національної безпеки та оборони, президент України Володимир Зеленський закликав Нафтогаз почати підготовку до опалювального сезону, збільшивши обсяги закачування та видобутку газу.Згодом у Нафтогазі заявили, що припинять закачувати газ до підземних сховищ у серпні, якщо не знайдуть відповідних фінансових ресурсів.Раніше Нафтогаз повідомляв, що для підготовки до опалювального сезону Україні необхідно закачати газ до підземних сховищ, на що потрібно 1 мільярд доларів.Раніше стало відомо, що Нафтогаз почав переговори зі США про купівлю там скрапленого газу.</t>
@@ -904,13 +904,13 @@
     <t>Справа нацгвардійця Марківа: італійський суд просить прокуратуру порушити справу проти депутата Матківського. Італійський суд, який засудив українського нацгвардійця Віталія Марківа до 24 років в’язниці, також направив до Генпрокуратури запит щодо відкриття справи проти народного депутата України Богдана Матківського, який у 2014 році був командиром Марківа.Про це заявив речник Міністерства внутрішніх справ Артем Шевченко на мітингу в Києві під посольством Італії.Суддя зазначила, що «враховуючи» вирок Марківа запит направлений щодо відкриття справи про «співучасть у навмисному вбивстві» проти Матківського, який був безпосереднім командиром Марківа у 2014 році біля Слов’янська, де загинув італійський репортер.12 липня нацгвардійця Віталія Марківа, звинуваченого у причетності до вбивства італійського фотографа Андреа Роккеллі на Донбасі у 2014 році, суд Італії засудив до 24 років ув'язнення. При цьому італійський прокурор вимагав засудити Марківа до 17 років ув’язнення. Цей вирок будуть оскаржувати.В останньому слові Марків сказав, що є українським військовим, простим солдатом, патріотом, і додав, що завжди захищатиме Україну.Президент України Володимир Зеленський доручив Міністерству закордонних справ і Генпрокуратурі терміново зайнятися питанням повернення нацгвардійця Віталія Марківа.читайте такожчитайте також</t>
   </si>
   <si>
-    <t>case national guard Markiv Italian court request prosecutor's office to initiate case deputy Matkivskyi Italian court to convict Ukrainian national guard Vitaly Markiv send Prosecutor General's Office request to open case MP Ukraine Bogdan Matkivskyi commander Markiv declare spokesman Ministry of Internal Affairs Artem Shevchenko rally cue embassy Italy judge note considering verdict Markiv request sent to open case complicity intentional murder Matkivskyi direct commander Markiv die Italian July national guard Vitaly Markiv accused involvement murder Italian photographer Andrea Roccelli Donbas court Italy convict Italian prosecutor demand to convict Markiv verdict appeal last word Markiv Ukrainian military ordinary soldier patriot add protect Ukraine President Ukraine Volodymyr Zelensky instruct ministry foreign Prosecutor General's Office urgently deal with issue of return of National Guard Vitaly alsoread</t>
+    <t>case national guard Markiv Italian court request prosecutor's office to initiate case deputy Matkivskyi Italian court to convict Ukrainian national guard Vitaly Markiv send Prosecutor General's Office request to open case MP Ukraine Bogdan Matkivskyi commander Markiv declare spokesman Ministry of Internal Affairs Artem Shevchenko rally cue embassy Italy judge to note considering Markiv's verdict request sent to open case complicity intentional murder Matkivskyi direct commander Markiv die Italian July national guard Vitaly Markiv accused involvement murder Italian photographer Andrea Roccelli Donbas court Italy to convict Italian prosecutor demand to convict Markiv verdict appeal last word Markiv Ukrainian military ordinary soldier patriot add protect Ukraine President Ukraine Volodymyr Zelensky instruct ministry foreign Prosecutor General's Office urgently deal with the issue of returning National Guard Vitaly alsoread</t>
   </si>
   <si>
     <t>Найгірше Рада 8-го скликання працювала над економікою, судовою та правоохоронною реформами — депутатки. Найбільш проблемними та недопрацьованими Верховною Радою 8—го скликання сферами є економіка, судова та правоохоронна реформи.Про це в ефірі програми «Нині вже» на Громадському заявили народні депутатки Оксана Продан і Ганна Гопко, підбиваючи підсумки роботи Ради VIII скликання.«Ми дуже багато недопрацювали в економічному блоці, судовій реформі. Це ті речі, які потрібні України для того щоб країна рвонула вперед, могла максимально розвиватися економічно, створювати робочі місця, платити достойні зарплати і пенсії», — пояснила Оксана Продан.Членкиня Комітету з питань податкової та митної політики додала, що економіка, без урахування російської збройної агресії, сьогодні є найбільшим викликом.На думку Ганни Гопко, найгірше парламент впорався з проблемами економіки, судовою та правоохоронними реформами, але нагадала, що на долю 8-го скликання випала російська збройна агресія та війна на Сході.«Я сподіваюся, що вже в новому скликанні ми побачмо імплементацію закону про національну безпеку, реформу СБУ, створення парламентського комітету з нагляду над спецслужбами», — сказала очільниця Комітету Верховної Ради у закордонних справах.Вона також сподівається, що новий парламент «не буде чіпати тих здобутків, які є в питаннях ідентичності України», до яких Гопко зараховує декомунізацію, закон про мову, квоти для українських пісень.Обидві депутатки не збираються йти у наступний парламент.Нагадаємо, п’ятниця 12 липня стала останнім робочим днем парламенту VIII скликання. Ця Верховна рада три місяці не дотягнула до кінця своїх повноважень і завершила роботу на мажорній ноті, — ухваливши виборчий кодекс. Про найцікавіші моменти в роботі народних депутатів — у матеріалі Громадського.читайте також</t>
   </si>
   <si>
-    <t>The worst convocation council to work economy judicial law enforcement reform deputy problematic underworked supreme council convocation sphere economy judicial law enforcement reform broadcast program now public to declare people's deputy Oksana sold Hanna Hopko summing up work council viii convocation underworked economic block judicial reform thing needed Ukraine country to move forward to be able to develop as much as possible economically create a workplace pay a decent salary pension explain Oksana sold member committee question tax customs policy add economy accounting Russian armed aggression the biggest challenge opinion Anna Hopko the worst parliament to deal with the problem economy judicial law enforcement reform remind the fate of the convocation fall out Russian armed aggression war east hope new convocation let's see implementation law national security reform sbu creation parliamentary committee supervision special service chief Committee of the Supreme Council foreign affairs, hope, new parliament, touch the gains, the question, the identity of Ukraine, hopko, count, decommunization, the law, the language, the quota, the Ukrainian song, both deputies, gather, go, the next parliament, remind, July will be the last working day of the parliament, the 8th convocation, the Supreme Council, the month, the end of the mandate, the end of the mandate, the end of the work, the major note, having adopted the election code, the most interesting moment, the work of the people MP material</t>
+    <t>The worst council convocation work economy judicial law enforcement reform deputy problematic unfinished supreme council convocation sphere economy judicial law enforcement reform broadcast program now public declare people's deputy oksana prodan anna hopko summing up work council viii convocation unfinished economic bloc judicial reform thing needed ukraine country rush forward be able to develop as much as possible economically create a job pay a decent salary pension explain oksana prodan member committee issue tax customs policy add economy accounting russian armed aggression biggest challenge opinion anna hopko worst parliament cope problem economy judicial law enforcement reform remind fate convocation fall out russian armed aggression war east hope new convocation let's see implementation law national security reform sbu creation parliamentary committee supervision special service head committee supreme council foreign affairs hope new parliament touch achievement issue identity Ukraine Hopko count decommunization law language quota Ukrainian song both deputy gather go next parliament remind July become last working day parliament viii convocation Supreme Council month reach the end of the term complete work major note adopting the electoral code most interesting moment work people's deputy material</t>
   </si>
   <si>
     <t>Президія рекомендувала звільнити президента Федерації велоспорту, який нахамив спортсменці. Президія Федерації велоспорту рекомендувала виключити зі складу організації її президента Олександра Башенка, який нахамив спортсменці Ганні Соловей.Таке рішення ухвалили на засіданні 12 липня.Так, члени президії визнали, що поведінка Башенка несумісна з членством у федерації, тому рекомендували виключити його з її складу. Таким чином, якщо Дирекція організації підтвердить це рішення, Башенко більше не буде президентом Федерації велоспорту.У цьому випадку виконувати обов’язки очільника організації буде віце-президент Андрій Гривко.На 20 серпня призначена конференція Федерації велоспорту, на якій упродовж 30 днів мають обрати її нового президента.Нагадаємо:дивіться також</t>
@@ -922,7 +922,7 @@
     <t>Зеленський доручив МЗС і ГПУ терміново зайнятися поверненням нацгвардійця Марківа. Президент України Володимир Зеленський доручив Міністерству закордонних справ і Генпрокуратурі терміново зайнятися питанням повернення нацгвардійця Віталія Марківа, засудженого італійським судом до 24 років тюрми.Про це повідомляє прес-служба глави держави.«Прошу забути про політичні розбіжності між новою владою та незміненими керівниками цих відомств і докласти максимум зусиль для видачі Україні колишнього бійця батальйону Нацгвардії імені Кульчицького Віталія Марківа», — сказав Зеленський.Також він доручив українським дипломатом завжди буди на зв’язку із засудженим українцем.12 липня нацгвардійця Віталія Марківа, звинуваченого у причетності до вбивства італійського фотографа Андреа Роккеллі на Донбасі у 2014 році, суд Італії засудив до 24 років ув'язнення. При цьому італійський прокурор вимагав засудити Марківа до 17 років ув’язнення. Цей вирок будуть оскаржувати.В останньому слові Марків сказав, що є українським військовим, простим солдатом, патріотом, і додав, що завжди захищатиме Україну.читайте такожчитайте також</t>
   </si>
   <si>
-    <t>Zelensky instructs the Ministry of Foreign Affairs of the GPU to urgently deal with the return of National Guard member Markiv, President of Ukraine Volodymyr Zelensky instructs the Ministry of Foreign Affairs, Prosecutor General's Office to urgently deal with the issue of the return of National Guard member Vitaly Markiv, convicted, Italian court, prison, report, press service, head of state, forget, political, disagreement, new, power, unchanged, head, department, make maximum efforts, extradition, Ukraine, former fighter, battalion, National Guard, name, Kulchytsky, Vitaly Markiv, Zelensky instructs the Ukrainian diplomat, be convicted, July, National Guard member Vitaly Markiv, accused, involvement, murder, Italian photographer, Andrea Roccelli, Donbas, court, Italy, convict, Italian prosecutor, demand, convict, Markiv, verdict, appeal, the last word, Markiv, Ukrainian military, ordinary soldier, patriot, add, protect, also read</t>
+    <t>Zelensky instructs the Ministry of Foreign Affairs of the GPU to urgently deal with the return of National Guard member Markiv, President of Ukraine Volodymyr Zelensky instructs the Ministry of Foreign Affairs, Prosecutor General's Office to urgently deal with the issue of the return of National Guard member Vitaly Markiv, convicted, Italian court, prison, report, press service, head of state, forget, political, disagreement, new, power, unchanged, head, department, make maximum efforts, extradition, Ukraine, former fighter, battalion, National Guard, name, Kulchytsky, Vitaly Markiv, Zelensky instructs the Ukrainian diplomat, be convicted, July, National Guard member Vitaly Markiv, accused of involvement in the murder, Italian photographer, Andrea Roccelli, Donbas, court, Italy, convict, Italian prosecutor, demand, convict, Markiv, verdict, appeal, the last word, Markiv, Ukrainian military, ordinary soldier, patriot, add, protect, also read</t>
   </si>
   <si>
     <t>Під посольством Італії вимагають звільнити нацгвардійця Марківа: принесли порожні коробки з-під піци. Близько 300 людей влаштували акцію під посольством Італії в Києві із вимогою звільнити українського нацгвардійця Віталія Марківа, засудженого італійським судом до 24 років тюрми.Про це повідомляє кореспондентка Громадського.Учасники акції принесли під посольство Італії порожні коробки з-під піцци та банер FreeMarkiv.Мітингарі скандували «Свободу Віталію Марківу!».12 липня нацгвардійця Віталія Марківа, звинуваченого у причетності до вбивства італійського фотографа Андреа Роккеллі на Донбасі у 2014 році, суд Італії засудив до 24 років ув'язнення. При цьому італійський прокурор вимагав засудити Марківа до 17 років ув’язнення. Цей вирок будуть оскаржувати.В останньому слові Марків сказав, що є українським військовим, простим солдатом, патріотом, і додав, що завжди захищатиме Україну.читайте такожчитайте також</t>
@@ -940,7 +940,7 @@
     <t>Іран пообіцяв продовжити експортувати нафту «за будь-яких обставин». Іран продовжить експортувати свою нафту, незважаючи на санкції із боку Сполучених Штатів.Про це іранський міністр закордонних справ Мохаммад Джавад Заріф заявив у телефонній розмові зі своїм британським колегою Джеремі Хантом, передає іранське інформаційне агентство Mehr.Діалог між двома міністрами, за інформацією Mehr, відбувся вдень 13 липня.«Підкресливши незаконність нафтових санкцій США, міністр закордонних справ Ірану заявив, що Ісламська Республіка продовжуватиме експортувати свою нафту за будь-яких обставин», — наводить деталі цієї розмови агентство.Також глави МЗС обговорили затримання у водах Гібралтарської протоки супертанкера Grace1, який перевозив іранську сиру нафту на підприємство, що знаходиться у Сирії. Заріф, за інформацією Mehr, звернув увагу Ханта на те, що «Європейський Союз, який постійно виступає проти вторинних санкцій США, не може вчиняти таких дій». У зв'язку із цим він закликав негайно вжити необхідних заходів, щоб покласти край «незаконному захопленню іранського танкера».Хант, реагуючи на це, висловив надію на те, що Grace 1 звільнять за підсумками судового процесу в Гібралтарі.4 липня поліцейські і митні органи Гібралтару за підтримки загону британських морських піхотинців затримали іранський танкер Grace 1. За їхньою версією, судно мало доставити нафту на нафтопереробний завод в провінції Тартус на північному заході Сирії в обхід санкцій США. Тегеран це заперечував і висловив Лондону протест і пригрозив симетричною відповіддю.Незабаром представник уряду Великої Британії повідомив, що три військові кораблі Ірану намагалися захопити нафтовий танкер British Heritage у Перській затоці. Іран ці звинувачення відкидає.Пізніше стало відомо, що на борту іранського танкера Grace 1 є громадяни України.читайте такожСанкції проти ІрануПісля повалення шаха Мохаммед Реза Пахлаві і приходу до влади аятоли Рухолла Мусаві Хомейні на хвилі Ісламської революції (1978-1979), відносини США та Ірану різко загострилися. Кульмінацією стало захоплення в заручники американських дипломатів у Тегерані 4 листопада 1979 (звільнені в січні 1981 року, спецоперація «Канадська хитрість»). Результат — розрив дипломатичних відносин і введення перших санкцій Вашингтона проти Іламської Республіки Іран, зокрема ембарго на постачання іранської нафти у США.У наступні роки, звинувачуючи Тегеран у підтримці тероризму і розробці ядерної зброї, Вашингтон неодноразово вводив або посилював вже діючі обмежувальні заходи відносно цієї країни, зокрема в нафтовій сфері.20 січня 2014 року, коли набула чинності «ядерна угода», підписана 24 листопада 2013 року Іраном і «шісткою» міжнародних посередників — Великою Британією, Китаєм, США, Францією, Німеччиною та Росією, Вашингтон послабив санкції відносно експорту іранської нафти, призупинив обмеження для іноземців, навіть на транзакції, пов'язані з експортом іранської нафтохімічної продукції. У листопаді 2014 року припинено дію санкцій США щодо третіх країн.У своїй передвиборчій програмі президент США Дональд Трамп обіцяв протидіяти зміцненню Ірану як головного, на його думку, спонсора ісламського тероризму. 13 жовтня 2017 року він виклав більш жорстку стратегію Вашингтона по відношенню до Тегерану, згідно з якою США мають намір протистояти його «дестабілізуючому впливу».8 травня 2018 року Трамп заявив, що Сполучені Штати вийдуть з угоди щодо іранської ядерної програми й відновлять санкції проти Ірану. Іран назвав вихід США з ядерної програми «незаконним».У листопаді 2018 року старі санкції проти Ірану, що включають заборону на закупівлю нафти, відновлені в повному обсязі. Сполучені Штати надали деяким країнам тимчасові дозволи на закупівлі нафти в Ірану (дійсні до травня 2019 року). 22 квітня 2019 року американська адміністрація оголосила, що не буде продовжувати терміни дії цих винятків.</t>
   </si>
   <si>
-    <t>Iran promises to continue exporting oil despite sanctions Iran continues to export oil despite sanctions US Iranian Foreign Minister Mohammad Javad Zarif says he has spoken to his British counterpart Jeremy Hunt about the Iranian news agency Mehr, a dialogue between the two ministers, according to the report. The two ministers spoke on the phone on July 11, according to the report. The two ministers spoke to the Iranian news agency Mehr, a dialogue between the two ministers, according to the report. The two ministers spoke to the report. The two ministers discussed the detention of a tanker in the Strait of Gibraltar, carrying Iranian crude oil, and were briefed by the foreign minister. The Iranian foreign minister said the Islamic Republic of Iran continues to export oil despite sanctions. The two ministers discussed the detention of a tanker in the Strait of Gibraltar, carrying Iranian crude oil, and were briefed by the foreign minister. The European Union has repeatedly called for the necessary measures to be taken to end the illegal seizure of the Iranian tanker Grace. The Iranian foreign minister responded by expressing hope that Grace would be released after the trial ended in July. The Gibraltar Police and Customs Department supported a team of British marines to detain the Iranian tanker Grace. version ship deliver oil refinery province tartus northwest syria bypass sanction usa tehran deny express london protest threaten symmetrical response soon representative government great britain report warship iran try to seize oil tanker british heritage persian gulf iran accusations reject become known board iranian tanker grace citizen alsosanctions iranafter overthrow shah mohammed reza pahlavi coming to power ayatollah ruhollah mousavi khomeini wave islamic revolution relations usa iran sharply escalate climax become capture hostage american diplomat tehran november released january special operation canadian trick result rupture diplomatic relations introduction first sanction washington islamic republic of iran in particular embargo supply iranian oil next accusing tehran support terrorism development nuclear weapons washington repeatedly introduce strengthened existing restrictive measure against country in particular oil january come into force nuclear deal signed november iran six international mediator great britain china usa france germany russia washington loosen sanctions on iran oil exports suspend restrictions foreign transaction export iran petrochemical products november stop action sanctions usa third country election program usa president donald trump promise to counter strengthening iran main opinion sponsor islamic terrorism october lay out tough strategy washington relationship tehran according to which usa intend to resist destabilizing may trump declare united states exit agreement iran nuclear program restore sanctions iran iran call exit usa nuclear program november old sanctions iran include ban on oil purchases restored full volume usa provide some country temporary permission to purchase iran oil valid may apr</t>
+    <t>Iran promises to continue exporting oil despite sanctions Iran continues to export oil despite sanctions US Iranian Foreign Minister Mohammad Javad Zarif says he has spoken to his British counterpart Jeremy Hunt about the Iranian news agency Mehr, a dialogue between the two ministers, according to the report. The two ministers spoke on the phone on July 11, according to the report. The two ministers spoke to the Iranian news agency Mehr, a dialogue between the two ministers, according to the report. The two ministers spoke to the report. The two ministers discussed the detention of a tanker in the Strait of Gibraltar, carrying Iranian crude oil, and were briefed by the foreign minister. The Iranian foreign minister said the Islamic Republic of Iran continues to export oil despite sanctions. The two ministers discussed the detention of a tanker in the Strait of Gibraltar, carrying Iranian crude oil, and were briefed by the foreign minister. The European Union has repeatedly called for the necessary measures to be taken to end the illegal seizure of the Iranian tanker Grace. The Iranian foreign minister responded by expressing hope that Grace would be released after the trial ended in July. The Gibraltar Police and Customs Department supported a team of British marines to detain the Iranian tanker Grace. version ship deliver oil refinery province tartus northwest syria bypass sanction usa tehran deny express london protest threaten symmetrical response soon representative government great britain report warship iran try to seize oil tanker british heritage persian gulf iran accusations reject become known board iranian tanker grace citizen alsosanctions iranafter overthrow shah mohammed reza pahlavi coming to power ayatollah ruhollah mousavi khomeini wave islamic revolution relations usa iran sharply escalate climax become capture hostage american diplomat tehran november released january special operation canadian trick result rupture diplomatic relations introduction first sanction washington islamic republic of iran in particular embargo supply iranian oil next accusing tehran support terrorism development nuclear weapons washington repeatedly introduce strengthened existing restrictive measure against country in particular oil january come into force nuclear deal signed november iran six international mediator great britain china usa france germany russia washington loosen sanctions on iran oil exports suspend restrictions foreign transaction export iran petrochemical products november stop action sanctions usa third country election program usa president donald trump promise to counter strengthening iran main opinion sponsor islamic terrorism october lay out tough strategy washington relationship tehran according to which usa intend to resist destabilizing may trump declare united states exit agreement iranian nuclear program restore sanctions iran iran call exit usa nuclear program november old sanctions iran include ban on oil purchases restored full volume united states provide some country temporary permission to purchase oil iran valid may apr</t>
   </si>
   <si>
     <t>Патрія «Слуга народу» готова люструвати Данилюка і Абромавичуса — Корнієнко. Партія Слуга народу готова люструвати членів своєї команди Айвараса Абромавичуса, Олександра Данилюка та Вадима Пристайка у випадку розширення дії закону про люстрацію на низку посад часів президентства Петра Порошенка.Про це повідомив керівник передвиборчого штабу політичної сили Олександр Корнієнко в інтерв'ю Радіо Свобода.«Ну, тут ліс «рубають — летять друзки»… Якщо ми приймемо загальний принцип, то я думаю, що наші учасники команди зрозуміють, що це командна історія. Треба буде цьому загальному принципу підкоритися», — сказав керівник штабу.Він заперечує, що це буде «не по-людськи» стосовно членів команди президента.12 липня президент Володимир Зеленський вніс до Верховної Ради законопроєкт, яким пропонує розширити дію закону про очищення влади (люстрацію) на депутатів та топ-високопосадовців, які працювали в Україні з 23 лютого 2014 року до 19 травня 2019 року.23 травня Мін'юст направив в Адміністрацію президента листа для проведення люстраційної перевірки глави АП Андрія Богдана.До цього заступник міністра юстиції Сергій Петухов заявив, що Богдан підпадає під дію закону про люстрацію.Авторка закону про люстрацію також вважає, що призначення Богдана главою АП є порушенням закону.Водночас радник президента Володимира Зеленського Дмитро Разумков заявив, що Богдан не підпадає під дію закону про люстрацію, бо посада глави АП не є державною службою.21 травня президент Володимир Зеленський видав низку указів щодо призначення заступників голови Адміністрації президента, помічників президента та радників.Адміністрацію президента очолив Андрій Богдан, який також є адвокатом олігарха Ігоря Коломойського.читайте також</t>
@@ -988,7 +988,10 @@
     <t>В Індії розробили програму боротьби із забрудненням повітря «Обмеження і торгівля». В індійському штаті Гуджарат розробили програму боротьби з забрудненням повітря. Смог став причиною загибелі 1,2 мільйона індійців у 2017 році.Як пише BBС, перша у світі подібна програма запрацює в місті Сурат — центрі текстильного і фарбувального виробництва країни. Із 2011 року місцеві органи по боротьбі із забрудненням працюють над обмеженням викидів разом із Чиказьким і Гарвардським університетами.Уряд встановить межу забруднення навколишнього середовища і видаватиме фабрикам дозвіл на певну кількість викидів. Різні галузі зможуть торгувати дозволами між собою. Загальна кількість дозволів фіксована, відповідно стандарти забруднення повітря будуть дотримуватися. Експерти відзначають, що подібна «торгова» система буде стимулювати скорочення викидів.«Забруднення повітря вкорочує життя в Індії, тому, якщо пілотний проект буде успішним, є приголомшлива можливість отримати безпрограшний варіант за рахунок збільшення торгівлі викидами із метою скорочення витрат, дотримання нормативних вимог у промисловості та поліпшення якості повітря, що в кінцевому підсумку поліпшить здоров'я людей», — пояснив Майкл Грінстоун, економіст і директор Інституту енергетичної політики в Чикаго (EPIC).Концентрація шкідливих речовин в Індії у вісім разів перевищує стандарт Всесвітньої організації охорони здоров'я. Забруднення повітря в основному викликано випарами від приготування їжі на дровах, поєднанням вихлопних газів, сажі і будівельного пилу та промислових викидів у містах.Раніше Європейська агенція з охорони навколишнього середовища опублікувала доповідь, за якою в Європі рівень забруднення повітря все ще перевищує допустимі норми, які встановила Всесвітня організація охорони здоров’я, попри кроки країн до усунення цієї проблеми.читайте також</t>
   </si>
   <si>
-    <t>India to develop a program to combat air pollution trade restrictions Indian state Gujarat to develop a program to combat air pollution smog the cause of death million Indians write bbs first world similar program will work city of Surat center textile dyeing production country local authority to combat pollution work emission restrictions together with Chicago Harvard University government set pollution limit environment issue factory permit certain amount emission different industry be able to trade permit total amount permit fixed accordingly air pollution standard comply expert mark similar trading system stimulate reduction air emission shorten life india pilot project successful stunning opportunity to get a win-win account increase trade emission target reduction consumption compliance regulatory requirement industry improvement air quality end result improve man explain michael greenstone economist director institute energy policy chicago harmful substance india once exceed standard world organization protection air pollution mainly cause vapor cooking food firewood combination exhaust gas soot construction dust industrial emission city European agency environment protection publish a report which Europe level of air pollution exceed the permissible norm establish world organization protection despite step country elimination</t>
+    <t>india develop program fight air pollution restrictions trade indian state gujarat develop program fight air pollution smog cause death million indian write bbc first world similar program will work city surat center textile dyeing production country local authority fight pollution work emission restrictions together chicago harvard university government set limit pollution environment issue factory permit certain amount of emission different industry be able to trade permit total amount of permit fixed according to air pollution standard comply expert note similar trading system stimulate reduction of air emissions shorten life india pilot project successful stunning opportunity to get win-win option account increase trade emission goal reduction consumption compliance regulatory requirement industry improvement air quality end result improve person explain michael greenstone economist director institute energy policy chicago harmful substance india times exceed standard world organization protection air pollution mainly cause evaporation cooking food wood combination exhaust gas soot construction dust industrial emission city European agency protection environment publish report which Europe air pollution level exceed permissible norm establish worldwide organization protection despite step country elimination</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
   <si>
     <t>«Ніч з Олегом Сенцовим»: у Києві відбулась мистецька акція до Дня народження українського політв’язня . Активісти ініціативи Save Oleg Sentsov провели у Києві мистецький захід «Ніч з Олегом Сенцовим», присвячений Дню народження режисера.дивіться такожОлегу Сенцову сьогодні, 13 липня, виповнилось 43 роки. Це шостий день народження, який український режисер зустрічає у російській колонії.Під час «Ночі з Олегом Сенцовим» в артпросторі IZONE в Києві звучали твори режисера, відбувся кінопоказ документального фільму «Етапом через пів-землі» Громадського.До участі у акції долучились сестра режисера Наталя Каплан, актор Євген Черніков, лідер гурту «Бумбокс» Андрій Хливнюк, письменник Андрій Курков, Анатолій Тапольський (Dj Tapolsky), лідер групи «Вагоновожаті» Антон Слепаков, учасник «Оркестру Че» Олег Каданов, письменниця Світлана Поваляєва та ін.Усі охочі можуть підписати привітання Олегу Сенцову, яке буде надіслане в колонію на крайню північ Російської Федерації, де відбуває покарання за незаконно засуджений український режисер.Як написати листа Олегу Сенцову? Можна написати друкованого листа чи від руки.Індекс: 629400Куди: Ямало-Ненецкий авт. округ, г. Лабытнанги, ул. Северная, 33, ФКУ ИК-8 УФСИН России по ЯНАОКому: Сенцову Олегу Геннадьевичу, 1976 г.р.Також можна надіслати електронного листа:Для цього треба зайти на сайт Федеральної системи виконання покарань РФ: https://fsin-pismo.ru/client/app/letter/createТам потрібно заповнити форму:У графі регіон вказати «Ямало-Ненецкий автономный округ».Учреждение: ИК-8 ЛабытнангиФИО: Сенцов Олег ГеннадиевичДата рождения: 1976 год.Далі з’явиться вікно, де можна набрати текст.Якщо хочете отримати відповідь, помітьте графу «получить ответ» — тоді Олег Сенцов отримає бланк, відповідь на якому ви отримаєте у сканованій копії на вашу електронну пошту.Такий лист платний: лист на три сторінки коштує 100 гривень. За окрему платню також можна докласти фото, яке Олег отримає видрукований як чб-копію.Кількість листів і відповідей на місяць необмежене.Усі листи проходять цензуру: про політику писати можна, але не варто писати «Крим — це Україна» чи заклики до повалення правлячого режиму в Росії. Писати краще російською, адже тоді вони швидше пройдуть перевірку.слухайте також10 травня виповнилось 5 років з дня арешту Олега Сенцова. Велику частину цього терміну українські політв'язні провели в тюрмах Росії. Режисер і активіст Олег Сенцов, засуджений на 20 років за сфабрикованою справою, перебуває в колонії в місті Лабитнангі в Заполяр'ї. У 2018-му Олег 145 днів голодував із вимогою звільнити всіх українських політв'язнів Росії — тоді їх було понад 70 людей. читайте також</t>
@@ -1006,7 +1009,7 @@
     <t>У Києві розпочалась акція «Ніч з Олегом Сенцовим» до Дня народження політв’язня. У Києві розпочалася мистецька акція до Дня народження українського політв‘язня Олега Сенцова «Ніч з Олегом Сенцовим».Про це повідомляє кореспондентка Громадського.Правозахисники, активісти ініціативи «Save Oleg Sentsov» запросили українських музикантів, письменників, родичів та близьких політв‘язнів, утримуваних у Росії, а також усіх охочих привітати українського режисера, якого утримують у російській колонії в арктичній зоні. На заході читатимуть тексти Сенцова, показуватимуть документальний фільм Громадського «Етапом через пів-Землі», який розповідає про умови утримання Олега Сенцова та Олександра Кольченка.На заході можна буде підписати привітання Олегу Сенцову, яке буде надіслане в колонію, де утримається режисер.Раніше повідомлялось, що Олегу Сенцову сьогодні, 13 липня, виповнюється 43 роки. Це шостий день народження, який український режисер зустрічає у російській колонії.10 травня виповнилось 5 років з дня арешту Олега Сенцова. Велику частину цього терміну українські політв'язні провели в тюрмах Росії. Режисер і активіст Олег Сенцов, засуджений на 20 років за сфабрикованою справою, перебуває в колонії в місті Лабитнангі в Заполяр'ї. У 2018-му Олег 145 днів голодував із вимогою звільнити всіх українських політв'язнів Росії — тоді їх було понад 70 людей. читайте також</t>
   </si>
   <si>
-    <t>cue to start action night oleg sentsov birth cue to start artistic action birth ukrainian oleg sentsov night oleg report correspondent public human rights activist activist initiative save oleg sentsov invite ukrainian musician writer relative close detainee russia willing to congratulate ukrainian director detain russian colony arctic zone event read text sentsov show documentary public stage half earth tell condition of detention oleg sentsov oleksandr kolchenko event sign greeting oleg sentsov which sent colony abstain director report oleg sentsov july fulfill birth ukrainian director meet russian may fulfill arrest oleg sentsov large part term ukrainian hold prison russia director activist oleg sentsov convicted fabricated case stay colony city labytnangi oleg day hunger strike demand release ukrainian russia over person read</t>
+    <t>cue to start action night oleg sentsov birth cue to start artistic action birth ukrainian oleg sentsov night oleg report correspondent public human rights activist initiative save oleg sentsov invite ukrainian musician writer relative close detainee russia willing to congratulate ukrainian director detain russian colony arctic zone event read text sentsov show documentary public stage half earth tell condition of detention oleg sentsov oleksandr kolchenko event sign greeting oleg sentsov which sent colony abstain director notify oleg sentsov july fulfill birth ukrainian director meet russian may fulfill arrest oleg sentsov large part term ukrainian hold prison russia director activist oleg sentsov convicted fabricated case stay colony city labytnangi oleg day hunger strike demand release ukrainian russia over person read</t>
   </si>
   <si>
     <t>Німеччина, Франція та Велика Британія закликали Іран зберегти ядерну угоду. Німеччина, Франція та Велика Британія закликали владу Ірану дотримуватись умов ядерної угоди.Про це повідомляє Deutsche Welle.«Хоча ми як і раніше підтримуємо угоду, проте продовження її існування залежить від того, щоб Іран беззастережно дотримувався своїх зобов'язань. У зв'язку з цим ми наполегливо закликаємо Іран переглянути нещодавно прийняті ним рішення», — йдеться у спільній заяві трьох країн.Крім того, у заяві згадується рішення офіційного Тегерана збагачувати уран більше обумовленого угодою рівня і зберігати ядерні матеріали в більших, ніж дозволено, обсягах.Три європейські країни стурбовані ризиком того, що ядерна угода буде порушена ще більше через санкційний тиск з боку США та рішення Ірану не дотримуватися положень угоди.ФРН, Франція і Велика Британія вказали на необхідність продовжувати діалог щодо ядерної угоди. Водночас вони висловили стурбованість у зв'язку з серією нападів на танкери в районі Перської затоки і загальним зростанням напруженості в регіоні.Нагадаємо, 8 травня 2018 року президент США Дональд Трамп заявив, що Сполучені Штати вийдуть з угоди щодо іранської ядерної програми й відновлять санкції проти Ірану. Іран назвав вихід США з ядерної програми «незаконним».8 травня Іран відмовився виконувати частину зобов'язань, прописаних в міжнародній ядерній угоді 2015 року, з якої у 2018-му вийшли США.Раніше прем’єр-міністр Ізраїлю Беньямін Нетаньягу заявив про розкриття «таємних документів», згідно з якими Іран порушив ядерну угоду та продовжував розробляти зброю. Після чого Ізраїль перевів війська в стан підвищеної боєготовності через активність Ірану в Сирії.У зв’язку з відновленням США санкцій, про припинення комерційних проектів в Ірані заявила французька енергетична компанія Total, а також дві найбільші європейські авіакомпанії. Водночас, Єврокомісія заявила про виділення Ірану фінансової допомоги у розмірі 18 мільйонів євро.Крім цього, уряд Ірану підписав договір про військове співробітництво з режимом Асада у Сирії.У 2015 році Іран уклав угоду зі США і провідними країнами про відмову від розробки ядерної зброї в обмін на зняття деяких економічних санкцій, в тому числі — заборони на міжнародну торгівлю нафтою.Уряди провідних європейських країн вважають угоду з Іраном важливою умовою для міжнародної безпеки.Водночас низка країн, зокрема чинна адміністрація США та Ізраїль, висловлюють побоювання, що угода не дає твердих гарантій відмови Ірану від розробки ядерної зброї.</t>
@@ -1054,7 +1057,7 @@
     <t>«Ти нахабний хам, дармоїд і нероба»: ексрегіонал Колесніков «поспілкувався» з виборцями. У мережі з'явилося відео спілкування кандидата в депутати від «Опозиційного блоку» по 49 округу (Донецька область) Бориса Колеснікова з виборцями. За контекстом відео можна зрозуміти, що один з виборців запитав Колеснікова про вирубку дерев, на що він відповів що «такому мордовороту вирубувати нічого не буде».Відео опублікувала «Українська правда» на своєму Telegram-каналі.«Та що ти мені, ти подивись на себе з боку. Ти на себе подивись, який дармоїд, пика вже у фотографію не влазить, і сидиш мене вчиш — я до тебе поїду дерева вирубувати. А у нас приберіть ось це! А як мені з тобою розмовляти? Тому що ти нахабний хам, дармоїд і нероба. Я не знаю, дивлячись на твоє відношення, ти нахабний хам, от і все. А ти голосуй за кого хочеш. За Гнатенка, який приїде сюди, проголосуй. Я купив нові ліфти в Костянтинівці за 350 тисяч, а він відремонтував старі по 600», — говорить кандидат.Після цього приниження один з виборців передає Колеснікову пакет з передвиборчою агітацією, на що той відповідає: «Собі засунь його, знаєш куди. Опудало городнє».Нагадаємо, що на вибори у Верховну Раду Борис Колесніков йде від «Опозиційного блоку» по 49 округу, куди входять Дружківка, Костянтинівка, Покровський і Костянтинівський райони Донецької області.Борис Колесніков — уродженець Донецької області, колишній секретар президії «Партії регіонів», колишній народний депутат, віцепрем'єрміністр і міністр інфраструктури в уряді Миколи Азарова (з 2010 по 2012 рік).Раніше в «Опоблоці» розповіли про своє ставлення до легалізації марихуани та одностатевих шлюбів.\Андрій Андрійченкочитайте також</t>
   </si>
   <si>
-    <t>impudent boor parasite idler ex-regional Kolesnikov communicate voter network video communication candidate deputy opposition bloc district Donetsk region Boris Kolesnikov voter context video understand voter ask Kolesnikov felling tree answer such a face turn to cut down video publish Ukrainian truth your telegram channel look side look parasite face photo climbs sit learn go cut down tree remove talk impudent boor parasite idler know looking attitude impudent boor here vote gnatenko come here vote buy a new elevator Kostyantynivka renovated old candidate humiliation voter pass Kolesnikov package election campaign answer push know scarecrow remind elections Supreme Council Boris Kolesnikov go opposition bloc district enter Druzhkivka Kostyantynivka Pokrovsky Kostyantynivskyi district Donetsk region Boris Kolesnikov native Donetsk region former secretary of the presidium party region former MP minister infrastructure government mykola azarov opobloc tell attitude legalization marijuana same-sex andriychenko read</t>
+    <t>impudent boor parasite idler ex-regional Kolesnikov communicate voter network video communication candidate deputy opposition bloc district Donetsk region Boris Kolesnikov voter context video understand voter ask Kolesnikov felling tree answer such a face turn to cut down video publish Ukrainian truth your telegram channel look side look parasite face photo climbs sit learn go cut down tree clean up talk impudent boor parasite idler know looking attitude impudent boor here vote gnatenko come here vote buy a new elevator Kostyantynivka renovated old candidate humiliation voter pass Kolesnikov package election campaign answer push know scarecrow remind elections Supreme Council Boris Kolesnikov go opposition bloc district enter Druzhkivka Kostyantynivka Pokrovsky Kostyantynivskyi district Donetsk region Boris Kolesnikov native Donetsk region former secretary of the presidium party region former MP minister infrastructure government mykola azarov opobloc tell attitude legalization marijuana same-sex andriychenko read</t>
   </si>
   <si>
     <t>У ДТП за участі підприємця загинула жінка. Підприємець Олексій Сердюков, якого низка ЗМІ назвали главою полтавської організації партії «Слуга народу», зізнався, що став учасником смертельної ДТП на Полтавщині.Про це сам Сердюков написав на своїй сторінці у Facebook.За даними поліції, 13 липня на автодорозі Полтава-Суми сталося зіткнення авто ВАЗ-21 099 і Toyota Сorolla.Внаслідок аварії загинула 39-річна пасажирка ВАЗа. Її донька і водій авто знаходяться у важкому стані.Постраждали також водій і пасажир Toyota.«За кермом автомобіля був я, Олена сиділа ззаду. Я пішов на обгін і під час обгону у мене провалилася передача і я не зміг закінчити обгін. Справа був автомобіль, я спробував з'їхати на узбіччя, але було пізно. Це все не знімає з мене відповідальність», — написав Сердюков.Він також запевнив, що оплатить лікування постраждалих.Згодом у «Слузі народу» заявили, що Сердюков не має стосунку до партії.</t>
@@ -1066,7 +1069,7 @@
     <t>У Швеції внаслідок падіння літака з парашутистами загинули 9 людей. Неподалік шведського міста Умео розбився літак з парашутистами, внаслідок чого загинули дев’ять людей.Про це повідомляє видання The Local.Згідно з інформацією, одномоторний літак GA8 Airvan виробництва GippsAero через годину після вильоту подав сигнал лиха.«Це літак для стрибків з парашутом, і, схоже, щось трапилося відразу після зльоту», — заявив представник рятувальної служби аеропорту.Раніше повідомлялось, що поблизу села Яблучне Великописарівського району Сумської області під час проведення робіт з обприскування полів впав вертоліт МІ-2. Пілот загинув.</t>
   </si>
   <si>
-    <t>Sweden due to plane crash, parachutist dies, person nearby, Swedish city of Umeå, crash, plane, parachutist dies, person, report, publication, the local, according to information, single-engine plane, airvan, production, gippsaero, hour, departure, report, distress, plane, jump, parachute, likely to happen, takeoff, declare, representative, rescue service, airport, report, nearby, village, Yabluchne, Velikopysarovsky district, Sumy region, carrying out work, spraying, floor, fall, helicopter, pilot, die</t>
+    <t>Sweden due to plane crash, parachutist dies, person nearby, Swedish city of Umeå, crash, plane, parachutist dies, person, report, publication, the local, according to information, single-engine plane, airvan, production, gippsaero, hour, departure, report, distress, plane, jump, parachute, likely to happen, takeoff, report, representative, rescue service, airport, report, nearby, village, Yabluchne, Velikopysarovsky district, Sumy region, carrying out work, spraying, floor, fall, helicopter, pilot, die</t>
   </si>
   <si>
     <t>У Раді найближчим часом запровадять сенсорну кнопку для запобігання «кнопкодавству» — Парубій. У Верховній Раді України найближчим часом планують запустити в роботу спеціальну «сенсорну кнопку», що не дозволятиме народним депутатам голосувати за своїх колег.Про це заявив голова парламенту Андрій Парубій, повідомляє «5 канал».За його словами, цього ще не встигли зробити через призначені на 21 липня позачергові вибори до парламенту, але апарату Верховної Ради вже доручили вирішити всі технічні питання, щоб ввести хоча б сенсорну кнопку.«І я сподіваюся, що Апарат знайде всі необхідні механізми, щоб в той період, коли не буде сесії — між 11 липня і першим засіданням нового скликання, щоб цей період був максимально використаний, щоб в залі зробити переобладнання», — сказав Парубій.Голова парламенту висловив сподівання, що «до кінця цієї каденції сенсорна кнопка і персональне голосування буде введено», і додав, що видасть відповідне розпорядження.Нагадаємо, 21 червня президент України Володимир Зеленський вніс у Верховну Раду законопроект проти не персонального голосування парламентаріїв — так званих кнопкодавів.Зеленський хоче запровадити кримінальну відповідальність за не персональне голосування народних депутатів, проте карати кнопкодавів глава держави хоче виключно штрафами.</t>
@@ -1096,7 +1099,7 @@
     <t>«Більше однієї мови»: французька філософиня Барбара Кассен — про мову, політику, імперію та націоналізм. Як мова пов’язана з національною ідентичністю, чи всі мови однаково важливі та що ми втрачаємо в перекладі? Про це Громадське поговорило з Барбарою Кассен — філософинею, дослідницею та перекладачкою з Франції.Найфундаментальніша робота Барбари Кассен — створена за її задумом та редакцією колективна праця «Європейський словник філософій» (2004, український переклад 2009, видавництво «Дух і Літера»). Нещодавно вона організувала масштабну виставку в Марселі, присвячену перекладу.В розмові з Громадським Барбара Кассен розповіла, чому мова та політика завжди пов’язані, яким було минуле мов імперій та яким може бути їхнє майбутнє.Повну версію розмови дивіться на відео. Нижче публікуємо скорочену версію інтерв’ю.Ви багато років працювали над темою неперекладностей. Поясніть нам, що це таке. Що саме ми втрачаємо в перекладі?Ми втрачаємо багато, і водночас — дуже мало. Неперекладності — це симптоми відмінностей у мовах, відмінностей між мовами, культурами та світобаченнями.Звісно, ми завжди можемо усе перекласти. Але водночас ми дуже мало перекладаємо точно. Є речі, які важче піддаються перекладу. Навіть у повсякденному житті, коли я говорю вам bonjour французькою, я не кажу вам «шалом». Я бажаю вам доброго дня, але не бажаю вам миру. Я не розпочинаю свій день так, якби я говорила івритом чи арабською.Коли я говорю «доброго дня», то я не бажаю вам, як я би робила, якби говорила давньогрецькою мовою, радості та задоволення від життя, я не кажу вам «насолоджуйся!». Так само не бажаю я вам бути у хорошій формі, як я би робила, якби зверталася до вас латиною.Щоразу, у привітанні іншою мовою, завжди щось губиться. А щось інше, навпаки, з’являється. Саме це я називаю «неперекладностями». Відмінності мов та точні симптоми цих відмінностей.Якою мірою мова пов’язана з тим, що ми називаємо національною ідентичністю? Ідентичністю народу, який розмовляє тієї чи іншою мовою?Це питання було важливим упродовж всієї історії людства. Очевидно, що мова, культура, нація, держава дуже тісно пов’язані. Але коли ми починаємо уявляти, що мова є укоріненою, то ці зв’язки стають небезпечним. Особливо коли говориться про те, що це вкоріненість у расу чи в народ.Це те, що свого часу Гайдеґґер (Мартін Гайдеґґер, німецький філософ — ред.) казав про німецьку мову. Інші, наприклад, Рівароль (Антуан де Рівароль — французький письменник та перекладач часів Великої французької революції — ред.), казали це про французьку мову. Ця ідея вкоріненості — вона є проблематичною. Це може призводити до найгірших варіантів націоналізму. Прикладом ідеї «вкорінення» є виникнення нацизму.Тому нам треба скоріше зрозуміти, як мова пов’язана із народом, який нею говорить, але водночас ми маємо зрозуміти, як можна говорити іншою мовою, більше ніж однією мовою. Ганна Арендт, яка була великим філософом ХХ століття, була також ученицею Гайдеґґера, що симпатизував нацистам, тоді як вона була єврейкою, говорила: «Моя батьківщина — це моя мова».Вона пояснювала, що ніколи не відчувала, що належить до певного народу — ані німецького, ані єврейського. Але свою приналежність до мови вона визнавала.В цьому смислі ми можемо намагатися послабити зв'язок між мовою та нацією, народом, і зробити так, що, дійсно, мова належить усім.Але водночас ми можемо сказати, як це робить Дерріда (Жак Дерріда — французький філософ ХХ століття — ред.): «Мова не належить». І якщо мова не належить, то це означає, що її можна вивчити, що світ є плюралістичним та різноманітним. Ганна Арендт називала це «нестійкою багатозначністю світу». Мені це визначення здається прекрасним.Сьогодні в світі існують великі мови — ті мови, якими говорить більше за одну націю чи один народ, та мови маленькі, якими користуються менші спільноти, невеликі країни тощо. Чи можемо ми вважати, що всі мови є рівноцінними? Чи все-таки мусимо пояснювати існування важливіших мов історією народів, які дали їм життя?Я думаю, що кожна мова є резервуаром, причиною на наслідком культури та світобачення. Кожна мова є унікальністю саме як окрема мова. В цьому смислі усі мови є рівноцінними. Але водночас є мови, які мають різну долю в різних історичних обставинах.Наприклад, французькій мові пощастило в певний історичний період. Але сьогодні щастить англійській — чи, скоріше, мові Globish, Global English, як називають глобалізовану англійську, яка стала світовою мовою. Я думаю, що кожна мова має власну гідність, як окрема культура, як резервуар особливого погляду на світ.Кожна мова є — мені дуже подобається ця метафора — вудочкою, яку ми закидаємо. І залежно від того, що це за вудка, де ми риболовимо та як ми це робимо, ми витягаємо щоразу іншу рибу. Кожна мова «витягає» інше бачення світу. В цьому плані всі мови є рівними.Ми в Україні багато обговорюємо зв’язок мови та політики. Також багато дискусій про політизацію мови, оскільки ситуація в Україні є дещо особливою, адже Україна є двомовною країною. Тут говорять українською, але також і російською, і упродовж століть поміж цими двома мовами існують дуже непрості стосунки. Якими є ваші висновки щодо мови як політичного інструменту?Мова безпосередньо пов’язана з політикою. Цей зв'язок є безпосереднім, як і зв'язок мови, культури народу, нації та світобачення. Політично, що ми з цим робимо?Відповідь на це питання дає дуже важливий філософ, Жак Дерріда, який говорить «Більше однієї мови». Це те, що варто усвідомлювати: унікальність мови, якою говориш — ця мова є однією з багатьох інших. З іншого боку, не давати себе ув’язнити в межах вузького націоналізму.Єдине, що варто давати собі відповідь на питання — а що ми хочемо сказати цією мовою? Чи ми прагнемо жорстокого панування однієї мови, чи ми хочемо нав’язування однієї мови, єдиної мови? Чи, навпаки, ми прагнемо спілкування?Для мене переклад — це вміння давати раду відмінностям. Він дає можливість приймати іншого та самому бути прийнятим іншим.Ще одна важлива тема — це мова та імперія. Ми бачимо, що є мови, які стають імперськими. Такі мови нав’язують на територіях, значно більших за ті, які зазвичай мають інші мови. Що з цим робити? Яким є майбутнє імперських мов?Можемо констатувати, що сама історія змінює мови імперій. Латинська мова колись була мовою усієї відомої землі. Грецька мова, до того, також була мовою усієї ойкумени, тобто усієї заселеною землі. Зараз ці мови дуже далекі від свого колишнього становища. Тоді як погана англійська є глобальною мовою. І в ній ми багато чого втрачаємо, адже вона є мовою комунікації. Вона є мовою глобальної фінансової імперії.Водночас я не думаю, що ця ситуація є остаточною на нашій планеті. Зовсім так не думаю.Якщо повернутися до неперекладностей, то чи можемо ми сказати, що є сфери людської діяльності, де цих неперекладностей більше? Наприклад, емоції, чи поезія, чи, скажімо, дитинство. Чи є такі сфери, де унікальність мови більшою мірою важлива, ніж в інших сферах?Усе, що пов’язано зі звуком, зі звучанням мови, не можна так просто взяти та перенести із однієї мови в іншу. Означник — звук, а також багатозначності — той спосіб, в який в одній мові слово може мати додаткові сенси, чого немає в іншій мові. Ці все речі не можна просто взяти та перенести, перекласти.Я упродовж багатьох років працювала над Словником неперекладностей у філософії.Здавалося б, у філософії все просто — усі спілкуються поняттями, всі спираються на розум, всі мислять однаково і все є універсальним. Але, виявилося, що це так.Ми філософуємо певною мовою. Ми не кажемо «свобода» і не мислимо «свободу» однаково в двох різних мовах. Наприклад, в англійській мові є два слова для позначення свободи. По-перше, це слово liberty — це ось так, вертикально, від батька до сина. Ми не є рабами, наприклад, спадково, від батька до сина. Ми вільні.Але є і інше слово — слово freedom. Воно горизонтальне, а не вертикальне, як у випадку з liberty. Це свобода вікової групи, свобода людей, які разом ідуть на війну, і які потім будуть разом голосувати. З цих двох способів осмислити поняття свободи у французькій мові є лише один — liberté. І в німецькій мові є теж лише одне слово.Українською теж один варіант — свобода.Так, але стосовно слова «воля» — що змінюється?Так, дійсно, «воля». Це синонім.Так, але не зовсім. Саме ці міркування мене цікавлять. Тоді як переважну більшість часу ми вважаємо, що всі думають однаково, особливо коли починають справді мислити, насправді це не так. Наша манера мислити пов’язана із нашою манерою говорити. Це мені надзвичайно цікаво.Ви зробили виставку в музеї в Марселі, присвячену темі перекладу. Чи складно це реалізувати і як загалом вам вдалося втілити у візуальну форму сам концепт «перекладу», який є, насамперед, мовним, лінгвістичним?Ця виставка була присвячена перекладу як вирішенню ситуації, яка трапилася в часи Вавилонської вежі. Вавилонська межа — це історія про те, що ніхто нікого не розуміє, а переклад — це спосіб впоратися із відмінностями різних мов.Отже, ця виставка стосувалася перекладу, а остання, третя, частина була присвячена проблемам труднощів перекладу.Перша частина виставки намагалася вирішити питання, чи Вавилонська вежа є покаранням чи можливістю? Чи не є існування багатьох мов у світі скоріше шансом для людства, аніж його покаранням? Я особисто думаю, що це є шансом. Я думаю, що навіть якщо колись існувала лише одна мова, то Бог дуже добре зробив, що нас покарав. Тому що внаслідок цього покарання у нас з’явилося більше однієї мови.Міф про Вавилонську межу є цікавим. Адже якщо є лише одна мова, то якою мовою говоритиме той, хто її не знає? Він говоритиме «вар-вар», він буде «варваром», як колись вважали давні греки. У греків був Логос — єдина визнана мова, яка об’єднує в собі розум та давньогрецьку мову. Що стосується інших — то ми їх не розуміємо, вони кажуть «бла-бла-бла», тобто вони — варвари.Друга частина була присвячена шляхам перекладу. Ми прослідкували траєкторії великих авторів, великих творів та побачили, в який спосіб унаслідок перекладу твориться цивілізація, як твориться наука, поступово інтегруючи в себе інші знання, які прийшли з інших мов. Нам вдалося показати ці шляхи від Аристотеля до Маркса. В такий спосіб постала єдина культура, багата на внески багатьох різних культур.Згодом ми прийшли до питання: а чи ми перекладаємо слова Бога? Якщо так — то як це зробити? Ми замислилися над тим, як перекладали Тору, Біблію чи Коран. Вважається, що Коран був створений арабською, і його не перекладають. Перекладають лише «смисл Корана», а не сам Коран. Ці відмінності дуже цікаві.Окрім того, ми багато працювали зі складностями, пов’язаними із багатозначністю. Наприклад, слово, яке в одній мові має декілька значень, у перекладі іншою мовою не буде мати таких само значень. Якщо я кажу «правда» українською, то французькою це буде «істина». Але водночас українською «правда» означає також «справедливість», «закон». В цьому випадку ми маємо багатозначність.Натомість французькою «істина» більшою мірою стосується точності, а не справедливості. Тому те, що мене цікавило в цій частині, це якраз неспівпадіння в різних мовах, а також спосіб їх показати.Їх можна проілюструвати у дуже переконливий та яскравий спосіб. Наприклад, якщо ми візьмемо відомий епізод з Біблії про створення Єви.Якою є історія Єви? Чи вона створена з ребра Адама, як нам це показують релігійні образи? Чи дійсно вона — другорядне створіння? Чи Єва, як це зображено у відомій скульптурі Огюста Родена «Рука Бога», створена поруч із ним? Це була би зовсім інша пара. Це теж проблема перекладу, адже це одне слово, яке перекладають по-різному. Французькою «côte» — ребро, та «à côté» — поруч, це однокореневі слова.Остання частина виставки була зосереджена на тому, щоби відрефлексувати, що таке переклад, чи ми отримуємо в результаті те саме, чи не зовсім те саме.Тут мене дуже надихав вислів Борхеса, який сказав, що «оригінал намагається бути подібним до перекладу». Якщо ви візьмете картину, на якій зображено художника, який малює свій автопортрет, то виникає питання — де оригінал, а де переклад, і чи не намагається він бути схожим на своє зображення? На виставці ми показали декілька таких картин, де оригінал було видно лише зі спини.Упродовж століть говорили про можливу єдину, універсальну мову. Ця ідея існувала та змінювалася. Що сьогодні можна сказати про цю ідею, чи може бути у неї якесь майбутнє?Дійсно, від часів Вавилонської вежі існувала ідея про те, що може існувати одна єдина мова. Можна по-різному шукати шляхи до неї.Наприклад, дуже конкретна ідея — створення есперанто: єдиної мови, якою зможуть говорити усі. Але, водночас, есперанто зовсім не є універсальною мовою. Адже, по-перше, есперанто ні для кого в світі не є рідною мовою, це важливо. По-друге, на есперанто перекладали багато творів, але майже немає творів, які було б написані на есперанто.І насамкінець, есперанто створено за допомогою латинських та грецьких коренів, і там майже зовсім немає, наприклад, слов’янських коренів. Тобто це привласнення ідеї універсальної мови, і це дуже мене тривожить. Коли ви говоримо про щось «універсальне», то завжди з’ясовується, що це «універсальне» комусь належить. Есперанто вже належить певному типу цивілізації.читайте також</t>
   </si>
   <si>
-    <t>language french philosopher barbara cassen language politics empire nationalism language national identity language equally important lose translation public talk barbara cassen philosopher researcher translator france most fundamental work barbara cassen created idea editorial collective work european dictionary philosophy ukrainian translation publishing house spirit letter organize large-scale exhibition marseille dedicated to translation conversation public barbara cassen tell language politics what past languages ​​empires what their future full version conversation watch video publish abridged version work topic untranslatability explain lose lose at the same time untranslatability symptom difference language difference language culture worldview of course can translate at the same time translate exactly thing harder to translate everyday life talk bonjour french say madness wish good wish peace start your if speak hebrew arabic speak good wish do if speak ancient greek language joy pleasure life say enjoy wish good form do if address latin every time greetings other language get lost on the contrary call untranslatability difference language exact symptom difference to what extent language call national identity identity people talk other question important throughout history humanity obviously language culture nation state closely begin to imagine language rooted become dangerous speak rootedness race people heidegger martin heidegger german philosopher ed say german language example rivaroles antoine rivaroles french writer translator time great french revolution ed say french language idea rootedness problematic bring worst option nationalism example idea rootedness emergence nazism rather understand language people at the same time have understand speak other language one language anna arendt great philosopher 20th century student heidegger sympathize nazi jewish speak homeland explain feel belong to a certain people neither german nor jewish belonging language recognize meaning can try to weaken language nation people make language belong at the same time can do derrida jacques derrida french philosopher 20th century ed language belong language belong study world pluralistic diverse anna arendt call unstable ambiguity world definition beautiful world exist big language language which one nation people language small which use smaller community small country etc. can consider language equivalent still must explain existence more important language history people give think language reservoir cause consequence culture worldview language uniqueness separate language meaning language equivalent at the same time language have different fate different historical circumstance for example french language get lucky certain historical period get lucky english rather language globish global english call globalized english become with</t>
+    <t>language french philosopher barbara cassen language politics empire nationalism language national identity language equally important lose translation public talk barbara cassen philosopher researcher translator france most fundamental work barbara cassen created idea editorial collective work european dictionary philosophy ukrainian translation publishing house spirit letter organize large-scale exhibition marseille dedicated to translation conversation public barbara cassen tell language politics what past languages ​​empires what their future full version conversation watch video publish abridged version work topic untranslatability explain lose lose at the same time untranslatability symptom difference language difference language culture worldview of course can translate at the same time translate exactly thing harder to translate everyday life speak bonjour french say madness wish good wish peace start your if speak hebrew arabic speak good wish do if speak ancient greek language joy pleasure life say enjoy wish good form do if address latin every time greetings other language get lost on the contrary call untranslatability difference language exact symptom difference to what extent language call national identity identity people talk other question important throughout history humanity obviously language culture nation state closely begin to imagine language rooted become dangerous speak rootedness race people heidegger martin heidegger german philosopher ed say german language example rivaroles antoine rivaroles french writer translator time great french revolution ed say french language idea rootedness problematic bring worst option nationalism example idea rootedness emergence nazism rather understand language people at the same time have understand speak other language one language anna arendt great philosopher 20th century student heidegger sympathize nazi jewish speak homeland explain feel belong to a certain people neither german nor jewish belonging language recognize meaning can try to weaken language nation people make language belong at the same time can do derrida jacques derrida french philosopher 20th century ed language belong language belong study world pluralistic diverse anna arendt call unstable ambiguity world definition beautiful world exist big language language which one nation people language small which use smaller community small country etc. can consider language equivalent still must explain existence more important language history people give think language reservoir cause consequence culture worldview language uniqueness separate language meaning language equivalent at the same time language have different fate different historical circumstance for example french language get lucky certain historical period get lucky english rather language globish global english call globalized english become with</t>
   </si>
   <si>
     <t>У Києві екс-мер та кандидат у депутати Омельченко пригощав виборців овочами та наливкою — ОПОРА. Колишній міськголова Києва, який балотується у столиці в народні депутати, останніми вихідними організував для виборців «Ярмарок консервації», на якому пригощав овочами та наливкою.Про це повідомляє громадянська мережа ОПОРА.У наметах з агітаційною символікою жінки роздавали мед, сітки з огірками, помідорами та кропом. За це люди мали написати «рецепт соління» — ймовірно йдеться про персональні данні виборців.На запитання, чи це якийсь фестиваль, жінка з намету відповіла: «Це акція від Омельченка».В іншому місті чоловіки пропонували наливку, у зв’язку з чим один з активістів викликав поліцію, наголосивши, що за законом не можна роздавати алкогольні напої в громадському місці.читайте також</t>
@@ -1120,19 +1123,19 @@
     <t>Україна виплатить нафтогазовій компанії Коломойського $12,5 млн. Суд зобов'язав Міністерство юстиції виконати Арбітражне рішення Постійного третейського суду Лондона і відшкодувати понад 12,5 мільйона доларів британській компанії JKX Oil&amp;Gas, третина акцій якої належить українському олігархові Ігорю Коломойському та його партнерам.Про це свідчить постанова Київського апеляційного суду.20 квітня Печерський суд Києва скасував майнову поруку Коломойського за кредитами, які Національний банк видав ПриватБанку у 2013 році. Загальна сума цих кредитів складає 9,2 мільярда гривень. Згодом Коломойський подав 5 позовів про скасування своїх боргів перед НБУ за поручительством на користь ПриватБанку.У НБУ повідомили, що своїми позовами в Україні Коломойський намагається уникнути правосуддя у Швейцарії.Нагадаємо, що за декілька днів до виборів суди ухвалили одразу три рішення на користь колишнього власника ПриватБанку Ігоря Коломойського. Так, 18 квітня — за три дні до другого туру виборів — Окружний адміністративний суд Києва задовольнив позов олігарха Ігоря Коломойського до Національного банку України та Кабінету міністрів України щодо неправомірності націоналізації ПриватБанку.Пізніше Окружний адміністративний суд Києва ухвалив ще одне рішення на користь Коломойського, скасувавши рішення Нацбанку щодо визначення переліку пов’язаних з банком осіб.читайте також</t>
   </si>
   <si>
-    <t>Ukraine pay oil and gas company Kolomoisky million court Ministry of Justice execute arbitration award permanent arbitration court London reimburse over a million dollars British company jkx third share belong Ukrainian oligarch Ihor Kolomoisky partner testify resolution Kyiv appeal April Pechersk court Kyiv cancel property surety Kolomoisky loan National Bank issue Privatbank total amount credit make billion hryvnia later Kolomoisky file a lawsuit cancellation debt NBU surety benefit Privatbank NBU report your claim Ukraine Kolomoisky try to avoid justice Switzerland remind day elections courts immediately decide benefit former owner Privatbank Ihor Kolomoisky April day second round elections District Administrative Court Kyiv satisfy claim oligarch Ihor Kolomoisky National Bank Ukraine Cabinet Minister Ukraine illegality nationalization Privatbank District Administrative Court Kyiv make one decision benefit Kolomoisky by canceling the decision national bank definition list of banks</t>
+    <t>Ukraine pay oil and gas company Kolomoisky million court Ministry of Justice execute arbitration award permanent arbitration court London reimburse over a million dollars British company jkx third share belong Ukrainian oligarch Ihor Kolomoisky partner testify resolution Kyiv appeal April Pechersk court Kyiv cancel property guarantee Kolomoisky loan National Bank issue Privatbank total amount credit make billion hryvnia later Kolomoisky file a lawsuit cancellation debt NBU surety benefit Privatbank NBU report your claim Ukraine Kolomoisky try to avoid justice Switzerland remind day elections courts immediately decide benefit former owner Privatbank Ihor Kolomoisky April day second round elections District Administrative Court Kyiv satisfy claim oligarch Ihor Kolomoisky National Bank Ukraine Cabinet Minister Ukraine illegality nationalization Privatbank District Administrative Court Kyiv make one decision benefit Kolomoisky by canceling the decision national bank definition list of banks</t>
   </si>
   <si>
     <t>У перший день Atlas Weekend пасажиропотік київського метро був утричі вищий, ніж зазвичай. Пасажиропотік київського метрополітену 9 липня в перший безкоштовний день фестивалю Atlas Weekend був утричі більший, ніж зазвичай. Водночас у наступні дні він був більший на 50%.Про це Громадському розповіла речниця київського метрополітену Наталія Макогон.«Так, у безкоштовний день пасажиропотік був втричі більший. Якщо зазвичай це 12 тисяч людей, то було близько 35 тисяч. В решту днів — близько 20 тисяч», – сказала вона.Водночас Макогон зазначила, що ці показники не перекривають витрати на роботу всієї інфраструктури.«Але збитки не критичні при реальній зручності для людей», – додала вона.У перший та останній дні фестивалю Atlas Weekend київське метро працювало на годину довше.За попередніми підрахунками, за шість днів фестивалю цього року ВДНГ відвідало більше півмільйона людей.дивіться також</t>
   </si>
   <si>
-    <t>atlas weekend passenger flow of the Kyiv metro three times higher passenger flow of the Kyiv metro July free festival atlas weekend three times larger at the same time the next day larger public tell the spokeswoman of the Kyiv metro Natalia Makogon free passenger flow three times larger person the rest of the day at the same time Makogon note the indicator cover the cost work the entire infrastructure damage critical real convenience person add the last day of the atlas weekend festival, the Kyiv metro will work an hour longer, preliminary calculation half a million people visit the VDNG festival day</t>
+    <t>atlas weekend passenger flow Kyiv metro three times higher passenger flow Kyiv metro July free festival atlas weekend three times larger at the same time next day larger public tell spokeswoman Kyiv metro Natalia Makogon free passenger flow three times larger person rest day at the same time Makogon note indicator overlap consumption work entire infrastructure damage critical real convenience person add last day festival atlas weekend Kyiv metro work an hour longer previous calculation day festival VDNG visit half a million</t>
   </si>
   <si>
     <t>Люди Atlas Weekend: як минув найбільший фестиваль в Україні. Щорічний музичний фестиваль Atlas Weekend добігає до кінця — він тривав з 9 по 14 липня та зібрав понад півмільйона людей. На восьми різних сценах виступили понад 250 артистів. Чим відзначився фестиваль? Як його запам'ятали не лише відвідувачі, а й артисти та ті, хто працював на його території? Дивіться в репортажі Громадського.дивіться також</t>
   </si>
   <si>
-    <t>people atlas weekend to pass the largest festival in Ukraine annual music festival atlas weekend to reach the end to last July to collect more than half a million people eight different stage to perform more than artist to distinguish themselves festival visitor artist to work territory to watch report</t>
+    <t>people atlas weekend to pass the largest festival in Ukraine annual music festival atlas weekend to reach the end to last July to collect more than half a million people eight different scene to perform more than artist to distinguish themselves festival visitor artist to work territory to watch report</t>
   </si>
   <si>
     <t>На Донбасі запустили проєкт для покращення громадської безпеки: ООН виділить $5 млн . Програма розвитку Організації Об'єднаних Націй (ПРООН) з 15 липня розпочала новий проєкт, спрямований на покращення громадської безпеки та доступу до правосуддя на сході України.Проєкт представили на заході, який відбувся у посольстві Нідерландів у Києві, передає кореспондентка Громадського.Саме уряд Нідерландів надає фінансування. Проєкт має бюджет у 5 мільйонів доларів і триватиме до середини 2022 року. Він діятиме в Донецькій та Луганській областях, а також в частинах Дніпропетровської та Житомирської областей.Посол Нідерландів Едуард Хукс підкреслив, що конфлікт на сході України досі в гарячій фазі, а 2 мільйони людей живуть у високонебезпечних зонах.Для реалізації цілей проєкту ПРООН співпрацюватиме з Міністерством внутрішніх справ, Міністерством з питань тимчасово окупованих територій, Національною поліцією та іншими державними організаціями України, а також з місцевими органами влади, судами, військовими, громадами та молоддю.Велика частина проєкту буде спрямована на покращення комунікації між жителями Донбасу та органами місцевої влади, поліцією, прокуратурою та судами.На заході спеціаліст ПРООН з питань суспільної безпеки та соціальної згуртованості Рустам Пулатов розповів, що, згідно з результатами проведеного організацією опитування, менше половини жителів Донбасу вірять, що поліція, прокуратура та суди здатні вирішити їхні проблеми. Також лише 52,3% опитаних мешканців селищ сказали, що поліція присутня на територіях, де вони проживають.«Ми дуже сподіваємось, що цей новий проєкт буде стимулювати громаду, населення бути активними учасниками безпеки і забезпечувати безпеку разом з Національною поліцією та правоохоронними органами», — сказала заступниця глави МВС України Тетяна Ковальчук.Проєкт є частиною Програми ООН із відновлення та розбудови миру і реалізовуватиметься в межах компоненту програми «Громадська безпека та згуртованість суспільства».читайте також</t>
@@ -1144,7 +1147,7 @@
     <t>Зеленський вирішив замінити 12 дипломатів, зокрема, посла України у США — Офіс президента. Президент України Володимир Зеленський ініціював початок оновлення дипломатичного корпусу України, вже прийнято рішення про заміну 12 керівників посольств у всьому світі, зокрема, посла України у Сполучених Штатах Америки.Про це йдеться у Telegram-каналі Офісу президента України.«Серед них і посол України в США закінчує своє відрядження до Вашингтона», — вказано в повідомленні.В ОП зазначають, що паралельно з цим триває робота з підбору і оформлення нових послів.«Відповідні укази глави держави будуть опубліковані найближчим часом», — повідомили в ОП.Нагадаємо, 13 липня Зеленський закликав виконувача обов’язків глави Державної фіскальної служби Олександра Власова написати заяву про звільнення. Причиною цього стало невиконання очільником ДФС прохання президента про звільнення керівників чотирьох митниць в західних областях України. Власов відповів, що «сьогодні ж напише заяву» і відправить її в Кабмін.6 липня під час поїздки до Львівської та Закарпатської областей Зеленський закликав Власова прийняти жорсткі рішення щодо голів чотирьох митниць Західного регіону — Волинської, Закарпатської, Львівської та Чернівецької.9 липня Власов написав у Facebook, що звільнив цих керівників.</t>
   </si>
   <si>
-    <t>Zelenskyi decide to replace the diplomat, in particular, the ambassador of Ukraine to the United States, the office of the president, the president of Ukraine, Volodymyr Zelenskyi, initiate the start of the update, the diplomatic corps of Ukraine, make a decision to replace the head of the embassy, ​​the world, in particular, the ambassador of Ukraine, the United States of America, go to the telegram channel, the office of the president of Ukraine, the ambassador of Ukraine, the United States, end the trip, Washington, specify the message, note, parallel, continue work selection registration new ambassador decree head of state published nearest time to notify July Zelenskiy call executor head of the State Fiscal Service Oleksandr Vlasov write a resignation letter the reason for becoming the head of the DFS, the request of the president, the resignation of the head of four customs offices, western region of Ukraine, Vlasov, answer, write a statement, send a July trip, Lviv Transcarpathian region, Zelenskyi, urge Vlasov to make a tough decision, goal, four customs offices, Western region of Volyn, Transcarpathian Lviv region, July Vlasov, write facebook, fire the leader</t>
+    <t>Zelensky decide to replace diplomat in particular ambassador Ukraine USA office president president Ukraine Volodymyr Zelensky initiate start of update diplomatic corps Ukraine make decision replacement head embassy world in particular ambassador Ukraine united states of america go telegram channel office president Ukraine ambassador Ukraine USA finish business trip Washington indicate message op indicate parallel continue work selection registration new ambassador decree head state published soon notify July Zelensky call executor head state fiscal service Alexander Vlasov write resignation statement reason become non-fulfillment head of state fiscal service request president dismissal head four customs western region Ukraine Vlasov reply write statement send July trip Lviv Zakarpattia region Zelensky call Vlasov make tough decision goal four customs western region Volyn Zakarpattia Lviv July Vlasov write facebook dismiss head</t>
   </si>
   <si>
     <t>У Києві знову протестують проти забудови Протасового яру: частково перекрили дорогу. На місці забудови у Протасовому яру в Києві влаштували чергову акцію протесту, її учасники частково перекрили проїжджу частину.Про це повідомляє кореспондентка Громадського.Десятки людей встановили імпровізований паркан, який перекриває по одній смузі дороги — проїжджа частина заблокована не повністю, але рух транспорту тут ускладнений.Учасники акції роздають водіям листівки з поясненням своїх дій: у них йдеться, що в разі появи в Протасовому яру багатоповерхівок, тут з’явиться ще більше машин, і затори будуть більшими, ніж той, який влаштували протестувальники.Акції протесту проти забудови Протасового яру відбуваються від початку травня, їхні учасники вимагають скасувати плани щодо будівництва багатоповерхівок.Раніше міськголова Києва Віталій Кличко закликав забудовника призупинити роботи в Протасовому Яру.2 липня забудовнику анулювали дозвіл на встановлення парканів та підготовчі роботи.читайте такожНагадаємо:</t>
@@ -1210,13 +1213,13 @@
     <t>Лагард подала у відставку з посади глави МВФ. Директорка—розпорядниця Міжнародного валютного фонду Крістін Лагард заявила, що йде у відставку.Відповідна заява Лагард оприлюднена на сайті МВФ.Вона також повідомила, що заява про відставку набуде чинності 12 вересня.«Я зустрілася з Виконавчою радою та подала прохання про відставку з фонду, яке набуде чинності 12 вересня. Відмова від моїх обов'язків, про яку було оголошено раніше, залишиться в силі до цього моменту», — заявила Лагард.Крім того, повідомляється, що виконуючим обов'язки директора-розпорядника залишиться Девід Ліптон.Раніше повідомлялось, комітет з питань економіки та фінансів Європейської ради ухвалив рішення рекомендувати призначення очільниці Міжнародного валютного фонду Крістін Лагард на пост президентки Європейського центрального банку.Нагадаємо, що у зв'язку з висуненням на посаду президентки МВФ Крістін Лагард тимчасово склала повноваження голови МВФ.Зазначається, що на час висування Лагард на посаду голови Європейського центробанку, виконувати обов'язки голови МВФ буде перший заступник Лагард Девід Ліптон. Останній вже провів зустріч з президентом України під час конференції, присвяченій реформам в Україні, що відбулася у Торонто, Канада.читайте також</t>
   </si>
   <si>
-    <t>Lagarde to resign, position of the head of the IMF, managing director of the International Monetary Fund, Christine Lagarde, to announce her resignation, the corresponding statement, Lagarde's website has been published, to announce her resignation, to take effect in September, to meet with the executive board, to submit a request for resignation, the fund, which will take effect in September, to refuse to announce, to remain in force, the moment to announce Lagarde, to be notified, the executive director of the manager. remain David Lipton to be reported to the committee of the matter economy, finance, European Council, make a decision, recommend the appointment of the head of the International Monetary Fund, Christine Lagarde, the post of the president of the European Central Bank, remind the nomination of the position of the president of the IMF, Christine Lagarde, temporarily draw up the powers of the head of the nomination of Lagarde, the position of the head of the European Central Bank, execute the head of the IMF, Deputy Lagarde, David Lipton, hold the last meeting, the president of Ukraine, the conference is dedicated reform of Ukraine to take place in Toronto</t>
+    <t>lagarde resigns position head of the imf managing director international monetary fund christine lagarde declares to leave resignation appropriate statement lagarde published website notify statement resignation effective september meet executive board submit request resignation fund which effective september refusal which announce stay force moment declare lagarde be notified executive director manager stay david lipton be notified committee issues economy finance european board make decision recommend appointment head of the international monetary fund christine lagarde post president european central bank recall nomination position president of the imf christine lagarde temporarily resign chairman nomination lagarde position chairman european central bank execute imf chairman deputy lagarde david lipton last hold meeting president ukraine conference dedicated to reform ukraine take place toronto</t>
   </si>
   <si>
     <t>«Я нікому не обіцяв війну за один день закінчити», – політичне інтерв’ю Святослава Вакарчука. З ким партія «Голос» готова до коаліції? Чи спілкується Святослав Вакарчук з Володимиром Зеленським? До чого тут флешмоб «Голосуй не по приколу»? Яка ідеологія нової партії і позиції щодо податків, освіти, медицини, мови? І які компроміси можливі щодо війни? Які відносини фронтмена «Океану Ельзи», а тепер вже політика, з бізнесменом Віктором Пінчуком та інвестором Томашем Фіалою? Чому в списку партії немає колишніх або чинних депутатів?Політичне інтерв’ю з лідером партії «Голос» та музикантом.Ти заявляв, що є тиск на ваших кандидатів, на партію. Про що саме йдеться і наскільки це серйозно?Буквально вчора почали приходити смс людям на західній Україні — мовляв, партія «Голос» все одно не проходить прохідний бар'єр, то нема чого на них розпиляти голоси, голосуйте за справжні проєвропейські сили. Це, насправді, кримінальна історія, ми подали всі відповідні заяви в правоохоронні органи.Потім є плакати або газети з неправдивими цитатами — навіть не вирваними з контексту, це ще можна зрозуміти, хоча це теж не по-європейськи. Але цитати, які є неправдою, — це вже дно. І не пристало тим політичним силам, які справді пропагують європейськість України, таким займатися.В розмовах і на ефірах ти кажеш, що це — стара політика, коли партії чубляться між собою, коли обвинувачують одне одного, коли люди в одній коаліції?На жаль, так. І дуже складно буде діяти з такими людьми, якщо їх буде таки обрано в парламент. Ти хочеш по-новому, а вони все одно по-старому. І зрозуміло, що якщо хтось пробує тебе цинічно поливати лайном або принижує твою гідність як політичну, так деколи й особисту, то ми будемо жорстко відповідати.Але щоб реалізувати програму, треба мати коаліцію. Виглядає так, що без підтримки «Слуги народу» багато речей, які ви обіцяєте, виконати буде вкрай складно. Наскільки ви готові до такої коаліції?Питання коаліції до виборів — це виключно політичний піар. Тому я максимально відверто заявляю: ми не з тих, хто обіцяє якісь об'єднання до самих виборів. Ми чітко знаємо, що з партіями, які виступають проти українського шляху, проти європейського шляху, на кшталт «Опозиційної платформи» Медведчука, ми нічого спільного мати не хочемо і не будемо.Інші партії, які в своїх програмах заявляють про європейський вектор розвитку України, вступ до ЄС і НАТО, підтверджують те, як це записано в Конституції зараз, і декларують ті речі, які є важливими для партії «Голос», тобто — демонополізацію, боротьбу з маніпуляціями ЗМІ, спущенння депутатів з небес на грішну землю — з цими людьми ми будемо сідати, говорити про майбутнє, в тому числі про коаліцію.Деколи мене питають: чи ви готові йти в уряд? Готові. Але уряд створює коаліція, а коаліція створюється на базі коаліційної угоди, яку ще спочатку треба обговорити, всім підтвердити, намалювати «червоні лінії», знайти механізм — що буде, якщо хтось виходить за ці «червоні лінії», і так далі.В нас президент — колишній комедійний актор — набрав 73 відсотки на виборах. Але перед тим ти запустив флешмоб, який називався «Голосуй не по приколу». Що це було?Напередодні я зустрів буквально в проміжку одного дня трьох людей — з різної соціальної категорії, з фан-клубів різних кандидатів у президенти, які абсолютно серйозно мені сказали, що все одно голосувати не будуть: в нас немає вибору. Проголосуємо по приколу за... і було названо два різних прізвища. І ще одного разу було сказано без прізвища, але щось типу: як карта ляже.Коли я робив свій ролик, я згадував воїнів, які воюють зараз. Я говорив, що перед цими людьми, перед жертвами, які були на Майдані, перед пам'яттю всіх тих, хто всерйоз ставиться до майбутнього України, голосувати по приколу — це безвідповідально. Я говорив: «Голосуйте відповідально».І те, що ця заява викликала певний політичний перекос — це на совісті тих, хто на неї так дивився. Я нічого такого сказати не хотів.Тобто «комік» і «по-приколу» ніяк не були пов'язані?Я в лютому сказав, що не буду публічно підтримувати жодну людину на виборах і не буду проти жодної людини. І тому не збираюся зараз якось змінювати свою позицію.Які у вас відносини з Володимиром Зеленським? Чи бачилися ви з ним до того, як він оголосив, що піде в президенти, коли ти ще вирішував?Я бачив його останній раз роки 2-3 тому.То ви не спілкувалися весь цей час?Ні.А взагалі яка ваша історія відносин? Ви якось перетиналися?Ми, плюс-мінус, починали в один час. Тому, безумовно, ми бачилися десятки разів. Останній раз ми перетиналися по роботі. Ми зустрілися, коли «Кварталу» були потрібні авторські права на якусь з наших пісень. Це було дуже давно, в минулому житті.До ідеології вашої партії. Як ти бачиш податки: низькі чи високі? Скажімо, є скандинавські країни, де високі податки...Як людина, яка навчалася в Стенфорді і Йєлі, де я якраз вивчав досвід інших країн, найбільше, що я виніс звідти, — що не існує рецепту, який ми можемо взяти, якоїсь країни успіху, і перекласти на Україну. Мовляв, у Скандинавії соціально орієнтована економіка, давайте в Україні побудуємо таку ж. Мовляв, Гонконг або США мають вільний ринок, давайте побудуємо такий же. Так не працює.Саме тому до питання податків треба підійти дуже зважено. Партія «Голос» має принцип. Це політика, яка грунтується тільки на фактах. Ми зараз багато говоримо: давайте введемо податок на виведений капітал. З одного боку, для бізнесу це класна ідея, і ми, в принципі, її підтримуємо. Але поки ми не побачимо, які компенсатори, що перший рік-два бюджет буде робити без податку на прибуток, то ми на такі речі не підемо.Наприклад, є ідея, що митні збори треба зменшити, і тоді вони стануть легальними, тому що людям буде невигідно платити хабарі, які вони платять зараз. Це гарна ідея, але без реформи митниці і без приведення всього до стандарту, без невідворотності покарання за несплату це все залишиться достатньо теоретичними історіями.Все одно є якась ідеологія, до якої ти більше схиляєшся — соціальна держава, яка бере на себе більшу роль, чи те, що бізнес бере на себе більшу роль?Це складне питання. Тут важливо, що зараз принесе якомога швидші зміни для людей.Україна сьогодні не готова до так званого абсолютно ліберального ринку, до якого нас часто підштовхують деякі наші партнери. До речі, не всі. Сказати: давайте відпустимо все, і Україна заживе, буде неправильно.Чому? По-перше, наші бізнесмени мають таку ментальність, що чим більше їм даєш волі, тим більше вони будуть це робити. Але ті невеликі правила, які є, вони все одно будуть порушувати.Ми виступаємо за спрощення ведення бізнесу, за зменшення регуляцій, за прості, чіткі, прозорі правила і закони прямої дії, які, насправді, як червоне і зелене світло, дають чітке розуміння, що робити і чого не робити. При цьому нам потрібно паралельно міняти судову систему і реформувати правоохоронні органі, щоб покарання за невиконання норм, правил і законів було невідворотним.Я вважаю, що бізнесу треба дати можливість більше розвиватися, демонополізувати велику індустрію, запустити справжню конкуренцію в металургії, в хімічній промисловості, енергетичній промисловості. Для цього потрібні дуже дієві, прості, але незалежні і жорсткі регулятори, які давали би приблизно таку парадигму: все, що дозволено, робіть, але якщо порушите «червоні лінії» — вам кінець.А питання, які мають бути податки і на якому етапі — дискусійне. Я взагалі вважаю, що декілька років може бути одна історія, потім можна перейти до іншої схеми.Давай по інших темах, які турбують громадян. Освіта — вища, середня, платна, безоплатна?Україні зараз як країна, яка гарантує всім людям право на середню освіту, не має ні морального, ні конституційного, ні юридичного права від цього відмовлятися.Що стосується вищої освіти, то на цьому етапі треба думати не про те, яка вона має бути — платна чи безкоштовна. Я думаю, що на цьому етапі добре, що існує будь-яка можливість, тому що є діти в бідних сім'ях, які просто фізично не можуть собі дозволити навчатися в університетах за гроші, є талановиті люди, яким держава може допомогти.Але тут є інший момент, що сьогодні неефективно використовується величезна кількість грошей з бюджету, які йдуть на освіту. Чому? Є декілька пунктів. Перше — нащо нам 300 вишів? Це бездумна трата грошей. Більшість з цих університетів є профанацією, і вони не відповідають викликам часу і насправді є тими установами, які просто доять наш бюджет.Замість цього потрібні 30 університетів, які давали б якісну освіту, і держзамовлення на ті чи інші спеціальності. Відповідно, фінансування для цього визначалося би не з точки зору того, хто яку заявку дав і які ректори як домовилися з університетами, а, наприклад, чіткими і незалежними критеріями — індексом цитування твоїх вчених.І тоді питання платної і безоплатної освіти залишиться, але воно відійде на другий план, бо ми зможемо ефективніше ті гроші використовувати.Щодо медицини. Багато хто з громадянського суспільства підтримує реформу Уляни Супрун. Багато хто з населення не підтримує цю реформу. Уляни немає у вас в команді. Не зійшлися?Для нас було би дивно, якби ми брали людину, яка сьогодні є на робочому місці, і казали: пішли на вибори.Є речі в медичній реформі, які робить команда Супрун, які ми підтримуємо. Є речі, з якими ми не згодні, про які треба ще говорити. Що ми точно підтримуємо — реформу первинної ланки.Друга річ, яку ми підтримуємо, — це безкомпромісна і щира боротьба за прозорість держзакупівель. Ми знаємо, що на 40 відсотків ціни на базові позиції впали. Плюс програма реінбурсації, плюс програма безкоштовної медицини і доступних ліків для діабетиків, сердечників і так далі.То що ж тоді не так?По-перше, ще не до кінця зрозуміло, як це буде буде працювати у вторинній ланці. Поки що це тільки розмови.Друге, ще більш важливе, — це комунікації. Потрібно вигравати боротьбу, в тому числі, за уми і серця. Що відбувається сьогодні? Велика кількість лікарів справді виступають проти. Чому? Тому що за їхні серця й уми боротьбу виграли головні лікарі їхніх лікарень, які нарозказували різних страшилок, різних речей, часом цілковито неправдивих, часом напівправдивих, часом, на жаль, правдивих, і налаштували галузь, так чи інакше, проти майбутніх змін.Мені здається, що їм потрібно, в тому числі, працювати над тим, щоб іти в поля і ставити собі в союзники лікарів. В нас у команді є люди, які працювали на медреформою, є Оля Стефанишин. Є людина, яка є світилом і авторитетом у галузі — Юрій Соколов, відомий кардіолог з інституту Стражеско.Наші кореспонденти, куди б не їхали — на Одещину, в Торецьк, на схід і захід, ставили питання людям: що їх найбільше турбує? Відповідь: тарифи. Є політики, що кажуть: закликати до низьких тарифів — це популізм. Але що робити?Ні, це не популізм. Популізм — це говорити про низькі тарифи тим, хто цими тарифами 28 років займався. І мав до них пряме відношення. Ці спеціалісти, які добре розбираються в тарифах на газ, самі є творцями системи, яка сьогодні є. Згадайте контакти з Путіним 2009 року.Що з тарифами ви будете робити?Для того, щоб знизити тарифи, існує тільки один спосіб — вільна конкуренція на цьому ринку. Якщо є монополія, то завжди буде спекуляція цінами.Друга річ, яка ще більш важлива — ми повинні говорити не просто про зниження або справедливість тарифів. Ми повинні говорити про покращення економічної ситуації.От ти ставиш питання: вас хвилює те, що у вас високі тарифи на газ чи електроенергію? Так, хвилює. А якби були такі самі тарифи, але ви заробляли втричі більше, вам було би окей? Кажуть: ну так це зовсім інша справа. Тобто людей не стільки хвилюють високі платіжки сами по собі, скільки той факт, що вони не можуть їх оплатити. Збільшення зарплат і зменшення тарифів пов'язані з дуже простою річчю — з демонополізацією і з судовою системою.Люди тебе будуть так само питати: Святославе, а ви знаєте, скільки зараз коштує батон хліба чи пів буханки?Я знаю все те, що я купую в магазинах. Я знаю, скільки коштує електрика, бо я за неї плачу і прекрасно знаю, що в мене вдома електроенергія коштує 90 копійок за кіловат. Хліб, за який я плачу, можу коштувати 20-25 гривень, в когось він коштує дешевше, в когось дорожче. Але питання не в тому, чи я знаю, скільки коштує хліб, який хтось купує.Все одно, чи не важливо знати, скільки коштує літр молока в Києві?Важливо зробити так, щоб літр молока коштував справедливу ціну. Ринок визначить справедливу ціну для речей — для тебе, для мене.Яка є найменша пенсія зараз?Приблизно 1700-800 гривень. Я можу сказати, що в мене в сім’ї є люди, які отримують мінімальну пенсію, пенсію нижче прожиткового мінімуму. Я прекрасно розумію, як живуть звичайні люди. Я знаю, за що їм доводиться принижуватися.Зараз війна стала якимось абстрактним поняттям. Таке буває у всіх конфліктах на п’ятий рік. Але є конкретні питання. Наприклад, економічна блокада, яка шкодить людям, які живуть біля лінії конфлікту, які мешкають там. Яка твоя позиція щодо цього?Війна нав'язана нам Кремлем. Вона створена ними, зрежисована ними і зараз фактично ведеться роками їхніми же найманцями. Ми маємо чітко розуміти, що ключ від закінчення війни лежить виключно там — у Кремлі та кремлівських кабінетах. Коли ми це усвідомимо, ми зрозуміємо наступне — для того вони її і розв’язали, щоб нас дьоргати за ниточки.Я хочу сказати одну річ: керівництво Росії ніколи не сприймало і не сприймає самого факту існування України як суверенної і самостійної держави зі своєю політикою.Якщо Росія зараз тримає ключ від війни, то вона не закриється. І якщо хтось розказує, що ми знаємо, як закінчити війну за один день — він просто бреше.Я не спитала, як закінчити війну за один день. А що робити з економічною блокадою, яка розриває економічні зв'язки бодай тих українців, які є там.По-перше, держава повинна взяти на себе відповідальність за те, щоб не було подвійних стандартів. Це стосується не тільки того, торгувати чи не торгувати з тимчасово окупованими територіями чи з країною-агресором. Це стосується того, їздити чи не їздити туди на гастролі, дуже багатьох речей.Держава ніби самоусунулася від якихось речей і каже: бабусі перевезти 5 кг ковбаси не можна, а вугілля продавати можна. Одним дозволено, іншим заборонено. Те, що ми маємо зробити — ми маємо зробити закон, по якому чітко, ясно і без жодних двозначностей все аргументується.Я був недавно в Майорську на КПВВ. Я був там уперше. Я був на лінії зіткнення багато разів, але спеціально поїхав туди, де люди переходять з одного боку на інший. До мене підійшла одна жінка. Вона почала просити допомоги і плакати, що згідно з одним законом, їй дозволено це робити, але от на місці хтось їй показує якісь приписи, що це не можна. Вона каже: чому всі навколо в обхід це роблять, а мені не можна? Оце подвійні стандарти, які насправді настроюють проти держави населення.Є Мінські домовленості, які передбачають чимало речей, як от розведення сил. Але я чую від багатьох людей: оце вже зрада, «червона лінія», послаблення, здача інтересів.Щодо Мінських угод. Я абсолютно переконаний, що Мінські угоди були відтяжкою часу. В першу чергу, для того, щоб зупинити гарячу фазу війни. Гаряча фаза війни, спочатку Іловайськ, потім Дебальцеве. Фактично, Путін притиснув нашу делегацію до стінки. Я вважаю, що те, що було зроблено, дало Україні відтяжку часу для того, щоб перестали вбивати сотнями наших хлопців і дівчат.Дуже шкода, що після таких зусиль, в тому числі — консолідації міжнародних зусиль по тиску на Путіна, попередня влада не скористалася своїми досягненнями, щоб цю відтяжку часу використати ефективно. За 5 років Україна не зміцніла як держава для того, щоб сьогодні могти дозволити диктувати інші умови.І коли сьогодні європейські колеги кажуть: ну чого ми вас будемо захищати? Ви країна корупції, з вами неможливо мати справу, ви обіцяєте і не робите. Що нам їм сказати?Але розведення вогню для тебе що? Деякі військові кажуть: не хочемо, не треба.По-перше, це питання до військових, до головнокомандувача Збройних сил, начальника Генштабу, і зрештою — до верховного головнокомандувача, президента країни. Це їхня пряма відповідальність, вони мають всю оперативну інформацію, мають всі розвіддані, знають, що можна робити.Неправильно робити якийсь крок і про нього всім дізнаватися з преси, без пояснень. Коли раптом ми дізнаємося з преси, що відвели під Станицею Луганською наші війська на якусь позицію, а з іншого боку незрозуміло, що зробила протилежна сила. Починає розганятися ця так звана зрада, військові, волонтери, АТОшники починають це розганяти. І потім політиків питають: що робити? Моя відповідь: прозоро, чітко, артикульовано розказувати, що було зроблено і навіщо.На поступки ти готовий? Адже повернення до ситуації, як було до 2014-го, не буде.Тактичні поступки в переговорах відбуваються завжди. Але це поступка на поступку, поступка на поступку. Так, відбуваються переговори. Давай подивимося, що відбулося за останній час. Росію було виключено з ПАРЄ за анексію Криму, розв'язування війни на Донбасі, за багато інших речей, які вони робили, за нехтування правами людини, за політв'язнів і так далі. Жодної з тих речей, за які вона була політично оштрафована, які від неї просили зробити, вона не зробила. В ПАРЄ право голосу їй вернули. Це, на мою думку, не є поведінка, яку можна демонструвати тим, хто розуміє тільки право сили.Але ми не можемо з людьми, які 250 років у своїй політичній доктрині кажуть: тисни, поки можна і поки нас не зупинять, демонструвати слабкість. Я не є той, хто просто махає шаблею.Я нікому не обіцяв війну за один день закінчити. Я не ставлю армію на білборди. Але я справжній патріот, який хоче, щоб Україна достойно вийшла з цієї ситуації. Я бачив сам людей з відірваними ногами і руками, які лежать в лікарнях за те, що вони воювали за Україну. Я хочу, щоб люди перестали гинути і перестали бути пораненими.У мене не політична позиція, це позиція чисто гуманітарна. Якщо є можливість захищати права українських цивільних громадян — то це може бути зроблене.В нас, наприклад, є Саша Дворецька, яка не просто знає, як це робити, вона цим займалася всі ці роки і буде продовжувати це робити. В нас є Таміла Ташева, яка займалася цим і буде продовжувати це робити. В нас є Рустем Умеров, який брав участь безпосередньо в переговорах, в дуже складних і непростих, з приводу долі тих, хто зараз є в російських тюрмах. В нас є Рома Костенко, який напряму говорив з тими, хто приймає рішення.Чому в «Голосу» немає мажоритарників на Донбасі? Відповідали твої колеги, що ви обираєте людей гарантовано ідеальних. Але в такому випадку ви не представляєте інтереси конкретних людей на найскладніших округах.Я нагадаю, що 2,5 місяці тому партії «Голос» не існувало в природі. Я би хотів, щоб ти поставила це питання тим, хто сьогодні називає себе найбільшими патріотами і, з одного боку, виступає за боротьбу з Путіним і вже багато років існує в українській політиці, в тому числі, коли з Путіним модно було домовлятися і братися за руки. А з другого боку — тим, хто вивішує там білборди, що вони виступають за мир. От вони вже багато років цим займаються. Нехай покажуть, як вони піклуються про людей Донбасу. І чи білборди або присутність мажоритарників на Донбасі означає, що вони про них піклуються.Я розумію, чому до нас така прискіплива увага, навіть чому Громадське про нас дає стільки критики. З нас більше питають, тому що ми поставили високу планку. Ми поступово пройдемо скрізь. Ми дійдемо до кожного жителя України, і на окуповані території, і в Крим.Що має бути з російською мовою в Україні?В нас є закон про мову, він чітко прийнятий.Ти його підтримуєш?Абсолютно підтримую. Російську мову є кому захищати, і дехто дозахищався до того, що прийшов до нас військовими чоботами. Польську мову є кому захищати. Угорську мову є кому захищати. Румунську мову є кому захищати. Болгарську мову є кому захищати. А українську мову, крім українців, захищати немає кому.Якщо ми не захистимо її, в тому числі — законом про мову, то ця мова рано чи пізно зникне. А мова є однією з основних форм національної ідентичності, яка потрібна українському народові сьогодні, щоб протистояти викликами.Ми розуміємо і цінуємо те, що Україна — країна людей різних культур, різних національностей, різних мов. Перші дві жертви на Майдані, хочу нагадати, були вірменин Нігоян і білорус Жизневський.Я був недавно в музеї АТО в Дніпрі. Я всім вам дуже раджу туди піти. Там є стіна смс, які відправляли з фронту під час тяжкого бою своїм рідним солдати. Більшість смс там — російською мовою. Вони воювали з українським прапором за Україну.Україномовні патріоти, наприклад, в західній України — з ними Путін бореться танками і газовою трубою, економікою. І вони протистоять, і ми будемо протистояти і не дамо Путіну зайти до нас ні танками, ні газовою трубою. До російськомовних українців і патріотів Путін пробує достукатися ще однією зброєю, найбільш небезпечною і підступної, через серце і душу. І якраз на цих російськомовних патріотах України більша відповідальність.Не потрібно спекулювати на цій темі. Треба дати можливість зрозуміти всім, що кожен зможе вільно володіти своєю мовою і підтримувати свою культуру в Україні.Яка ідеологія вашої партії?Я мрію про той час, коли в Україні буде дві партії або дві ідеології — лівіша і правіша. Соціал-демократична і консервативна.Для нас сьогодні важливо прийти першою партією, яка починає з принципів. Для нас сьогодні фундаментальними є принципи: відсутність подвійних стандартів, непродавання політичної позиції за будь-яких умов, показування власного прикладу, визнання власних помилок, вміння знаходити компроміс у тактичних речах, але ніколи не переходити «червоні лінії», нести політичну культуру — ось наші основні принципи. В нас в команді є люди, які мають різні позиції по деяких питаннях, і це нормально на цьому етапі.Але для того, щоб людям зорієнтуватися? Скажімо вашу партію можна назвати правоцентричною?Я би сказав так — сьогодні ми центристська партія, яка об'єднує Україну.Які твої відносини з Віктором Пінчуком?Я його бачу на форумі YES часом і два рази на рік на засіданні наглядової ради музею «Бабин Яр».Мої колеги підрахували, що, за звітом, ви за ринковою ціною купуєте рекламу на телеканалах. ТРК «Україна» ви заплатили 19 мільйонів, «1+1» — так само близько, а от холдингу StarLightMedia, в який входять ICTV, СТБ, «Новий канал» — близько 12,5 мільйонів. Це якась знижка чи просто ви менше купуєте?Я, чесно кажучи, не можу тобі відповісти на це питання. Я не займаюся покупкою реклами. Я знаю, що ми все робимо «в білу», ніяких домовленостей з жодним олігархом у нас немає і не буде. Як мінімум, це було би недалекоглядно — мені публічно розказувати всім, в тому числі на каналах Пінчука, Ахметова, Коломойського, що ми хочемо, щоб вони перестали володіти взагалі мас-медіа, і паралельно з кимось про щось домовлятися. Я вважаю, що всі олігархи в Україні мають перестати бути власниками телеканалів, якщо вони хочуть займатися великим бізнесом.Який вплив на тебе має інвестор Томаш Фіала? Він підтримував вашу партію, він має бізнес, має медіа.Якщо Томаш Фіалa буде мати такий вплив на українську економіку, як має Пінчук, Коломойський, Ахметов, Фірташ і інші великі індустріальні магнати, то я буду виступати проти того, щоб він володів засобами масової інформації. Я не говорю, що щось треба забирати. Має бути законодавство, яке чітко регламентує, що є конфліктом інтересів, що ні.Які ваші відносини з Томашем Фіалою?Ми раніше були разом співзасновниками «Центру економічної стратегії». Ми разом його придумали, з ним і з Іваном Міклошем, колишнім віцепрем'єром Словаччини, який зараз консультує український уряд. Шкода, що не так до його консультацій прислухаються, як мали б. Але як тільки я став політиком, я вийшов з усіх органів, і інших відносин у мене немає.Скільки коштує концерт «Океану Ельзи»?Той, що зараз? Безкоштовний.Скільки він обходиться гурту?Це питання не до мене. Це питання компанії «Сюзі продакшн», яка цим займається. Я не знаю.Коли є тур, спершу відбувається розмова з виборцями, потім вже на цьому ж місці — концерт. Ви прибираєте символіку. Але за цю оренду платить гурт «Океан Ельзи»?«Сюзі продакшн».Але не партія «Голос»?Ні.А чому партія не платить, якщо все одно ставиться сцена?Ми не порушуємо жодного законодавства.Я думаю, тебе багато разів питали, чи є концерти агітаційними?Концерти є агітацією за якісну європейську музику і за те, як треба щиро і віддано робити свою роботу. Ми це робили, робимо і будемо робити. Крючкотворством нехай всі, хто хоче, займаються, у випадку ворожих діянь і тої жахливої української політики, яку створювали всі ті, хто довели нашу країну до сьогоднішнього часу. Я сподіваюся, що у всіх прогресивних, щирих журналістів та інших борців за чистоту є кращі і більш серйозні приводи, ніж концерти «Океану Ельзи» в «Турі змін».Я публічно вважаю, що ми жодної агітації не проводимо.читайте такожЧимало депутатів-«єврооптимістів» комунікували з тобою впродовж останнього року. Але про те, що вони не підуть у список, дізналися з прямого ефіру.З якого прямого ефіру?На телеканалі ICTV, коли ти оголосив, що в «Голосі» не буде колишніх політиків, депутатів. Для багатьох це було сюрпризом. Окрім того, все одно на мажоритарних округах є колишні й чинні депутати — Вікторія Войціцька, Вікторія Пташник. Якщо є така комунікація, як ти скажеш, що ти є надійний партнер, якщо люди про свою долю дізнаються з ефіру?Ні, це не так. Це не відповідає дійсності.А як було?Ми нікому нічого не обіцяли.Я розумію, що не обіцяли.А в чому ненадійність?Якщо ти довго спілкуєшся з людиною, і хай у вас немає домовленості...І хтось щось може собі чекати, а тут раптом — він не очікував. У чому ненадійність?Але від політиків чекають якоїсь надійної, чіткої комунікації.Це ти скажи всім попереднім політикам. Почніть з них.Ти вважаєш, що все пройшло гладко?Ні, не вважаю. Я вважаю, що багато хто протягом всього року, який передував парламентській кампанії, в тому числі протягом президентської кампанії, по 10 разів міняв свою політичну позицію, орієнтацію і політичні табори, а потім раптом здивувався, що партія «Голос» зайняла саме таку позицію.Це по факту не подібно до тої люстрації, про яку зараз говорить команда Зеленського — не брати старих.Ми взагалі проти такого. Мені здається, що так можна знайти дуже далеко. Те, що говорить їхня команда, означає, що нам треба люструвати всіх, в тому числі тих, хто в нас зараз працює і нам допомагає. По такій логіці, через 2 роки старими політиками почнуть називати тих, хто зараз люструє старих політиків.Ми не говоримо за люстрацію. Ми просто не знайшли узгоджених позицій з конкретними людьми, а з іншими — знайшли. От і все. Ми були відкриті до розмов.Я тобі навіть привідкрию більше — дивно, якщо до тебе приходить певний прогресивний політик і каже: я би хотів, я би хотіла, ми би хотіли, щоб ви підтримали саме мене, але я би хотів йти незалежно, і хотів би, щоб мене різні політичні сили підтримали. Це що таке? Це як? Типу чуть-чуть тут, чуть-чуть там, головне — пройти в парламент. А якщо в нас взагалі різні ідеології? Ну ви ж усі за Європу, всі проти Путіна. It's not enough. Це ж теж стара політика. З цим приходило багато нових політиків.читайте також</t>
   </si>
   <si>
-    <t>no one promise war end political svyatslav vakarchuk party voice ready coalition communicate svyatslav vakarchuk volodymyr zelensky flash mob vote joke ideology new party position tax education medicine language compromise possible war relations frontman ocean elsa politics businessman viktor pinchuk investor tomasz fialoyu list party former incumbent leader party voice musician declare pressure candidate party go how much yesterday start coming sms person western ukraine say party voice one pass passable no sawn voice vote real pro-european force actually criminal history submit relevant statement law enforcement agency poster newspaper false quote torn out of context understand european quote untrue bottom fit political force really promote europeanism ukraine such engage conversation broadcast say old politics party blush accuse one people pity difficult act such person still elect parliament new one old understandable someone try cynically water shit humiliate dignity political sometimes personal harshly answer implement program coalition look support servant people thing promise fulfill extremely difficult how ready such coalition elections exclusively political PR as openly as possible declare promise some elections clearly know party speak Ukrainian way European way like opposition platform Medvedchuk common want party program declare European vector development Ukraine entry EU NATO confirm write constitution declare thing important party vote that is demonopolization struggle manipulation media descent deputy heaven sinful earth person sit down speak future number coalition sometimes ask ready to go government ready government create coalition coalition be created base coalition agreement which discuss confirm draw red line find mechanism someone go out red line president former comedian gain percentage elections launch flash mob be called vote joke meet literally gap three person different social category fan club different candidate president absolutely seriously say one vote choice let's vote joke name different surname say surname type map lie down make your own video remember warrior fight person victim Maidan take seriously future Ukraine vote joke irresponsibly vote statement cause a certain political bias conscience watch such want that is comedian joke no way fierce publicly support no person elections no person gather somehow change position relationship Volodymyr Zelenskyy see announce go president see last communicate generally history relationship somehow plus minus start definitely see a dozen times last intersect work meet quarter needed copyright some song past life ideology party see tax low high say Scandinavian country high tax person teach</t>
+    <t>no one promise war end political svyatslav vakarchuk party voice ready coalition communicate svyatslav vakarchuk volodymyr zelensky flash mob vote joke ideology new party position tax education medicine language compromise possible war relations frontman ocean elsa politics businessman viktor pinchuk investor tomasz fialoyu list party former incumbent leader party voice musician declare pressure candidate party go how much yesterday start coming sms person western ukraine say party voice one pass passable no sawn voice vote real pro-european force actually criminal history submit relevant statement law enforcement agency poster newspaper false quote torn out of context understand european quote untrue bottom fit political force really promote europeanism ukraine such engage conversation broadcast say old politics party blush accuse one people pity difficult act such person still elect parliament new one old understandable someone try cynically water shit humiliate dignity political sometimes personal harshly answer implement program coalition look support servant people thing promise fulfill extremely difficult how ready such coalition elections exclusively political PR as openly as possible declare promise some elections clearly know party speak Ukrainian way European way like opposition platform Medvedchuk common want party program declare European vector development Ukraine entry EU NATO confirm write constitution declare thing important party vote that is demonopolization struggle manipulation media descent deputy heaven sinful earth person sit down speak future number coalition sometimes ask ready to go government ready government create coalition coalition be created base coalition agreement which discuss confirm draw red line find mechanism someone go out red line president former comedian gain percentage elections launch flash mob be called vote joke meet literally gap three person different social category fan club different candidate president absolutely seriously say one vote choice let's vote joke name different surname say surname type map lie down make your own video remember warrior fight person victim Maidan take seriously future Ukraine vote joke irresponsibly vote statement cause a certain political bias conscience watch such want that is comedian joke no way fierce publicly support no one person elections no one person gather somehow change position relationship Volodymyr Zelenskyy see announce go president see last communicate generally history relationship somehow plus minus start definitely see a dozen times last intersect work meet quarter needed copyright some song past life ideology party see tax low high say Scandinavian country high tax person teach</t>
   </si>
   <si>
     <t>Головою Єврокомісії обрали міністерку оборони Німеччини Урсулу фон дер Ляйєн. В Страсбурзі депутати Європарламенту проголосували в підтримку Урсули фон дер Ляйєн на посаду голови Єврокомісії.Про це повідомляє BBC.«На підставі результатів голосування кандидатку Європейської ради пані Урсулу фон дер Ляйєн обрано головою Європейської комісії», — оголосив голова Європарламенту Давид-Марія Сассолі.Для обрання головою Єврокомісії потрібно було отримати 374 голоси при таємному голосуванні.Нагадаємо, 3 липня президентом Європейського парламенту обрали представника Італії Давида Сассолі.</t>
@@ -1240,7 +1243,7 @@
     <t>ВООЗ оголосила міжнародну надзвичайну ситуацію в ДР Конго через спалах лихоманки Ебола. Всесвітня організація охорони здоров’я оголосила через спалах лихоманки Ебола в Демократичній Республіці Конго надзвичайну ситуацію, що має міжнародне значення.Про це повідомили в прес-службі ВООЗ.«Прийшов час, щоби світ звернув на це увагу та подвоїв свої зусилля. Ми повинні працювати разом на знак солідарності з ДР Конго, аби покласти край цьому спалаху», — сказав гендиректор організації Тедрос Адханом Гебрейєсус.Міжнародна надзвичайна ситуація означає, що подія загрожує іншим країнам і потребує координованих дій міжнародної спільноти.Водночас Адханом зазначив, що закривати кордони ДР Конго не має потреби, бо ризик розповсюдження лихоманки на інші країни низький.Як зазначає АР, від початку спалаху — із серпня 2018 року — в Конго померли 1600 людей.Лихоманка Ебола — захворювання, що викликає вірус Ебола, її коефіцієнт смертності — близько 50%.Нагадаємо, в січні в ДР Конго зафіксували другий наймасштабніший в історії спалах Еболи.</t>
   </si>
   <si>
-    <t>vooz declare an international emergency dr congo ebola outbreak world organization protection declare an ebola outbreak democratic republic of the congo emergency international importance inform press service so that the world should pay attention redouble efforts must work together sign of solidarity dr congo to end the outbreak director general organization tedros adhanom ghebreyesus international an emergency situation, an event that threatens another country in need coordinated action international community at the same time adhan mark close the border DR Congo need risk of spreading fever country low mark AR outbreak August Congo die person Ebola fever disease cause Ebola virus death rate January DR Congo record the largest Ebola outbreak in history</t>
+    <t>WHO declares international emergency DR Congo Ebola outbreak World Health Organization declares Ebola outbreak Democratic Republic of Congo emergency international importance report press service to the world to pay attention redouble efforts must work together sign solidarity DR Congo to end outbreak Director-General Organization Tedros Adhanom Ghebreyesus international emergency event threaten other country need coordinated action international community at the same time Adhanom note close border DR Congo need risk of spread fever country low note ar outbreak August Congo die person Ebola disease cause virus Ebola mortality rate January DR Congo record largest history Ebola outbreak</t>
   </si>
   <si>
     <t>Вирок полоненим морякам можна очікувати восени, в серпні справа може піти до суду — адвокат. Справу українських полонених моряків можуть направити до суду в серпні, а вирок їм можна очікувати уже восени. Вже після цього їх ймовірно звільнять.Про це Громадському заявив адвокат Ілля Новіков, який захищає командира катера «Бердянськ» Романа Мокряка.«Серпень — справа в суді, вересень — початок процесу, жовтень, листопад — вирок. Це, звісно, моя прикидка, все може затягнутися, але поки оцінюю терміни так», — сказав він.Адвокат зазначив, що не розраховує на обмін моряків на головреда «РИА Новости Украина» Кирила Вишинського, якого звинувачують в Україні у держзраді, але наголосив, що побічно ці процеси можуть впливати одне на одного, оскільки йдуть паралельно в часі.На думку Новікова, основний сценарій звільнення моряків — після вироку.«Росія розуміє, що це проблема і її треба вирішувати якнайшвидше. Після Трибуналу вони різко пришвидшили слідство і закінчили його менш ніж за 2 місяці. Так чи інакше моряків скоро віддадуть, але можливо не так швидко, як ми хочемо», — сказав адвокат.Нагадаємо, 17 липня Лефортівський суд Москви продовжив тримання під вартою усім 24 військовополоненим морякам на 3 місяці.15 липня українських моряків включили до списку обміну полоненими.9 липня російське слідство пред`явило обвинувачення в остаточній редакції всім 24 військовополоненим українським морякам.читайте такожЗранку 25 листопада 2018 року українські кораблі та рейдовий буксир планово вийшли з порту Одеси до порту Маріуполя. Під час цього завдання російське судно протаранило український буксир та пошкодило його.При виході з Керченської протоки російські судна обстріляли та захопили українські кораблі біля Керченської протоки. Загалом на трьох суднах були 24 українських військових, двоє з них службовці СБУ. Троє з них дістали поранення. В низці регіонів України оголосили воєнний стан.Усіх українців звинуватили у незаконному перетині кордону Російської Федерації в Чорному морі. 29 листопада 2018-го їхвивезли до СІЗО Москви.</t>
@@ -1270,13 +1273,13 @@
     <t>ТКГ домовилася про демонтаж фортифікацій у районі Станиці Луганській. Тристороння контактна група (ТКГ) з мирного врегулювання ситуації на сході України за участю представників незаконних збройних формувань окремих районів Луганської області домовилася про якнайшвидший початок спільного демонтажу фортифікаційних споруд у районі смт Станиця Луганська Луганської області, зокрема, знесення споруди на мосту через Сіверський Донець.Про це повідомила прес-секретарка другого президента України, представника України у ТКГ Леоніда Кучми Дарка Оліфер.«Завершено розведення сил та засобів в районі Станиці Луганської. Домовлено, що найближчим часом відбудеться одночасний, синхронний демонтаж фортифікаційних споруд, який розпочнеться зі знесення споруди НЗФ ОРЛО на мосту, а також відбудеться деполітизація — будуть прибрані символи квазіугруповань», — повідомила Оліфер за підсумками засідання ТКГ 17 липня.Вона додала, що українська сторона в найкоротші терміни готова забезпечити свою частину ремонту моста та зазначила, що в соціально-економічній підгрупі працюють над забезпеченням безперебійного енерго- та водопостачання, «яких потребують мирні жителі по обидва боки лінії зіткнення — ці питання так само потребують вирішення безпекових питань».Нагадаємо, 17 липня ТКГ за участю представників незаконних збройних формувань погодила припинення вогню на Донбасі з опівночі 21 липня 2019 року за київським часом.</t>
   </si>
   <si>
-    <t>TKG agree to dismantle the fortification district Stanytsia Luhansk Trilateral Contact Group TKG peaceful settlement situation east Ukraine participation representative illegal armed formation separate district Luhansk region agree as soon as possible start joint dismantling fortification structure district Stanytsia Luhansk Luhansk region in particular demolition of the bridge Seversky Donets inform press secretary second president Ukraine representative Ukraine TKG Leonid Kuchma Darka Olifer disengagement force means district Stanytsia Luhansk agree in the nearest time to take place simultaneous synchronous dismantling of the fortification structure begin demolition of the building NZF Orlo bridge take place depoliticization removed symbol of quasi-groups inform Olifer summary of the TKG meeting July add Ukrainian side shortest term ready to provide part of the repair of the bridge indicate socio-economic subgroup work ensuring uninterrupted water supply need civilian side contact line issue need solution safe remind July TKG participation representative illegal armed formations agree to ceasefire Donbas midnight July Kyiv time</t>
+    <t>TKG agree to dismantle the fortification district Stanytsia Luhanskyi Trilateral Contact Group TKG peaceful settlement situation East Ukraine participation representative illegal armed formation separate district Luhanskyi region agree as soon as possible start joint dismantling fortification structure district Stanytsia Luhanskyi Luhanskyi region in particular demolition of the bridge Severskyi Donets inform press secretary second president Ukraine representative Ukraine TKG Leonid Kuchma Darka Olifer disengagement force means district Stanytsia Luhanskyi agree in the nearest time to take place simultaneous synchronous dismantling of the fortification structure begin demolition of the building NZF Orlo bridge take place depoliticization removed symbol of quasi-groups inform Olifer summary of the TKG meeting July add Ukrainian side shortest term ready to provide part of the repair of the bridge indicate socio-economic subgroup work ensuring uninterrupted water supply need civilian side contact line issue need solution safe remind July TKG participation representative illegal armed formations agree to ceasefire Donbas midnight July Kyiv time</t>
   </si>
   <si>
     <t>ТКГ погодила припинення вогню на Донбасі з опівночі 21 липня. Тристороння контактна група (ТКГ) з мирного врегулювання ситуації на сході України за участю представників незаконних збройних формувань погодила припинення вогню на Донбасі з опівночі 21 липня 2019 року за київським часом.Про це повідомила прес-секретарка другого президента України, представника України у ТКГ Леоніда Кучми Дарка Оліфер.«Тристороння контактна група, за участі представників ОРДЛО, визнаючи позитивний вплив практики підтвердження відданості режиму припинення вогню, зазначаючи важливість забезпечення миру та спокою для населення, а також виходячи з раніше досягнутих угод та зобов'язань сторін підтверджує свою повну відданість всеосяжну, сталому та безстроковому припиненню вогню, з опівночі 21 липня 2019 року за київським часом», — написала Оліфер на своїй сторінці у Facebook.Вона зазначила, що учасники ТКГ повторно заявляють про свою «загальну і тверду» відданість повному виконанню Мінських домовленостей та зобов'язуються забезпечити повний та безпечний доступ СММ ОБСЄ по всій території України згідно її мандату.Раніше президент України Володимир Зеленський уповноважив Романа Безсмертного представляти Україну в робочій підгрупі з політичних питань Тристоронньої контактної групи (ТКГ) в Мінську щодо врегулювання ситуації на Донбасі замість Олександра Моцика.Зеленський своїм указом від 19 червня перепризначивтрьох уповноважених представників України в робочих підгрупах ТКГ по мирному врегулюванню ситуації на Донбасі. Зокрема, Олександр Моцик був уповноважений представляти Україну в робочій підгрупі з політичних питань.У 2015 році Роман Безсмертний був призначений представником України в політичній підгрупі ТКГ. У квітні 2016 року вийшов з Мінського процесу.</t>
   </si>
   <si>
-    <t>TKG agree ceasefire Donbas midnight July Trilateral Contact Group TKG peaceful settlement situation East Ukraine participation representative illegal armed formation agree ceasefire Donbas midnight July Kyiv time inform press secretary second president Ukraine representative Ukraine TKG Leonid Kuchma Darko Olifer contact group participation representative Ordlo recognizing positive impact practice confirmation commitment ceasefire regime noting importance of ensuring peace calm population leaving achieved agreement party confirm full commitment comprehensive sustainable indefinite ceasefire midnight July Kyiv time write Olifer facebook page note TKG participant reiterate general firm commitment full implementation Minsk agreement ensure full safe access SMM OSCE entire territory Ukraine according to mandate President Ukraine Volodymyr Zelensky authorize Roman Besmertny represent Ukraine working subgroup political issue Trilateral Contact Group TKG Minsk settlement situation Donbas instead of Alexander Motsyk Zelenskyy reappointed three authorized representatives of Ukraine, working subgroup of the TCG, peaceful settlement of the situation in Donbas, in particular, Oleksandr Motsyk authorized to represent Ukraine, working subgroup, political issues, Roman Besmertny, appointed representative of Ukraine, political subgroup of the TCG, April, exit from the Minsk process</t>
+    <t>TKG agree ceasefire Donbas midnight July Trilateral Contact Group TKG peaceful settlement situation East Ukraine participation representative illegal armed formation agree ceasefire Donbas midnight July Kyiv time inform press secretary second president Ukraine representative Ukraine TKG Leonid Kuchma Darko Olifer contact group participation representative Ordlo recognizing positive impact practice confirmation commitment ceasefire regime noting importance of ensuring peace calm population leaving achieved agreement party confirm full commitment comprehensive sustainable indefinite ceasefire midnight July Kyiv time write Olifer facebook page note TKG participant reiterate general firm commitment full implementation Minsk agreement ensure full safe access SMM OSCE entire territory Ukraine according to mandate President Ukraine Volodymyr Zelensky authorize Roman Besmertny represent Ukraine working subgroup political issue trilateral contact group TKG Minsk settlement situation Donbas instead of Alexander Motsyk Zelenskyy reappointed three authorized representatives of Ukraine, working subgroup of the TCG, peaceful settlement of the situation in Donbas, in particular, Oleksandr Motsyk authorized to represent Ukraine, working subgroup, political issues, Roman Besmertny, appointed representative of Ukraine, political subgroup of the TCG, April, exit from the Minsk process</t>
   </si>
   <si>
     <t>Україна не потрапить у правову пастку і не визнає кримінальної справи проти моряків — МЗС. Для повернення полонених моряків в Україну Росія може використати багато опцій, але Україна не погодиться на пропозицію Москви визнати кримінальну справу проти них.Про це в ефірі програми «Нині вже» на Громадському заявила речниця Міністерства закордонних справ України Катерина Зеленко.Йдеться про пропозицію Росії передати моряків, якщо України визнає кримінальну справу проти них і забезпечить їхню подальшу участь у кримінальному процесі в Росії. Раніше в МЗС назвали цю пропозицію «пасткою».«Саме про це і йшлося в нашій ноті, що ми не можемо погодитися на цю правову пастку, тому що це фактично означатиме, що кримінальне провадження продовжується», — сказала Зеленко.Вона зазначила, що юридична практика знає багато різних прикладів, але Україна наполягає на виконанні міжнародного права — тобто на виконанні рішення Міжнародного трибуналу, який зобов’язав Росію звільнити українських моряків.«І це в інтересах самої Росії в тому числі, адже РФ так само користується імунітетами, згідно з міжнародним конвенціями, її військові судна так само подорожують світом і вони так само потребують захисту, як і наші», — пояснила речниця МЗС.Зеленко додала, що варіантів повернення моряків багато.«Для нас не грає ролі, до якої внутрішньоправової процедури вдаватиметься РФ, нам важливо, щоби наші люди повернулися на Батьківщину. Якою буде ця формула — будемо дивитися. Є різні опції», — резюмувала вона.Нагадаємо, президент Володимир Зеленський обурився діями міністра закордонних справ Павла Клімкіна, який, не порадившись із главою держави, відповів на ноту РФ щодо моряків. Сам Клімкін пояснив, що МЗС не повинне погоджувати з президентом свої ноти, а нота Росії є пасткою.Зранку 25 листопада 2018 року українські кораблі та рейдовий буксир планово вийшли з порту Одеси до порту Маріуполя. Під час цього завдання російське судно протаранило український буксир та пошкодило його.При виході з Керченської протоки російські судна обстріляли та захопили українські кораблі біля Керченської протоки. Загалом на трьох суднах були 24 українських військових, двоє з них службовці СБУ. Троє з них дістали поранення.Усіх українців звинуватили у незаконному перетині кордону Російської Федерації в Чорному морі. 29 листопада 2018-го їхвивезли до СІЗО Москви.читайте також</t>
@@ -1288,7 +1291,7 @@
     <t>Церемонію пам'яті жертв катастрофи MH17 у Нідерландах відвідав лише один росіянин — журналіст . Церемонію пам'яті жертв катастрофи Boeing Малайзійських авіаліній рейсу MH17 у Нідерландах відвідав лише один представник Росії.Про це в ефірі програми «Нині вже» на Громадському повідомив журналіст російського видання «Новая газета» Павло Канигін.Він розповів, що на траурний захід прибули родичі загиблих, журналісти, а також прем'єр-міністр Нідерландів Марк Рютте. Глава уряду, як підкреслив Канигін, не запізнився, що є «незвичним для нас, для росіян».«Виявилося, що я був єдиним представником російської держави, російського суспільства. Навіть не держави, а просто з Росії – єдина людина, яка приїхала. Були з України, бачив колег звідти. Ані представників влади, ані представників НКО, ані журналістів. Ну, я можу здогадатися, що багато журналістів посоромилися. Ну, там, першого каналу, НТВ, тим більше ВГТРК, «Russia Today» тим більше. Може, їм було соромно. Може, і не соромно — просто вони не захотіли. А чого їм сюди іти, якщо це не їхня трагедія, не їхній біль? Вони так вважають. [...] Мені соромно за таких», — заявив Канигін.читайте такожBoeing 777 авіакомпанії Malaysia Airlines, який виконував рейс Амстердам — Куала-Лумпур, був збитий на Донбасі неподалік Сніжного Донецької області 17 липня 2014 року. На борту літака перебували 298 пасажирів та членів екіпажу, усі вони загинули.﻿24 травня 2018 року офіційне слідство підтвердило, що ракета «Бук», яка збила літак MH17 неподалік Сніжного Донецької області, була привезена на окуповану територію Донбасу з Росії й належала 53-й зенітно-ракетній бригаді Міністерства оборони Росії, яка розташована у Курській області.Влада РФ заперечує причетність своїх структур до трагедії, заявляючи, що літак збили українські військові з села Зарощенське.СБУ у кінці червня провела спецоперацію на території так званої «ДНР» і затримали колишнього командира ППО бойовиків в місті Сніжне Володимира Цемаха.Експерти групи Bellingcat вважають, що арешт Цемаха матиме істотний вплив на розслідування об'єднаної слідчої групи JIT.</t>
   </si>
   <si>
-    <t>ceremony victim disaster netherlands visit russian journalist ceremony victim disaster boeing malaysian airlines flight netherlands visit representative russia broadcast program now public inform journalist russian edition new newspaper pavlo kanygin tell mourning event arrive relative of the deceased journalist minister netherlands mark rutte head of government emphasize kanygin be late unusual only representative russian state russian society state russia only person come ukraine see colleague from there neither representative of the government nor representative of nko nor journalist can guess journalist be ashamed first channel ntv vgtrk russia today shame shame want to go here their tragedy their pain consider shame such declare alsoboeing airline malaysia airlines perform flight amsterdam kuala lumpur shot down donbas nearby snizhny donetsk region july board plane be passenger member crew may official investigation confirm missile beech shoot down plane nearby snizhnye donetsk region brought occupied territory donbas russia belong anti-aircraft missile brigade ministry defense russia located kursk region rf authorities deny involvement structure tragedy claiming plane shoot down ukrainian military village zaroschenske sbu end june conduct special operation territory called dpr detain former air defense commander militant city snizhnye volodymyr tsemakh expert group bellingcat consider arrest tsemakh have significant impact investigation investigator group jit</t>
+    <t>ceremony victim disaster netherlands visit russian journalist ceremony victim disaster boeing malaysian airlines flight netherlands visit representative russia broadcast program now public inform journalist russian edition new newspaper pavlo kanygin tell mourning event arrive relative of the deceased journalist minister netherlands mark rutte head of government emphasize kanygin be late unusual only representative russian state russian society state russia only person arrive ukraine see colleague from there neither representative of the government nor representative of nko nor journalist can guess journalist be ashamed first channel ntv vgtrk russia today shame shame want to go here their tragedy their pain consider shame such declare alsoboeing airline malaysia airlines perform flight amsterdam kuala lumpur shot down donbas nearby snizhny donetsk region july board plane be passenger member crew may official investigation confirm missile beech shoot down plane nearby snizhnye donetsk region brought occupied territory donbas russia belong anti-aircraft missile brigade ministry defense russia located kursk region rf authorities deny involvement structure tragedy claiming plane shoot down ukrainian military village zaroschenske sbu end june conduct special operation territory called dpr detain former air defense commander militant city snizhnye volodymyr tsemakh expert group bellingcat consider arrest tsemakh have significant impact investigation investigator group jit</t>
   </si>
   <si>
     <t>Зеленський про розслідування справ Майдану і вбивства Гандзюк: «Моєї політичної волі недостатньо». Президент Володимир Зеленський заявив, що у найбільш резонансних справах, зокрема у справах Майдану та вбивства активістки Катерини Гандзюк, для покарання винних недостатньо його політичної волі, бо немає політичної волі правоохоронців.Про це Зеленський сказав у своєму відоблозі.Він заявив, що після вступу на посаду покликав керівників правоохоронних органів, аби обговорити найгучніші справи — справи Майдану, напади на журналістів, убивство Гандзюк та розкрадання в оборонці.«І тут почалось: САП каже, в усьому винні НАБУ, НАБУ каже — у всьому винні САП, генпрокурор каже — була б політична воля, ми б вже всіх посадили. Я кажу — у нас є політична воля, щоби можна було безпечно жити в Україні і посадити всіх цих грабіжників, які дуже брудно заробляли на всіх цих справах. Є політична воля, немає тільки одного — немає часу. Давайте працювати», — розповів глава держави.За словами Зеленського, керівники правоохоронних органів погодились, що «будемо працювати».«Зараз вже пройшло півтора місяці. Я розумію тільки одне, що політичної волі моєї особистої недостатньо. Немає політичної волі у наших правоохоронних органів. Ну може у когось є, але завжди їм чогось не вистачає», — зазначив він.Президент пообіцяв, що в такому випадку «буде робити все», аби таких правоохоронців в Україні не було.Нагадаємо, Зеленський просив Верховну Раду звільнити генпрокурора Юрія Луценка, проте депутати не підтримали це рішення.Водночас на початку липня президента оновив керівництво Служби безпеки. 22 травня Зеленський призначив першим заступником глави СБУ голову політичної партії «Слуга народу» Івана Баканова.Грицак та його заступники подали у відставку 20 травня.читайте також</t>
@@ -1312,7 +1315,7 @@
     <t>Бойовики заявили, що в Донецьку від обстрілу загинула жінка. За інформацією бойовиків так званої «ДНР», у Куйбишевському районі Донецька внаслідок обстрілу загинула жінка 1951 року народження.Про це повідомили інформаційні ресурси бойовиків.Стверджується, що жінка потрапила під обстріл на вулиці Макаренка та дістала низку поранень: у неї діагностували проникаюче поранення черевної порожнини, осколкові поранення правої гомілки, стегна, передпліччя, лівого плеча, травматичний шок 2-го ступеня. Жінку доставили в лікарню, але там вона померла.Як заявляють бойовики, обстріляли Донецьк з боку населеного пункту Піски, внаслідок чого нібито отримали пошкодження будівлі дитячих садків №229 і №269.Нагадаємо, 11 липня бойовики обстріляли населений пункт Чермалик Донецької області, внаслідок чого одна цивільна особа загинула.Нагадаємо, на переговорах у Мінську домовились про «режим тиші» на Донбасі, який вперше забороняє будь-який вогонь.читайте також</t>
   </si>
   <si>
-    <t>militant declare Donetsk shelling kill woman information militant known as DNR Kuibyshevskyi district Donetsk as a result of shelling die woman birth report information resource militant claim woman hit shelling Street Makarenko get a series of wounds diagnose penetrating wound abdominal cavity shrapnel wound right shin thigh forearm left shoulder traumatic shock degree woman deliver to hospital to die to declare a militant was fired upon Donetsk side Pisk settlement as a result of alleged damage to building Kindergarten July Militant shelled Chermalyk settlement Donetsk region as a result one civilian died remind negotiations Minsk agree regime of silence Donbas for the first time ban</t>
+    <t>militant declare Donetsk shelling die woman information militant called DNR Kuibyshev district Donetsk as a result of shelling die woman birth report information resource militant assert woman get shelled Makarenko street get a series of wounds diagnose penetrating wound abdominal cavity shrapnel wound right shin thigh forearm left shoulder traumatic shock degree woman deliver hospital die declare militant shelled Donetsk side settlement Pisky as a result of allegedly get damaged building kindergarten July militant shelled settlement Chermalyk Donetsk region as a result of one civilian person die remind negotiations Minsk agree regime silence Donbas first time prohibit</t>
   </si>
   <si>
     <t>Україна пропонує Кремлю одночасно звільнити Вишинського і Сенцова. Офіс президента України пропонує адміністрації російського президента одночасно звільнити політв’язня Олега Сенцова, засудженого в РФ за тероризм, та головреда «РИА Новости Украина» Кирила Вишинського, якого в Україні судять за держзраду.Про це заявила речниця президента Володимира Зеленського Юлія Мендель.Вона зазначила, що в ОПУ «із зацікавленістю» дізналися про пропозицію Росії звільнити Вишинського на знак «доброї волі».«Цілком підтримуємо політику кроків доброї волі і пропонуємо Росії зробити і свій крок назустріч — звільнивши Олега Сенцова. І для взаємної переконаності у спільній добрій волі ми пропонуємо зробити це одночасно», — написала вона у Facebook.Пропозиція Кремля звільнити Вишинського була відповіддю на заклик Зеленського звільнити українських моряків. Президент України зазначив, що це було б першим кроком для відновлення діалогу між Києвом та Москвою.Нагадаємо, 13 липня Олегу Сенцову виповнилось 43 роки й це його шостий день народження в колонії.слухайте подкаст Громадського і «Новой газеты» 13 липня в Києві відбулась мистецька акція до Дня народження Сенцова.10 травня виповнилось 5 років з дня арешту Олега Сенцова. Велику частину цього терміну українські політв'язні провели в тюрмах Росії. Режисер і активіст Олег Сенцов, засуджений на 20 років за сфабрикованою справою, перебуває в колонії в місті Лабитнангі в Заполяр'ї. У 2018-му Олег 145 днів голодував із вимогою звільнити всіх українських політв'язнів Росії — тоді їх було понад 70 людей.дивіться також</t>
@@ -1342,7 +1345,7 @@
     <t xml:space="preserve">Гроші партій: телеканали, нафта, вибори та «Опозиційна платформа — За життя». Юрій Бойко, Сергій Льовочкін, Вадим Рабінович, Нестор Шуфрич, Григорій Суркіс — обличчя партії «Опозиційна платформа — За життя», яка саме в такому вигляді з’явилася рік тому, частково від’єднавшись від Опозиційного блоку.Головна людина в ній — Віктор Медведчук. Ідеологія партії — народовладдя, референдуми та економічна і гуманітарна дружба із Росією. Рейтинг партії — 10%. Ми розбиралися, звідки в неї гроші та на що партія їх витрачає.дивіться також </t>
   </si>
   <si>
-    <t>money party TV channel oil elections opposition platform life yuri boyko sergey lyovochkin vadym rabinovich nestor shufritch grigoriy surkis face party opposition platform life this look partly opposition bloc main person viktor medvedchuk ideology party democracy referendum economic humanitarian friendship russia rating party figure out where the money comes from party</t>
+    <t>money party TV channel oil elections opposition platform life yuriy boyko sergey lyovochkin vadym rabinovich nestor shufritch grigoriy surkis face party opposition platform life this look partly opposition bloc main person viktor medvedchuk ideology party democracy referendum economic humanitarian friendship russia rating party figure out where the money comes from party</t>
   </si>
   <si>
     <t>Примирення військових з опозицією в Судані: оприлюднено текст угоди. Лідери суданського опозиційного руху «Сили за свободу й зміни»  та правляча Перехідна військова рада підписали угоду про створення вищого органу влади — суверенної ради. Це — перехідний уряд на найближчі 39 місяців, до складу якого увійдуть представники як військових, так і цивільних, вони керуватимуть радою по черзі.Текст угоди Громадському надав Гафіз Мохаммед, очільник суданської гілки неурядової організації Justice Africa.Документ називається «Угода про створення й функціонування інституцій під час перехідного періоду, укладена Перехідною військовою радою та «Силами за свободу й зміни».За словами Мохаммеда, сторони підписали угоду 17 липня — тоді ж вперше оприлюднили її текст арабською. Англомовний варіант документу вперше з’явився 18 липня.«Сторони домовилися про святість національного суверенітету та єдність Судану з усім його різноманіттям. Сторони зобов’язуються працювати спільно на добровільних засадах та повинні утримуватися від ворожої й провокативної риторики. Сторони мають дотримуватися принципів демократії, прав людини й значущих для Судану цінностей», — йдеться у тексті угоди.За спільним рішенням військових та цивільних, тепер на чолі виконавчої влади в країні буде технократичний уряд. Його призначення — втілити у життя економічні та політичні реформи, які підготують країну до проведення загальнонаціональних виборів 2022 року.Нагадаємо, основні умови угоди стали відомі ще 5 липня — після інтенсивних дводенних перемовин 3-4 липня військових та опозиції. Фактично домовленість про примирення між сторонами означає вихід країни із політичної кризи: після усунення від управління країною авторитарного президента Омара аль-Башира протестувальники кілька місяців домагалися передачі влади від військових цивільному уряду.Також Перехідна військова рада й цивільні домовилися про «прозоре й незалежне розслідування» силового розгону мирних демонстрацій у Хартумі 3 червня, коли було вбито десятки протестувальників.11 квітня в Судані стався військовий переворот: Міністерство оборони Судану оголосило про відсторонення від влади президента країни Омара Хасана аль-Башира, який був главою держави майже 30 років. Армія взяла владу у свої руки на 2-річний перехідний період. Армія на чолі з міністром оборони Авадом ібн-Ауфом арештувала аль-Башира та його найближче оточення.</t>
@@ -1384,19 +1387,19 @@
     <t>На Донбасі двоє українських військових загинули від кулі снайпера під час інженерних робіт — штаб. У районі проведення операції Об'єднаних сил на Донбасі 19 липня під час проведення інженерних робіт по обладнанню бліндажу, від вогню снайпера бойовиків загинули двоє українських військовослужбовців одного з підрозділів окремої механізованої бригади імені Короля Данила.Про це повідомляє прес-центру штабу ООС на сторінці у Facebook.«Один з військовослужбовців був евакуйований з місця обстрілу, отримав домедичну допомогу та був доставлений до найближчої районної лікарні, де від отриманого поранення помер. Інший військовослужбовець, отримав кульове поранення в бік та руку, намагаючись врятувати бойового побратима, та винести його на ношах із зони обстрілу. Від ураження кулею він загинув на місці», — йдеться у повідомленні.Нагадаємо, один український військовослужбовець загинув унаслідок підриву та ще двоє дістали поранення унаслідок обстрілів у зоні бойових дій на Донбасі 18 липня.</t>
   </si>
   <si>
-    <t>donbas two ukrainian military die bullet sniper engineering work headquarters area conducting operation force donbas july conducting engineering work equipment dugout fire sniper militant die two ukrainian serviceman unit separate mechanized brigade name king danylo report press center headquarters os facebook page serviceman evacuated place shelling receive first aid delivered nearest district hospital received wound die serviceman receive bullet wound side hand trying to save combat comrade carry out burden zone shelling hit bullet die place go message remind ukrainian serviceman die as a result of explosion two get injured as a result of shelling zone combat action donbas july</t>
+    <t>donbas two ukrainian military die bullet sniper engineering work headquarters area conducting operation force donbas july conducting engineering work equipment dugout fire sniper militant die two ukrainian serviceman unit separate mechanized brigade name king danylo report press center headquarters oos facebook page serviceman evacuated place shelling receive first aid delivered nearest district hospital received wound die serviceman receive bullet wound side hand trying to save combat comrade carry out burden zone shelling hit bullet die place go message remind ukrainian serviceman die as a result of explosion two get injured as a result of shelling zone combat action donbas july</t>
   </si>
   <si>
     <t>Адвокат Вишинського про медаль за звільнення Криму: Про неї оголосили раніше, ніж знайшли. Адвокат головного редактора «РИА Новости Украина» Кирила Вишинського, якого підозрюють у державній зраді, Андрій Доманський стверджує, що правоохоронці раніше оголосили про медаль «за звільнення Криму», ніж знайшли її у помешканні підозрюваного.Про це адвокат заявив у ефірі програми «Нині вже» на Громадському.«Я був безпосередньо з Кирилом під час обшуку і можу відверто сказати, для мене відверта була річ, коли пішли пресконференції окремих осіб, які вже тоді почали кричати, мол «затриманий...», хоча він тоді ще не був затриманий. З іншого боку, коли людину приводять вже в кайданках до себе в квартиру для проведення обшуку — то вже затриманий. Тож вже затриманий, вже підозрюваний, вже обвинувачений і в нього знайшли те, чого при нас іще не знайшли», — наголосив Доманський.Водночас, на уточнююче питання, чи він вважає, що її підкинули адвокат відповів, що ставитиме «питання, які буде доводити в суді».читайте такожНагадаємо:</t>
   </si>
   <si>
-    <t>lawyer Vyshynskyi medal of release Crimea announce find lawyer editor-in-chief RIA News Ukraine Kirill Vyshynskyi suspect high treason Andriy Domanskyi claim law enforcement officer announce medal of release Crimea find residence suspect lawyer declare air program now public directly Kirill search may frankly frank thing leave press conference individual start shouting mall detained Detained on the other side of the person to be brought in handcuffs to the apartment conducting a search, also detained detained suspect accused find still find emphasize domany at the same time clarifying question consider throw up lawyer answer ask question prove also remind</t>
+    <t>lawyer vyshinsky medal of liberation crimea announce find lawyer editor-in-chief rian news ukraine kyril vyshinsky suspect state treason andriy domansky assert law enforcement officer announce medal of liberation crimea find apartment suspect lawyer declare broadcast program now public directly kyril search can frankly frank thing go press conference separate person start shouting say detained detained other side person bring handcuffed apartment conducting search detained so detained suspect accused find still find emphasize domansky at the same time clarifying question consider raise lawyer answer ask question prove alsoremind</t>
   </si>
   <si>
     <t>Остання мажоритарочка | Документальний фільм про жінок, які йдуть у політику. У Верховній Раді 8-го скликання зі 199 депутатів-мажоритарщиків було лише дві жінки. Так що, мажоритарка — зовсім не жіноча справа? Цього року маємо останній шанс це з’ясувати, адже нове виборче законодавство скасувало мажоритарку як таку. Не буде більше: роздавання гречки\шиферу\дитячих майданчиків на округах, накритих для голів сільських рад полян, депутати Верховної ради більше не змагатимуться, хто більше вставить пластикових вікон у клубах, розчистить більше криниць чи відремонтує доріг за державний кошт. Чи встигли виборці на місцях розібратися, що народні депутати мають приймати закони, а не латати ями на дорогах? У будь-якому разі, великий передвиборчий фестиваль «Мажоритарочка» цього року відбувся востаннє.«Для людей це рай! Хай би ці вибори ніколи не закінчувалися!» — розказує Марина Черенкова, кандидатка-мажоритарщиця на 116 окрузі в Донецькій області. У неї 27 конкурентів, округ та сільська громада розірвані війною, кандидати в депутати шикуються в черги, аби підігнати людям порцію «передвиборчої допомоги». «Брати все й в усіх!» — радить своїм виборцям Марина, хоч сама не має що роздавати, окрім скаженої енергії та нестримної харизми. І зіткнувшись із десантниками з команди конкурента на окрузі, вона танцює «циганочку», аби «свято ПавлА і ПАвла» не скінчилося неприємностями.Інша наша героїня — Ірина Подоляк. Колись вона й була однією з двох жінок-мажоритарщиць у цілій Верховній Раді. «Чоловіки не договороздатні. І ще, вони заздрять жінкам, бо не ладні повірити, що жінки так само можуть розбиратися в тонкощах податкової системи, медицинської чи пенсійної реформи. Вони схожі на кобр іноді,» — розказує Ірина, ідучи львівськими вулицями з чергової зустрічі із виборцями, де її знову розпинали за Садового, «Самопоміч», та й заразом і за всю Верховну Раду. «Людям байдуже, хто ти. Вони розлючені, змучені, вони не хочуть такої реальності. Треба слухати, що ж».Світлану Заліщук важко уявити на городі, із лопатою та картоплею. Вона — ліберально-демократична, добре освічена і єврооптимістична, але балотується по мажоритарці там, де народилася, на Черкащині. «За час кампанії я багато чого зрозуміла про нас-єврохіпстерів, — зізнається Заліщук дорогою в сьоме за день село, — ми живемо в бульбашці. Не хочемо бачити проблем. Закриваємо очі на все, що знаходиться поза нашою зоною комфорту. Якби я народилася в Києві, я б ніколи не дійшла до кінця передвиборчої кампанії».Три героїні: Світлана Заліщук, Ірина Подоляк, Марина Черенкова, б’ються на мажоритарних округах на сході, заході та в центрі України. Про те, як це — бути мажоритарницею, вони розказали Громадському.</t>
   </si>
   <si>
-    <t>last majoritarian documentary woman go politics supreme council convocation deputy majoritarian woman majoritarian female case have last chance new election legislation cancel majoritarian such distribution area district covered goal village council glade deputy supreme council compete insert plastic window club clear well repair road state expense manage voter place figure out people's deputy have adopt law patch hole road what time big pre-election festival majoritarian take place last time person paradise Let elections end tell Marina Cherenkova candidate majoritarian district Donetsk region competitor district rural community torn war candidate deputy line up queue to fit person portion pre-election help take advise your voter Marina distribute mad energy uncontrollable charisma faced paratrooper team competitor district dance gypsy to holiday Pavla Pavlo end unpleasantness heroine Irina Podoliak Once upon a time, a woman majoritarian whole Supreme Council man capable of negotiation envy woman nice believe woman understand the intricacies tax system medical pension reform similar cobra tell Irina walking Lviv street next meeting voter crucified garden self-help at the same time Supreme Council person indifferent angry exhausted want such reality listen Svetlana Zalishchuk hard to imagine garden shovel potatoes liberal democratic educated Euro-optimistic run for majoritarian woman born Cherkasy campaign understand Eurohipsters confess Zalishchuk road seventh village live bubble want to see problem close eye be outside comfort zone if born cue reach end pre-election heroine Svetlana Zalishchuk Irina Podoliak Marina Cherenkova majoritarian district east west center Ukraine majoritarian woman tell public</t>
+    <t>last majoritarian documentary woman go politics supreme council convocation deputy majoritarian woman majoritarian female case have last chance new election legislation cancel majoritarian such distribution area district covered goal village council glade deputy supreme council compete insert plastic window club clear well repair road state expense manage voter place figure out people's deputy have adopt law patch hole road what time big pre-election festival majoritarian take place last time person paradise Let elections end tell Marina Cherenkova candidate majoritarian district Donetsk region competitor district rural community torn war candidate deputy line up queue to fit person portion pre-election help take advise your voter Marina distribute mad energy uncontrollable charisma faced paratrooper team competitor district dance gypsy to holiday Pavla Pavlo end unpleasantness heroine Irina Podoliak Once upon a time, a woman majoritarian whole Supreme Council man capable of negotiation envy woman nice believe woman understand the intricacies tax system medical pension reform similar cobra tell Irina walking Lviv street next meeting voter crucified garden self-help at the same time Supreme Council person indifferent angry exhausted want such reality listen Svetlana Zalishchuk hard to imagine garden shovel potatoes liberal democratic educated Euro-optimistic run for majoritarian born Cherkasy campaign understand Eurohipsters confess Zalishchuk road seventh village live bubble want to see problem close eye be outside comfort zone if born cue reach end pre-election heroine Svetlana Zalishchuk Irina Podoliak Marina Cherenkova majoritarian district east west center Ukraine majoritarian tell public</t>
   </si>
   <si>
     <t>Американці випробують тактичну гіперзвукову ракету до кінця 2019 року. Американські компанії Raytheon і Lockheed Martin у кінці 2019 проведуть перші випробування перспективних гіперзвукових тактичних ракет, розробка яких ведеться в рамках проекту Precision Strike Missile.Як передає Defense News, спочатку випробування планувалися на літо 2019 року, проте їх довелося перенести через неготовність випробувального стенду.Сьогодні на озброєнні Армії США перебувають оперативно-тактичні ракетні комплекси ATACMS, оснащені ракетами із касетними бойовими частинами. Ракети комплексів ATACMS здатні виконувати польоти на швидкості близько 3 чисел Маха. Ці боєприпаси планується замінити у рамках програми поступової відмови від касетних боєприпасів.Нова гіперзвукова ракета, що розробляється в рамках проекту PrSM, має замінити застарілі боєприпаси комплексів ATACMS. Крім того, військові розглядають і можливість використання нового боєприпасу на реактивних системах залпового вогню M270 Multiple Launch Rocket System та M142 High Mobility Artillery Rocket System.Випробування нової гіперзвукової ракети планується провести на полігоні «Уайт Сендз» у Нью-Мексико. Згідно з планами військових, випробування гіперзвукових боєприпасів планується завершити у 2021 році, після чого один із розробників проекту PrSM отримає контракт на серійне виробництво і поставку ракет. Прийняти на озброєння новий боєприпас планується в 2023 році.читайте також4 березня 2019 року Путін підписав указ про вихід Росії з Договору про ліквідацію ракет. Раніше президент США Дональд Трамп заявив, що США мають намір вийти з Договору про ліквідацію ракет середньої і малої дальності з Росією, оскільки РФ порушує угоду й не надає звіт. Тоді Путін оголосив, що РФ призупиняє виконання відповідної угоди через аналогічне рішення США.Протягом останніх 4 років США неодноразово стверджували, що Росія порушує договір через розгортання забороненої тактичної ядерної зброї «для залякування європейських країн і колишніх радянських держав, підтримуваних Заходом».У Росії назвали заяву президента США Дональда Трампа про намір вийти з ДРСМД «скоріше шантажем, ніж доконаним юридичним актом».У лютому 2017 року газета The New York Times повідомила з посиланням на джерела в адміністрації США, що Росія розмістила крилаті ракети, порушуючи угоду про ракети середньої і малої дальності. Восени того ж року міністр оборони США Джеймс Меттіс офіційно звинуватив Росію в порушенні договору, укладеного між Вашингтоном і Москвою в 1987 році.читайте також</t>
@@ -1408,13 +1411,13 @@
     <t>Китайська станція «Тяньгун-2» зійшла з орбіти і згоріла в атмосфері Землі. Китайська космічна станція «Тяньгун—2» завершила свою місію і покинула робочу орбіту. Більша частина апарату, як і планувалося, згоріла в атмосфері Землі, а окремі шматки впали у Тихий океан між Новою Зеландією та Чилі.Як повідомляється на сайті Китайського космічного агентства, «Тяньгун-2» запустили на навколоземну орбіту 15 вересня 2016 року за допомогою двоступеневої ракети-носія «Чанчжен-2Ф». Апарат став другою орбітальною станцією Китаю.«Тяньгун-2» (у перекладі з китайської «небесна фортеця — 2»), мала довжину близько 10,4 метрів, а її основна частина мала діаметр близько 3,35 метра, вага станції становила 8,6 тонн. Дві сонячні панелі космічної лабораторії у розкладеному стані займали 18,4 метра в довжину. Перше стикування відбулося вже через місяць, в жовтні 2016 року, коли до станції пристикувався пілотований корабель «Шеньчжоу-11» («Небесний човен») з двома тайконавтами на борту, які пропрацювали на «Тяньгун-2» більше місяця, провівши ряд наукових і технічних експериментів і запустивши зі станції супутник «Баньсін-2».читайте такожНадалі станція прийняла перший китайський вантажний корабель «Тяньчжоу-1», який успішно зістикувався зі станцією три рази в автоматичному режимі і провів її дозаправку. У цілому «Тяньгун-2» успішно пропрацювала понад тисячу днів на орбіті, хоча спочатку термін її служби оцінювався в два роки.Раніше астрономи за допомогою космічного телескопа TESS відкрили три невеликі екзопланети біля червоного карлика L 98-59. Розміри і маси нововідкритих планет можна порівняти із земними, проте жодна з них не перебуває у «зоні життя».читайте також</t>
   </si>
   <si>
-    <t>chinese station leave orbit burn up atmosphere earth chinese space station complete mission leave working orbit most of the device planned to burn up atmosphere earth a separate piece fall pacific ocean new zealand chile report site chinese space agency launch earth orbit september help two-stage rocket carrier apparatus second orbital station China translation Chinese celestial fortress have length meter main part have diameter meter weight station make ton solar panel space laboratory unfolded state occupy meter length first docking take place month October station dock manned ship sky boat two taikonaut board to work for a month after conducting a number of scientific and technical experiments by launching the station satellite also in the future the station will receive a Chinese cargo ship successfully dock with the station once automatic mode refuel the whole successfully work for more than a thousand day orbit term service be evaluated astronomer help space telescope tess open a small exoplanet red dwarf l size mass newly discovered planet compare terrestrial none stay zone</t>
+    <t>Chinese station to ascend orbit burn atmosphere earth Chinese space station complete mission leave working orbit most of the device planned to burn atmosphere earth separate piece fall Pacific Ocean New Zealand Chile reported site Chinese space agency launch near-Earth orbit September help two-stage rocket carrier device second orbital station China translation Chinese celestial fortress have length meter main part have diameter meter weight station constitute ton solar panel space laboratory unfolded state occupy meter length first docking occur month October station dock manned ship celestial boat two taikonauts board work month having conducted a number of scientific technical experiment launching station satellite also Later station accept Chinese cargo ship successfully dock station once automatic mode carry out refueling whole successfully work over a thousand day orbit term service evaluated astronomer help space telescope tess discover small exoplanet red dwarf l size mass newly discovered planet compare terrestrial none stay zone</t>
   </si>
   <si>
     <t>Четвертого підозрюваного у справі про вбивство 5-річного хлопчика взяли під нічний домашній арешт. У справі про вбивство 5—річного Кирила Тлявова в Переяславі—Хмельницькому четвертому підозрюваному обрали запобіжний захід у вигляді нічного домашнього арешту.Про це йдеться в ухвалі Голосіївського районного суду Києва, наданій Громадському речницею генерального прокурора Ларисою Сарган.Згідно з ухвалою суду, таким чином суд частково задовольнив клопотання прокурора.Раніше повідомлялось, що у справі про вбивство 5-річного Кирила Тлявова у Переяславі-Хмельницькому з'явився четвертий підозрюваний. Ним виявився неповнолітній.Нагадаємо, 31 травня у Переяславі-Хмельницькому Київської області патрульні поліцейські напідпитку в позаробочий час стріляли із вогнепальної зброї по металевих банках та інших предметах, неподалік від місця, де гуляв 5-річний Кирило Тлявов. Хлопчика поранили в голову і 3 червня він помер у київській лікарні.4 червня суд взяв під варту перших двох підозрюваних у вбивстві Кирила Тлявова — поліцейських Володимира Петровця та Івана Приходька.18 липня суд обрав запобіжний захід у вигляді тримання під вартою строком на 60 діб третьому підозрюваному у вбивстві.читайте такожСпочатку, коли хлопчик ще був живий, їх підозрювали за статтями «хуліганство» і« завдання тяжких тілесних ушкоджень», однак прокуратура перекваліфікувала підозру на статтю «умисне вбивство».Слідство також перевіряє версію, що вистрелити міг син поліцейського.Адвокат родини хлопчика заявив, що ДБР «прикриває злочини поліцейських».Після вбивства хлопчика по Україні провели перевірку: відсторонили 10 начальників відділів поліції.Генерала поліції, ексглаву поліції Київщини Дмитра Ценова, який подав рапорт про звільнення з посади у зв'язку з убивством хлопчика Кирила Тлявова в Переяслав-Хмельницькому, призначили на нову посаду в ООС. Він стане керівником поліцейських сил у зоні проведення операції Об'єднаних сил.</t>
   </si>
   <si>
-    <t>the fourth suspect in the murder case, the boy, to take night house arrest in the murder case, Kirill Tlevova, Pereyaslav, Khmelnytskyi, the fourth suspect, to choose a preventive measure, to be placed under night house arrest, to go, the decision of the Holosiivskyi District Court of Kyiv, provided by the public spokeswoman, Prosecutor General Larisa Sargan, according to the decision of the court, such an order, the court partially satisfied the request of the prosecutor to report on the case of murder Kirill Tlevova, Pereyaslav Khmelnytskyi the suspect turns out to be a minor remind May Pereyaslav Khmelnytskyi Kyiv region patrol policeman drunk off-duty shoot firearm metal can object nearby place for a walk Kirill Tlyavov boy injure head June die Kyiv June court take guard first suspect murder Kirill Tlyova policeman Volodymyr Petrovets Ivan July court choose preventive measure type of detention The third suspect is serving a two-day sentence also at first the boy is alive suspect article hooliganism task grievous bodily harm prosecutor's office reclassify suspicion article deliberate investigation check version shoot son policeman lawyer family boy declare DBR cover up crime murder boy Ukraine carry out inspection suspend head of department police general police former head of police Kyiv region Dmytro Tseniv report dismissal position murder boy Kirill Tlyovova Pereyaslav Khmelnytskyi to appoint a new position oos become the head of the police force of the area conducting the operation force</t>
+    <t>fourth suspect in the murder case, boy, take night house arrest, murder case, Kyryl Tlyavova, Pereyaslav Khmelnytskyi, fourth suspect, choose a preventive measure, type of night house arrest, go, decision, Holosiivskyi district court, Kyiv, provided, public, spokeswoman, Prosecutor General Larisa Sargan, according to the decision, court, such an act, court, partially satisfy the petition, prosecutor, be notified, case, murder, Kyryl Tlyavova, Pereyaslav Khmelnytskyi, suspect, turn out to be a minor, remind, May, Pereyaslav Khmelnytskyi, Kyiv region, patrol policeman, drunk, off-duty, shoot, firearm, weapon, metal, bank, object, nearby, place, walk, Kyryl Tlyavov, boy, wound, head, June, die, Kyiv, June, court, take, guard, first, suspects, murder, Kyryl Tlyavova, policeman, Volodymyr Petrovets, Ivan, July, court, choose a preventive measure, type of detention, worth, term, day, third suspect, also, initially, boy, alive, suspect, article, hooliganism, task, grievous bodily harm prosecutor's office reclassify suspicion article intentional investigation check version shoot son police lawyer family boy declare state security service cover up crime murder boy Ukraine conduct inspection remove head of department police general police ex-head of police Kyiv region Dmytro Tseniv submit dismissal report position murder boy Kyryl Tlyavova Pereyaslav Khmelnytskyi appoint new position OOS become head police force zone operation force</t>
   </si>
   <si>
     <t>Після формування більшості у новій Раді з'явиться кандидатура нового генпрокурора — Зеленський. Президент України Володимир Зеленський анонсував внесення кандидатури нового генерального прокурора вже після формування більшості в новообраному парламенті.Про це український лідер заявив під час зустрічі з представниками ділових кіл Китайської Народної Республіки, передає сайт президента.Зеленський наголосив, що одним з головних пріоритетів його команди є гарантування безпеки інвестицій.«Ми витрачаємо багато зусиль, щоб в Україну прийшли інвестори. Ми готові захищати інвестиції. Для цього, крім нашого бажання, необхідні нові парламент та уряд», – наголосив президент України.За словами Зеленського, потрібно зробити все можливе, щоб захистити бізнес від тиску правоохоронних органів.«Ми підтверджуємо реформу судової системи та антикорупційних органів. З 5 вересня розпочне роботу Вищий антикорупційний суд. Після формування більшості у новому парламенті з’явиться кандидатура нового Генпрокурора. Таким чином, ми зможемо на ділі захищати інвесторів від впливу правоохоронних органів», – підкреслив Президент.Раніше генеральний прокурор Юрій Луценко пообіцяв, що піде у відставку після парламентських виборів.Нагадаємо, президент України Володимир Зеленський звільнив Валерія Чалого з посади посла України у США, а також із посади українського посла в Антигуа і Барбуда та в Республіці Тринідад і Тобаго, які він обіймав за сумісництвом.читайте також</t>
@@ -1438,7 +1441,7 @@
     <t xml:space="preserve">Справа Шеремета: тисяча допитів й жодного підозрюваного. Три роки Національна поліція розслідує вбивство журналіста Павла Шеремета, проте вбивць і замовників досі не знайдено.  З самого моменту вбивства слідство відмовлялося від оприлюднення будь—якої інформації стосовно перебігу розслідування. Громадське  нагадує про «справу честі».Перший і єдиний поки що раз міністр внутрішніх справ Арсен Аваков вийшов на прес-конференцію 8 лютого 2017 року. Він розказав про перебіг розслідування. Слідчі відзвітувалися, що на той час було розпочато 12 експертиз, з яких 9 завершені. З місця скоєння злочину зібрано сотні уламків і речових доказів. Правоохоронці зауважують, що під час слідства допитано понад 1000 осіб, а обсяг вилученого відео – понад 150 терабайт.Наразі поліція не має жодних підозрюваних у вбивстві Павла Шеремета. Слідство і досі триває — за два роки не зібрали навіть доказової бази у справі. Про це на брифінгу повідомив заступник голови СБУ Кононенко, сказавши, що розкриттю справи заважають «обставини» та російське громадянство журналіста.Тим часом власне розслідування ведуть колеги загиблого. Журналісти «Слідство.INFO», спільно з міжнародною мережею розслідувачів OCCRP з перших годин після вибуху працювали на місці події. Результатом роботи став фільм-розслідування «Вбивство Павла».Журналісти переглянули гігабайти відео з камер спостереження біля дому Шеремета. Відтак повністю проаналізували ніч напередодні вбивства. Знайшли щонайменше 6 свідків та підозрілий автомобіль марки Skoda, власником якого виявився колишній працівник СБУ.ВЕРСІЇ ВБИВСТВАСлідство розглядає п’ять версій скоєння злочину.Начальник Головного слідчого управління Олександр Вакуленко назвав головною версією вбивства Шеремета його професійну діяльність в Україні.У свою чергу, міністр внутрішніх справ Арсен Аваков не відкидає того, що замовлення на це вбивство надійшло з Росії.«Результати досудового розгляду умисного вбивства Павла Шеремета на даному етапі дозволяють припустити, що цей злочин ретельно підготовлено групою осіб – це замовне вбивство. Слідство не виключає версію замовного політичного вбивства, замовлення на яке надійшло з Російської Федерації», – заявив Аваков.ВИБУХІВКАПід час експертиз вдалося встановити, що вибух стався в результаті детонації саморобного вибухового пристрою зробленого на базі протипіхотної міни направленої дії МОН-50. Міна була прикріплення до днища автомобіля, в якому перебував Шеремет, двома побутовими магнітами. Ці магніти були приклеєні до міни скотчем.Слідчі провели ряд експериментальних вибухів, в яких перевірили можливість підриву автомобіля саме таким способом. Вони встановили, що ушкодження, отримані під час експерименту, подібні до тих, які стали наслідком підриву машини Шеремета.Крім того, в МВС також показали нові відео з особами, яких Аваков назвав «можливо, причетними до вбивства, а також особами, які могли бути свідками». На відео показані люди, які напередодні вбивства, за версією слідчих, стежили за помешканням Шеремета.«На відео ми можемо бачити одних і тих же людей, які міняють свою зовнішність, що виключає можливість вважати їх туристами. Вони дуже уважно слідкують за наявністю камер відеоспостереження на прибудинкових територіях», – прокоментував відео голова Національної поліції Сергій Князєв.Окрім осіб, які ймовірно готували замах, на відео зафіксовано жінку, яка могла здетонувати вибухівку в машині Шеремета.«За годину до вбивства зафіксовано жінку замасковано перукою та окулярами, яка прямує зі скверу Чкалова по вулиці Липинського до перехрестя з вулицею Івана Франка. На перехресті вона обертається в напрямку припаркованого автомобіля, в якому вже закладено вибухівку», – пояснив Князєв.Далі було показано відео, на якому було видно місце з якого найімовірніше спостерігали за машиною і здетонували вибухівку.«Через декілька хвилин після вибуху ця ж жінка йде у зворотному напрямку по вулиці Липинського, обходить місце вчинення злочину вулицею Коцюбинського і йде у метро», – зазначив Князєв.Зі слів Авакова саме ця жінка є підозрюваною у вчиненні вбивства.Також, Аваков навів деякі факти, однак не прокоментував, яким чином вони стосуються слідства. Зокрема, про те, що на місці злочину в момент вбивства була присутня знімальна група «17 каналу», яка вела пряму трансляцію. Аналогічна ситуація була під час вбивства письменника Олеся Бузини. Опитані журналісти пояснили, що опинились в тому місці випадково.Також в районі місця злочину незадовго до вибуху було встановлено чимало з’єднань з російськими телефонними абонентами. З’єднання цих же абонентів зафіксовані за декілька днів до злочину неподалік від місця проживання Шеремета і ранком в момент вибух. Після вибуху ці абоненти були одразу локалізовані і зникли.Крім того, за даними МВС, в липні 2016-го Шеремет у Москві зустрічався з екс-міністром доходів та зборів Олександром Клименком. За словами Авакова, той пропонував Шеремету посаду головного редактора радіо «Вєсті, після чого Шеремет нібито повернувся в Україну незадоволеним і охарактеризував стан Клименка як: «православ’я головного мозку».СТЕЖЕННЯ ЗА ЖУРНАЛІСТАМИУ жовтні 2016-го журналісти «Української правди» опублікували матеріал, в якому навели факти і представили документи, в яких йдеться про стеження за редакцією.За їхніми свідченнями, до стеження були причетні українські правоохоронні органи.У відомстві перевірили ці версії: факт стеження заперечують.«Ми перевіряли 2 факти: факт розслідування і чи мало місце стеження Національної поліції за Притулою, Шереметом чи журналістами «Української правди», і чи мали інші спецслужби матеріали. Ми отримали від СБУ відповідь, що за результатами проведеної у них перевірки, такого спостереження не було. За результатами нашої перевірки, котру контролювала Генеральна прокуратура, такого спостереження не було і в Національній поліції», — заявив Аваков.За його словами, спостереження за Шереметом і Притулою вели особи, присутні на відеоматеріалах, оприлюднених МВС. Ці особи вели фотофіксацію та відеоспостереження.ЗАЛУЧЕННЯ ІНОЗЕМНИХ СЛІДЧИХВід самого початку слідства, у розслідуванні справи брали участь агенти ФБР.«Що стосується ролі агентів ФБР, вони були допущені до участі в окремих слідчих діях. Вони брали участь у пошуках окремих об’єктів для експертизи і брали участь у самому експертному дослідженні», — заявив начальник Головного слідчого управління Вакуленко.Результати ФБР були використані українськими експертами. Сьогодні ФБРівці не беруть участі у слідстві, але в поліції зазначають, що вони ще можуть бути долучені у разі необхідності.«На жаль, прориву в аналізі відео, якого ми очікували, який би нам кардинально допоміг, ми не отримали від колег зі США. По аналізу вибухівки і технічних речей, то вони нам допомогли. Але основну роботу дуже кропітку робили наші експерти», - Аваков.В інших країнах експертизи не призначалися і не проводилися. Проте, МВС звернулося по міжнародну правову допомогу до 14 країн. За словами Авакова, від них досі очікується важлива інформація, яка може зрушити слідство.ФОТОРОБОТИНа відео, які були представлені в МВС, досить чітко видно обличчя людей, які можуть бути причетними до вбивства. Проте поліцією досі не опубліковані фотороботи можливих виконавців. Представники поліції пояснюють це інтересами слідства.«Ми вирішили саме на цьому етапі розслідування не надавати інформацію щодо їхньої ідентифікації», — пояснив Вакуленко.В “Українській правді” натомість вважають, що оприлюднення фотороботів могло би допомогти слідству.«Для мене головним питанням залишається, чому досі не оприлюднені фотороботи, зважаючи, що з цих відео, які ви бачили на власні очі, його можна зробити. Минуло вже більше шести місяців і мені здається, що в цей час вже не можна казати, що слідство розслідується по свіжих слідах. Тож, думаю, що варіант із оприлюдненням фотороботів можливий і потрібний в цій ситуації», — заявила головна редакторка "Української правди" Севгіль Мусаєва-Боровик.У свою чергу Аваков пояснює, що фотороботи будуть публікуватися тільки у випадку, якщо слідство зайде в глухий кут.«Колись я сказав головному редактору «Української правди», що коли ми опублікуємо фотороботи вбивць – це буде означати, що ми в глухому куті», – зауважив Аваков.ЖОДНОГО ПІДОЗРЮВАНОГОНаразі у справі про вбивство Шеремета немає жодного офіційного підозрюваного.«Якщо ми говоримо про процесуальний статус підозрюваного, то жодній особі не винесено процесуального документу повідомлення про підозру. Ми на сьогоднішній день над цим працюємо. Особи, які обґрунтовано підозрюються і можуть бути причетними, у нас є розуміння про замовників, виконавців, пособників, але це не є предметом, який можна сьогодні озвучувати», – зазначив Вакуленко.За словами Мусаєвої-Боровик, задоволеними результатом розслідування можна бути лише тоді, коли цю справу буде доведено до кінця.«Очікування всіх журналістів, не тільки «Української правди», справдяться, коли це жахливе вбивство буде розслідувано. Це питання захищеності журналістів, питання безпеки. І недарма президент називав цю справу «справою честі». Бути задоволеними темпами розслідування справи не можна», – каже журналістка.читайте також </t>
   </si>
   <si>
-    <t>case sheremet thousand interrogation no suspect national police investigate murder journalist pavlo sheremet killers customer still find moment murder investigation refuse publication information regarding the progress of the investigation public remind case sole minister of interior arsen avakov leave press conference february tell progress of the investigation investigator reported start examination completed crime scene collect hundred fragment material evidence law enforcement officer notice investigation interrogate more than person volume seized video over terabyte currently police no suspects murder pavlo sheremet investigation still continue collect evidence base case briefing report deputy head sbu kononenko saying disclosure case hinder circumstance russian citizenship journalist time own investigation conduct colleague deceased journalist investigation info jointly international network investigator occrp first hour explosion work place event result work film investigation murder journalist view gigabytes video surveillance camera home sheremet then fully analyze night before murder find at least witness suspicious car brand skoda owner turn out to be a former employee murder investigation consider version of the crime chief chief investigator department Alexander Vakulenko name main version murder Sheremet professional activity Ukraine turn Minister of Internal Affairs Arsen Avakov reject order murder come Russia pre-trial investigation intentional murder Pavlo Sheremet present stage allow to assume crime carefully prepare group person contract murder investigation exclude version contract political murder order which come Russian Federation declare Avakov explosives under examination succeed establish explosion occur result detonation improvised explosive device made base anti-personnel mine directed action mine attachment bottom car which is Sheremet two household magnet magnet glued mine scotch tape investigator conduct a series experimental explosion check possibility of undermining car such way establish damage received experiment similar become consequence undermining car Sheremet MVS show new video person Avakov name possibly involved murder person could witness video shown people on the eve murder version investigator monitor apartment sheremet video could see some person change appearance exclude possibility consider tourist closely monitor presence of camera video surveillance house territory comment video head national police sergey knyazev person probably prepare assassination attempt video record woman could detonate explosives car sheremet hour murder record woman disguise wig eyepiece direct square chkalov street lipinsky intersection street ivan frank intersection turn direction parked car which lay explosives explain knyazev show video which is visible place most likely observe car with</t>
+    <t>case sheremet thousand interrogation no suspect national police investigate murder journalist pavlo sheremet killers customer still find moment murder investigation refuse publication information regarding the progress of the investigation public remind case sole minister of interior arsen avakov leave press conference february tell progress of the investigation investigator reported start examination completed crime scene collect hundred fragment material evidence law enforcement officer notice investigation interrogate more than person volume seized video over terabyte currently police no suspects murder pavlo sheremet investigation still continue collect evidence base case briefing report deputy head sbu kononenko saying disclosure case hinder circumstance russian citizenship journalist time own investigation conduct colleague deceased journalist investigation info jointly international network investigator occrp first hour explosion work place event result work film investigation murder journalist view gigabytes video surveillance camera home sheremet then fully analyze night before murder find at least witness suspicious car brand skoda owner turn out to be a former employee murder investigation consider version of the crime chief chief investigator department Alexander Vakulenko name main version murder Sheremet professional activity Ukraine turn Minister of Internal Affairs Arsen Avakov reject order murder come Russia pre-trial investigation intentional murder Pavlo Sheremet present stage allow to assume crime carefully prepare group person contract murder investigation exclude version contract political murder order which come Russian Federation declare Avakov explosives under examination succeed establish explosion occur result detonation improvised explosive device made base anti-personnel mine directed action mine attachment bottom car which is Sheremet two household magnet magnet glued mine scotch tape investigator conduct a series experimental explosion check possibility of undermining car such way establish damage received experiment similar become consequence undermining car Sheremet MVS show new video person Avakov name possibly involved murder person could witness video shown people on the eve murder version investigator monitor apartment sheremet video could see some person change appearance exclude possibility consider tourist closely monitor presence camera video surveillance house territory comment video head national police sergey knyazev person probably prepare assassination attempt video record woman could detonate explosives car sheremet hour murder record woman disguise wig eyepiece direct square chkalov street lipinsky intersection street ivan frank intersection turn direction parked car which lay explosives explain knyazev show video which is visible place most likely observe car with</t>
   </si>
   <si>
     <t>Катастрофа MH17: у СБУ уточнили, що не затримували водія, який перевозив «Бук». Служба безпеки України уточнила інформацію щодо затримання начебто водія трейлера, на якому перевозили зенітно—ракетний комплекс «Бук», яким було збито літак Boeing Малайзійських авіаліній рейсу MH17.Про це повідомили у прес-центрі СБУ.«На брифінгу було згадано про факт арешту та засудження українським судом бойовика терористичної організації «ДНР», причетного до незаконного захоплення у Донецьку в липні 2014 року трейлера. На ньому у подальшому інші особи перевозили ЗРК «Бук» територіями Луганської та Донецької областей, тимчасово непідконтрольній українській владі, з якого був збитий Боїнг-777 рейсу МН-17», — пояснили в СБУ.Раніше заступник начальника Головного слідчого управління СБУ Віталій Маяков під час брифінгу продемонстрував зняте на телефон відео транспортування «Бука» по Донецьку автотягачем.«Завдяки цьому відео з телефону ми встановили, кому належить цей трейлер. Ми встановили особу з числа бойовиків, яка забрала його на автопідприємстві в Донецьку... Нам вдалося цю особу затримати, коли він перетинав кордон на підконтрольній нам території з РФ. Ми його затримали, зараз він відбуває покарання тут, в Україні», — заявив тоді він.У СБУ також повідомили, що встановили більше 150 людей, які брали участь у транспортуванні зенітно-ракетного комплексу «Бук» з Росії на Донбас.читайте такожBoeing 777 авіакомпанії Malaysia Airlines, який виконував рейс Амстердам — Куала-Лумпур, був збитий на Донбасі неподалік Сніжного Донецької області 17 липня 2014 року. На борту літака перебували 298 пасажирів та членів екіпажу, усі вони загинули.﻿24 травня 2018 року офіційне слідство підтвердило, що ракета «Бук», яка збила літак MH17 неподалік Сніжного Донецької області, була привезена на окуповану територію Донбасу з Росії й належала 53-й зенітно-ракетній бригаді Міністерства оборони Росії, яка розташована у Курській області.Влада РФ заперечує причетність своїх структур до трагедії, заявляючи, що літак збили українські військові з села Зарощенське.СБУ у кінці червня провела спецоперацію на території так званої «ДНР» і затримали колишнього командира ППО бойовиків в місті Сніжне Володимира Цемаха.Експерти групи Bellingcat вважають, що арешт Цемаха матиме істотний вплив на розслідування об'єднаної слідчої групи JIT.</t>
@@ -1450,7 +1453,7 @@
     <t>У Німеччині біля супермаркету розбився легкомоторний літак, 3 людини загинули. На південно—заході Німеччини в місті Брухзаль в землі Баден—Вюртемберг, невеликий літак впав на територію торгового центру, внаслідок чого загинули три людини.Про це повідомляє Die Welt.Згідно з інформацією, літак врізався в фасад будівельного гіпермаркету Bauhaus. У заходах безпеки з будівлі евакуювали людей.Згідно з однією з версій, проблеми з літаком могли виникнути під час посадки або зльоту на аеродромі, який знаходиться в декількох сотнях метрів від гіпермаркету.Нагадаємо, 14 липня неподалік шведського міста Умео розбився літак з парашутистами, внаслідок чого загинули дев’ять людей.</t>
   </si>
   <si>
-    <t>germany supermarket crash light aircraft person die southwest germany city bruechsal land baden württemberg small plane fall territory shopping center as a result of death person report die welt according to information plane crash facade building hypermarket bauhaus west safety building evacuate person according to one version problem plane may occur landing takeoff airfield be several hundred meter hypermarket remind july nearby swedish city umeo crash plane parachutist as a result of death person</t>
+    <t>Germany supermarket crash light aircraft person die southwest Germany city Bruchsal land Baden Württemberg small plane fall territory shopping center due to die person report die welt according to information plane crash facade building hypermarket bauhaus west safety building evacuate person according to one version problem plane may occur landing takeoff airfield are several hundred meters hypermarket remind July nearby Swedish city Umeå crash plane parachutist due to die person</t>
   </si>
   <si>
     <t>В італійській Сицилії прокинувся вулкан Етна. В ніч на 20 липня італійський вулкан Етна почав викидати гарячий попіл і лаву змусивши влади закрити аеропорти Фонтанаросса і Комізо в Катанні на сході Сицилії.Про це повідомляє Deutsche Welle.Від кратера вулкану на півтора кілометра вниз простяглися потоки лави.Гора Етна висотою 3300 метрів є найбільшим діючим вулканом в Європі.Нагадаємо, Етна почала вивергалася наприкінці грудня 2018 року, внаслідок чого стався землетрус.У березні 2018 року повідомлялося, що вулканЕтна сповзає в бік Середземного моря зі швидкістю близько 14 міліметрів на рік.</t>
@@ -1468,7 +1471,7 @@
     <t>Харлан виграла чемпіонат світу з фехтування. Українка Ольга Харлан виграла золоту медаль чемпіонату світу з фехтування, що проходив у Будапешті.Так, українська шаблістка перемогла олімпійську чемпіонку, семиразову чемпіонку світу Софію Велику з Росії.Українка виграла з рахунком 15:14.В кар'єрі Харлан це шоста золота нагорода чемпіонату світу.Нагадаємо, 17 червня Харлан виграла золоту медаль чемпіонату Європи з фехтування шаблею.Загалом Харлан за свою кар’єру здобула 20 медалей на європейських першостях: 8 золотих, 7 срібних та 5 бронзових.Наприкінці квітня Харлан здобула «золото» гран-прі Сеула з фехтування.</t>
   </si>
   <si>
-    <t>harlan win the World Fencing Championship Ukrainian Olga Harlan win a gold medal World Fencing Championship pass Budapest Ukrainian saber beat Olympic champion seven-time world champion Sofia Great Russia Ukrainian win score Harlan sixth gold award World Championship remind June Harlan win gold medal European Fencing Championship saber Overall Harlan win a medal European championship gold silver Bronze at the end of April, Harlan won gold at the Seoul Grand Prix of Fencing</t>
+    <t>harlan win world fencing championship ukrainian olga harlan win gold medal world fencing championship pass budapest ukrainian saberwoman win olympic champion seven-time world champion sofia great russia ukrainian win score harlan sixth gold award world championship remind june harlan win gold medal european fencing championship saber overall harlan win medal european championship gold silver bronze end of april harlan win gold grand prix seoul fencing</t>
   </si>
   <si>
     <t>СБУ досліджує обладнання «АрселорМіттал Кривий Ріг» — менеджмент комбінату про обшуки. На гірничо—металургійному комбінаті «АрселорМіттал Кривий Ріг» тривають обшуки. Журналістів Громадського не пускають на територію підприємства. Комбінат належить одній із найбільших металургійній компанії світу «ArcelorMittal», яка водночас є і найбільшим іноземним інвестором в Україну.Станом на 21 годину обшуки на гірничо-металургійному комбінаті продовжуються. Це підтвердив Громадському працівник департаменту з безпеки «АрселорМіттал Кривий Ріг». Сам чоловік відмовився називатись.«Просто сидять і перевіряють документи», — повідомив представник комбінату.Один із топ-менеджерів «АрселорМіттал Кривий Ріг» розповів Громадському, що вранці на територію комбінату прийшли близько 20-ти співробітників СБУ та спеціаліст-радіолог, які мали дослідити одну з двох нових машин безперервного лиття заготовок, які побудувала компанія SMS Metallurgical Service LLC зі штаб-квартирою у Німеччині.«Зараз будується 2 такі машини, хоча насправді вони виглядають як величезні цехи. Коштують 140-150 мільйонів доларів, все це в рамках модернізації виробництва. СБУ дослідили ту машину, що вже перебуває на стадії випробовування — вона ще не запущена, але скоро буде введена в експлуатацію», — розповів співрозмовник Громадського і додав, що радіолог не зафіксував порушень.Представник «АрселорМіттал Кривий Ріг» також зазначив, що силовики погодилися не вилучати документи, натомість зробити їхні копії.17 липня СБУ відкрила справу проти керівників «АрселорМіттал Кривий Ріг» через порушення норм екологічної безпеки.У повідомленні відомства вказується, що представники підприємства порушували норми екологічної безпеки на виробництві.«Також вони систематично не допускали на територію об'єкта працівників Державної екологічної інспекції, які мали здійснювати вимірювання токсичних викидів у повітря», — наголошується у повідомленні.У свою чергу, «АрселорМіттал Кривий Ріг» звинувачення відкидаєі натякнув на тиск напередодні виборів.20 липня співробітники СБУ прийшли до комбінату із обшуками.Публічне акціонерне товариство «АрселорМіттал Кривий Ріг» — найбільше гірничо-металургійне підприємство України (частка на ринку металопродукції — 20%). На ньому працює понад 21 тисяч людей. Діяльність ПАТ «АрселорМіттал Кривий Ріг» охоплює виробничий ланцюг від видобутку залізної руди до виготовлення готової металопродукції. Основний власник підприємства — міжнародна корпорація ArcelorMittal.читайте також</t>
@@ -1486,7 +1489,7 @@
     <t>На Харківщині внаслідок ДТП постраждали 6 людей, зокрема двоє поліцейських у тяжкому стані. У Харківській області 20 липня внаслідок ДТП постраждало шестеро людей, зокрема двоє поліцейських у важкому стані.Про це повідомляє пресслужба обласної поліції.За попередніми даними, екіпаж у складі двох співробітників поліції їхав на виклик в автомобілі з увімкненими проблисковими маячками. Назустріч йому з Харкова рухався автомобіль Ford, який не пропустив поліцейську автівку, внаслідок чого сталося лобове зіткнення.Внслідок ДТП двоє працівників поліції ушпиталені у тяжкому стані з тілесними ушкодженнями. Водій та троє пасажирів автомобіля Ford також були доправлені до медичної установи, але після надання першої медичної допомоги їх відпустили додому.Нагадаємо, 20 липня поблизу села Удобне Білгород-Дністровського району зіткнулися легковик Volkswagen та вантажівка MAN. Унаслідок аварії загинули водій та троє пасажирів легковика, серед яких — дитина.</t>
   </si>
   <si>
-    <t>Kharkiv region due to an accident, people were injured, including two police officers, in serious condition, Kharkiv region, July, due to an accident, six people were injured, including two police officers, in serious condition, report, press service, regional police, preliminary data, crew, composition, employee, police, drive, call, car, flashing light, oncoming, Kharkiv, move, car, Ford, miss, police car, as a result, head-on collision, as a result of an accident, two police officers, hospitalized, serious condition, bodily injury, driver, three passengers, car, Ford, sent to a medical institution, providing first medical aid, let go, home, remind, July, near the village of Udobne, Belgorod, Dniester district, collide, passenger car, Volkswagen, truck, man, as a result of an accident, die, driver, three passengers, passenger car, among, child</t>
+    <t>Kharkiv region due to an accident, people were injured, including two police officers, in serious condition, Kharkiv region, July, due to an accident, six people were injured, including two police officers, in serious condition, report, press service, regional police, preliminary data, crew, composition, employee, police, drive, call, car, flashing light, oncoming, Kharkiv, move, car, Ford, miss, police car, as a result, head-on collision, as a result of an accident, two employees, police, hospitalized, serious condition, bodily injury, driver, three passengers, car, Ford, sent to a medical institution, providing first medical aid, let go, home, remind, July, near the village of Udobne, Belgorod, Dniester district, collide, passenger car, Volkswagen, truck, man, as a result of an accident, die, driver, three passengers, passenger car, among, child</t>
   </si>
   <si>
     <t>У Москві на акції за допуск опозиції до виборів затримали трьох людей. У Москві 20 липня відбувся узгоджений мітинг з вимогою допустити до виборів Московської міської думи незалежних кандидатів.Як повідомляє «ОВД-Інфо», під час акції поліція затримала трьох людей.Мітинг почався о 14:00 і тривав близько двох годин. За неофіційними даними, на акцію вийшли понад 22 тисячі людей.На акції виступили із заявами як самі незареєстровані кандидати, в тому числі Костянтин Янкаускас, Дмитро Гудков і Любов Соболь, а також опозиційні політики, які їх підтримують.Через недопущення опозиційних кандидатів у Москві відбуваються акції протесту. 14 липня її учасники спочатку прийшли до мерії Москви, а після пішли до міської виборчої комісії. Там їх жорстко розігнали силовики, 39 людей затримали.Зазначимо, що правляча партія «Єдина Росія» на цих виборах офіційно не виставила жодного кандидата, вочевидь через низьку підтримку у Москві. Її представники беруть участь у виборах як самовисуванці, тому теж повинні збирати підписи. Проблем з реєстрацією у цих кандидатів немає.Вибори в московську міську думу відбудуться 8 вересня 2019 року.читайте також</t>
@@ -1504,7 +1507,7 @@
     <t>З початку доби бойовики 9 разів обстріляли позиції ЗСУ На Донбасі, один український військовий дістав поранення — штаб. Від початку доби, 20 липня, бойовики дев'ять разів порушили режим припинення вогню на Донбасі , внаслідок обстрілів один український військовий дістав поранення.Про це повідомляє прес-центр штабу операції Об’єднаних сил.Бойовики обстрілювали позиції підрозділів ЗСУ з застосуванням забороненої мінськими угодами зброї — артилерійських систем калібру 122 мм і мінометів калібру 82 мм, а також з гранатометів різних систем, великокаліберних кулеметів і стрілецької зброї.В районі відповідальності оперативно-тактичної групи «Схід» бойовики здійснили три обстріли позицій Об'єднаних сил поблизу Нової Мар'ївки, Лебединського, Пісків.В районі відповідальності оперативно-тактичного угруповання «Північ» бойовики шість обстрілу разів обстріляли позиції ЗСУ поблизу Щастя, Артема, Новолуганського.Нагадаємо, двоє військовослужбовців загинули та троє дістали бойове травмування унаслідок обстрілів 19 липня у зоні бойових дій на Донбасі.</t>
   </si>
   <si>
-    <t>24 hours, a militant was fired upon, a position of the SSU Donbas, a Ukrainian soldier was wounded, headquarters, a 24-hour July militant, once, violated the cease-fire regime in Donbas due to shelling. grenade launcher various system large-caliber machine gun small arms district responsibility operationally tactical group east combatant carry out shelling position force near new Lebedynskyi piskie district responsibility operational tactical group north militant shelling once shelled the position of the ZSU near Shchytsia Artem Novoluhanskyi remind two servicemen die three get combat injuries as a result of shelling July zone combat action Donbas</t>
+    <t>day militant once fired position ZSU Donbas Ukrainian military injured headquarters day July militant once violated ceasefire Donbas as a result of shelling Ukrainian military injured report press center headquarters operation force militant fired position ZSU unit application prohibited Minsk agreement weapon artillery system caliber mm mortar caliber mm grenade launcher various system heavy machine gun small arms weapon area responsibility operational tactical group east militant carry out shelling position force near Novy Lebedynsky Pisky area responsibility operational tactical group north militant shelling once fired position ZSU near Shastya Artem Novoluhansky remind two servicemen die three get combat injury as a result of shelling July zone combat action Donbas</t>
   </si>
   <si>
     <t>СБУ проводить обшуки ПАТ «АрселорМіттал Кривий Ріг» у справі про екоцид. Співробітники Служби безпеки України 20 липня проводять обшуки на криворізькому гірничо—металургійному комбінаті «АрселорМіттал Кривий Ріг». Комбінат належить одній із найбільших металургійній компанії світу «ArcelorMittal», яка водночас є і найбільшим іноземним інвестором в Україну.Про це повідомив виконуючий обов'язки генерального директора підприємства Олександр Іванов.«Сьогодні, у вихідний день, напередодні професійного свята всіх металургів та гірників, в «АрселорМіттал Кривий Ріг» відбувається обшук слідчого відділу управління Служби безпеки України у Дніпропетровській області», — йдеться у дописі до відеозвернення Іванова, розміщеному на Facebook-сторінці підприємства.Іванов нагадав, що підприємство підозрюють в екоциді, хоча у них є дозвільні документи, пройдені екологічні перевірки, зокрема позапланова в квітні поточного року. Він також розповів деталі обшуку.«Представники Служби безпеки України прийшли з обшуком на сучасний, щойно побудований об'єкт — третю машину безперервного лиття заготовок. У нас вилучили копії всіх документів на це обладнання і почали перевірку з контролю іонізаційного випромінювання. Ми підтвердили нашу готовність до нової, комплексної перевірки з екології і вже взяли участь в обговоренні плану подальших дій щодо поліпшення стану навколишнього середовища з представниками офісу президента», — сказав Іванов.Крім того, він закликав посольства країн Великої сімки, Європейської бізнес асоціації, Американської торговельної палати, Укрметалургпром, Федерацію металургів України та інші організації звернути увагу на ситуацію, що склалася, і «допомогти забезпечити конструктивну співпрацю міжнародного бізнесу та влади».читайте також17 липня СБУ відкрила справу проти керівників «АрселорМіттал Кривий Ріг» через порушення норм екологічної безпеки.У повідомленні відомства вказується, що представники підприємства порушували норми екологічної безпеки на виробництві.«Також вони систематично не допускали на територію об'єкта працівників Державної екологічної інспекції, які мали здійснювати вимірювання токсичних викидів у повітря», — наголошується у повідомленні.У свою чергу, «АрселорМіттал Кривий Ріг» звинувачення відкидаєі натякнув на тиск напередодні виборів.Публічне акціонерне товариство «АрселорМіттал Кривий Ріг» — найбільше гірничо-металургійне підприємство України (частка на ринку металопродукції — 20%). На ньому працює понад 21 тисяч людей. Діяльність ПАТ «АрселорМіттал Кривий Ріг» охоплює виробничий ланцюг від видобутку залізної руди до виготовлення готової металопродукції. Основний власник підприємства — міжнародна корпорація ArcelorMittal.</t>
@@ -1522,7 +1525,7 @@
     <t>На Львівщині, Волині та в Одесі декілька дільниць залишились без світла. На Львівщині, Волині та в Одесі декілька дільниць на дострокових виборах до Верховної Ради України залишились без світла.дивіться такожТак, як повідомив депутат одеської міської ради Олексій Єремиця, на двох виборчих дільницях в 9 гімназії, що у 133 окрузі Одеси, вимкнули світло.«Підрахунок голосів в Київському районі без світла. Відключені від світла дві дільниці гімназії 9 511112 і 511113» - написав він.Крім того, в громадській мережі «ОПОРА» повідомили, що на Львівщині на 7 дільницях в різних районах області члени комісій рахували голоси при ліхтариках. «Електроенергія зникла у цих населених пунктах через погодні умови. На деяких ДВК через півгодини світло увімкнули», — йдеться в повідомленні.Також, за даними «ОПОРИ», світло зникало на 5 дільницях на Волині.читайте такожЗазначимо, що лише 5 перший партій, за даними екзит-полу, долають 5-відсотковий бар’єр і проходять у Раду. Проте офіційні результати виборів ЦВК має оголосити до 5 серпня.</t>
   </si>
   <si>
-    <t>Lviv region Volyn Odessa precinct stay light Lviv region Volyn Odessa precinct early elections Supreme Council Ukraine stay also so inform deputy Odessa city council Oleksiy Yeremytsia polling station gymnasium district Odesa turn off the light vote Kyiv district light turned off light precinct gymnasium write public network support inform Lviv region precinct different district region member commission count vote flashlight electricity disappear settlement weather condition some polling station half an hour light turn on go message data support light disappeared precinct also note party data exit poll overcome pass council official result elections central election commission announce August</t>
+    <t>Lviv region Volyn Odessa precinct stay light Lviv region Volyn Odessa precinct early elections Supreme Council Ukraine stay also so inform deputy Odessa city council Oleksiy Yeremytsia polling station gymnasium district Odesa turn off the light vote Kyiv district light turned off light precinct gymnasium write public network support report Lviv region precinct different district region member commission count vote flashlight electricity disappear settlement weather condition some polling station half an hour light turn on go message data support light disappeared precinct also note party data exit poll overcome pass council official result elections central election commission announce August</t>
   </si>
   <si>
     <t xml:space="preserve">Мінування, голосування на дому, виборці з окупованої території — вибори в селищі Зайцеве. Зайцеве — найменший округ України, тут відкрили дві дільниці на 3 150 виборців. Через селище проходить лінія розмежування, частина виборців округу проживає на окупованій території. Зранку невідомі повідомили про замінування пункту пропуску на українську територію та шлагбауму на підході до дільниці. Як в селищі проходило голосування — в сюжеті Громадського.читайте також </t>
@@ -1540,7 +1543,7 @@
     <t>У Харкові проголосували близько половини виборців області. У Харкові явка на дострокових виборах до Верховної Ради України склала близько 50% виборців всієї області.дивіться такожПро це повідомляє кореспондентка Громадського.Згідно з інформацією екзит-полів, близько 37% у Харкові голосували за партію «Слуга Народу», 30% за «Опозиційну плафторму — За життя».Далі йде «Опозиційний блок» і «Партія Шарія», а тільки потім потім «Європейська солідарність», «Батківщина» та «Голос».читайте такожЗазначимо, що лише 5 перший партій, за даними екзит-полу, долають 5-відсотковий бар’єр і проходять у Раду. Проте офіційні результати виборів ЦВК має оголосити до 5 серпня.</t>
   </si>
   <si>
-    <t>Kharko vote half voter Kharko region turnout early elections Supreme Council Ukraine make voter all also About report correspondent public according to information exit poll Kharko vote party servant people opposition platform go opposition bloc party Shariy European solidarity Fatherland also note party data exit poll overcome pass council official result elections CEC announce August</t>
+    <t>Kharkov vote half voter Kharkov region turnout early elections Supreme Council Ukraine make voter all also About report correspondent public according to information exit poll Kharkov vote party servant people opposition platform go opposition bloc party Shariy European solidarity Fatherland also note party data exit poll overcome pass council official result elections CEC announce August</t>
   </si>
   <si>
     <t>Партія Шарія і всі, хто мають понад 2% голосів, отримають мільйони гривень від держави. Якщо офіційні результати виборів підтвердять дані екзит—полу, то державне фінансування отримають 11 партій, які отримали понад 2% голосів.Про це повідомляє ЧЕСНО.За законом «Щодо запобігання і протидії політичній корупції», партії, які набрали на виборах понад 2%, отримають від держави гроші на свою діяльність і повинні звітувати про використання цих коштів.Дві партії, «Голос» та «Європейська Солідарність» отримають додатково по 28 мільйонів гривень як партії, які дотрималися гендерної квоти – в них у виборчих списках понад 30% жінок.Найбільшу частку отримає президентська партія «Слуга народу». Далі йдуть:Результати ще не є остаточними й в окремих партій можуть збільшитися, а в деяких – опуститися нижче від 2%. Тому точний розподіл можна рахувати лише після оприлюднення офіційних результатів виборів.ВАЖЛИВО: У попередній редакції новини були опубліковані недостовірні дані. Це сталося, бо 1) ми рахували, базуючись на даних екзитполів та попередніх результатів явки 2) допустилися помилки, визначаючи скільки держава буде платити партії за голос одного виборця. Ми вираховували суму, відштовхуючись від мінімальної зарплати (4173 грн.), як прописано в законі, хоча ще три роки тому парламент прийняв зміни до законодавства, замінивши мінімалку на прожитковий мінімум (1936 грн.)Зазначимо, що лише 5 перших партій, за даними екзит-полу, долають 5-відсотковий бар’єр і проходять у Раду. Проте офіційні результати виборів ЦВК має оголосити до 5 серпня.читайте також</t>
@@ -1558,19 +1561,19 @@
     <t>Перші результати виборів у Раду: що представники партій кажуть про коаліцію та уряд. «Слуга народу», «Опозиційна платформа За життя», «Європейська солідарність», «Батьківщина» і «Голос», за даними Національного екзит-полу, проходять у новий парламент 9 скликання.За попередніми оцінками, партія Зеленського отримає 126 мандатів, Віктора Медведчука — 33, Петра Порошенка — 26, Юлії Тимошенко — 22, Святослава Вакарчука — 18.Одразу після закриття дільниць лідери партії прокоментували попередні результати. Публікуємо головне із заяв політиків про нову більшість у парламенті та новий Кабмін.Президент Володимир Зеленський заявив, що «Слуга народу», як і раніше, хоче створити коаліцію разом із партією «Голос» Святослава Вакарчука.«Це була наша ініціатива до пана Вакарчука, була ще з самого початку моєї президентської кампанії. Запрошуємо пана Вакарчука до розмови із задоволенням, він — нове обличчя», — сказав глава держави.На запитання журналістів про можливе прем’єрство Вакарчука Зеленський відповів, що, на його думку, це питання до самого Вакарчука: «Тому що це велика відповідальність, і це повинен бути гуру економіки, який ніколи не був у політиці. Ми хочемо, щоби це була незалежна, потужна людина з фаховою освітою, людина, яку поважають в Україні, і людина, яку поважають на Заході».Перший номер у виборчому списку «Слуги народу» Дмитро Разумков заявив, що сподівається на гарний результат і по мажоритарних округах. Щодо майбутньої коаліційної угоди, то Разумков заявив, що його партія відкрита для діалогу. За його словами, є і певний план по Донбасу, але не конкретизував, який саме: «Є бажання зробити все, щоб закінчення війни настало якомога скоріше. В рамках тих повноважень, які є в нашої команди, Офіс президента вже робить ряд дій, які впливають на ситуацію».Також Разумков не виключив, що може стати прем'єр-міністром, але запевнив, що такі розмови поки що не ведуться.Голова політради «Опозиційної платформи — за життя» Віктор Медведчук не бачить себе на посаді віцеспікера нового складу Верховної Ради. Про це Медведчук заявив у коментарі Громадському.Також Віктор Медведчук на брифінгу заявив, що до кінця не задоволений результатом. «Критично ставимося до цифр, вони зміняться. Настає серйозний етап боротьби, розслаблятися та святкувати не можна. Будемо боротися за кандидатів на округах, бо там брудна боротьба».Співголова партії «Опозиційна платформа – За життя» Юрій Бойко подякував українцям, які проголосували за його політичну силу: «Хочу сказати велике спасибі всім громадянам, всім виборцям, які прийшли і проголосували за мир, за те, щоб країна повернулася до спокійної, щасливою, людського життя – а саме так ми оцінюємо результати голосування», – сказав він.Лідер «Європейської солідарності» та експрезидент Петро Порошенко заявив, що саме на його партію було націлене «вістря російської пропаганди» та атаки «деяких партій проєвропейського спрямування».«Ми очікуємо, що вже до ранку всі, хто проходить до Ради, відмежуються від платформи Бойка-Медведчука. І засвідчать свою позицію щодо неприйнятності співпраці з п’ятою колоною.Своїм головним партнером ми вважаємо найбільш ідейно близьку до нас партію «Голос», якщо офіційні результати ЦВК підтвердять дані екзит-полів. Пропоную негайно стишити емоції виборчої кампанії і об’єднатися насамперед на європейській та євроатлантичній платформі», — заявив Порошенко.Лідерка «Батьківщини» Юлія Тимошенко переважно дякувала своїм виборцям. Та запевняла, що саме вони будуть у майбутньому змінювати та будувати Україну:«Ми разом з вами 20 років були однією командою, і я дякую всім-всім, хто за ці 20 років продовжує йти з нами разом. І я хочу зараз сказати тим людям, які за нас голосують багато років: ми віримо в вас, ви вірите в нас, і ми разом віримо в Україну. І не слухайте нікого. Саме ми з вами і будемо будувати Україну. Я також хочу подякувати всій нашій команді, яка по всій Україні продовжує ще боротись за захист чесного результату. Я зараз хочу подякувати членам дільничних комісій, членам нашої партії, членам окружних виборчих комісій. Я хочу подякувати керівникам і працівникам усіх наших штабів, кандидатам в депутати на мажоритарних округах. Ви — прекрасна армія, ви — армія України».Лідер партії «Голос» Святослав Вакарчук вважає, що на виборах до Верховної Ради 21 липня люди проголосували за зміни і його партія рада бути частиною цих змін. Про це він заявив на брифінгу в штабі після оголошення перших результатів екзит-полів.Відповідаючи на запитання, чи готова партія «Голос» входити в коаліцію зі «Слугою народу», і чи є у партії кандидатури на прем'єр-міністра і спікера Верховної Ради, Вакарчук сказав: «Ми готові брати на себе відповідальність і готові до будь-яких посад». Але зазначив, що до переговорів партія буде готова лише після оголошення офіційних результатів виборів.Водночас кандидат від «Голосу» Ярослав Юрчишин повідомив Громадському, що його партія готова вести переговори про створення коаліції з партіями «Європейська солідарність» та «Батьківщина», якщо вони готові підтримувати деолігархізацію.«Ми ніколи не ввійдемо у коаліцію з проросійськими силами, які відстоюють інтерес окупанта. За яке б життя вони не називалися. Ми готові вступати в коаліцію із тими силами, за якими не стоять олігархи. Якщо сили Порошенка і Тимошенко будуть серйозно готові вести розмови про деолігархізацію — ми готові з ними вести переговори», — повідомив Юрчишин.читайте також</t>
   </si>
   <si>
-    <t>first result elections council representative party say coalition government servant people opposition platform life European solidarity homeland vote data national exit pile pass new parliament convocation preliminary evaluation party Zelensky get mandate Viktor Medvedchuk Petro Poroshenko Yulia Tymoshenko Svyatoslav Vakarchuk closing precinct leader party comment preliminary result publish main statement politician, new majority, parliament, new Cabinet of Ministers, President, Volodymyr Zelenskyi, to declare, a servant of the people, to want to create coalition together party voice Svyatoslav Vakarchuk initiative Mr. Vakarchuk presidential campaign invite Mr. Vakarchuk conversation satisfaction new face head of state question journalist possible Vakarchuk Zelenskyi answer opinion question Vakarchuk great responsibility must guru economy politics want to be independent powerful person professional education person to respect Ukraine person to respect number election list servant of the people Dmytro Razumkov declare hope for a good result majority district future coalition agreement Razumkov declare party open dialogue word certain plan Donbas specify desire to end the war come as soon as possible frame powers team office president do a number of actions influence Razumkov exclude become minister assure conversation conduct head of Politrada opposition platform life Viktor Medvedchuk see position vice speaker new composition Verkhovna Rada Medvedchuk declare comment public victor Medvedchuk briefing declare the end satisfied result be critical figure change come a serious stage struggle relax celebrate fight district candidate dirty co-chairman party opposition platform life yuri boiko thank Ukrainian vote political power want great citizen voter come vote peace country return calm happy human life evaluate vote result leader European solidarity ex-president Petro Poroshenko declare party targeted edge Russian propaganda attack some party pro-European, wait for the morning to pass, the council is dissociated from the platform of Boiko Medvedchuk testify position inadmissibility cooperation column your main partner consider ideologically close party vote official result cvk confirm data exit poll suggest immediately silence emotion election campaign first of all European Euro-Atlantic platform declare Poroshenko leader homeland Yulia Tymoshenko mostly thank your voter assured change the future build together as one team continue to go together want a person vote believe believe together believe Ukraine listen nobody build Ukraine would like to thank the whole team throughout Ukraine continue to fight protection honest result would like to thank member of the precinct commission member of the party member of the district election commission would like to thank the manager employee headquarters candidate deputy majority of the district beautiful army army party leader voice Svyatoslav</t>
+    <t>first result elections council representative party say coalition government servant people opposition platform life European solidarity homeland voice data national exit poll pass new parliament convocation previous assessment party Zelensky get mandate Viktor Medvedchuk Petro Poroshenko Yulia Tymoshenko Svyatoslav Vakarchuk closing precinct leader party comment previous result publish main statement politician new majority parliament new cabinet president Volodymyr Zelensky declare servant people want to create coalition together party voice Svyatoslav Vakarchuk initiative Mr. Vakarchuk presidential campaign invite Mr. Vakarchuk conversation satisfaction new face head state question journalist possible Vakarchuk Zelensky answer opinion question Vakarchuk great responsibility must guru economy politics want independent powerful person professional education person who respect Ukraine person who respect number electoral list servant people Dmytro Razumkov declare hope good result majoritarian district future coalition agreement Razumkov declare party open dialogue word certain plan donbas specify desire to make end war come as soon as possible frame authority team office president do series action influence razumkov exclude become minister assure conversation be conducted chairman of the political council opposition platform life viktor medvedchuk see position vice speaker new composition supreme council medvedchuk declare comment public viktor medvedchuk briefing declare end satisfied result be critical figure change come serious stage struggle relax celebrate fight candidate district dirty co-chairman party opposition platform life yuriy boyko thank ukrainian vote political force want great citizen voter come vote peace country return calm happy human life evaluate result of vote leader european solidarity ex-president petro poroshenko declare party targeted edge russian propaganda attack some party pro-european expect morning pass council disassociate platform boyko medvedchuk testify position unacceptability cooperation column your main partner consider ideologically close party vote official result CEC will confirm data exit poll propose immediately calm down emotion election campaign first of all European Euro-Atlantic platform declare Poroshenko leader homeland Yulia Tymoshenko mainly thank your voter assured the future change build together one team continue to go together want person vote believe believe together believe Ukraine listen nobody build Ukraine want to thank whole team whole Ukraine continue to fight protection honest result want to thank member precinct commission member party member district election commission want to thank leader employee headquarters candidate deputy majoritarian district beautiful army army leader party voice Svyatoslav</t>
   </si>
   <si>
     <t>«Ми прийшли у велику політику»: Партія Смешка залишиться у політиці незалежно від результатів виборів. Партія «Сила і честь» залишиться в українській політиці незалежно від того, пройде вона у Верховну Раду чи ні.Про це в коментарі Громадському заявив лідер партії Ігор Смешко.«Ми прийшли у велику політику, незалежно від нічого наша партія назавжди вже ввійшла у політичну історію України», — сказав він.Також Смешко вважає, що екзит-поли перебувають «під впливом тих, хто їх замовляє», тому упевнений, що його партія потрапить у Раду.«Почекаємо те, що скаже виборець. Ми абсолютно впевнені в нашій перемозі, тому ми спокійні і раді», — сказав політик.Однак про коаліцію ще рано говорити, треба дочекатись результатів голосування, наголосив Смешко.«Але я вже багато разів говорив, що ми готові підставити плече законно обраному президенту», — додав він.Нагадаємо, згідно з національним екзит-полом, у Раду проходять 5 партій: «Слуга народу», «Опозиційна платформа — за життя», «Європейська солідарність», «Батьківщина» та «Голос». «Сила і честь» із 4,3% перебуває на межі 5-відсоткового бар’єру.читайте також</t>
   </si>
   <si>
-    <t>come big politics party Smeshko stay politics independent result elections party strength honor stay Ukrainian politics independently pass supreme council comment public declare leader party games Smeshko come big politics independently party forever enter political history Ukraine Smeshko consider exit poll stay influence order confident party get glad say voter absolutely confident victory calm glad politician coalition speak wait result of vote emphasize Smeshko once ready to substitute shoulder legally elected president add remind according national exit poll stay party servant people opposition platform life European solidarity homeland voice strength honor stay limit</t>
+    <t>come big politics party Smeshko stay politics independent result elections party strength honor stay Ukrainian politics independently pass supreme council comment public declare leader party games Smeshko come big politics independently party forever enter political history Ukraine Smeshko consider exit poll stay influence order confident party get glad say voter absolutely confident victory calm glad politician coalition speak wait voting result emphasize Smeshko once ready to substitute shoulder legally elected president add remind according national exit poll stay party servant people opposition platform life European solidarity homeland voice strength honor stay limit</t>
   </si>
   <si>
     <t>Явка на виборах до Ради станом на 20:00 склала 49,3% — ОПОРА. Явка на дострокових виборах до Верховної Ради України станом на 20:00 склала 49,3%.дивіться такожПро це повідомляє громадянська мережа «ОПОРА». Так, за даними Мережі, для порівняння, на парламентських виборах 2014 року явка складала 51,2%.читайте такожНагадаємо, за даними Національного екзит-полу станом на 20:00 «Слуга народу», «За життя», «ЄС», «Батьківщина» і «Голос» проходять в Раду.</t>
   </si>
   <si>
-    <t>turnout elections council state compose support turnout early elections Supreme Council Ukraine state compose alsoAbout report civil network support data network comparison parliamentary elections turnout compose alsoremind data national exit poll state servant people life EU homeland vote pass council</t>
+    <t>turnout elections council state compose support turnout early elections Supreme Council Ukraine state compose also About report civil network support data network comparison parliamentary elections turnout compose also remind data national exit poll state servant people life EU homeland vote pass council</t>
   </si>
   <si>
     <t xml:space="preserve">«Слуга народу», «За життя», «ЄС», «Батьківщина» і «Голос» проходять в Раду — екзит-пол . «Слуга народу», «За життя», «ЄС», «Батьківщина» і «Голос» проходять в Раду. Про це свідчать дані Національного екзит-полу станом на 20:00.Партія Зеленського отримує 127 місць у парламенті, Медведчука — 33, Порошенка — 25, Тимошенко — 21, а Вакарчука — 19.Партія Ігоря Смешка «Сила і Честь» не проходить 5% бар'єру. Попередні дані екзит-полу також показали, що п'ять партій проходять в новий парламент. Ці дані не враховують результатів виборів на мажоритарних округах.Офіційні результати виборів Центральна виборча комісія повинна оприлюднити до 5 серпня.У «Слузі народу» також заявили, що виграли вибори на всіх мажоритарних округах у Києві.читайте також </t>
@@ -1594,7 +1597,7 @@
     <t>Дубневич визнав поразку на окрузі кандидатці від «Голосу». За результатами виборів до Верховної Ради України на 118 окрузі у Львівській області народний депутат від фракції «Блок Петра Порошенка» самовисуванець Богдан Дубневич програв кандидатці від партії «Голос» Галині Васильченко.Про це свідчать дані на сайті ЦВК.Так, опрацьовано вже 99,28% протоколів. Дубневич набирає 26 822 голосів, а Васильченко — 28 064 голоси.У своєму Facebook Дубневич вже визнав поразку і привітав опонентку з перемогою.читайте такоєНагадаємо, після підрахунку понад 75% голосів, «Слуга народу» набирає понад 42% голосів, «Опозиційна платформа — за життя» — 13%, «Європейська солідарність», «Батьківщина» та «Голос» проходять у Раду, але набирають менше 10%.</t>
   </si>
   <si>
-    <t>Dubnevich admit the defeat of the district, the candidate vote, the result of the elections, the Supreme Council of Ukraine, Lviv Oblast, People's Deputy, faction, Petro Poroshenko, the self-nominated candidate, Bohdan Dubnevich, lose, the candidate, the party, the vote of the branch, Vasylchenko, testify, the data, the site, process the protocol, Dubnevich, collect the vote, Vasylchenko, his Facebook voice, Dubnevich, admit defeat, congratulate the opponent. also remind counting over the vote servant of the people dial over the vote opposition platform life European solidarity motherland vote pass glad to dial</t>
+    <t>dubnevich admit defeat district candidate vote result elections Supreme Council Ukraine district Lviv region People's Deputy faction bloc Petro Poroshenko self-nominated Bogdan dubnevich lose candidate party vote Galina Vasilchenko testify data site process protocol dubnevich collect vote Vasilchenko vote own facebook dubnevich admit defeat congratulate opponent takoenagad count over vote servant people collect over vote opposition platform life European solidarity homeland vote pass council collect</t>
   </si>
   <si>
     <t>У Санкт-Петербурзі вбили відому ЛГБТ-активістку. У російському Санкт—Петербурзі вбили відому ЛГБТ—активістку Олену Григор’єву.Про це повідомляє місцеве видання «Фонтанка».За даними видання, тіло активістки знайшли 20 липня о кущах неподалік будинку, в якому вона проживала. У неї зафіксовано ознаки задушення, порізано спину і обличчя. Криміналісти встановили, що Григор’єва померла в ніч з п`ятниці на суботу.За фактом вбивства затримано 40-річного жителя Башкортостану. Стосовно нього порушено кримінальну справу.Правозахисник Дінар Ідрисов заявив, що Григор’євій регулярно надходили погрози вбивством у зв`язку з її діяльністю. Вона зверталася в поліцію, але правоохоронні органи не вживали з цього приводу жодних дій.Крім участі в акціях протесту за права ЛГБТ активістка також виступала на мітингах на підтримку кримських татар, далекобійників і сестер Хачатурян. Їй був 41 рік.Нагадаємо, у Києві після проведення Маршу Рівності невідомі побили маріупольського активіста та волонтера Сергія Моржова.</t>
@@ -1606,7 +1609,7 @@
     <t>В Одесі члени 135 ОВК розійшлися не закінчивши підрахунок голосів. В Одесі наразі не працює 135 окружна виборча комісія, оскільки члени комісії розійшлися за пропозицією голови.Про це повідомляє спостерігач ОПОРИ.Кореспонденту Громадського на вулиці цю інформацію підтвердили й поліцейські.«Нас тут поставили охороняти порядок, але в будівлі нікого нема», — повідомив правоохоронець.На сайті ЦВК вже декілька годин поспіль не оновлюється цифра оброблених протоколів. Наразі відображається показник у 78,78.Зазначимо, у 135 окрузі наразі лідер Олексій Леонов від «Слуги народу» набрав 39,94% відсотків голосів. На другому місці — Сергій Ківалов, який вже привітав Леонова із перемогою.читайте такожНагадаємо, журналістів Громадського не пускали на виборчу дільницю в Одесі попри те, що всередині перебувають інші представники ЗМІ. Члени комісії казали що не можуть пускати нікого на дільницю, коли йде підрахунок голосів.Пізніше все ж пустили на виборчу дільницю в Одесі, але знову хотіли вигнатиРаніше кандидат у депутати від «Слуги народу» Олексій Леонов повідомляв, що на цій дільниці станом на 7 годину ранку блокували підрахунок голосів.Сергій Ківалов проходив у парламент по 135 округу тричі. Наразі Леонов виграє у Ківалова із відривом у близько 10%.Нагадаємо, 21 липня в Україні відбулися дострокові парламентські вибори. Явка за даними з усіх 199 округів склала 49,84% — це найменше в історії парламентських виборів в Україні.</t>
   </si>
   <si>
-    <t>Odesa member of the electoral district to disperse after finishing counting the vote Odesa currently working district election commission because member of the commission to disperse proposal chairman report observer public street information confirm policeman put guard order building nobody there inform law enforcement officer cvk website hour in a row updated figure processed protocol currently displayed indicator district currently leader Alexei Leonov servant people to vote second place Sergey Kivalov congratulate Leonov also remind journalist public let polling station Odesa despite inside be representative of the media member commission say let nobody precinct go counting vote let polling station Odesa want to expelPreviously candidate deputy servant people Alexei Leonov report precinct status hour morning block counting vote Sergey Kivalov pass parliament district three times currently Leonov win Kivalov gap July Ukraine to take place early parliamentary elections turnout data district compose least history parliamentary elections ukraine</t>
+    <t>Odesa member of the electoral district disperse after finishing counting the vote Odesa currently work the district election commission because the commission member disperse proposal chairman report observer public street information confirm policeman put guard order building nobody report law enforcement officer cvk website hour in a row update figure processed protocol currently displayed indicator district currently leader Alexei Leonov servant people get vote second place Sergey Kivalov congratulate Leonov also remind journalist public let polling station Odesa despite inside be media representative member of the commission say let nobody precinct go counting vote let polling station Odesa want to expelPreviously candidate deputy servant people Alexei Leonov report precinct status hour morning block counting vote Sergey Kivalov pass parliament district three times currently Leonov win Kivalov gap July Ukraine take place early parliamentary elections turnout data district compose least history parliamentary elections ukraine</t>
   </si>
   <si>
     <t>Переможець виборів на окрузі в Зайцевому допомагав вивозити «беркутівців» під час Майдану . Голова громадської організації «Ніхто крім нас», що об'єднує учасників бойових дій у Афганістані, Олександр Ковальов не приховує, що під час Революції Гідності допомагав вивозити «беркутівців» з Києва. Ковальов переміг на виборчому окрузі №51 у Зайцевому на Донеччині.У 2016 році в інтерв’ю Ковальов визнавав, що допомагав «беркутівцям» виїжджати з Києва у 2014 році, але він заперечив, що перебував у змові з тодішнім керівництвом Міністерства внутрішніх справ.«На той момент, у 2014 році, ми дійсно допомагали всім, хто до нас звертався, по обидва боки. Зокрема й міліції. В той момент всі намагалися піаритися з приводу «Беркуту», і всі пропонували вивезти «Беркут» з Києва», — сказав він.Кандидат зазначив, що у той час не йшлося про втечу «беркутівців», а навпаки, казали про необхідність їхнього вивезення.«Були і нардепи, і колишній голова Міноборони Анатолій Гриценко з Автомайданом вивозили. Але чомусь не згадали жодних ані великих, ані малих депутатів, які про це говорили, а згадали лише нас», — наголосив Ковальов.Водночас він заперечує, що допомагав «беркутівцям» позбутися зброї. Щодо «чорної роти», яка розстрілювала майданівців, Ковальов не впевнений, що її представники були серед тих силовиків, яких він допомагав вивозити.Наприкінці липня 2016 року Генпрокуратура вручила підозру Ковальову у тому, що він допомагав втекти «беркутівцям» з «чорної роти», а також допоміг їм позбутися зброї. Сам керівник «Ніхто крім нас» вважає ці обвинувачення політичним тиском на організацію.Нагадаємо, за підрахунками 100% голосів на 51-му окрузі Ковальов перемагає з 220 голосами. Народна депутатка Надія Савченко отримала на цьому окрузі 8 голосів.Основа програми Ковальова: мир і «повернення до спокійних часів 70 — 80-х».«Будемо робити все, що обіцяли. Буде блиск в очах дітей. Деяким тут накрутимо хвоста, аби вони вели себе правильно щодо жителів Зайцевого. Команда ідейних однодумців без олігархів і політичних підтасовок перемогла бренди, які перемагають по всій Україні», — прокоментував результат Ковальов після завершення голосування.Також в інтерв’ю Громадському він зазначив, що має план як зробити так, щоб «над цим округом менше свистіло куль». Проте, як саме — кандидат не пояснив, лише зазначив, що збирається робити ставку на «непублічну політику».Нагадаємо, 21 липня в Україні відбулися дострокові парламентські вибори. Явка за даними з усіх 199 округів склала 49,84% — це найменше в історії парламентських виборів в Україні.читайте також</t>
@@ -1648,7 +1651,7 @@
     <t>У G7 привітали проведення «конкурентних» парламентських виборів в Україні. Посли країн «Великої сімки» у своїй заяві назвали дострокові вибори до Верховної Ради України конкурентними.Про це йдеться в повідомленні у Twitter організації«Посли G7 вітають проведення парламентських виборів в Україні, які відбулись на конкурентній основі з дотриманням основоположних прав і свобод. Ми вітаємо ЦВК з проведеною роботою», — йдеться в повідомленні.Також посли вказали, що заохочують Україну до впровадження рекомендацій Бюро ОБСЄ з Демократичних інститутів та прав людини за підсумками виборів.Країни «Групи семи» G7 – це США, Велика Британія, Німеччина, Італія, Канада, Франція та Японія.читайте такожНагадаємо, після підрахунку понад 75% голосів, «Слуга народу» набирає понад 42% голосів, «Опозиційна платформа — за життя» — 13%, «Європейська солідарність», «Батьківщина» та «Голос» проходять у Раду, але набирають менше 10%.</t>
   </si>
   <si>
-    <t>congratulate holding competitive parliamentary elections of Ukraine ambassador country big seven statement name early elections Verkhovna Rada of Ukraine competitive go message twitter welcome holding parliamentary elections of Ukraine take place competitive base observance fundamental right freedom welcome Tsvk held work go message ambassador indicate encourage Ukraine implementation recommendation bureau obse democratic institute law person summary election country group seven usa great britain germany italy canada france also remind count over vote servant people dial over vote opposition platform life European solidarity motherland vote pass glad to dial</t>
+    <t>congratulate holding competitive parliamentary elections Ukraine ambassador country big seven statement call early elections supreme council Ukraine competitive go message twitter congratulate holding parliamentary elections Ukraine take place competitive basis compliance fundamental right freedom welcome cvc conducted work go message ambassador indicate encourage Ukraine implementation recommendation bureau OSCE democratic institute right person summary elections country group seven usa great britain germany italy canada france also remind counting over vote servant people recruit over vote opposition platform life european solidarity homeland vote pass council recruit</t>
   </si>
   <si>
     <t>13 «слуг народу». Хто переміг на округах у Києві?. На всіх 13 мажоритарних округах Києва наразі перемагають кандидати від «Слуги народу». Багато де в столиці вже обробили 100% бюлетенів, на решті дільниць — від 70 до 90 відсотків, тому всі київські кандидати від президентської партії вже майже напевно стануть депутатами. Хто вони такі — розповідає Громадське.На 211-му окрузі перемагає безробітний Олександр Юрченко. Він на 11 відсотків випереджає Володимира Прокопіва, який балотується від «Європейської солідарності» Петра Порошенка.212-й округ досить впевнено виграв Максим Перебийніс — завідувач відділення медичного центру «Борис», який майже на 20 відсотків випередив Андрія Задерейка, представника ЄС. На цьому окрузі вже оброблено 100 відсотків бюлетенів.Як і на 213-му, де так само впевнено переміг хірург-стоматолог Артем Дубнов. На другому місці — представниця «Європейської солідарності» Ганна Старостенко. Також майже поруч — депутат минулої Ради Борислав Береза, який балотувався як самовисуванець.На 214-му окрузі ведучій телеканалу «1+1» Сергій Швець із різницею в 10 відсотків перемагає ще одного кандидата від партії Порошенка — Олеся Маляревича. В боротьбу між цими двома не зміг втрутитись Віктор Чумак — він поки що не набирає і 10 відсотків голосів.215-й округ наразі виграє активіст Богдан Яременко — голова правління благодійного фонду «Майдан закордонних справ». Але, на відміну від попередніх округів, тут представник «Слуги народу» випереджає не кандидата від «Європейської солідарності», а Андрія Іллєнка, висуванця від «Свободи».Із різницею більш ніж в 20% на 216-му окрузі професорка Національного університету біоресурсів і природокористування Леся Забуранна перемагає самовисуванця Віталія Павлика. Тут оброблено вже майже 100 відсотків голосів.217-й округ виграла працівниця Міністерства оборони Мар’яна Безугла. Конкуренцію на цьому окрузі їй склала хіба що Людмила Костенко від ЄС, яка і посіла друге місце.Депутатом від 218-го округу, де теж вже обробили 100 відсотків голосів, стане підприємець Дмитро Гурін. Він на 20% випередив самовисуванку Вікторію Муху.Одне за найцікавіших протистоянь трапилось на 219-му окрузі. Тут представник «Слуги народу», гендиректор одного з підприємств Микола Тищенко лише на 7 відсотків випередив досвідченого Олександра Третьякова, нардепа чотирьох скликань Верховної Ради. Тут лишилось обробити менш ніж 2 відсотки бюлетенів, тому шансів у Третьякова наздогнати Тищенка немає.Натомість на 220-му окрузі працівниця Міністерства регіонального розвитку Ганна Бондар не мала проблем ані з Олексієм Окопним з «Європейської солідарності», ані з самовисуванцем та депутатом попередньої Ради Сергієм Лещенком.На 221-му окрузі кандидат від «Голосу» Леонід Ємець нав’язав, мабуть, найважчу боротьбу «Слузі народу» серед усіх київських округів. Але голова правління громадської організації «Діджітал освіта» Анна Пуртова все ж перемагає, хоч із невеликим відривом у 6%. Тут оброблено майже 96% бюлетенів.З найбільшим відривом — у 25 відсотків — на 222-му окрузі переміг свого суперника керівник гумористичної студії «Мамахохотала» Роман Грищук. Другим тут став самовисуванець Дмитро Андрієвський.І, нарешті, на 223-му окрузі перемагає членкиня наглядової ради металургійного заводу «Дунаферр» Людмила Буймістер. Друге місце, із відставанням у 8 відсотків, тут посів Юрій Левченко зі «Свободи».читайте також</t>
@@ -1684,25 +1687,25 @@
     <t>Перше засідання нової Ради відкриє депутат від «Опозиційної платформи — за життя». Перше засідання новообраної Верховної Ради України відкриє кандидат у народні депутати від партії «Опозиційна платформа — за життя», номер 12 у виборчому списку Юлій Іоффе.Так, згідно статті 82 Конституції України перше засідання новообраного парламенту відкриває найстарший за віком депутат. Іоффе зараз 78 років.Іоффе був депутатом всіх скликань Ради, крім п’ятого і шостого (період 2006−2012 років). Він був членом КПРС, «Трудової України» Сергія Тігіпка, «Республіканської партії України» Бойка і «Партії регіонів».читайте також21 липня в Україні відбулися дострокові парламентські вибори. Явка за даними з усіх 199 округів склала 49,84%. Це найнижча явка в історії українських виборів до Ради.За результатами обробки майже 90% бюлетенів, «Слуга народу» лідирує, на другому місці «Опозиційна платформа — За життя», а «Батьківщина» обігнала партію Порошенка. Також проходить в нову Раду «Голос» Святослава Вакарчука.Ті партії, які мають понад 2% голосів, отримуватимуть державне фінансування.</t>
   </si>
   <si>
-    <t>first meeting new council open deputy opposition platform life first meeting newly elected Supreme Council Ukraine open candidate people's deputy party opposition platform life number electoral list juliy ioffe according to article constitution ukraine first meeting newly elected parliament open oldest age deputy ioffe ioffe deputy convocation council sixth period member of the communist party of labor ukraine serhiy tigipko republican party ukraine boyko party july ukraine take place early parliamentary elections turnout data district make lowest turnout history ukrainian elections council result processing ballot servant people lead second place opposition platform life homeland overtake party poroshenko pass new council vote svyatoslav vakarchuk party have more than a vote receive state funding</t>
+    <t>first meeting new council open deputy opposition platform life first meeting newly elected Supreme Council Ukraine open candidate people's deputy party opposition platform life number electoral list juliy ioffe according to article constitution ukraine first meeting newly elected parliament open oldest age deputy ioffe ioffe deputy convocation council sixth period member of the CPSU labor ukraine serhiy tigipko republican party ukraine boyko party july ukraine take place early parliamentary elections turnout data district make lowest turnout history ukrainian elections council result processing ballot servant people lead second place opposition platform life homeland overtake party poroshenko pass new council vote svyatoslav vakarchuk party have more than a vote receive state funding</t>
   </si>
   <si>
     <t>Вчені змогли викликати галюцинації без хімічних речовин та гіпнозу. Спеціалісти Стенфордського університету у США змогли викликати у мишей стійкі галюцинації, впливаючи на кору головного мозку.У своєму дослідженні вчені змогли викликати галюцинації, не використовуючи ЛСД або галюциногенні гриби. Вони зосередили свою увагу на зоровій корі, яка обробляє інформацію з сітківки.Учені імплантували в нейрону мережу зорової кори два гени. Перший кодував білок, який активував нейрон в разі потрапляння на нього інфрачервоного випромінювання. Другий кодував білок, аби він світився зеленим кольором кожного разу, коли активується нейрон.Після цього автори дослідження видалили частину черепної коробки і замінили її прозорим матеріалом, зробивши таким чином імпровізоване «вікно» у мозок миші.Мишам показували чорну вертикальну або горизонтальну риску, навчивши тварин розрізняти їх та пити воду з трубочки, коли вони бачать вертикальну риску.Згодом вчені зменшили контраст між зображенням і фоном, щоби миші не могли розрізняти, яка перед ними риска. Тоді дослідники почали впливати на нейрони через «вікно» у мозок тварини, проектуючи голограму за допомогою спеціального приладу.У підсумку вченим вдалося стимулювати ту ділянку мозку, яка змушувала мишей повірити, що перед ними вертикальна риска — вони починали пити воду з трубочки, хоча насправді перед ними не було такого зображення.Учені наголошують, що для того, аби викликати галюцинації, їм треба було стимулювати лише 20 нейронів, тоді як у мозку миші їх мільйони, а в мозку людини — мільярди.Тепер автори дослідження задаються питанням, чому у людей постійно не виникають галюцинації, бо вірогідність помилкової активності такої невеликої кількості нейронів упродовж доби достатньо висока.Нагадаємо, у травні в Денвері, столиці штату Колорадо, декриміналізували галюциногенні гриби.</t>
   </si>
   <si>
-    <t>scientist able to induce hallucination chemical substance hypnosis specialist Stanford University USA able to induce mouse persistent hallucination affecting cortex brain his research scientist able to induce hallucination using LSD hallucinogenic mushroom focus attention visual cortex process information retina scientist implant neuron network visual cortex gene encode protein activate neuron once hit infrared radiation encodes a protein to glow green color each activate a neuron the author of the study remove a part of the cranium replace the transparent material by doing such an act improvised window brain mouse mouse show black vertical horizontal line by teaching the animal to distinguish drink water tube see vertical line later scientist reduce the contrast of the image background so that the mouse can distinguish the line the researcher begins to influence neuron window brain animal projecting hologram help special device summary scientist succeed stimulate section brain made mouse believe vertical dash start drinking water tube is actually like this image scientist emphasize to cause hallucination stimulate neuron brain mouse million brain human billion research author ask question human constantly occur hallucination probability false activity such a small number of neuron during the day high enough remind may denver the capital of the state of colorado decriminalize hallucinogenic mushroom</t>
+    <t>scientist can cause hallucination chemical substance hypnosis specialist Stanford University USA can cause mouse persistent hallucination influencing cortex brain his research scientist can cause hallucination using LSD hallucinogenic mushroom focus attention visual cortex process information retina scientist implant neuron network visual cortex gene encode protein activate neuron once hit infrared radiation encode protein to glow green color each activated neuron author of research remove part of cranial box replace transparent material doing such an act improvised window brain mouse mouse show black vertical horizontal line teaching animal to distinguish drink water tube see vertical line later scientist reduce contrast image background so mouse can distinguish line researcher start influencing neuron window brain animal projecting hologram help special device result scientist manage to stimulate area brain forced mouse to believe vertical line start drinking water tube actually such image scientist emphasize to cause hallucination stimulate neuron brain mouse million brain human billion author research ask questions person constantly occur hallucination probability false activity such small number of neurons during the day high enough remind may denver capital state colorado decriminalize hallucinogenic mushroom</t>
   </si>
   <si>
     <t>У Покровську ОВК заборонила бути присутніми на засіданні кандидатам, спостерігачам та журналістам — ОПОРА. Окружна виборча комісія №50 у місті Покровськ на Донеччині вирішила позбавити права присутності на засіданні кандидатів у депутати, спостерігачів, а також представників засобів масової інформації.Про це повідомляє громадянська мережа «ОПОРА».Водночас повідомляється,що наразі з приміщення ОВК нікого не вилучили, бо чекають консультацій від ЦВК.ОВК обґрунтувала таке рішення тиском на комісію під час безперервного засідання, можливою загрозою життю та здоров’ю членів ОВК, а також з метою недопущення зриву виборчого процесу.«Позбавити вищезгаданих осіб права присутності можна лише у випадку, коли вони протиправно перешкоджають проведенню засідання виборчої комісії. Таке рішення може бути прийняте лише щодо конкретних осіб, які перешкоджали роботі комісії, а не загалом обмежувати право присутності на засіданні всіх суб’єктів, які наділені цим правом. Зважаючи на те, що у мотивувальній частині постанови відсутня інформація яким чином відбувалося перешкоджання і хто його здійснював, а також те, що санкція передбачена в рішенні виборчої комісії не є індивідуально спрямованою — є обґрунтовані сумніви щодо правомірності зазначеної постанови» – зауважує координаторка спостереження Громадянської мережі ОПОРА за виборами у Донецькій області Анастасія Прокопенко.Раніше повідомлялось, що у Покровську на Донеччині сталися сутички біля окружної комісії №50 після того, як спостерігачі зафіксували розбіжності у протоколах.До будівлі ОВК принесли шини і вимагають чесного підрахунку голосів. Поліція направила туди додаткові сили, а надвечір 23 липня до Покровська прилетів гелікоптер зі спецпризначенцями.читайте також</t>
   </si>
   <si>
-    <t>Pokrovsk OC ban present meeting candidate observer journalist support district election commission city of Pokrovsk Donetsk region decide to deprive the right to attend the meeting candidate deputy observer representative media mass information report civil network at the same time to be notified currently OC premises no one remove wait consultation substantiated the decision pressure commission continuous meeting possible threat to life member of OC the purpose of preventing the disruption of the electoral process is the above-mentioned person, the right to attend the event unlawfully prevent the meeting of the election commission decision made by a specific person obstruct the work of the commission in general limit the right to attend the meeting vested with the right considering the motivational part of the resolution missing information what act to take place obstructing the execution of the sanction provided for the decision of the election commission individually directed justified doubt legality specified resolution observe the coordinator of observation civil network support elections Donetsk region, Anastasia Prokopenko, to be reported, Pokrovsk, Donetsk region, a skirmish to occur, district commission observer record disagreement protocol building OVK bring a tire demand an honest count voice police send additional force in the evening July Pokrovsk fly a helicopter</t>
+    <t>Pokrovsky constituency prohibit present meeting candidate observer journalist support district election commission city Pokrovsk Donetsk decide deprive right presence meeting candidate deputy observer representative media mass information inform civil network at the same time be informed currently premises constituency nobody remove wait consultation substantiated decision pressure commission continuous meeting possible threat to life member constituency purpose prevention disruption electoral process above-mentioned person right presence case illegally prevent holding meeting election commission decision adopted specific person prevent work commission generally limit right presence meeting empowered considering motivating part resolution absent information what act occur obstruction implement sanction envisaged decision election commission individually directed reasonable doubt legality specified resolution notice coordinator observation civil network support elections Donetsk region Anastasia Prokopenko be informed Pokrovsk Donetsk happen clash district commission observer record disagreement protocol building constituency bring tire demand honest counting vote police send additional force late July Pokrovsk helicopter arrives</t>
   </si>
   <si>
     <t>Проблемні округи. Де затягували підрахунок голосів?. Центральна виборча комісія вже майже завершила рахувати голоси на позачергових парламентських виборах. Станом на 17 годину було опрацьовано майже 97 відсотків протоколів. У більшості мажоритарних округів перемагають кандидати від президентської партії «Слуга народу». Однак в деяких округах голоси й досі рахують, а подекуди — відправку протоколів навмисно затримують. Громадське розповідає про найцікавіші проблемні округи.135 округ. Кінець епохи КіваловаТут балотується Сергій Ківалов, колишній голова ЦВК (у 2004 році). Проти нього — підприємець Олексій Леонов від «Слуги народу». На цьому окрузі через технічну перерву ніяк не можуть закінчити рахувати голоси. Позначка опрацьованих протоколів зупинилась на 96,96. Як повідомив сам кандидат Леонов, поновити підрахунок не могли, бо кількох членів комісії не було на своїх місцях. Та все ж Сергій Ківалов вже привітав молодого опонента з перемогою. Відрив між кандидатами — 12 відсотків. Роботу комісії вдалося поновити лише о другій годині 23 липня.Однак і раніше як в окружній комісії, так і на дільницях в окрузі виникали проблеми. На одну з них не хотіли пускати журналістів Громадського, що є порушенням виборчого законодавства. Леонов стверджує, що члени комісії за законом не мали права оголошувати перерву. За його ж інформацією, вони не спали впродовж 48 годин.105 округ. Протистояння двох опозиційБрат Віктора Медведчука Сергій, який балотувався від «Опозиційної платформи — За життя», програв на окрузі у Щасті і до парламенту не потрапить. На окрузі лише 6 дільниць, однак голоси не могли порахувати 2 дні. Врешті Медведчук поступився суперниці Вікторії Гриб від “Опозиційного блоку” на 369 голосів. За повідомленням Громадянської мережі «ОПОРА», комісія навмисно затягувала прийом протоколів. У день голосування представники «Опозиційної платформи» найбільше порушень фіксували у Донецькій області, зокрема з боку їхніх вчорашніх соратників, але сьогоднішніх суперників — “Опозиційного блоку”.94 округ. Дубінський проти КононенкаПроблеми виникли і на окрузі у Київській області, де лідирує Олександр Дубінський від «Слуги народу». Його суперник — депутат 8-го скликання від БПП Ігор Кононенко. Станом на 17 годину 23 липня на окрузі ще мають доопрацювати 10 відсотків протоколів. Транспортування письмових протоколів до Києва блокувалось. 22 липня голова ЦВК звернулась до Міністерства внутрішніх справ по допомогу у доставці протоколів. Врешті ухвалили рішення, що супроводжувати виборчу документацію до Києва будуть спецпризначенці поліції.51 округ. Найменший, та все ж драматичнийНа найменшому окрузі в Україні, що у Зайцевому Донецької області, лише 2 дільниці. Однак підрахунок голосів там теж затягувався. На 51-ому окрузі балотувалась нардепка Надія Савченко. Вона отримала лише 8 голосів. Врешті переміг Олександр Ковальов. В 2014 році він допомагав втекти беркутівцям, які протистояли активістам Майдану. Генпрокуратура підозрювала його в тому, що він сховав зброю розформованого підрозділу. Для перемоги Ковальову вистачило 220 голосів. Голова «ОПОРИ» Ольга Айвазовська вважає, що роботу окружна комісія затягувала навмисно — з політично вмотивованих причин.207 округ. Повернення одіозного самовисуванцяЗа результатами опрацювання 90 відсотків протоколів, на окрузі на Чернігівщині перемагає самовисуванець Ігор Рибаков, який голосував за диктаторські закони 16 січня. Від найближчого переслідувача Максима Зуєва від «Слуги народу» він відстає на 417 голосів. Однак і тут прийом протоколів затягувала окружна комісія. Про це повідомляли у чернігівському штабі президентської партії.64 округ. Спецпризначенці і вертольотиСправжній екшн з вертольотами і спецпризом розгорнувся на Житомирщині. Там депутати Сергій Пашинський і Володимир Арешонков змагалися зі «слугою народу» В’ячеславом Сігачовим. Напередодні спецпризначенці на вертольоті прилетіли забезпечувати порядок під час підрахунку голосів. Тоді перемагав кандидат від «Слуги народу», Пашинський був лише третім. Зрештою голоси рахувати закінчили і переміг Арешонков. А Пашинський так і залишився третім.читайте також</t>
   </si>
   <si>
-    <t>problematic district delay counting vote central election commission complete count vote extraordinary parliamentary elections state hour process protocol majority majoritarian district win candidate presidential party servant people some district vote still count somewhere sending protocol intentionally delay public tell the most interesting problematic district end era kivalovatut run Sergey Kivalov former chairman of the Central Election Commission entrepreneur Alexei Leonov servant people district technical break no way finish count vote mark processed protocol stop notify candidate Leonov resume counting can several member commission place Sergey Kivalov congratulate young opponent victory gap candidate work commission manage to resume second hour July district commission precinct district arise problem one want to let journalist public violation electoral legislation Leonov assert member commission law have the right to announce break information sleep during district confrontation opposition brother Victor Medvedchuk Sergey run for office opposition platform life lose district happiness parliament get district precinct vote can count day finally Medvedchuk give way rival Victoria mushroom opposition bloc voice message civic network support commission intentionally delayed reception voting protocol representative opposition platform biggest violation fix Donetsk region in particular side their yesterday's ally today's rival opposition district Dubinsky Kononenkoproblems arise district Kyiv region lead Oleksandr Dubinsky servant people rival deputy convocation BPP Ihor Kononenko state hour July district have finalize protocol transportation written protocol Kyiv block July head of the Central Election Commission apply ministry internal help delivery protocol finally make a decision accompany election documentation Kyiv special forces district smallest dramatic smallest district Ukraine Zaitsev Donetsk region precinct counting vote delay district run for People's Deputy Nadezhda Savchenko get vote finally win Alexander Kovalev help escape Berkutov resist activist Maidan Prosecutor General's Office suspect hide weapon disbanded unit victory Kovalev enough vote head support Olga Aivazovska consider work district commission delayed intentionally politically motivated district return odious self-nominated candidate for the result of processing district protocol Chernihiv region win self-nominated candidate Ihor Rybakov vote dictatorial law January closest pursuer Maxim Zuev servant people lag behind vote reception protocol delayed district commission report Chernihiv headquarters presidential district special forces helicopter real action helicopter special prize unfold Zhytomyr region deputy Serhiy Pashinsky Volodymyr Areshonkov compete servant people Sigachov on the eve special forces helicopter arrive to ensure order counted</t>
+    <t>problematic district delay counting vote central election commission complete count vote extraordinary parliamentary elections state hour process protocol majority majoritarian district win candidate presidential party servant people some district vote still count somewhere sending protocol intentionally delay public tell the most interesting problematic district end era kivalovatut run Sergey Kivalov former chairman of the Central Election Commission entrepreneur Alexei Leonov servant people district technical break no way finish count vote mark processed protocol stop notify candidate Leonov resume counting can several member commission place Sergey Kivalov congratulate young opponent victory gap candidate work commission manage to resume second hour July district commission precinct district arise problem one want to let journalist public violation electoral legislation Leonov assert member commission law have the right to declare break information sleep during district confrontation opposition brother Victor Medvedchuk Sergey run for office opposition platform life lose district happiness parliament get district precinct vote can count day finally Medvedchuk give way rival Victoria mushroom opposition bloc voice message civic network support commission intentionally delayed reception voting protocol representative opposition platform biggest violation fix Donetsk region in particular side their yesterday's ally today's rival opposition district Dubinsky Kononenkoproblems arise district Kyiv region lead Oleksandr Dubinsky servant people rival deputy convocation BPP Ihor Kononenko state hour July district have finalize protocol transportation written protocol Kyiv block July head of the Central Election Commission apply ministry internal help delivery protocol finally make a decision accompany election documentation Kyiv special forces district smallest dramatic smallest district Ukraine Zaitsev Donetsk region precinct counting vote delay district run for People's Deputy Nadezhda Savchenko get vote finally win Alexander Kovalev help escape Berkutov resist activist Maidan Prosecutor General's Office suspect hide weapon disbanded unit victory Kovalev enough vote head support Olga Aivazovska consider work district commission delayed intentionally politically motivated district return odious self-nominated candidate for the result of processing district protocol Chernihiv region win self-nominated candidate Ihor Rybakov vote dictatorial law January closest pursuer Maxim Zuev servant people lag behind vote reception protocol delayed district commission report Chernihiv headquarters presidential district special forces helicopter real action helicopter special prize unfold Zhytomyr region deputy Serhiy Pashinsky Volodymyr Areshonkov compete servant people Sigachov on the eve special forces helicopter arrive to ensure order counted</t>
   </si>
   <si>
     <t>Суд залишив чинним рішення про призупинення перейменування УПЦ МП. Суд не задовольнив апеляційну скаргу Міністерства культури України на постанову Окружного адміністративного суду Києва про призупинення перейменування Української православної церкви Московського патріархату.Про це повідомив Синодальний юридичний відділ УПЦ (МП).Відповідне рішення ухвалив Шостий апеляційний адміністративний суд«Суд залишив в силі рішення окружного суду, який заборонив органам державної реєстрації проводити будь-які реєстраційні дії та записи щодо УПЦ, в тому числі - вносити нові записи до Єдиного державного реєстру», — йдеться в повідомленні.Нагадаємо, 22 квітня Окружний адміністративний суд Києва задовольнив позов Київської Митрополії Української православної церкви Московського патріархату про скасування наказу Міністерства культури, відповідно до якого УПЦ МП та низка релігійних організацій повинні внести зміни до своєї офіційної назви.Рада 20 грудня зобов'язала УПЦ МП вказувати у своїй назві приналежність до Російської православної церкви.Після ухвалення закону у залі парламенту побилися депутати.В УПЦ МП назвали цей закон антиконституційним і заявили, що він порушує право на свободу віросповідання та дискримінує за релігійною ознакою мільйони віруючих громадян України.Напередодні прихожани УПЦ МП під Радою влаштували акцію проти перейменування церкви на РПЦ.Раніше речник Української православної церкви Московського патріархату архієпископ Климент заявив про неможливість перейменування церкви на Російську православну.</t>
@@ -1744,7 +1747,7 @@
     <t>Лідера російської опозиції Навального вкотре арештували — цього разу на 30 діб. Одного з лідерів російської опозиції Олексія Навального вчергове відправили під адміністративний арешт — цього разу він отримав 30 діб за нібито заклики взяти участь у несанкціонованому мітингу.Про це повідомила прес-секретарка Навального Кіра Ярмиш.Суд визнав опозиціонера винним у повторному порушенні правил проведення мітингів. Протокол щодо нього склали через заклик у Facebook взяти участь у акції протесту 27 липня, який він повторив під час акції 20 липня.Сам Навальний розповів, що «відеодокази» зовсім не стосувалися якихось його закликів.Нагадаємо, у Москві на вибори у міську думу не допускають опозиційних та незалежних кандидатів.Через це у столиці РФ відбуваються акції протесту. 14 липня її учасники спочатку прийшли до мерії Москви, а після пішли до міської виборчої комісії. Там їх жорстко розігнали силовики, 39 людей затримали.читайте також</t>
   </si>
   <si>
-    <t>leader of the Russian opposition Navalny once again arrest Doba leader of the Russian opposition Oleksiy Navalny once again send to administrative arrest receive Doba alleged call to take part in an unauthorized rally notify the press secretary Navalny Kira Yarmysh court find the oppositionist guilty repeated violation of the rules of the meeting draw up a call to Facebook to take part in the action protest July repeat the action July bulk tell video evidence relate to some call to remind Moscow elections City Duma allow opposition independent candidate the capital of the Russian Federation to take place action protest July participant come City Hall Moscow leave city election commission strictly disperse security forces man</t>
+    <t>leader of the Russian opposition, Navalny, arrest again, doba, leader of the Russian opposition, Alexei Navalny, send another administrative arrest, receive doba, allegedly, a call to take part in an unauthorized rally, report, press secretary, Navalny, Kira Yarmysh, court, find the oppositionist guilty, repeated violation of the rules for holding a rally, draw up a protocol, call, facebook, take part in an action, protest, July, repeat the action, July, Navalny, tell, video evidence, concern, some kind of call, remind, Moscow, elections, city council, admit, opposition, independent candidate, capital of the Russian Federation, take place, action, protest, July, participant, come, city hall, Moscow, leave, city election commission, harshly disperse, security officer, person</t>
   </si>
   <si>
     <t>Біля Станиці Луганської помітили чоловіка російської пропагандистки Скабеєвої. Працівник каналу «Росія 1» Євген Попов, чоловік пропагандистки Ольги Скабеєвої, приїхав на окуповану Луганщину знімати демонтаж бетонних споруд біля мосту у Станиці Луганській.Про це повідомив заступник голови Луганської облдержадміністрації Юрій Клименко.«Демонтаж бетонних споруд між КПВВ «Станиця Луганська» та зруйнованим мостом відбувається під пильним наглядом камери російського пропагандиста з каналу «Россия1» Євгена Попова», — написав він у Facebook.Клименко додав, що слідкуватиме за результатом роботи Попова, бо йому цікаво, «який негатив можна «вижати» з миротворчих ініціатив України».Раніше очільник Станично-Луганської райдержадміністрації Юрій Золкін розповів, що бойовики не дозволили спеціалістам оглянути зруйнований міст для розробки проєкту його реконструкції. Він також зазначив, що одразу після цього з укриття вийшла група телевізійників, яка почала знімати спеціалістів.Євген Попов та Ольга Скабеєва ведуть пропагандистську програму «60 хвилин» на телеканалі «Росія 1».читайте також</t>
@@ -1762,7 +1765,7 @@
     <t>Tinder попереджатиме представників ЛГБТ-спільноти про в'їзд у країни із забороною одностатевих відносин. У Tinder додадуть повідомлення з попередженням представників ЛГБТ—спільноти при поїздці до країн, де одностатеві стосунки переслідуються законом.Як пише The Verge, функція отримає назву «попередження мандрівника» і автоматично приховуватиме профіль такого користувача.При бажанні людина зможе відкрити доступ до свого профілю, але розробники приховають відомості про її орієнтацію заради безпеки.Для визначення списку потенційно небезпечних країн творці Tinder співпрацювали із Міжнародною асоціацією лесбіянок, геїв, бісексуалів, трансгендерів та інтерсексуалів (ILGA). Всього виділено 69 країн, де одностатеві стосунки переслідуються за законом. У дев'яти із них, зокрема в Ірані та Саудівській Аравії, прокурори можуть домагатися смертної кари за одностатеві акти.Нагадаємо, 23 червня у Києві відбувся Марш Рівності «Київ Прайд». Основною темою стала «Свобода. Єдність. Боротьба», а головним гаслом – «Наша традиція – це свобода!». У день проведення Маршу, в Адміністрації президента закликали вжити заходів для недопущення зіткнень між прихильниками і противниками Маршу.читайте також</t>
   </si>
   <si>
-    <t>tinder warn representative lgbt community country ban same-sex relationship tinder add message warning representative lgbt community trip country same-sex relationship persecuted law write the verge function get name warning traveler automatically hide profile such user desire person to be able to open access profile developer hide fame orientation for security definition list potentially dangerous country creator tinder cooperate international association lesbian gay bisexual transgender intersex ilga highlight country same-sex relationship prosecuted law in particular Iran Saudi Arabia prosecutor seek death penalty same-sex act remind June to take place march equality Kyiv Pride main theme become freedom unity struggle main slogan tradition freedom to hold march administration president to call for action to prevent clashes supporter opponent</t>
+    <t>tinder warn representative of the lgbt community country ban same-sex relationships tinder add message warning representative of the lgbt community trip country same-sex relationship persecuted law write the verge function get name warning traveler automatically hide profile such user desire person be able to open access profile developer hide notoriety orientation for safety definition list potentially dangerous country creator tinder cooperate international association lesbian gay bisexual transgender intersexual ilga highlight country same-sex relationship persecuted law in particular iran saudi arabia prosecutor seek death penalty same-sex act remind june kyiv take place march equality kiev pride main topic become freedom unity struggle main slogan tradition freedom holding march administration president call to take measure preventing clashes supporter opponent</t>
   </si>
   <si>
     <t>Кабмін запропонує РНБО нові санкції проти Росії. Кабінет міністрів України внесе на розгляд Ради національної безпеки і оборони України пропозиції щодо розширення санкційного переліку підприємств.Відповідне рішення прийнято сьогодні на засіданні уряду, передає прес-служба Міністерства з питань тимчасово окупованих територій та внутрішньо переміщених осіб.«Чергові санкції стосуються низки юридичних осіб, залучених до процесу будівництва магістрального газопроводу «Краснодарський Край – Крим», незаконного видобутку вуглеводнів на захоплених українських родовищах, в тому числі, родовищах, що знаходяться в межах материкового шельфу України», — йдеться в повідомленні відомства.Зазначається, що до списку санкцій потрапили 18 юридичних осіб, зареєстрованих на території Російської Федерації, і ще 6 — зареєстрованих на території анексованого Криму.Також у перелік потрапили підприємства, які залучені до постачання матеріалів, обладнання та послуг заводу оборонно-промислового комплексу Російської Федерації «АТ «Завод Фіолент», який розташований на території окупованого Криму. Серед них підприємства, зареєстровані на території РФ, Китайська Народна Республіка, Республіки Туреччина і Боснії і Герцеговини.«Такі дії з боку зазначених юридичних осіб сприяють легітимації незаконної окупації Автономної Республіки Крим та м. Севастополя Російською Федерацією, а також створюють реальні та потенційні загрози національним інтересам, національній безпеці, суверенітету і територіальній цілісності України», — зазначили у МінТОТ.Увідомстві зазначили, що введення санкцій до всіх причетних підприємств, задіяних у процесі будівництва магістрального газопроводу «Краснодарський Край — Крим» і незаконного видобутку вуглеводнів на захоплених українських родовищах створить основу для подальших дій із метою обмеження або припинення економічних відносин із країнами Європейського Союзу та Сполученими Штатами Америки.читайте також16 березня 2014 року на території Автономної Республіки Крим провели невизнаний світовою спільнотою референдум про статус півострова. Президент Росії Володимир Путін 18 березня 2014 року оголосив про «включення Криму до складу РФ» — таким чином Росія анексувала український півострів. Україна, Європейський союз та Сполучені Штати не визнали результати голосування на так званому «референдумі».</t>
@@ -1786,7 +1789,7 @@
     <t>Влада США оштрафувала Facebook на рекордні п'ять мільярдів доларів через витоки даних користувачів. Федеральна торгова комісія США (FTC) вирішила оштрафувати Facebook на рекордні 5 мільярдів доларів через витоки даних користувачів. Окрім штрафу, в рамках угоди із владою засновник компанії Марк Цукерберг також буде нести особисту відповідальність за дотримання вимог конфіденційності. У разі недотримання цих норм компанією Facebook його можуть притягнути до відповідальності, зокрема кримінальної.Штраф є найбільшим, який коли-небудь виносила FTC. Він приблизно дорівнює місячному прибутку Facebook, відзначає Associated Press.Відповідно до рішення FTC правління Facebook створить незалежний комітет із конфіденційності, який усуватиме «безперешкодний контроль з боку генерального директора Facebook Марка Цукерберга за рішеннями, що зачіпають безпеку особистих даних користувачів».Також соцмережі заборонили використовувати номери телефонів та адреси електронної пошти користувачів для рекламних інструментів. Розпізнавання обличчя тепер має працювати тільки за згодою користувача.Представники Facebook у своїй заяві зазначили, що готові до змін в області захисту даних. Вони висловили сподівання, що нові стандарти захисту приватності стануть зразком для всієї індустрії, передає Reuters.Марк Цукерберг, розповідаючи про рішення FTC, заявив, що зміни торкнуться не тільки адміністративної, але й технічної частини. Тепер Facebook повинен перевірити всі свої технічні системи та задокументувати усі можливі ризики, пов'язані зі зберіганням інформації. Те ж саме доведеться робити для кожного нового продукту.«Ми очікуємо, що для виконання цієї важливої ​​роботи нашої компанії знадобляться сотні інженерів і понад тисячу інших співробітників», — Марк Цукерберг.читайте такожНагадаємо, в березні 2018 року компанія Facebook опинилася в центрі потужного скандалу. Газета The New York Times повідомила, що британській приватній фірмі Cambridge Analytica, яка використовує технології глибинного аналізу даних (зокрема, даних соцмереж) для розробки стратегічної комунікації в ході виборчих кампаній в Інтернеті, вдалося зібрати особисті дані майже 90 млн користувачів соцмережі. Інформація була використана для розробки алгоритму аналізу політичних уподобань виборців. Як розповіли екс-співробітники Cambridge Analytica, створений алгоритм полегшував розсилку користувачам політичної реклами із метою потенційно вплинути на їхні голоси.</t>
   </si>
   <si>
-    <t>US authorities fine Facebook record billion dollar user data leaks US Federal Trade Commission FTC decides to fine Facebook record billion dollar user data leaks fine framework agreement authority founder company Mark Zuckerberg bear personal responsibility compliance requirement confidentiality once non-compliance norm company Facebook to hold accountable in particular criminal fine largest to issue FTC approximately equal to monthly profit Facebook note associated press accordingly decision FTC board Facebook create independent committee privacy eliminate unfettered control side CEO Facebook Mark Zuckerberg decision to affect security personal data social network prohibit use number phone address email user advertising tool facial recognition work consent user representative Facebook statement note ready change area data protection express hope new standard privacy protection become an example entire industry transmit Reuters Mark Zuckerberg telling decision FTC declare change affect administrative technical part Facebook must check technical system document possible risk storage information prove to do each new product expect performance important company need hundred engineer over thousand employee mark also remind march company facebook be center powerful scandal newspaper the new york times report british private firm cambridge analytica use technology deep analysis data in particular data social network development strategic communication move election campaign internet manage collect personal data million user social network information used development algorithm analysis political preferences voter tell ex employee cambridge analytica created algorithm facilitated mailing user political advertising goal potentially influence their vote</t>
+    <t>US authorities fine Facebook record billion dollar user data leaks US Federal Trade Commission FTC decides to fine Facebook record billion dollar user data leaks fine framework agreement authorities founder company Mark Zuckerberg bear personal responsibility compliance requirement confidentiality once non-compliance norm company Facebook to hold accountable in particular criminal fine largest to issue FTC approximately equal to monthly profit Facebook note associated press accordingly decision FTC board Facebook create independent committee privacy eliminate unfettered control side CEO Facebook Mark Zuckerberg decision to affect security personal data social network prohibit use number phone address email user advertising tool facial recognition work consent user representative Facebook statement note ready change area data protection express hope new standard privacy protection become an example entire industry transmit Reuters Mark Zuckerberg telling decision FTC declare change affect administrative technical part Facebook must check technical system document possible risk storage information prove to do each new product expect performance important company need hundred engineer more than thousand employee mark also remind march company facebook be center powerful scandal newspaper the new york times report british private firm cambridge analytica use technology deep analysis data in particular data social network development strategic communication move election campaign internet manage collect personal data million user social network information used development algorithm analysis political preferences voter tell ex employee cambridge analytica created algorithm facilitated mailing user political advertising goal potentially influence their vote</t>
   </si>
   <si>
     <t>У Росії затримали судно з 14 українцями на борту. У порту Єйська на Кубані затримали судно під прапором Молдови з 14 громадянами України. Судно затримали через поганий технічний стан та невиплату зарплати екіпажу.Про це повідомляє ТАСС з посиланням на інспекторку Міжнародної федерації транспортних робітників (ITF) у Росії Ольгу Ананьїну.Про затримання судна Lizori під прапором Молдови раніше повідомили у Російському професійному союзі моряків. Причина затримання — неналежний технічний стан та невиплата зарплати екіпажу. Заборгованість оцінюють у 11,23 тисячі доларів.«Українське судно, український екіпаж. На борту перебувають 14 членів екіпажу, всі вони громадяни України», — сказала Ананьїна. Вона додала, що 23 липня трьох українців вже відправили додому.За словами інспекторки, вирішується питання про відправлення додому решти українців.Судно Lizori належить компанії DonbassTransitService Ltd, яка зареєстрована в Україні, розташована в Маріуполі. Вона є членом Міжнародної федерації експедиторських асоціацій, а також від початку 2000-х має ліцензії на діяльність в Росії та Україні.Нагадаємо, раніше КНДР захопила російське судно з 17 моряками на борту.</t>
@@ -1804,7 +1807,7 @@
     <t>Омелян: Укрзалізниця — моя велика невдача. Міністр інфраструктури Володимир Омелян заявив, що з 2017 року він втратив контроль над Укрзалізницею, і загалом для нього ситуація з компанією є «великою невдачею».Про це Омелян заявив в ефірі програми «Мокрик По Живому» на Громадському.«Насправді, для мене особисто Укрзалізниця це велика невдача. Тому що всі інші галузі — авіація, дорожня, морська, річкова, Укрпошта — вони дають відчутний ріст, і це ми бачимо всі, як би хто не критикував, зрушення є суттєві. На Укрзалізниці таких зрушень немає. І це було одним з найбільших скандалів за моєї каденції міністром», — сказав він.У підсумку цього скандалу звільнили екс-очільника компанії Войцеха Бальчуна, але Укрзалізницю, як стверджує Омелян, в нього «забрали».«Тому тут, на жаль, інструментарій впливу достатньо є обмежений. Вони (УЗ — ред.) звертаються тільки тоді, коли ситуація дійсно патова і немає більше кому допомогти. Все інше вони роблять по-своєму. У нас такий парадокс склався, що з 2017 року міністр інфраструктури, який відповідає начебто де-юре за Укрзалізницю, насправді на неї не впливає взагалі», — заявив міністр.Він додав, що формально вплив на Укрзалізницю має уряд через Міністерство економіки.Володимир Омелян неодноразово критикував роботу Балчуна на посаді голови Укрзалізниці. Міністр закликав звільнити його та передати Укрзалізницю в управління уряду. Більше того, після звільнення Балчуна Омелян заявляв, що очікує розслідування щодо його діяльності на посаді.</t>
   </si>
   <si>
-    <t>Omelyan Ukrainian Railways big failure Minister Infrastructure Volodymyr Omelyan declare lose control Ukrainian Railways in general situation company big Omelyan declare broadcast program Mokryk live public personally Ukrainian Railways big failure industry aviation road sea river Ukrainian Post give tangible growth see criticize shift significant Ukrainian Railways such shift one biggest scandal cadence minister summary scandal dismiss ex-head of company Wojciech Balchun Ukrainian Railways assert Omelyan regret toolkit influence quite limited uz ed address situation stalemate help do your paradox develop minister infrastructure respond as if Yure Ukrainian Railways actually influence generally declare minister add formally influence Ukrainian Railways government ministry economy Volodymyr Omelyan repeatedly criticize work Balchun position head Ukrainian Railways minister call dismiss transfer Ukrainian Railways management government dismissal Balchun Omelyan declare expect investigation activity position</t>
+    <t>Omelyan Ukrainian Railways big failure Minister Infrastructure Volodymyr Omelyan declare lose control Ukrainian Railways in general situation company big Omelyan declare broadcast program Mokryk live public personally Ukrainian Railways big failure industry aviation road sea river Ukrainian Post give tangible growth see criticize shift significant Ukrainian Railways such shift one biggest scandal cadence minister summary scandal dismiss ex-head of company Wojciech Balczun Ukrainian Railways assert Omelyan regret toolkit influence quite limited uz ed address situation stalemate help do your paradox develop minister infrastructure respond as if Yure Ukrainian Railways actually influence generally declare minister add formally influence Ukrainian Railways government ministry economy Volodymyr Omelyan repeatedly criticize work Balczun position head Ukrainian Railways minister call dismiss transfer Ukrainian Railways management government dismissal Balczun Omelyan declare expect investigation activity position</t>
   </si>
   <si>
     <t>Безсмертний розповів, хто представляє інтереси так званих республік у політичній підгрупі в Мінську. На переговорах у робочій підгрупі з політичних питань у Тристоронній контактній групі у Мінську інтереси так званої «ЛНР» представляє Родіон Мірошник. Це колишній генеральний директор Луганської обласної державної телерадіокомпанії, який є заступником ватажка так званої «ЛНР» Ігоря Плотницького.Про це в ефірі програми «Нині вже» на Громадському заявив Роман Безсмертний — представник України у робочій підгрупі з політичних питань у Тристоронній контактній групі.Він додав, що особу, яка була на переговорах від окупованого Донецька бачив уперше, тому не знає, хто це був.Також Безмертний й розповів, що представники окупованого Донбасу були готові на обмін полонених одразу після засідання в Мінську 17 липня, гальмує процес Москва.Раніше Безмертний заявляв, що на переговорах у Мінську 17 липня сторони домовилися щодо обміну полонених за схемою 208 на 69, тобто українська сторона віддасть 208 засуджених, сторона бойовиків на Донбасі звільнить 69 громадян. Це не стосується політв’язнів та військовополонених, яких утримують в Росії та анексованому Криму.Нагадаємо, востаннє обмін заручників відбувся 27 грудня 2017 року. Це перший за два роки та найбільший обмін. За даними СБУ,  на підконтрольну територію повернулися 73 заручники. Україна передала на окуповану територію 233 людини.читайте також</t>
@@ -1816,7 +1819,7 @@
     <t>Київ достроково переобере міськголову, якщо посаду відокремлять від голови КМДА — експерт. У Києві можуть призначити дострокові вибори міського голови, якщо нова Верховна Рада ухвалить законопроект про розподіл обов’язків міськголови та очільника Київської міської державної адміністрації.Про це у коментарі Громадському заявив колишній народний депутат та експерт з питань територіальної організації влади Юрій Ганущак.«Якщо змінюється статус міського голови, то цілком очевидно, що по закону треба робити вибори. Не виключено, що законопроект про розподіл обов’язків мера Києва та голови КМДА проголосують упродовж першого місяця роботи парламенту», — сказав він.Ганущак зазначив, що принцип розділення повноважень між державою та місцевим самоврядуванням — основа децентралізації. Ще у 2012 році колишній депутат розробляв серію законопроектів, які б мали впорядкувати систему управління Києвом. Згодом, у 2015 році депутати розробили законопроект про внесення змін до Закону «Про столицю України — місто-герой Київ», який, за словами Ганущака, повторює його документ.«Держава зобов’язана контролювати діяльність органів місцевого самоврядування. А у нас виходить така ситуація, що зранку мер Києва приймає рішення самоврядні, а після обіду — він уже державний чиновник, який контролює свої рішення, наскільки вони легітимні», — пояснив Ганущак.Законопроект має передбачати, що Київрада матиме виконавчий комітет, підпорядкований міському голові. Водночас КМДА мала б контролювати рішення міської ради та представляти інтереси держави.Нагадаємо, 24 липня Офіс президента попросив у Кабінету міністрів внести подання на звільнення голови Київської міської державної адміністрації Віталія Кличка.Раніше глава Офісу президента Андрій Богдан в інтерв’ю «РБК-Україна» пригрозив Віталію Кличку розмежуванням посад міського голови Києва і голови КМДА.</t>
   </si>
   <si>
-    <t>Kyiv early re-elect the mayor position separate the head of the city council expert Kyy appoint early elections the mayor new Supreme Council adopt a bill distribution mayor head Kyiv city state administration comment public declare former people's deputy expert issue territorial organization power Yuriy Ganushchak change status mayor quite obviously law make elections exclude bill distribution mayor Kyiv head of the city council will vote during the first month work parliament Ganushchak note the principle of separation of powers state local self-government basis decentralization former deputy develop a series of bill have to streamline the management system Kyiv later deputy develop a bill amending the law capital Ukraine city hero Kyiv word Ganushchak repeat document control activity body local self-government go out situation in the morning mayor Kyiv make decisions self-governing lunch already state official control decision how legitimate explain Ganushchak bill foresee Kyiv council have executive committee subordinate mayor at the same time kmda have to control decision city council represent interest state remind July office president ask cabinet minister submit resignation chairman kiev city state administration vitali klichko head office president andriy bogdan rbk ukraine threaten vitali klichka demarcation position mayor kiev head of KMDA</t>
+    <t>Kyiv early re-elect the mayor position separate the head of the city council expert Kyy appoint early elections the mayor new Supreme Council adopt a bill distribution mayor head Kyiv city state administration comment public declare former people's deputy expert issue territorial organization power Yuriy Ganushchak change status mayor quite obviously law make elections exclude bill distribution mayor Kyiv head of the city council will vote during the first month work parliament Ganushchak note the principle of separation of powers state local self-government basis decentralization former deputy develop a series of bill have to streamline the management system Kyiv later deputy develop a bill amending the law capital Ukraine city hero Kyiv word Ganushchak repeat document control activity body local self-government go out situation in the morning mayor Kyiv make decisions self-governing lunch already state official control decision how legitimate explain Ganushchak bill foresee Kyiv council have executive committee subordinate mayor at the same time kmda have to control decision city council represent interest state remind July office president ask cabinet minister submit resignation chairman Kyiv city state administration vitali klichko head office president andriy bogdan rbk ukraine threaten vitali klichka demarcation position mayor kiev head of KMDA</t>
   </si>
   <si>
     <t>Безсмертний: Самодіяльність Медведчука – це недопрацювання спецслужб та нормативної бази. Лідер партії «Опозиційна платформа — За життя» та кум президента РФ Володимира Путіна Віктор Медведчук та його переговори про обмін полонених в обхід Мінська — це недопрацювання спецслужб та нормативної бази.Про це в ефірі програми «Нині вже» на Громадському заявив Роман Безсмертний — представник України у робочій підгрупі з політичних питань у Тристоронній контактній групі.«Якщо ми перебуваємо у стані війни з РФ, то на розмову з тих чи інших питань має бути відповідний мандат держави. У Мінськ їздить офіційна делегація. Подібні делегації (Медведчука — ред) мають класифікуватися як речі, які містять ознаки державної зради», — зазначив Безсмертний.Те що, попередній президент Петро Порошенко не ввів закон про правовий режим воєнного стану та закон про оборону, є наслідком відсутності чіткої правової бази щодо питань війни, додав переговорник.«Тому Служба безпеки та інші служби в дезорієнтації, що їм робити. З мого погляду, ці рішення рано чи пізно будуть ухвалені й ця поведінка буде класифікована як державна зрада або зрада державних інтересів», — зазначив Безсмертний.Також він вважає, що прихід Медведчука у Верховну Раду може ознаменувати «диверсію на зовнішньополітичному фронті», якщо його призначать, наприклад, заступником голови парламенту, в чиї обов’язки входить представництво України на міжнародному рівні.Раніше Медведчук заявив, що не претендує на посаду віцеспікера Ради.читайте також21 липня в Україні відбулися дострокові парламентські вибори. Явка за даними з усіх 199 округів склала 49,84%. Це найнижча явка в історії українських виборів до Ради.За результатами обробки понад 99% протоколів, «Слуга народу» лідирує, на другому місці «Опозиційна платформа — За життя», а «Батьківщина» обігнала партію Порошенка. Також проходить в нову Раду «Голос» Святослава Вакарчука.Ті партії, які мають понад 2% голосів, отримуватимуть державне фінансування.читайте також</t>
@@ -1834,7 +1837,7 @@
     <t>Омелян заявив про готовність співпрацювати з «Голосом» і «Європейською солідарністю». Міністр інфраструктури Володимир Омелян планує після зміни складу уряду створити аналітичний центр, співпрацювати він готовий з партіями «Голос» та «Європейська солідарність».Про це Омелян заявив в ефірі програми «Мокрик По Живому» на Громадському.Він розповів, що в нього є чітка ціль — вступ України в ЄС і НАТО, «бо тільки тоді Україна буде в безпеці».«Сьогодні в парламенті це щонайменше чітко артикулюють дві партії («ЄС» і «Голос»), я готовий з ними працювати. Якщо їх буде більше, ми будемо створювати якісний продукт, будь ласка, беріть його і використовуйте», — сказав міністр.Омелян уточнив, що хоче створити аналітичний центр зі своєю нинішньою командою. Він розраховує, що надалі представники влади будуть брати спеціалістів з таких аналітичних центрів у владу, бо вони «вже знають, що робити».Зараз, як вважає Омелян, людей «знімають з потягів» і «забирають у владу», а там потрібні спеціалісти.«Я сподіваюся, що здоровий глузд повернеться і люди побачать, що див не буває. Успіх — це важка праця, планування і системне планування. Всі люди за одну ніч багатими не стануть. І я готовий, наприклад, просто пояснювати людям, що для цього треба зробити», — наголосив він.На запитання, в якості кого він буде це пояснювати, міністр відповів: «Зараз дуже популярно бути блогером, влогером чи шоуменом, тобто, вакансій зараз купа, піду туди. Я думаю, що іншого інструментарію в мене немає, бо у мене традиційно не було особливого доступу до масмедіа, так його і не буде. Соціальні мережі так, це інструмент».Раніше Омелян визнав, що після роботи в Мінінфраструктури він увійде в історію завдяки «гіперлупу», проте не бачить у цьому проблеми.«Для мене набагато приємніше увійти в міні чи квазіісторію з «гіперлупом», аніж увійти баригою чи клоуном», — сказав він.</t>
   </si>
   <si>
-    <t>Omelyan declare readiness to cooperate voice European solidarity minister infrastructure Volodymyr Omelyan plan change composition government create analytical center cooperate ready party voice European Omelyan declare broadcast program Mokryk live public tell clear goal entry Ukraine EU NATO Ukraine parliament at least clearly articulate party EU voice ready to work create quality product take use minister Omelyan specify want to create analytical center own current team count in future representative power take specialist such analytical center power know consider Omelyan person take train take power needed specialist hope common sense return people see wonder success hard work planning system planning people one night rich become ready for example explain person do emphasize question quality explain minister answer popular blogger vlogger showman i.e. vacancies pile go think other toolkit traditionally special access mass media social network Omelyan recognize work of Ministry of Infrastructure enter history thanks to hyperloop see problem much more pleasant enter mine quasi-history with hyperloop rather than enter a clown peddler</t>
+    <t>Omelyan declare readiness to cooperate voice European solidarity minister infrastructure Volodymyr Omelyan plan change composition government create analytical center cooperate ready party voice European Omelyan declare broadcast program Mokryk live public tell clear goal entry Ukraine EU NATO Ukraine parliament at least clearly articulate party EU voice ready to work create quality product take use minister Omelyan specify want to create analytical center own current team count in future representative power take specialist such analytical center power know consider Omelyan person take train take power needed specialist hope common sense return people see wonder success hard work planning system planning people one night rich become ready for example explain person do emphasize question quality explain minister answer popular blogger vlogger showman i.e. vacancies heap go think other toolkit traditionally special access mass media social network Omelyan recognize work of Ministry of Infrastructure enter history thanks to hyperloop see problem much more pleasant enter mine quasi-history with hyperloop rather than enter a clown peddler</t>
   </si>
   <si>
     <t>Омелян: Краще увійти в історію «гіперлупом», ніж баригою чи клоуном. Міністр інфраструктури України Володимир Омелян не бачить проблеми у тому, що він «увійде в історії» завдяки історії з «гіперлупом».Про це Омелян заявив в ефірі програми «Мокрик По Живому» на Громадському.«Я радий, що це «гіперлуп», насправді. Бо для мене набагато приємніше увійти в міні чи квазіісторію з «гіперлупом», аніж увійти баригою чи клоуном. Я вважаю, що перший варіант краще», — сказав він.Міністр додав, що під прес-конференції, на якій він розповів про плани запустити «гіперлуп», були озвучені чіткі етапи впровадження цього проєкту.«Вважаю, що ми зібрали непоганий пул як українських, так і іноземних компаній. Іноземні, які дійсно розробляють цей проєкт. Це Hyperloop Transportation Technologies. Зараз вже повністю підготовлено проєктну пропозицію, ми маємо наукову оцінку з українського боку і подалися на фінансування з боку Єврокомісії. Зараз чекаємо на відповідь. Тобто, цю етапність ми зберегли», — розповів Омелян.Він наголосив, що ніколи не розраховував, що це буде держаний проєкт, бо він має бути комерційним.«Якщо нам вдасться отримати перші гроші, щоби запустити його, я думаю, що ми зможемо щонайменше в пулі з іншими компаніями іноземними брати в ньому участь. Для мене це надважлива ідея, бо це не просто якась фантазія, для мене це важливо, щоби українці повірили в самих себе», — резюмував глава Мінінфраструктури.Раніше Омелян пообіцяв запустити тестову ділянку «гіперлуп» у 2019 році.Hyperloop  — це проект вакуумного потягу, який запропонував американкський винахідник та засновник компанії SpaceX Ілон Маск. Система Hyperloop діє на основі магнітів та турбін, які запускають капсули на повітряній подушці. Завдяки цьому потяги рухаються по вакуумних трубах з величезною швидкістю.Нагадаємо, 15 червня Міністр інфраструктури України Володимир Омелян підписав договір про співробітництво з Hyperloop Transportation, яка займається розробкою та будівництвом швидкісного сполучення Hyperloop.</t>
@@ -1852,13 +1855,13 @@
     <t>Представники окупованого Донбасу були готові на обмін одразу після засідання в Мінську, гальмує Москва — Безсмертний . У день досягнення домовленостей про обмін полонених на переговорах у Мінську 17 липня представники окупованих Донецька та Луганська готові були буквально наступного дня робити звільнення, але Москва загальмувала цей процес.Про це в ефірі програми «Нині вже» на Громадському розповів Роман Безсмертний — представник України у робочій підгрупі з політичних питань у Тристоронній контактній групі.Він зазначив, що початок процедури обміну продовжать обговорювати у Мінську 31 липня.«Мене зараз турбує, щоб тільки не почали називати прізвища. Тому що як тільки почнуть називати прізвища, одна чи інша сторона почне витягувати з пакету ці прізвища», — додав переговорник.Раніше Безмертний заявляв, що на переговорах у Мінську 17 липня сторони домовилися щодо обміну полонених за схемою 208 на 69, тобто українська сторона віддасть 208 засуджених, сторона бойовиків на Донбасі звільнить 69 громадян. Це не стосується політв’язнів та військовополонених, яких утримують в Росії та анексованому Криму.Раніше заступник голови Офісу президента України Вадим Пристайко заявив про попередню домовленість з Росією про обмін полонених протягом місяця.Нагадаємо, востаннє обмін заручників відбувся 27 грудня 2017 року. Це перший за два роки та найбільший обмін. За даними СБУ,  на підконтрольну територію повернулися 73 заручники. Україна передала на окуповану територію 233 людини.</t>
   </si>
   <si>
-    <t>representative occupied Donbas ready exchange immediately meeting Minsk slow down Moscow immortal achievement agreement exchange prisoner negotiations Minsk July representative occupied Donetsk Luhansk ready literally next make release Moscow slow down process air program now public tell novel immortal representative of Ukraine working subgroup political issue tripartite contact group mark start procedure exchange continue to discuss Minsk July to bother start to name the surname start to name the surname one side start to extract the package surname add negotiator bezmertny declare negotiations Minsk July party agree exchange prisoner scheme i.e. Ukrainian side hand over convicted party militant Donbas free citizen relate to prisoners of war keep Russia annexed Crimea deputy head office president of Ukraine Vadim Prystaiko declare preliminary agreement Russia exchange prisoner within a month remind the last hostage exchange to take place December the largest data exchange SBU controlled territory return hostage Ukraine transfer occupied territory by a person</t>
+    <t>representative occupied donbas ready exchange immediately meeting minsk slow down moscow immortal achievement agreement prisoner exchange negotiations minsk july representative occupied donetsk luhansk ready literally next do release moscow slow down process broadcast program now public tell novel immortal representative ukraine working subgroup political issue tripartite contact group note beginning procedure exchange continue discuss minsk july disturb start name last name start name last name one side start extract package last name add negotiator immortal declare negotiations minsk july side agree prisoner exchange scheme i.e. ukrainian side give convicted side militant donbas release citizen concern prisoners of war keep russia annexed crimea deputy chairman office president ukraine vadym prystaiko declare previous agreement russia prisoner exchange during month remind last time hostage exchange take place december largest exchange data sbu controlled territory return hostage ukraine transfer occupied territory person</t>
   </si>
   <si>
     <t>Поліція порушила справу через спробу нападу на Порошенка. Поліція Києва порушила кримінальну справу через спробу нападу на Петра Порошенка біля будівлі Держбюро розслідувань, куди він 25 липня приходив на допит.Про це повідомили в прес-службі столичної поліції.«Близько 17-ї години група осіб заблокувала автомобіль Петра Порошенка та вступила в конфлікт із його охороною. Зловмисники з місця події втекли. Правоохоронці встановлюють всіх учасників інциденту», — йдеться у повідомленні.За цим фактом поліція порушила справу за ч. 2 ст. 296 (Хуліганство) Кримінального кодексу.Нагадаємо, 25 липня Порошенко прийшов на допит у ДБР, а коли він їхав звідти, на нього намагалися напасти.За даними «Української правди», на машину Порошенка заліз ветеран полку «Азов» Микита Макєєв, уродженець Росії, якому нещодавно президент Володимир Зеленський надав українське громадянство.Нагадаємо, Порошенко прийшов 25 липня на допит у ДБР у справі про продаж заводу «Кузня на Рибальському». Однак він продовжував наполягати, що повістки на допит не отримував.Напередодні Порошенко хотів домовитися про перенесення допиту, але не вийшло.читайте також20 червня повідомлялося, що Держбюро розслідувань за позовом Андрія Портнова проти Порошенка викликало Тігіпка і власника каналу «Прямий»..Раніше стало відомо, що президент Петро Порошенко продає завод «Кузня на Рибальському» олігарху Сергію Тігіпку.Водночас, за інформацією журналістів Bihus.info, напередодні продажу заводу, у серпні 2018 року, з його управління вивели нерухомість, загальна площа якої складає близько 6 тисяч квадратних метрів.</t>
   </si>
   <si>
-    <t>police to break the case attempted attack Poroshenko police Kyiv to break the criminal case attempted attack Petro Poroshenko building State Bureau investigation July come interrogation report press service Metropolitan police hour group person block car Petro Poroshenko enter conflict security intruder place event escape law enforcement officer establish participant incident go message fact police to break the case h hooliganism criminal code remind July Poroshenko to come interrogation DBR go from there try to attack data Ukrainian truth car Poroshenko climb veteran regiment Azov Nikita Makeev native Russia which president Volodymyr Zelensky provide Ukrainian citizenship remind Poroshenko to come July interrogation DBR case sale factory Kuznia Rybalsky continue to insist summons interrogation receive on the eve Poroshenko want to agree to postpone interrogation June reported State Bureau investigation lawsuit Andriy Portnov Poroshenko call Tigipko owner channel become known president Petro Poroshenko sell the Kuznia factory to the fishing oligarch Sergey Tigipko at the same time information journalist on the eve of the sale of the factory in August management withdraw real estate total area add up square meter</t>
+    <t>police to break the case attempted attack Poroshenko police kiev to break the criminal case attempted attack Petro Poroshenko building State Bureau investigation July come interrogation report press service Metropolitan police hour group person block car Petro Poroshenko enter conflict security intruder place event escape law enforcement officer establish participant incident go message fact police to break the case h hooliganism criminal code remind July Poroshenko to come interrogation DBR go from there try to attack data Ukrainian truth car Poroshenko climb veteran regiment Azov Nikita Makeev native Russia which president Volodymyr Zelensky provide Ukrainian citizenship remind Poroshenko to come July interrogation DBR case sale factory Kuznia Rybalsky continue to insist summons interrogation receive on the eve Poroshenko want to agree to postpone interrogation June reported State Bureau investigation lawsuit Andriy Portnov Poroshenko call Tigipko owner channel become known president Petro Poroshenko sell the Kuznia factory to the fishing oligarch Sergey Tigipko at the same time information journalist on the eve of the sale of the factory in August management withdraw real estate total area add up square meter</t>
   </si>
   <si>
     <t>Бойовики порушили перемир’я на Донбасі, одного військового поранено — штаб. Від початку доби 25 липня бойовики одного разу порушили режим припинення вогню на Донбасі, один український військовий дістав поранення.Про це повідомили в штабі операції Об’єднаних сил.«Противник відкривав вогонь по українських захисниках з ручного протитанкового гранатомету та великокаліберного кулемету», — йдеться у повідомленні.У штабі уточнили, що бойовики відкрили вогонь біля населеного пункту Причепилівка на Луганщині. Українські військові вогонь у відповідь не відкривали.Нагадаємо, упродовж 24 липня бойовики дотримувалися режиму повного припинення вогню.Нагадаємо, з 21 липня на Донбасі розпочалося перемир’я, про яке домовились на переговорах у Мінську.читайте також</t>
@@ -1870,7 +1873,7 @@
     <t>Прокуратура Швеції висунула реперу A$AP Rocky офіційні звинувачення у нападі . Прокуратура Швеції офіційно звинуватила американського репера A$AP Rocky у нападі.Про це повідомив прокурор Даніель Сонсон, пише Sveriges Radio.Прокуратура ухвалила таке рішення на основі відеозаписів та свідчень сторін. Оскільки у Швеції немає системи поруки, репер перебуватиме під вартою аж до суду.Нагадаємо, A$AP Rocky був заявлений як один з хедлайнерів українського фестивалю Atlas Weekend, однак не зміг на нього приїхати, оскільки на початку липня потрапив за ґрати через бійку в Стокгольмі. Прокурор домігся утримання під вартою через побоювання, що він може переховуватись від правосуддя. Після сутички репер опублікував в Instagram відео, у якому пояснив, що чоловік їх переслідував та вдарив охоронця навушниками.20 липня президент США Дональд Трамп запропонував прем'єр-міністру Швеції Стефану Льовен особисто поручитися за репера.A post shared by PRETTY FLACKO (@asaprocky) on Jul 2, 2019 at 7:56am PDT На Atlas Weekend його замінив інший репер —A$AP Ferg.</t>
   </si>
   <si>
-    <t>prosecutor's office sweden to bring forward rapper ap rocky official accusation attack prosecutor's office sweden to officially accuse american rapper ap rocky attack report prosecutor daniel sonson write sveriges radio prosecutor's office to make a decision basis video recording testimony party because sweden system bail rapper stay court remind ap rocky announced headliner ukrainian festival atlas weekend be able to arrive because july get in jail fight stockholm prosecutor achieve detention worth fear hide justice fight rapper publish instagram video which explain man pursue hit bodyguard july us president donald trump propose minister sweden stefan leven personally bail rapper a post shared by pretty flacko on jul at pdt atlas weekend replace rapper ap ferg</t>
+    <t>prosecutor's office sweden to bring forward rapper ap rocky official accusation attack prosecutor's office sweden to officially accuse american rapper ap rocky attack report prosecutor daniel sonson write sveriges radio prosecutor's office to make a decision basis video recording testimony party because sweden system bail rapper stay court remind ap rocky announced headliner ukrainian festival atlas weekend be able to arrive because july get in jail fight stockholm prosecutor achieve detention guard fear hide justice fight rapper publish instagram video which explain man pursue hit bodyguard july us president donald trump propose minister sweden stefan levin personally bail rapper a post shared by pretty flacko on jul at pdt atlas weekend replace rapper ap ferg</t>
   </si>
   <si>
     <t>У ЄС засудили рішення США про повернення смертної кари. Європейський Союз рішуче засуджує рішення Сполучених Штатів про поновлення смертної кари на федеральному рівні.Про це йдеться у заяві офіційного представника ЄС із зовнішньої політики Маї Косьянчич.За її словами, рішення припинити мораторій на страту, який тривав 16 років, суперечить зростаючу тенденцію до скасування смертної кари як у Сполучених Штатах, так і в світі.«Страта порушує невід'ємне право на життя, закріплене у Загальній декларації прав людини, і є жорстоким, нелюдським та таким, що принижує гідність покаранням. Європейський Союз рішуче виступає проти смертної кари і буде продовжувати домагатися її скасування в усьому світі», — наголосила Косьянич.Нагадаємо, Міністерство юстиції США після перерви у понад 15 років вирішило відновити виконання смертних вироків на федеральному рівні.читайте також</t>
@@ -1918,7 +1921,7 @@
     <t>Державна зрада «по-домашньому», або Як працює нове рішення Конституційного суду. Громадське просить вибачення за публікацію вирваної із контексту фрази на початку цього відеоматеріалу. Було використано відео із ютуб-каналу «Свободный Донбасс», змонтоване таким чином, що з вислову Олександра Єфремова прибрали слова: «На меня отвязываются все средства массовой информации. И обвиняют меня то же самое в сепаратизме, обвиняют в том, что я финансирую сепаратистов и так далее и тому подобное. Я об этом говорю и говорю открыто. Но сказать, что я услышан — я не скажу». Повна версія цього інтерв'ю на телеканалі «Лот» від 27 червня 2014 року. Упродовж останніх двох місяців суди Києва змінили запобіжні заходи обвинуваченим у низці резонансних справ. Зокрема, обвинуваченому в організації силового штурму Майдану колишньому голові СБУ Києва Олександру Щеголєву та підсудному у справі про державну зраду екс-голові Партії регіонів Олександру Єфремову.Тисячі обвинувачених та підозрюваних у подібних справах або у тих, що проходять за статтями про незаконні збройні формування, повалення конституційного ладу або фінансування тероризму, найближчим часом також можуть вийти із СІЗО.Зміна їм запобіжного заходу стала можливою після рішення Конституційного суду України щодо положення про обов’язкове тримання під вартою фігурантів цих справ.Правозахисники нараховують близько тисячі подібних справ у судах, проте вони менш відомі. А статистику відкритих кримінальних проваджень ніхто не веде.</t>
   </si>
   <si>
-    <t>treason home work new decision constitutional court public apologize publication torn out of context phrase video material use video YouTube channel free donbass mounted such an act expression Alexander Efremov remove the word me get rid of the media and accuse me of separatism itself accuse me of financing separatists and further and similar about this talk and speak openly but say what you heard say full version TV channel lot June during the last month court kiev change the preventive measure accused a number of resonant in particular accused organization forceful assault on the Maidan former head of the sbu kiev Alexander Shchegolev defendant case state treason ex-goal party region Alexander Efremov thousand accused suspect similar case pass article illegal armed formation overthrow constitutional order financing terrorism in the near future get out preventive measure become possible decision constitutional court ukraine detention conditions defendant human rights activist count thousand similar court known statistics open criminal proceedings no one is conducting</t>
+    <t>treason home work new decision constitutional court public apologize publication torn out of context phrase video material use video YouTube channel free donbass mounted such an act expression Alexander Efremov remove the word me get rid of the media and accuse me of separatism itself accuse me of financing separatists and further and similar about this talk and speak openly but say what you heard say full version TV channel lot June during the last month court kiev change the preventive measure accused a number of resonant in particular accused organization forceful assault on the Maidan former head of the sbu kiev Alexander Shchegolev defendant case state treason ex-goal party region Alexander Efremov thousand accused suspect similar case pass article illegal armed formation overthrow constitutional order financing terrorism in the near future get out preventive measure become possible decision constitutional court ukraine detention conditions defendant human rights activist count thousand similar court known statistics open criminal proceedings no one to conduct</t>
   </si>
   <si>
     <t>Представник «Слуги народу»: за Кличка у Києві нічого не змінюється — йде імітація. За міського голови Києва Віталія Кличка столиця України не розвивається, а старі корупційні схеми нікуди не зникли.Таку думку в ефірі програми «Нині вже» на Громадському висловив член партії «Слуга народу» Дмитро Гурін, який виграв вибори на 218-му окрузі Києва.«У Києві нічого не змінюється — йде імітація. Нам потрібні структурні зміни громадського транспорту, підходів до стратегічних комунікацій, підходів до самоврядування. В місті, де потрібні системні зміни, п'ять років іде імітація», — зазначив Гурін.Він також нагадав, що в Києві багато років поспіль запроваджують систему електронного квитка.«У нас 5 років ставлять валідатори і ставлять електронний квиточок […] Тому, що міський транспорт міста Києва є джерелом інкасації — звідти витягується «чорний нал». Не дають білети в обмін на гроші, чи друкують їх більше, ніж потрібно. Це класичне джерело чорного налу», — розповів член партії «Слуга народу».читайте такожНагадаємо, 24 липня Офіс президента попросив у Кабінету міністрів внести подання на звільнення голови Київської міської державної адміністрації Віталія Кличка. Сам Кличко заявив, що розділення посад міськголови та глави КМДА суперечить Конституції.Раніше глава Офісу президента Андрій Богдан пригрозивВіталію Кличку розмежуванням посад міського голови Києва і голови КМДА. Після цього Кличко зустрівся з президентом Володимиром Зеленським, який підтвердив йому чутки про розділення повноважень мера столиці й очільника Київської міської державної адміністрації.«Українська правда» писала, що у партії «Слуга народу» розглядають дві кандидатури на пост голови КМДА: гендиректора холдингу «1+1 media», власником якого є олігарх Ігор Коломойський, Олександра Ткаченка. Він проходить у Верховну Раду за списком «Слуги народу» під № 9. Та бізнесмена Андрія Холодова — № 22 у виборчому списку.</t>
@@ -1936,7 +1939,7 @@
     <t>Палестина заявила про припинення дії мирних угод з Ізраїлем. Голова Палестинської національної адміністрації Махмуд Аббас оголосив про припинення виконання всіх наявних угод з Ізраїлем.Як повідомляє Agence France-Presse, палестинський лідер висловлював подібні погрози і раніше, але не втілював їх.За словами Аббаса, в Палестині для цього сформують спеціальну комісію.«Ми не підкоримося диктату і спробам нав'язати грубу силу, особливо в Східному Єрусалимі», — сказав Аббас на засіданні палестинського керівництва.Його заява — відповідь на знесення палестинських будинків у Східному Єрусалимі. На думку ізраїльської сторони, їх побудували із порушеннями. Жителям цих населених пунктів запропонували самим демонтувати житла до 19 липня. Після того, як термін минув, влада Ізраїлю приступила до знесення будівель.Після знесення дії Ізраїлю розкритикували у Франції, Великій Британії, Німеччини, Бельгії та Польщі.Нагадаємо, президент США Дональд Трамп 6 грудня 2017 року оголосив про визнання Єрусалиму столицею Ізраїлю і початок підготовки до перенесення туди американського посольства з Тель-Авіва. 14 травня 2018 року в Єрусалимі відбулася урочиста церемонія відкриття посольства США, що призвело до різкого посилення масових протестів палестинців, терактів і зіткнень з численними жертвами. Радбез ООН не підтримав рішення Трампа про перенесення столиці Ізраїлю, а Генасамблея ООН 21 грудня схвалила резолюцію, яка засуджує визнання Єрусалиму столицею Ізраїлю.читайте також</t>
   </si>
   <si>
-    <t>Palestine declare cessation of action peace agreement Israel head Palestinian national administration Mahmoud Abbas declare cessation of implementation existing agreement Israel report agence france presse Palestinian leader express similar threat implement word Abbas Palestine form special commission obey dictate attempt brute force East Jerusalem Abbas meeting Palestinian leadership statement response demolition Palestinian house East Jerusalem opinion Israeli side build violation resident settlement propose dismantle housing July deadline pass government Israel proceed demolition building demolition action Israel criticize France Great Britain Germany Belgium Poland remind US President Donald Trump December declare recognition Jerusalem capital of Israel beginning preparation relocation American embassy Tel Aviv May Jerusalem take place solemn opening ceremony US embassy lead sharp intensification mass protest Palestinian terrorist attack clash numerous victim UN Security Council support Trump's decision to move the capital Israel UN General Assembly December approve resolution condemn recognition Jerusalem capital</t>
+    <t>Palestine declare cessation of action peace agreement Israel head Palestinian national administration Mahmoud Abbas declare cessation of implementation existing agreement Israel report agence france presse Palestinian leader express similar threat implement word Abbas Palestine form special commission obey dictate attempt brute force East Jerusalem Abbas meeting Palestinian leadership statement response demolition Palestinian house East Jerusalem opinion Israeli side build violation resident settlement propose dismantle housing July deadline pass government Israel proceed demolition building demolition action Israel criticize France Great Britain Germany Belgium Poland remind US President Donald Trump December declare recognition Jerusalem capital of Israel beginning preparation relocation American embassy Tel Aviv May Jerusalem take place solemn opening ceremony US embassy lead sharp intensification mass protest Palestinian terrorist attack clash numerous victim UN Security Council support Trump's decision to move capital Israel UN General Assembly December approve resolution condemn recognition Jerusalem capital</t>
   </si>
   <si>
     <t>Правоохоронці затримали Леоніда Бібіка, обвинуваченого у збитті на смерть активіста Майдану Сергія Дідича. Поліція за клопотанням прокуратури затримала раніше звільненого за законом про амністію Леоніда Бібіка — активіста Майдану, обвинуваченого у збитті на смерть 18 лютого 2014 року «свободівця» Сергія Дідича.Про це Громадському повідомили у ГПУ.Суд над Леонідом Бібіком тривав з 2015 року. У 2016 році він був звільнений за законом про амністію. За скаргою потерпілих Апеляційний суд скасував таке рішення і повернув справу до суду першої інстанції. До травня 2018 року Бібік відвідував засідання, згодом попросив змінити захисника і зник. У серпні минулого року прокуратура клопотала про примусовий привід чоловіка, суд дав дозвіл, однак впродовж 6 місяців правоохоронцям не вдалось знайти чоловіка. Його оголосили у розшук. За місцем реєстрації Бібіка сказали, що він виїхав у невідомому напрямку. У березні 2019 року суд дав повторний дозвіл на затримання та привід Леоніда Бібіка, його розшукали в Одеській області, де він працював на будівництві і сказав, що втратив документи й не знав, що його шукають.25 липня Бібіка затримали та привезли до Печерського суду для обрання запобіжного заходу. Втім, через завантаженість судді засідання перенесли на 30 липня на 14:00. Це означає, що о 2 ночі чоловік вийде на волю. Прокурор відділу ГПУ Тетяна Сєргєєва зазначила, що наразі вони не в силі щось змінити, а сам Бібік розписався в повідомленні про інформування щодо наступного засідання та обіцяв з‘явитися.Прокуратура клопотатиме про арешт Бібіка на два місяці.читайте такожНагадаємо,18 лютого 2014-го, Леонід Бібік знаходився біля Маріїнського парку. Намагаючись вирватися з оточення силовиків, він побачив кинутий із відчиненими дверима «ГАЗ» та вирішив сісти за кермо, щоби «прорвати стрій ВВ, «Беркуту» і виїхати на Інститутську». Уже на зворотному шляху, у Кріпосному провулку, він збив «беркутівця», який дістав перелом ноги, а за ним — активіста Сергія Дідича, на смерть.У березні 2016 року суддя Печерського районного суду Києва Світлана Шапутько звільнила від відповідальності Леоніда Бібіка, який 18 лютого 2014 року збив на смерть активіста Євромайдану Сергія Дідича, посилаючись на закон «Про недопущення переслідування і покарання осіб з приводу подій, які мали місце під час проведення мирних зібрань».</t>
@@ -1954,7 +1957,7 @@
     <t>В Індії з потяга, що зупинився внаслідок повені, врятували понад тисячу людей. В Індії з потяга, який зупинився внаслідок повені, врятували близько 1050 людей, які 15 годин провели без води і їжі.Про це повідомляє ВВС.Поїзд зупинився в Мумбаї, куди одразу відправили гелікоптери і рятувальні човни. Всіх пасажирів вдалося врятувати. Неподалік був створений тимчасовий табір, де людей нагодували і надали медичну допомогу.Зазначається, що в поїзді на той момент було щонайменше 9 вагітних жінок, їх доправили у безпечне місце.Нагадаємо, через сильні дощі в східній частині Індії почалися повені, внаслідок яких загинули понад 600 людей. Тигриця, яка через повінь втекла з Національного парку Казіранга, пролізла в будинок одного з місцевих жителів і сховалася у ліжку, де проспала весь день.</t>
   </si>
   <si>
-    <t>India train stopped due to flood save over a thousand people India train stopped due to flood save people hour spend water food report stop Mumbai immediately send helicopter lifeboat passenger manage to save nearby created temporary camp person feed provide medical aid noted train moment at least pregnant woman deliver safe place remind heavy rain eastern part of India start flood due to die over person tigress flood escape Kaziranga National Park climb house local resident hid bed overslept</t>
+    <t>India train stopped due to flood save over a thousand people India train stopped due to flood save people hour spend water food report stop Mumbai immediately send helicopter lifeboat passenger manage to save nearby created temporary camp people feed provide medical aid noted train moment at least pregnant woman deliver safe place remind heavy rain eastern part of India start flood due to die over person tigress flood escape Kaziranga National Park climb through house local resident hid bed overslept</t>
   </si>
   <si>
     <t>На Житомирщині знайшли вбитим фігуранта провадження щодо виборів. На Житомирщині знайшли мертвим жителя Коростеня, який був фігурантом кримінального провадження щодо порушень виборчого законодавства.Про це повідомили пресслужбі поліції Житомирської області.Згідно з інформацією, до поліції надійшло повідомлення від місцевих мешканців про виявлення у лісі поблизу с. Липляни Малинського району тіла чоловіка, присипаного землею.За вказаним фактом було розпочато кримінальне провадження за статтею про «умисне вбивство».Під час слідчих дій було встановлено особу загиблого. Ним виявився 23-річний житель м. Коростеня, який наприкінці червня 2019 року був оголошений у розшук як зниклий безвісти.За інформацією поліції, чоловік був причетним до одного із злочинних угрупувань.Зазначається, що він був підозрюваним у вчиненні вбивства іншого коростенця, що сталося в березні 2018 року в одному з розважальних закладів міста під час конфлікту з кількома чоловіками."Нині у рамках досудового розслідування перевіряється низка версій щодо його вбивства, зокрема, озвучені у засобах масової інформації щодо його причетності до виборчих баталій. Він був фігурантом одного з кримінальних проваджень, що стосувалося порушень виборчого законодавства. А також перевіряється версія про причетність до кримінальних розбірок», — йдеться в повідомленні.Нагадаємо, двох працівників Київської міської психоневрологічної лікарні №3 підозрюють у сприянні систематичним втечам з медичного закладу підозрюваного у вбивстві мотоцикліста у травні 2017 року у Києві.</t>
@@ -1966,7 +1969,7 @@
     <t>У Москві кількість затриманих учасників акції протесту перевищила 1 тисячу людей. У центрі Москви силовики затримали понад 1 тисячу людей, які прийшли на несанкціонований мітинг «За чесні вибори» на підтримку незалежних кандидатів на виборах у Московську міську думу, яким відмовили у реєстрації через перевищення кількості нібито недійсних підписів.За останньою інформацією «ОВС-Інфо», російські правоохоронці затримали 1007 людей.Масові вуличні протести тривають у столиці Росії із 14 липня. Спершу, впродовж тижня, городяни і незалежні кандидати у Мосміськдуму виходили на Трубну площу, а 20 липня на проспекті Сахарова мітинг, організований Лібертаріанською партією, зібрав понад 22 тисячі людей: такої опозиційної активності в Москві не було з часів зими 2011-2012 років. На тому ж мітингу засновник Фонду боротьби з корупцією (ФБК) Олексій Навальний заявив: якщо за найближчий тиждень не зареєструють всіх кандидатів, то в суботу, 27 липня, буде організований мітинг біля мерії Москви.Постраждали кілька журналістів: зокрема, журналістку РБК Олену Шевельову вдарив поліцейський, а оператору відомого російського урбаніста Іллі Варламова Олексію Солоухину розбили ніс. Громадян масово били кийками, на учасників акції нацьковували службових собак. Крім того, невідомі розпилили у натовпі перцевий газ, від якого постраждали і громадяни, і силовики.Нагадаємо, офіційна причина відмови у реєстрації — відсутність достатньої кількості підписів виборців на підтримку висунення кандидата. Щоб зареєструватися на вибори, кандидатам-самовисуванцям і представникам непарламентських партій потрібно зібрати близько 4,5 — 5 тисяч підписів виборців на свою підтримку (3% від округу). Незалежні кандидати зробили це, проте окружні виборчі комісії подані підписи визнають недійсними. Крім того, незалежних кандидатів не допускали до процесу перевірки підписів провладних кандидатів, які ймовірно фальсифікують.Учасники протестів незадоволені також тим, що багато кандидатів, лояльних до мерії Москви, ідуть на вибори не від партій, а як самовисуванці. Вочевидь, правляча партія «Єдина Росія» має низьку підтримку в столиці РФ. Проблем із реєстрацією у провладних кандидатів немає.Вибори в московську міську думу відбудуться 8 вересня 2019 року.</t>
   </si>
   <si>
-    <t>Moscow, number, detained, participant, protest, exceed a thousand people, the center of Moscow, security forces, arrest more than a thousand people, come, unauthorized rally, fair elections, support, independent candidate, elections, Moscow City Duma, which refuse registration, the excess, the number of allegedly invalid signatures, the latest information, oat info, Russian law enforcement officer, detain a person, mass street protest, continue, the capital of Russia July, first for a week, a citizen is an independent candidate for the Moscow State Duma leave Trubny Square July Prospekt Sakharov rally organized libertarian party gather more than a thousand people such opposition activity Moscow time winter rally founder fund fight corruption FBK Oleksiy Navalny declare next week candidate will be registered Saturday July organized rally Moscow City Hall hurt journalist in particular RBC journalist Olena Shevelyova hit known police operator Russian urban planner Ilya Varlamov Oleksiyu smash a nightingale's nose a citizen massively beat with a baton a participant of the action harassed a service dog unknown spray the crowd with pepper spray injure a citizen a security officer remind the official reason for refusal registration lack of a sufficient number of signatures voter support nomination candidate register elections candidate self-nominated representative non-parliamentary party collect signature voter support district independent candidate make a district election the commission shall recognize the submitted signature as invalid independent candidate allow process check signature pro-government candidate likely to falsify participant protest dissatisfied candidate loyal City Hall Moscow to go to elections party self-nominated obviously ruling party United Russia low support capital of the Russian Federation problem registration pro-government candidate Moscow City Duma elections to be held in September</t>
+    <t>Moscow number of detained participants protest action exceed a thousand people center Moscow security officer detain over a thousand people come unauthorized rally honest elections support independent candidate elections Moscow City Duma which refuse registration excess number allegedly invalid signature latest information ovs info Russian law enforcement officer detain person mass street protest continue capital Russia July first during the week citizen independent candidate Moscow City Duma go out Trubny Square July Sakharov Avenue rally organized libertarian party gather over a thousand people such opposition activity Moscow time winter rally founder fund fight corruption FBK Alexey Navalny declare the coming week will register candidate Saturday July organized rally Moscow City Hall suffer journalist in particular journalist RBC Elena Shevelyova hit police operator famous Russian urbanist Ilya Varlamov Alexey Soloukhina break nose citizen mass beat baton participant action incited service dog unknown spray crowd pepper gas suffer citizen security officer remind official reason refusal registration absence sufficient number signature voter support nomination candidate register elections candidate self-nominated representative non-parliamentary party collect signature voter support district independent candidate make district election commission submitted signature recognize invalid independent candidate allow process verification signature pro-government candidate likely falsify participant protest dissatisfied candidate loyal city hall moscow go elections party self-nominated apparently ruling party single russia low support capital rf problem registration pro-government candidate elections moscow city duma to be held september</t>
   </si>
   <si>
     <t>На Філіппінах щонайменше 8 людей загинули внаслідок землетрусу . На Філіппінах стався землетрус магнітудою 5,4 і 5,9 балів, внаслідок якого загинули 8 людей.Про це повідомляє ВВС.Внаслідок землетрусу, який стався у провінції Батанес рано вранці, деякі будинки були зруйновані. Багато людей в момент підземних поштовхів були в своїх будинках.Внаслідок землетрусів загинуло щонайменше 8 людей, ще 60 були поранені.Водночас, не було попереджень про цунамі.Нагадаємо, 20 липня у Греції неподалік Афін стався сильний землетрус.</t>
@@ -1990,13 +1993,13 @@
     <t>Британія та США почнуть перемовини про ЗВТ одразу після Brexit. Прем’єр—міністр Великої Британії Борис Джонсон і президент Сполучених Штатів Америки Дональд Трамп домовилися почати переговори щодо Зони вільної торгівлі відразу після виходу Сполученого Королівства із Європейського Союзу.Про це повідомляє The Independent, посилаючись на офіс британського прем’єра.«Лідери держав висловили прихильність амбітній угоді про вільну торгівлю і початку переговорів якнайшвидше після виходу Британії з ЄС», — йдеться в повідомленні.Своєю чергою, Трамп наголосив, що вони працюють над важливою торговою угодою.Також сторони обговорили напруженість у відносинах з Іраном.23 липняДжонсон виграв внутрішньопартійні вибори у глава МЗС Джеремі Ганта і став 77-м прем'єром Сполученого Королівства.На наступний день, 24 липня, Королева Єлизавета II традиційно призначила лідера Консервативної партії Великої Британії Бориса Джонсона главою британського уряду.25 липня Джонсон оголосив список нових міністрів в уряді.Джонсон пообіцяв укласти нову угоду про Brexit, яка дозволить Сполученому Королівству бути «чудовими партнерами» з країнами Євросоюзу, на основі вільної торгівлі та двосторонньої підтримки.Британія визначилась із новим лідером Консервативної партії та водночас прем’єр-міністром. Ім’я наступника Терези Мей, яка сьогодні залишає посаду, Бориса Джонсона, офіційно оголосили по обіді 23 липня. І таке рішення нікого не здивувало. Джонсон обійшов свого основного конкурента, чинного міністра закордонних справ Джеремі Ганта. Йому пророкували перемогу від початку прем’єрських перегонів, на підтримку кандидатури Джонсона виступав навіть американський президент Дональд Трамп. Хто такий Борис Джонсон і чого чекати від нього Великій Британії? Читайте у матеріалі Громадського.</t>
   </si>
   <si>
-    <t>britain usa start tft negotiations immediately brexit minister great britain boris johnson president united states of america donald trump agree to start negotiations free trade area immediately exit united kingdom european union report the independent referring office british state express commitment ambitious agreement free trade negotiations as soon as possible exit britain is going to message its turn trump emphasize work important trade deal side discuss tensions relations july johnson win intra-party elections foreign secretary jeremy gant united kingdom next july queen elizabeth ii traditionally appoint leader conservative party great britain boris johnson head british july johnson announce list new minister government johnson promise to conclude new brexit deal allow united kingdom excellent partner country european union basis free trade bilateral support britain decide new leader conservative party at the same time minister successor theresa may leave office boris johnson officially announce lunch july decision nobody surprise johnson bypass main competitor incumbent foreign minister jeremy gant predicted victory race support candidacy johnson speak american president donald trump boris johnson wait great britain read material public</t>
+    <t>britain usa start tft negotiations immediately brexit minister great britain boris johnson president united states of america donald trump agree to start negotiations free trade area immediately exit united kingdom european union report the independent referring office british state express commitment ambitious agreement free trade negotiations as soon as possible exit britain is going to message its turn trump emphasize work important trade deal side discuss tensions relations july johnson win intra-party elections foreign secretary jeremy gant united kingdom next july queen elizabeth ii traditionally appoint leader conservative party great britain boris johnson head british july johnson announce list new minister government johnson promise to conclude new brexit deal allow united kingdom great partner country european union basis free trade bilateral support britain decide new leader conservative party at the same time minister successor theresa may leave position boris johnson officially announce lunch july decision nobody surprise johnson bypass main competitor incumbent foreign minister jeremy gant predicted victory race support candidacy johnson speak american president donald trump boris johnson wait great britain read material public</t>
   </si>
   <si>
     <t>«Росія буде вільною»: під час протестів у Москві затримали сотні людей. Пояснюємо, що відбувається. Масові акції протесту у Москві почалися після того, як виборчком не зареєстрував на виборах до міської думи незалежних кандидатів. У суботу, 27 липня, відбувся черговий неузгоджений мітинг. Людей почали затримувати ще за годину до його початку. Раніше силовики провели обшуки у незалежних кандидатів. Станом на 7 вечора правозахисники повідомляли про понад 700 затриманих.Що сталося?Акція 27 липня розпочалася біля московської мерії на вулиці Тверській.Протягом декількох днів до цього на вулиці виходили люди, а тиждень тому на проспекті Сахарова відбувся один із наймасштабніших мітингів останніх років з гаслом «допускається!» На акцію вийшли близько 22 тисяч людей.Учасники вимагали допустити на вибори в міську думу Москви незалежних кандидатів, яких відмовився реєструвати виборчком. Серед них — опозиційні політики Ілля Яшин, Дмитро Гудков і Любов Соболь.Через що почалися протести?8 вересня 2019 року повинні відбутися вибори до Московської міської Думи. Щоб зареєструватися на вибори, кандидатам-самовисуванцям і представникам непарламентських партій потрібно зібрати близько 4,5 — 5 тисяч підписів виборців на свою підтримку (3% від округу).Перед реєстрацією виборчкоми повинні перевірити достовірність підписів. Та ще до завершення перевірки опозиційні кандидати почали заявляти про порушення — нібито подані ними реальні підписи визнають недійсними або вони просто пропадають.Учасники протестів незадоволені також тим, що багато кандидатів, лояльних до мерії Москви, йдуть на вибори не від партій, а як самовисуванці. Наприклад, члени «Єдиної Росії» — керівник московського відділення Андрій Метельський і чинний голова міськдуми Олексій Шапошников. Останній у 2014 році обирався за підтримки партії влади, але цього разу свою партійну приналежність вирішив приховати.Метельський, який займає крісло в міськдумі вже 18 років, а також є головою московського осередку «Єдиної Росії», цього разу також вирішив висуватися без підтримки партії.На відміну від опозиційних політиків, у провладних кандидатів проблем із реєстрацією на вибори не було.Кого затримали?Ще до суботньої акції, 24 липня, опозиційного політика Олексія Навального заарештували на 30 діб за заклики до проведення мітингу біля мерії Москви. Під арешт відправили також координатора його московського штабу Олега Степанова і ще кількох активістів.Проти незалежних кандидатів у Московську міськдуму порушили справу за 141 статтею Кримінального кодексу РФ — про «перешкоджання роботі виборчих комісій».Обшуки відбулися у Дмитра Гудкова та Івана Жданова, у них вилучили техніку і допитали у Слідчому комітеті в межах порушеної кримінальної справи.Іншим незалежним кандидатам виписали повістки на допит.Любов Соболь, яка вже два тижні голодує на знак протесту, вирішила залишитися ночувати в будівлі виборчкому. Та вночі охорона винесла її звідти разом з диваном, на якому вона сиділа. Після цього її затримали.«Наша охорона винесла НЕ Соболь, вона винесла диван, щоб паразитів витрусити, клопів та інших. Її не чіпали пальцем. Вона сиділа на дивані, а диван винесли», — заявив член комісії Дмитро Реут.Опозиціонера Іллю Яшина затримали після нічних обшуків, які відбулися у нього вдома та в його передвиборчому штабі. Також з обшуками силовики прийшли до міських депутатів Юлії Галяміної, Вадима Коровіна, до прес-секретаря Фонду боротьби з корупцією Кіри Ярмиш та співробітнику фонду Руслану Шаведдінову.Як відбувся мітинг на Тверській?Згідно з даними Головного управління МВС Москви, в неузгоджену мітингу брали участь приблизно 3,5 тисячі осіб, з них — близько 700 журналістів і блогерів, які «раніше проінформували про свою участь та висвітлення акції».Під час мітингу поліція поводилася з учасниками дуже жорстко — застосовували палиці, електрошокери, сльозогінний газ. Люди скандували: «Ми без зброї!» і «Де ваша совість?», але правоохоронці на це практично не реагували.«Люди падають, спотикаються об клумби. Чоловік був із закривавленим обличчям», — розповів кореспондент« Нової газети», який працював на місці подій.Одній із учасниць акції, муніципальній депутатці Олександрі Парушиній, силовики розбили голову, вона ненадовго зомліла. Першу допомогу їй надали самі учасники протесту. Вона розповіла телеканалу «Дождь» про те, як співробітники ОМОНу влаштували тисняву і вдарили її кийком по голові. Коли вона прийшла до тями, то побачила, що її руки закривавлені. Вона почала витирати кров об співробітників поліції. За словами Парушиної, тієї миті вона погано розуміла, що відбувається.«Нехай знають, що наша кров на них», — заявила вона «Дощу».Більшість магазинів і ресторанів на Тверській площі зачинилися на вимогу поліції, в центрі Москви глушили мобільний інтернет.На акцію до мерії приїхала Любов Соболь, незареєстрована кандидатка в Московську міську думу, юристка Фонду боротьби з корупцією. Її відразу затримали правоохоронці. Пізніше Хамовнічеський суд Москви оштрафував Соболь на 30 тисяч рублів ($474), повідомив кореспондент «МБХ медіа».Перший затриманий Костянтин Коновалов, який ще до початку мітингу біг повз мерію Москви, розповів, що під час затримання силовики повалили його обличчям на асфальт і пошкодили ногу. Пізніше Коновалова привезли в лікарню і діагностували перелом ноги. Силовики також затримували і журналістів, зокрема, в автозак посадили кореспондента «Нової газети» Іллю Азара.Неузгоджена акція протесту стала також причиною візиту силовиків до редакції телеканалу «Дождь». Головному редактору Олександрі Перепеловій вручили повістку про виклик на допит 27 липня о 19:00 за київським часом в якості свідка у кримінальній справі щодо перешкоджання роботі Москоського міськвиборчкому.До студії «Навальний LIVE» поліція увірвалася під час прямого ефіру на YouTube-каналі і почала проводити обшуки.Усіх затриманих співробітники поліції відправляли до відділків, де на них складали протоколи, як правило, покаранням був штраф від 10 до 20 неоподатковуваних мінімумів доходів громадян ($158 - 316) або до 40 годин обов'язкових робіт.На деяких учасників мітингу протоколи все ж не складали. За інформацією «Нової газети», в одному з відділків 15 осіб відпустили без протоколу, на шістьох — склали.Акція в Москві оголошена безстроковою.Читайте також</t>
   </si>
   <si>
-    <t>russia free protest moscow detain hundred people explain happen mass action protest moscow start election commission register elections city duma independent candidate saturday july happen another uncoordinated rally person start detain hour security officer conduct a search independent candidate condition evening human rights activist report over detained july start moscow city hall street tversky within several days street go out people week sakharov avenue happen the largest rally last slogan be allowed action go out person participant demand allow elections city duma moscow independent candidate refuse to register election commission among opposition politician ilya yashin dmitry gudkov love sable start september should happen elections moscow city duma register elections candidate self-nominated representative non-parliamentary party collect signature voter support registration election commission must check authenticity signature completion check opposition candidate start declare violation allegedly filed real signature recognize invalid disappear participant protest dissatisfied candidate loyal city hall moscow go elections party self-nominated for example member United Russia head Moscow branch Andriy Metelsky incumbent city council chairman Alexei Shaposhnikov last to be elected support party power party affiliation decide hide Metelsky occupy a seat in the city council chairman Moscow branch United Russia decide to be nominated support party cancellation opposition politician pro-government candidate problem registration elections Saturday action July opposition politician Alexei Navalny arrest day call for holding a rally city hall moscow arrest send coordinator Moscow headquarters oleg stepanov several activist independent candidate Moscow city council initiate case article criminal code of the rf obstruction of work election search take place dmitry gudkov ivan zhanov seize equipment interrogate investigative committee boundary violated criminal case other independent candidate write out summons interrogation love sable week hunger strike protest decide to stay overnight building election commission at night security take out sofa together sit detain security take out sable take out sofa parasite shake out bug touch finger sit sofa sofa take out declare member commission Dmitry Reut oppositionist Ilya Yashin detain night search take place at home election headquarters search security officer come city deputy Yulia Galyamina Vadim Korovin press secretary fund fight corruption Kira Yarmysh employee fund Ruslan Ireiddinov take place rally data main department of the Ministry of Internal Affairs Moscow uncoordinated rally participate approximately a thousand person journalist blogger informed participation coverage rally police behaved participant harshly use baton stun gun tear gas people chant weapon conscience law enforcement officer practically react fall stumble on flowerbed man bloody face tell correspondent</t>
+    <t>russia free protest moscow detain hundred people explain happen mass action protest moscow start election commission register elections city duma independent candidate saturday july happen another uncoordinated rally person start detain hour security officer conduct a search independent candidate condition evening human rights activist report over detained july start moscow city hall street tversky within several days street go out people week sakharov avenue happen the largest rally last slogan be allowed action go out person participant demand allow elections city duma moscow independent candidate refuse to register election commission among opposition politician ilya yashin dmitry gudkov love sable start september should happen elections moscow city duma register elections candidate self-nominated representative non-parliamentary party collect signature voter support registration election commission must check authenticity signature completion check opposition candidate start declare violation allegedly filed real signature recognize invalid disappear participant protest dissatisfied candidate loyal city hall moscow go elections party self-nominated for example member United Russia head Moscow branch Andriy Metelsky incumbent city council chairman Alexei Shaposhnikov last to be elected support party power party affiliation decide hide Metelsky occupy a seat in the city council chairman Moscow branch United Russia decide to be nominated support party cancellation opposition politician pro-government candidate problem registration elections Saturday action July opposition politician Alexei Navalny arrest day call for holding a rally city hall moscow arrest send coordinator Moscow headquarters oleg stepanov several activist independent candidate Moscow city council initiate case article criminal code of the rf obstruction of work election search take place dmitry gudkov ivan zhanov seize equipment interrogate investigative committee boundary violated criminal case other independent candidate write out summons interrogation love sable week hunger strike protest decide to stay overnight building election commission at night security take out from there together sofa which sit detain security take out sable take out sofa parasite shake out bug touch finger sit sofa sofa take out declare member commission Dmitry Reut oppositionist Ilya Yashin detain night search take place at home election headquarters search security officer come city deputy Yulia Galyamina Vadim Korovin press secretary fund fight corruption Kira Yarmysh employee fund Ruslan Ireiddinov take place rally data main department of the Ministry of Internal Affairs Moscow uncoordinated rally participate approximately a thousand person journalist blogger informed participation coverage rally police behaved participant harshly use baton stun gun tear gas people chant weapon conscience law enforcement officer practically react fall stumble on flowerbed man bloody face tell correspondent</t>
   </si>
   <si>
     <t>На Львівщині пасажирський поїзд зіткнувся з автомобілем, водій загинув. На нерегульованому залізничному переїзді у селі Хлопчиці на Львівщині сталося зіткнення пасажирського поїзда Сянки — Львів з автомобілем Opel Vectra, внаслідок чого загинув водій легковика.Про це повідомили у відділі комунікації поліції Львівської області.Згідно з інформацією водій Opel, 22-річний житель району, загинув на місці події, а його пасажирку доставили до лікарні.Нагадаємо, у Харківській області 20 липня внаслідок ДТП постраждало шестеро людей, зокрема двоє поліцейських у важкому стані.</t>
@@ -2008,7 +2011,7 @@
     <t>У Мукачеві на окрузі, де раніше переміг Балога, скасували перерахунок голосів — ОПОРА. На Закарпатті в Мукачеві скасували повторний підрахунок голосів на всіх 133 дільницях 69 округу.Про це повідомляє громадянська мережа ОПОРА.Згідно з повідомленням, перерахунок скасувала Центральна виборча комісія.«У суботу перерахували голоси лише 4 ДВК, виявлені певні розбіжності. Більше інфо — згодом», — йдеться в повідомленні.Нагадаємо, на Закарпатті окружна виборча комісія №69 27 липня проводила повторний підрахунок голосів на усіх 133 дільницях округу, де раніше народний депутат Віктор Балога переміг кандидата від «Слуги народу» Едгара Токара.У заяві до ОВК кандидат Віктор Балога наголосив на порушеннях на 14 конкретних ДВК та просив про проведення повторного перерахунку голосів на них, а також і на усіх інших ДВК округу.Довірена особа іншого кандидата — Едгара Токаря — Святослав Туз заявив, що їхня команда фіксувала понад 30 порушень у день голосування, складала по них акти та написала скарги. За його словами, наразі триває кримінальне провадження за невідповідне поводження із виборчою документацією, його розслідують в ГУНП у Закарпатській області.читайте також</t>
   </si>
   <si>
-    <t>Mukachevo district defeat Balog cancel recount vote support Zakarpattia Mukachevo canceled recount vote precinct district report citizen network message recount cancel Central Election Commission Saturday recount vote dvk revealed certain discrepancy info later go message remind Transcarpathia district election commission July conduct recount vote precinct district people's deputy Victor Baloga to win the candidate, the servant of the people, Edgar tokara statement ovk candidate Viktor Baloga emphasize violation specific DVK ask for a recount vote DVK district proxy another candidate Edgar Tokar Svyatoslav Ace declare their team record more than voting violation draw up an act write a complaint word for now continue criminal proceedings inappropriate behavior election documentation investigate Zakarpattia Gunp</t>
+    <t>Mukacheve district defeat Balog cancel recount vote support Transcarpathia Mukacheve canceled recount vote precinct district notify civil network message recount cancel Central Election Commission Saturday recount vote PEC detected certain discrepancy info later go message remind Transcarpathia District Election Commission July conduct recount vote precinct district People's Deputy Viktor Baloga defeat candidate servant people Edgar Tokar statement electoral commission candidate Viktor Baloga emphasize violation specific PEC request conducting recount vote PEC district trustee person other candidate Edgar Tokar Svyatoslav Tuz declare their team record over voting violation draw up act write complaint word currently ongoing criminal proceedings inappropriate behavior election documentation investigate Transcarpathian district</t>
   </si>
   <si>
     <t>У Саудівській Аравії з'явиться найдовша у світі тестова траса Hyperloop. Американська компанія Virgin Hyperloop One уклала з урядом Саудівської Аравії угоду, що передбачає будівництво тестової ділянки транспортної системи Hyperloop.Як повідомляє BBC News, довжина ділянки складе 35 кілометрів — найдовша ділянка Hyperloop у світі.Угода Virgin Hyperloop One з урядом Саудівської Аравії, крім тестової ділянки Hyperloop, також передбачає створення науково-виробничого підприємства. Воно буде вести розробки в області трубної транспортної системи і проводити випробування. Весь комплекс буде зведений на північ від Джидди (місто на заході Саудівської Аравії).Компанія Virgin Hyperloop Technologies вже має в своєму розпорядженні одну тестову ділянку Hyperloop. Вона знаходиться недалеко від Лас-Вегаса в пустелі Мохаве. Довжина становить близько 500 метрів. Тестові траси Hyperloop сьогодні мають у своєму розпорядженні також компанії SpaceX і HyperloopTT.Концепцію транспортної системи Hyperloop у 2013 році запропонував американський підприємець Ілон Маск. Вона передбачає створення системи, в якій пасажирські капсули переміщаються по трубах зі зниженим тиском на швидкості, близькій до швидкості звуку. Передбачається, що розвиток Hyperloop дозволить істотно прискорити переміщення людей і зменшити затори на дорогах.читайте такожНагадаємо, у вересні 2018 року Міністр інфраструктури України Володимир Омелян Омелян заявив, що тестова ділянка швидкісних вакуумних потягів Hyperloop з’явиться в Україні у 2019 році, а реальна експлуатаційна ділянка — через 5 років.15 червня 2019 року Омелян підписав договір про співробітництво з Hyperloop Transportation, яка займається розробкою та будівництвом швидкісного сполучення Hyperloop.</t>
@@ -2020,7 +2023,7 @@
     <t>Данія може зірвати запуск газопроводу «Північний потік-2» — Financial Times. Відсутність дозволу Данії на прокладення у її територіальних водах газопроводу «Північний потік—2» ставить під загрозу його вчасний запуск.Про це повідомляє Financial Times з посиланням на декілька джерел з компанії Nord Stream AG, яка є оператором проєкту.Датське енергетичне агентство вже місяці розглядає декілька заявок на різні маршрути газопроводу, але поки жоден із них не погоджений. Один зі співрозмовників видання наголошує, що таке рішення Данія має ухвалити не пізніше серпня, бо в іншому разі запуск «Північного потоку-2» не відбудеться до кінця 2019 року, як це заплановано.«Це викликає занепокоєність, або навіть паніку», — сказав інший співрозмовник, близький до «Північного потоку-2».Раніше агентство Reuters, посилаючись на свої джерела, повідомило, що Росія хоче укласти новий контракт про транзит свого газу до Європи через Україну терміном на 1 рік — поки буде завершуватися будівництво російських обхідних газопроводів «Північний потік-2» та «Турецький потік».Нагадаємо, українська сторона на майбутніх переговорах запропонує Росії транспортувати по 60 млрд кубометрів газу щороку упродовж 10 років. У разі неукладання договору про транзит, Нафтогаз запропонує Росії постачати газ до ЄС на умовах своп.Зазначимо, що наразі російський газ до Європи постачається через газотранспортну систему України в межах контракту, який завершується 31 грудня 2019 року. Нового контракту на транзит Україна та Росія досі не уклали. Послуги транзиту російського газу до ЄС щороку приносять Україні по 3 мільярди доларів.Росія прагне відмовитися від послуг українського транзиту. Для цього там будують газопроводи в обхід України: «Північний потік-2» та «Турецький потік». Введення їх в експлуатацію дасть змогу російському Газпрому постачати ті ж обсяги газу до Європи, що й зараз, не використовуючи українські газопроводи.Водночас наразі Газпром зіткнувся з труднощами щодо побудови «Північного потоку-2», тому майбутнє транзиту газу до ЄС невизначене. Для того, щоб укласти нову угоду про транзит проводяться тристоронні переговори, у яких беруть участь представники України, Росії та Єврокомісії.</t>
   </si>
   <si>
-    <t>Denmark disrupts launch of northern gas pipeline financial times lack of permission Denmark laying territorial water northern gas pipeline pose threat timely launch report financial times link source company nord stream ag operator project danish energy agency month consider application different route gas pipeline none agreed interlocutor publication emphasize decision denmark adopt august another time launch northern take place end plan cause concern panic interlocutor close northern agency reuters citing source report russia wants to conclude new contract transit gas europe ukraine deadline to complete construction russian bypass gas pipeline northern turkish remind ukrainian side future negotiations will offer russia to transport billion cubic meters of gas annually for times non-conclusion of transit contract oil and gas will offer russia to supply gas eu condition swap note currently russian gas europe is supplied gas transportation system ukraine border contract to be completed december new contract transit ukraine russia still conclude service transit of Russian gas to the EU annually bring Ukraine a billion dollars Russia seeks to abandon the service of Ukrainian transit to build a gas pipeline bypassing Ukraine northern Turkish stream introduction operation allow Russian Gazprom to supply volume of gas to Europe using the Ukrainian gas pipeline at the same time currently Gazprom faces difficulties construction northern future transit gas to the EU uncertain conclude a new agreement transit to be held tripartite negotiations participate representative Ukraine Russia European Commission</t>
+    <t>Denmark disrupts launch of northern gas pipeline financial times lack of permission Denmark laying territorial water northern gas pipeline pose threat timely launch report financial times link source company nord stream ag operator project danish energy agency month consider application different route gas pipeline none agreed interlocutor publication emphasize decision denmark adopt august another time launch northern take place end plan cause concern panic interlocutor close northern agency reuters citing source report russia wants to conclude new contract transit gas europe ukraine deadline to complete construction russian bypass gas pipeline northern turkish remind ukrainian side future negotiations will offer russia to transport billion cubic meters of gas annually for times non-conclusion of transit contract oil and gas will offer russia to supply gas eu condition swap note currently russian gas europe is supplied gas transportation system ukraine border contract to be completed december new contract transit ukraine russia still conclude service transit Russian gas EU annually bring Ukraine billion dollars Russia strive to refuse service Ukrainian transit build gas pipeline bypass Ukraine Northern Turkish Stream introduction operation allow Russian Gazprom to supply volume of gas Europe using Ukrainian gas pipeline at the same time currently Gazprom face difficulties construction Northern future transit gas EU uncertain conclude new agreement transit held tripartite negotiations participate representative Ukraine Russia European Commission</t>
   </si>
   <si>
     <t>Київське «Динамо» обіграло «Шахтар» та виграло Суперкубок України. Футболісти київського «Динамо» здобули вольову перемогу над донецьким «Шахтарем» і виграли Суперкубок України—2019.Матч проходив в Одесі на стадіоні «Чорноморець».На 45-й хвилині «гірники» вийшли вперед завдяки голу бразильця Алана Патріка. Проте киянам вдалося переломити хід поєдинку.Ключовим став період з 80 по 83 хвилину, коли голи у ворота «Шахтаря» забили Микита Бурда та Денис Гармаш.У підсумку 2:1 на користь «Динамо». Підопічні Олександра Хацкевича здобули перший трофей у новому сезоні.Після цієї перемоги «Динамо» наздогнало «Шахтар» за кількістю виграних Суперкубків, у обох клубів по 8 перемог.Новий головний тренер «Шахтаря» португалець Луїш Каштру програв свій перший матч на цій посаді. Він замінив свого співвітчизника Пауло Фонсеку, який влітку очолив італійську «Рому».Нагадаємо, перед матчем поліція затримала 12 фанатів, які хотіли влаштувати бійку.</t>
@@ -2032,7 +2035,7 @@
     <t>Майбутні депутати від «Слуги народу» прибули на тижневе навчання до Трускавця. Майбутні народні депутати від «Слуги народу» прибули до Трускавця, де їх тиждень навчатимуть спеціалісти Київської школи економіки.Про це повідомив Богдан Яременко, який переміг на мажоритарному окрузі №215 у Києві.Почесний президент Київської школи економіки Тимофій Милованов раніше заявляв, що навчання буде «максимально інтенсивним, жорстким та насиченим».«Протягом тижня з 8:30 до 21:30 новообрані народні депутати слухатимуть лекції від професорів Київської школи економіки та визнаних на ринку праці фахівців. У комплексі з лекційними заняттями студенти опрацьовуватимуть здобуті знання в групах для того, аби закріпити їх. На день передбачено три маленькі перерви та час на обід та вечерю. Та навіть тоді учасники виконуватимуть завдання від викладачів», — розповів він.Раніше Милованов пояснив, як навчатимуть майбутніх депутатів від «Слуги народу».Нагадаємо, «Слуга народу» вирішила відправити на навчання понад 200 майбутніх народних депутатів.читайте також</t>
   </si>
   <si>
-    <t>future deputy servant of the people arrive weekly training Truskavets future people's deputy servant of the people arrive Truskavets week teach specialist Kyiv school economics inform Bogdan Yaremenko win majoritarian district cue honorary president Kyiv school economics Timofey Mylovanov declare training maximally intensive hard week newly elected people's deputy will listen to lecture professor Kyiv school economics recognized market labor specialist complex lecture class student work out acquired knowledge group to consolidate predict small break lunch dinner participant perform tasks teacher tell Mylovanov explain teach future deputy servant remind servant of the people decide send training beyond future people's</t>
+    <t>future deputy servant of the people arrive weekly training Truskavets future people's deputy servant of the people arrive Truskavets week teach specialist Kyiv school economics inform Bogdan Yaremenko win majoritarian district Kyy honorary president Kyiv school economics Timofey Mylovanov declare training maximally intensive hard week newly elected people's deputy will listen to lecture professor Kyiv school economics recognized market labor specialist complex lecture class student work out acquired knowledge group to consolidate predict small break lunch dinner participant perform tasks teacher tell Mylovanov explain teach future deputy servant remind servant of the people decide send training beyond future people's</t>
   </si>
   <si>
     <t>Україна засудила розгін демонстрацій у Москві: «Росія знущається над ПАРЄ». Міністерство закордонних справ України засудило затримання та побиття демонстрантів у Москві 27 липня, які вимагали допустити на вибори у Московську міську думу незалежних кандидатів.Про це йдеться в коментарі МЗС.«Варварське побиття власних громадян, численні арешти та затримання, застосування штучних та дискримінаційних передвиборчих фільтрів, покликаних забезпечити участь у виборах виключно «зручних кандидатів», доводить неспроможність російської влади забезпечити демократичне волевиявлення, демонструє її страх перед реальною політичною конкуренцією», — наголосили у відомстві.Також у МЗС вважають, що такі дії Росії є «знущанням» над тими європейськими країнами і політиками, які дозволили Росії повернутися до парламентської асамблеї Ради Європи.«Для нас очевидним є те, що Росія не належить до демократичної спільноти, а є державою-парією. Саме тому рішуче засуджуємо масові репресії, до яких вдався Кремль останніми днями», — йдеться у заяві.Раніше в ЄС назвали дії російської влади з розгону мітингарів порушенням свободи слова.читайте також27 липня у Москві відбувся несанкціонований мітинг з вимогою допустити незалежних кандидатів до виборів у Московську міську думу. Силовики затримали майже 1 400 людей.Офіційна причина відмови у реєстрації незалежних кандидатів у Московську міську думу — відсутність достатньої кількості підписів виборців на підтримку висунення кандидата. Щоб зареєструватися на вибори, кандидатам-самовисуванцям і представникам непарламентських партій потрібно зібрати близько 4,5 — 5 тисяч підписів виборців на свою підтримку (3% від округу). Незалежні кандидати зробили це, проте окружні виборчі комісії подані підписи визнають недійсними. Крім того, незалежних кандидатів не допускали до процесу перевірки підписів провладних кандидатів, які ймовірно фальсифікують.Зазначимо, що правляча партія «Єдина Росія» на цих виборах офіційно не виставила жодного кандидата, вочевидь через низьку підтримку у Москві. Її представники беруть участь у виборах як самовисуванці, тому теж повинні збирати підписи. Проблем з реєстрацією у цих кандидатів немає.Вибори в московську міську думу відбудуться 8 вересня 2019 року.</t>
@@ -2074,13 +2077,13 @@
     <t>У Донецьку мітингували за незалежність «ДНР», акцію розігнали повідомленням про мінування. В окупованому Донецьку декілька десятків людей влаштували акцію за незалежність так званої «ДНР» від України та проти місцевого флешмобу, учасники якого вимагають від президента Володимира Зеленського особливого статусу Донбасу.Про це повідомляють «Новости Донбасса».Учасники акції зібрались 27 липня на площі Леніна в центрі Донецька, вони принесли із собою прапори Росії та так званої «Новоросії». Люди виступили проти флешмобу #ЗеленскийПризнайВыборДонбасса, який на окупованих територіях запустили після виборів президента України.Його учасники вимагають від Зеленського особливого статусу для Донбасу, тоді як мітингарі виступали за «незалежність» «ДНР».Декілька представників «МВС «ДНР» перевіряли телефони учасників акції, а силовики в цивільному намагалися змусити їх розійтися. У підсумку людей розігнали під приводом отриманого повідомлення про замінування, яке у підсумку не підтвердилося.Нагадаємо, від початку доби 21 липня уздовж всієї лінії розмежування почався режим перемир’я. Відтоді бойовики декілька разів відкривали вогонь.читайте також</t>
   </si>
   <si>
-    <t>Donetsk rally independence DPR action disperse message mining occupied Donetsk dozen people arrange action independence called DPR Ukraine local flash mob participant demand president Volodymyr Zelensky special status Donbas report news participant action gather July Lenin Square Center Donetsk bring flag Russia called Novorossiya people speak flash mob Zelensky recognize Donbass occupied territory launch elections President Ukraine participant demand Zelensky special status Donbas rally speaker independence representative of the Ministry of Internal Affairs of DPR check phone participant action security officer civil try to force disperse result person disperse reason received message mining what result confirm remind day July along all demarcation line begin regime since then militant once open</t>
+    <t>Donetsk rally independence DPR action disperse message mining occupied Donetsk dozen people arrange action independence called DPR Ukraine local flash mob participant demand president Volodymyr Zelensky special status Donbas report news participant action gather July Lenin Square Center Donetsk bring flag Russia called Novorossiya people speak flash mob Zelensky recognize Donbass occupied territory launch elections President Ukraine participant demand Zelensky special status Donbas rally speaker independence representative of the Ministry of Internal Affairs of DPR check phone participant action security officer civil try to force disperse result person disperse reason received message mining what result confirmed remind day July along all demarcation line begin regime since then militant once open</t>
   </si>
   <si>
     <t>Затримання КОРДом патрульних: глава поліції Дніпропетровщини відреагував на вимогу Зеленського звільнити його. Очільник поліції Дніпропетровської області Віталій Глуховеря відреагував на вимогу президента Володимира Зеленського звільнити його через інцидент із затриманням підрозділом КОРД патрульних поліцейських.На своєму Facebook Глуховеря написав, що готовий надати «будь-яку інформацію для проведення об’єктивного розслідування».Він запевнив, що коли цей інцидент стався, він був готовий притягнути до відповідальності винних.«Однак мене запевнили про вирішення конфлікту», — заявив Глуховеря, не уточнивши, хто саме його запевнив.Нагадаємо, у вересні 2018 року в Дніпрі підрозділ спеціального призначення КОРД затримав патрульних поліцейських, які зупинили люксовий позашляховик Range Rover начальника поліції Дніпропетровської області Віталія Глуховері за порушення правил дорожнього руху. Спецпризначенці відвезли патрульних до кабінету Глуховері, де генерал провів із ними розмову.Коли цей інцидент набув широкого розголосу, президент Зеленський звернувся до міністра внутрішніх справ Арсена Авакова із вимогою звільнити Глуховерю.26 липня 2019 року слідчі центрального апарату Державного бюро розслідувань зареєстрували кримінальне провадження за фактом можливого перевищення влади та службових повноважень.</t>
   </si>
   <si>
-    <t>detention cordon patrol chief police dnipropetrovsk region respond requirement Zelensky dismiss chief police dnipropetrovsk region Vitaly Glukhoverya respond requirement President Volodymyr Zelensky dismiss incident detention cord unit patrol police officer your facebook Glukhoverya write ready to provide which information conduct assure incident happen ready to hold accountable guilty assure resolution conflict declare Glukhoverya clarifying assure remind September Dnipro special purpose cord unit detain patrol police officer stop luxury SUV range rover chief police dnipropetrovsk region Vitaly Glukhoverya violation rule traffic special agent take patrol office Glukhoverya general hold conversation incident gain wide publicity President Zelensky appeal Minister of Internal Affairs Arsen Avakov requirement dismiss July investigator central apparatus state bureau investigation register criminal proceedings fact possible excess of power official authority</t>
+    <t>detention cordon patrol chief police dnipropetrovsk region respond requirement Zelensky dismiss chief police dnipropetrovsk region Vitaly Glukhoverya respond requirement President Volodymyr Zelensky dismiss incident detention cord unit patrol police officer his facebook Glukhoverya write ready to provide which information conduct assure incident happen ready to hold accountable guilty assure resolution conflict declare Glukhoverya clarifying assure remind September Dnipro special purpose cord unit detain patrol police officer stop luxury SUV range rover chief police dnipropetrovsk region Vitaly Glukhoverya violation rule traffic special agent take patrol office Glukhoverya general hold conversation incident gain wide publicity President Zelensky appeal Minister of Internal Affairs Arsen Avakov requirement dismiss July investigator central apparatus state bureau investigation register criminal proceedings fact possible excess of power official authority</t>
   </si>
   <si>
     <t>Вбивство «Сармата»: справу щодо ймовірних виконавців та організаторів передали до суду. Обвинувальний акт щодо ймовірних виконавців та організаторів вбивства ветерана АТО Віталія Олешка на позивний «Сармат» скерували до суду. Відтепер справу слухатимуть у Бердянському міськрайонному суді — територіально за місцем скоєння злочину.Цю інформацію Громадському підтвердив очільник кримінальної поліції України В’ячеслав Аброськін.У понеділок, 29 серпня, відбудеться перше засідання в Бердянському районному суді, на ньому зокрема вирішуватимуть питання щодо продовження термінів тримання під вартою фігурантів злочину.Серед підозрюваних в організації та вчиненні вбивства семеро осіб: Михайло Сігіда, Євген Бродський, Віктор Власюк — ймовірні організатори злочину; Артем Матюшин, Володимир Обухов, Микола Ломака, Максим Владимиринков — ймовірні виконавціНавесні 2019 року справу вбивства Віталія Олешка «Сармата» об'єднали ще з однією — розбійний напад на родину Поплавських у Дніпрі, який стався 4 липня 2018 року. У ній підозрюваними проходять четверо осіб з так званої групи Віктора Власюка — ймовірного організатора вбивства «Сармата»: Тарас Мовчан, Денис Зеленкін, Руслан Кузнєцов, Сергій Смірнов. Слідство вважає, що ці дві справи пов'язані між собою.Підозрюваних виконавців вбивства «Сармата» затримали 31 липня минулого року у день скоєння злочину (Артем Матюшин, Микола Ломака, Олександр Обухов, Максим Владимеренков). Наприкінці серпня Артем Матюшин два викривальні свідчення на ймовірного організатора вбивства Михайла Сігіду.У вересні поліція затримала підозрюваного в організації вбивства Віталія Олешка Михайла Сігіду. 16 грудня 2018 року поліція затримала ймовірного організатора вбивства «Сармата». Ним виявився 34-річний бізнесмен з Дніпра Євген Бродський. 8 лютого у Львові поліція затримала ще одного фігуранта справи «Сармата» Віктора Власюка, який, за даними слідства, є лідером злочинного угруповання з Дніпра, колишній «торнадівець». Наразі він вже відбуває покарання за стрілянину у травні 2013-го, наприкінці березня йому оголосили підозру у справі «Сармата».Замовника вбивства досі не встановили, досудове слідство триває. Нещодавно поліція викликала на допит двох народних депутатів: Олександра Пономарьова та Сергія Валентирова. Останній мав тісні відносини з обвинуваченим Михайлом Сігідою. Саме депутатів рідні та побратими «Сармата» вважають замовниками вбивства.читайте також</t>
@@ -2116,7 +2119,7 @@
     <t>На Київщині п'яний чоловік влаштував перегони з поліцією на саморобному тракторі. У Переяслав—Хмельницькому районі Київської області п'яний чоловік на саморобному тракторі влаштував перегони із патрульними.Як повідомляє прес-служба патрульної поліції Київської області на своїй сторінці в Facebook, під час патрулювання села Соснова на вулиці Перемоги правоохоронці побачили водія трактора, який порушував правила дорожнього руху. Інспектори подали знак про зупинку, однак він проігнорував та продовжував рух.Патрульні почали наздоганяти правопорушника та продовжували вимагати зупинки за допомогою світлозвукової сигналізації та гучномовця. Проігнорувавши вимогу зупинитися, він доїхав до свого будинку, де почав лаятися, чинив опір і намагався втекти, через що інспектори застосували кайданки.«Відносно водія патрульні склали ряд адміністративних матеріалів, зокрема: за ст. 126 (керування без відповідних документів) КУпАП, ст. 130 (керування у стані сп’яніння) КУпАП, ст. 122-2 (невиконання вимоги про зупинку) КУпАП та ст. 185 (злісна непокора вимозі поліцейського) КУпАП. Тепер на чоловіка чекає суд. На порушника складено 4 адмінматеріала і його вже чекає суд», — повідомили правоохоронці.На транспортний засіб громадянин ніяких документів не надав. Пояснити, звідки саморобний трактор він також не зміг.Правопорушника охоронці доставили до Переяслав-Хмельницького відділу поліції для подальшого встановлення всіх обставин.Нагадаємо, 20 липня в Києві патрульні затримали нетверезого водія. Чоловік одразу ж зізнався, що вживав алкоголь і готовий нести покарання. Під час оформлення адміністративних матеріалів, він читав реп, каявся та навіть записав відеозвернення до інших водіїв із закликом не сідати за кермо напідпитку.</t>
   </si>
   <si>
-    <t>Kyiv region man arrange a chase police homemade tractor Pereyaslav Khmelnytskyi district Kyiv region man homemade tractor arrange a chase patrol report press service patrol police Kyiv region facebook page patrolling village Sosnova street Victory law enforcement officer see driver tractor violate traffic rules inspector submit a stop sign ignored continue movement patrol start catching up offender continue to demand stop help light and sound alarm loudspeaker ignoring requirement to stop reach house start swearing resist trying to escape inspector apply handcuffs patrol driver draw up a row administrative material in particular management relevant document kupap management condition kupap non-fulfillment of requirement stop kupap malicious disobedience to requirement policeman kupap man wait court violator draw up administrative material wait court notify law enforcement officer vehicle citizen no document provide explain where homemade tractor can offender guard deliver Pereyaslav Khmelnytskyi department police further establishment circumstance remind July cue patrol detain drunk driver man immediately confess drink alcohol ready to bear punishment registration administrative material read rap repent record video appeal driver call to get behind the wheel drunk</t>
+    <t>Kyiv region man arrange a chase police homemade tractor Pereyaslav Khmelnytskyi district Kyiv region man homemade tractor arrange a chase patrol report press service patrol police Kyiv region facebook page patrolling village Sosnova street Victory law enforcement officer see driver tractor violate traffic rules inspector submit a stop sign ignored continue movement patrolman start catching up offender continue to demand stop help light and sound alarm loudspeaker ignoring requirement to stop reach house start swearing resist trying to escape inspector apply handcuffs patrol driver draw up a row administrative material in particular management relevant document kupap management condition kupap non-fulfillment of requirement stop kupap malicious disobedience to requirement policeman kupap man wait court violator draw up administrative material wait court notify law enforcement officer vehicle citizen no document provide explain where homemade tractor can offender guard deliver Pereyaslav Khmelnytskyi department police further establishment circumstance remind July cue patrol detain drunk driver man immediately confess drink alcohol ready to bear punishment registration administrative material read rap repent record video appeal driver call to get behind the wheel drunk</t>
   </si>
   <si>
     <t>Кононенко і міськголова Дніпра Філатов збрехали в деклараціях — НАЗК. Народний депутат від «Блоку Петра Порошенка» Ігор Кононенко та міський голова Дніпра Борис Філатов вказали недостовірну інформацію у своїх деклараціях.Про це повідомили в Національному агентстві з питань запобігання корупції (НАЗК).Ознаки неправдивої інформації відомство виявило у виправленій декларації Кононенка за 2015 рік. Він вказав недостовірні відомості щодо кількості та номінальної вартості акцій 3 акціонерних товариств, зареєстрованих на території України, та 2 іноземних компаній, які належали йому на праві власності.Також соратник Порошенка не задекларував отриманий дохід члена сім’ї — невістки.«Так, загальна сума недостовірних відомостей у декларації народного депутата за 2015 рік становить майже 7,6 млн грн», — йдеться у повідомленні.Щодо Філатова у НАЗК повідомили, що той не вказав у деклараціях за 2016 та 2017 роки земельну ділянку, мотоцикл та судно, які належать очільнику Дніпра на праві власності, земельну ділянку, яка належить йому на праві оренди, а також будинок дружини.«Крім того (Філатов — ред.) зазначив недостовірні відомості про джерело та розмір власного доходу та доходу дружини. Загальна сума недостовірних відомостей у деклараціях за 2016 та 2017 роки становить понад 485 тис. грн та 519 тис. грн відповідно», — уточнили в НАЗК.У відомстві нагадали, що відповідальність за декларування недостовірної інформації на суму понад 250 прожиткових мінімумів (Філатов і Кононенко перевищили цю суму) встановлена статтею 366 – 1 Кримінального кодексу. Вона передбачає штраф, громадські роботи або позбавленням волі на строк до двох років.Зазначимо, що НАЗК також виявила недостовірну інформацію у деклараціях колишнього заступника міністра енергетики та вугільної промисловості Ігоря Діденка, судді Вишгородського районного суду Київської області Людмили Толкачової, першого заступника голови Бориспільської райдержадміністрації Київської області Руслана Садовського та голови Заставнівської районної ради Чернівецької області Сергія Капіцького.Нагадаємо, на початку липня міністру енергетики Ігорю Насалику повідомили про підозру через незадекларовані 1,249 мільйона доларів.</t>
@@ -2164,7 +2167,7 @@
     <t>У Німеччині дипломатів притягнули до відповідальності за лайки неприйнятних твітів. У Міністерстві закордонних справ Німеччини заявили, що запровадили нові принципи роботи в соціальних медіа та застосувало заходи дисциплінарного впливу до дипломатичного персоналу місії країни на палестинських територіях.Про це повідомляє «Європейська правда» із посиланням на Associated Press.МЗС Німеччини почало розслідування після того як з'ясувалося, що Twitter-акаунт місії країни на палестинських територіях ставив «лайки» антиізраїльським повідомленням.У МЗС заявили, що 10 людей мали доступ до акаунта, і незрозуміло, хто тиснув «лайки». Міністерство заявляє, що обліковий запис не був захищений від сторонніх користувачів.Нові засади роботи в соціальних мережах, розіслані на всі дипломатичні посади, роз'яснюють, що «навіть «лайки» розуміються як вираження думки німецького уряду», тож тепер вони потребують схвалення двох людей.У німецькому МЗС «категорично» відмежувалися від «лайків» і назвали їх «неприйнятними».Нагадаємо, Федеральна торгова комісія США (FTC) вирішила оштрафувати Facebook на рекордні 5 мільярдів доларів через витоки даних користувачів. Окрім штрафу, в рамках угоди із владою засновник компанії Марк Цукерберг також буде нести особисту відповідальність за дотримання вимог конфіденційності. У разі недотримання цих норм компанією Facebook його можуть притягнути до відповідальності, зокрема кримінальної.</t>
   </si>
   <si>
-    <t>germany diplomat hold accountable like unacceptable tweet ministry foreign germany declare introduce new principle work social media apply measure disciplinary impact diplomatic staff mission country palestinian territory report european truth link associated press foreign ministry germany start investigation twitter account mission country palestinian territory put like anti-israeli message foreign ministry declare person have access account incomprehensibly pressed like ministry declare account protected third party user new principle work social network sent diplomatic post like understand expression opinion german government so need approval person german foreign ministry categorically distanced like name remind federal trade commission usa ftc decide to fine facebook record billion dollar leaks data user fine frame agreement power founder company mark zuckerberg bear personal responsibility compliance requirement confidentiality once non-compliance norm company facebook hold accountable particularly criminal</t>
+    <t>germany diplomat hold accountable like unacceptable tweet ministry foreign germany declare introduce new principle work social media apply measure disciplinary impact diplomatic staff mission country palestinian territory report european truth link associated press foreign ministry germany start investigation twitter account mission country palestinian territory put like anti-israeli message foreign ministry declare person have access account incomprehensibly pressed like ministry declare account protected third party user new principle work social network sent diplomatic post like understand expression opinion german government so need approval person german foreign ministry categorically distanced like name remind federal trade commission usa ftc decide to fine facebook record billion dollar leaks data user fine framework agreement power founder company mark zuckerberg bear personal responsibility compliance requirement confidentiality once non-compliance norm company facebook hold accountable particularly criminal</t>
   </si>
   <si>
     <t>Гройсман: Порошенко так і не зробив висновків. Прем’єр—міністр Володимир Гройсман вважає, що п’ятий президент України Петро Порошенко не зробив висновків з останніх подій.Про це Гройсман написав на своїй сторінці у Facebook.«Прочитав інтерв‘ю Петра Олексійовича для «Української правди». Схоже, він так і не зробив для себе висновків з того всього, що відбулось останнім часом. Як, на жаль, так і не зрозумів, чому я не пішов на вибори разом з ним. Насправді є велика різниця між правдою та брехнею, служінням державі і людям та створенням схем власного збагачення, демократією та узурпацією влади, гонитвою за грошима та моральними цінностями», — написав він.За словами Гройсмана, «приватні інтереси» Порошенка завадили реалізуватися на посаді прем’єра.«Мені шкода, що великою надією і підтримкою людей він пожертвував заради своїх приватних інтересів. Врешті і я теж не зміг з огляду на його підходи реалізувати все те, що мав намір зробити. І саме тому нам не по дорозі. Що ж, у нього вже все позаду. Але я впевнений — в України все ще попереду», — написав Гройсман.Нагадаємо, лідер партії «Європейська солідарність» та п’ятий президент Петро Порошенко заявив, що його партія на виборах до Верховної Ради могла бути на другому місці, якби не розпорошеність демократичних сил і малі партії, які отримали низьку підтримку.</t>
@@ -2188,7 +2191,7 @@
     <t>Репер-новачок побив рекорд чарту Billboard, який тримався понад 20 років. Пісня Old Town Road 20—річного репера Lil Nas X побила рекорд американського чарту Billboard Hot 100 за тривалістю перебування на першій сходинці. Попередній рекорд тримався ще з 90—х.Як повідомляється на сайті Billboard, композиція Old Town Road у стилі кантрі реп тримається на перший сходинці хіт-параду вже 17 тижнів.Ця пісня побила 16-тижневий рекорд Мераї Кері та квартету Boyz II Men з їхньою піснею One Sweet Day 1995 року. Луїс Фонсі з треком Despacito зміг у 2017 році повторити цей рекорд, але не побив його.Мерая Кері вже привітала Lil Nas X з побиттям її рекорду.«Моя любов і вітання Lil Nas X, який зміг побити один з найбільш довготривалих рекордів у музичній історії», — написала вона у Twitter.Lil Nas X, справжнє ім’я Монтеро Хілл, записав цю пісню разом з кантрі-співаком Біллі Реєм Сайрусом. Хілл кинув навчання в Університеті Західної Джорджії і записав свій хіт у жовтні 2018 року. Він використав музичну мінусовку, придбану в інтернеті за 30 доларів.Завоювати таку популярність треку Old Town Road допоміг флешмоб Yee Yee Juice у соціальній платформі TikTok, де тисячі людей знімали, як співають цю пісню в ковбойських чоботах і капелюхах.Зазначимо, що спершу Billboard виключив цю пісню з чарту через «недостатню кількість елементів сучасної кантрі-музики», у зв’язку з чим отримав численні звинувачення в консерватизмі та расизмі. Потім пісню повернули, й сам скандал привернув до неї додаткову увагу.</t>
   </si>
   <si>
-    <t>rapper rookie break record chart billboard hold above song old town road rapper lil nas x break record american chart billboard hot duration of stay first step previous record hold report site billboard composition old town road style country rap hold step hit parade week song break record mariah carey quartet boyz ii men their song one sweet day luis fonsi track despacito be able to repeat record beat mariah carey congratulate lil nas x beating record love congratulations lil nas x be able to break long-term record musical history write twitter lil nas x real montero hill record song together country singer billy ray cyrus hill drop out university west georgia record your hit october use musical backing track purchased internet dollar gain such popularity track old town road help flashmob yee yee juice social platform tiktok thousand people shoot sing song cowboy boot hat note first billboard exclude song chart insufficient number element modern country music get accusations conservatism racism song return scandal attract additional attention</t>
+    <t>rapper rookie break record chart billboard hold over song old town road rapper lil nas x break record american chart billboard hot duration of stay first step previous record hold report site billboard composition old town road style country rap hold step hit parade week song break record mariah carey quartet boyz ii men their song one sweet day luis fonsi track despacito be able to repeat record beat mariah carey congratulate lil nas x beating record love congratulations lil nas x be able to break long-term record musical history write twitter lil nas x real montero hill record song together country singer billy ray cyrus hill drop out university west georgia record your hit october use musical backing track purchased internet dollar gain such popularity track old town road help flashmob yee yee juice social platform tiktok thousand people shoot sing song cowboy boot hat note first billboard exclude song chart insufficient number element modern country music get accusations conservatism racism song return scandal attract additional attention</t>
   </si>
   <si>
     <t>У Пакистані внаслідок падіння літака на житлові будинки загинули 18 людей. У Пакистані внаслідок падіння військового літака на житлові будинки загинули щонайменше 18 людей.Про це повідомляє BBC.Зокрема, серед загиблих — п'ятеро членів екіпажу і 13 жителів селища, розташованого неподалік від міста Равалпінді.Повідомляється, що літак здійснював навчальний політ, коли раптово впав на житловий район. Катастрофа спричинила пожежу одразу в кількох будинках.За словами очевидців, полум'я на літаку бачили ще до того, як він зіткнувся з землею.Прем'єр-міністр Пакистану Імар Хан висловив співчуття родинам загиблих, а пораненим внаслідок катастрофи побажав якнайшвидшого одужання.«Я прокинувся від того, що почув, як літак пролітає над моїм будинком — в той момент він ще перебував у повітрі, але вже палав», — розповідає житель селища Гулам Хан.«Звук був жахливий. Потім літак впав прямо на будинок, де проживала сім'я», — додає він.Інший житель селища на ім'я Ямін розповів, що йому і його дружині вдалося врятуватися — вони встигли вибігти з палаючого будинку. Водночас його брат, дружина брата і племінник загинули.«Вікно та двері в їхню кімнату були замкнені. Ми зробили все, щоб їх витягти, але нам цього не вдалося», — каже він.Місцева рятувальна служба повідомила, що кількох людей доставили до лікарень. Тіла загиблих вивезли для опізнання.Нагадаємо, неподалік шведського міста Умео розбився літак з парашутистами, внаслідок чого загинули дев’ять людей.</t>
@@ -2212,13 +2215,13 @@
     <t>У Білорусі вдруге цьогоріч оголосили смертний вирок. У Білорусі вдруге у 2019 році оголосили смертний вирок.Про це повідомляє «Радіо Свобода» з посиланням на базовану в Мінську правозахисну групу «Весна».Згідно з інформацією, суд у Вітебську визнав Віктора Павлова винним у вбивстві двох жінок похилого віку в грудні 2018 року та засудив його до смерті.50-річний підсудний визнавав свою провину та просив суд зберегти йому життя.Нагадаємо, Парламентська асамблея Ради Європи закликала Білорусь запровадити мораторій на смертну кару.</t>
   </si>
   <si>
-    <t>Belarus announces death sentence for the second time this year Belarus announces death sentence for the second time report Radio Freedom link based Minsk human rights group according to information court Vitebsk find Viktor Pavlov guilty murder woman elderly December convict defendant plead guilty ask court save life remind parliamentary assembly council of europe call on Belarus to introduce moratorium on death penalty</t>
+    <t>Belarus for the second time this year to announce the death sentence Belarus for the second time to announce the death sentence report Radio Freedom link based Minsk human rights group according to information court Vitebsk find Viktor Pavlov guilty murder woman elderly December convict defendant plead guilty ask court save life remind parliamentary assembly council of europe call on Belarus to introduce a moratorium on the death penalty</t>
   </si>
   <si>
     <t>Як створювати неординарне морозиво без власного виробництва? — Бізнес-план. Вже 4-й рік поспіль В'ячеслав Шестаковський пропонує ласувати натуральний десерт без домішок і консервантів під брендом «Умка». В асортименті морозива – 45 смаків. Серед них як класика, так і гастрономічні експерименти зі смаком алкоголю та сиру з пліснявою.В «Умки» десяток холодильників для виїздів на вуличні фестивалі та ярмарки, а також два кафе-морозива в Києві. Однак власного виробництва підприємець не має. На продажі холодного десерту у В’ячеслава всього п’ять місяців – з травня по жовтень. Адже з листопада попит на холодний десерт падає в 6-7 разів.За рахунок чого «Умка» виживає в зимовій сплячці? Хто виготовляє десерт для цієї торгової марки? Та яку різницю споживач відчуває на смак між звичайним і натуральним морозивом? Про все це дивіться в проекті «Бізнес-план».</t>
   </si>
   <si>
-    <t>create extraordinary ice cream own production business plan in a row Shestakovsky offer to taste natural dessert admixture preservative brand umka assortment ice cream taste Among the classics gastronomic experiment taste alcohol cheese mold umka ten refrigerator outing street festival fair cafe ice cream cue own production entrepreneur sale cold dessert month May October November demand cold dessert to fall once account umka survive winter hibernation make dessert trademark which difference consumer feel the taste of ordinary natural ice cream see project business plan</t>
+    <t>create extraordinary ice cream own production business plan in a row shestakovsky offer to enjoy natural dessert impurity preservative brand umka assortment ice cream taste Among the classics gastronomic experiment taste alcohol cheese mold umka dozen refrigerator departure street festival fair cafe ice cream cue own production entrepreneur sale cold dessert month may october november demand cold dessert fall once account umka survive winter hibernation make dessert trademark what difference consumer feel taste ordinary natural ice cream watch project business plan</t>
   </si>
   <si>
     <t>Вибори в Раду: наймолодші виборці у «Голосу» та «Слуги народу», найстарші — у «Батьківщини» та «За життя». На виборах у Верховну Раду наймолодший електорат був у партій «Голос» та «Слуга народу», а найстарший — у «Опозиційної платформи — за життя» та «Батьківщини».Про це повідомляє фонд «Демократичні ініціативи», який проаналізував дані Національного екзит-полу.Так, найбільший відсоток виборців віком до 40 років у «Голосу» (41%) та «Слуги народу» (36%). Найстарший електорат у «За життя» — 79% виборців віком 50 років і старше, а також у «Батьківщини» — 73% старше 50 років.Загалом «Слуга народу» є лідером серед виборців в усіх вікових групах, але найбільше — у групі наймолодших, 18-29 років, де за неї проголосувало 58,8% виборців. Далі у цій групі йдуть «Голос» (9,4%) та «Європейська солідарність» (7,0%).Подібна ситуація й у віковій групі 30–39 років: «Слуга народу» (53,5%), Голос» (9,5%) та «Європейська солідарність» (8,1%).У групі 40-49 років: «Слуга народу (48,4%), «Європейська солідарність» (11,2%), «Опозиційна платформа — за життя» (7,5%), «Голос» (7,2%), «Батьківщина» (5,2%).У групі 50-59 років: «Слуга народу» (42,7%), «Опозиційна платформа — За життя» (11,6%), «Європейська солідарність» (9,1%), «Батьківщина» (7,9%).Серед тих, хто старше 60 років, ситуація наступна: «Слуга народу» (32,7%), «Опозиційна платформа — За життя» (20,1%), «Батьківщина» (11,6%), «Європейська солідарність» (8,6%) та «Сила і честь» (6,1%).читайте також21 липня в Україні відбулися дострокові парламентські вибори. Явка за даними з усіх 199 округів склала 49,84%. Це найнижча явка в історії українських виборів до Ради.За результатами обробки 100% бюлетенів, «Слуга народу» перемогла, на другому місці «Опозиційна платформа — За життя», далі йдуть «Батьківщина», «Європейська солідарність» та «Голос» Святослава Вакарчука.Ті партії, які мають понад 2% голосів, отримуватимуть державне фінансування.читайте також</t>
@@ -2230,13 +2233,13 @@
     <t>Суд залишив ймовірного фігуранта справи MH17 Цемаха під вартою. Апеляційний суд Києва 30 липня відмовився відпускати з—під варти затриманого в «ДНР» колишнього «командира ППО» міста Сніжне Володимира Цемаха, який є ймовірним фігурантом у справі катастрофи малайзійського Boeing рейсу MH17 на Донбасі.Про це Громадському підтвердив прокурор у справі.У суді Цемах свідчив по відеозв’язку, пише The Insider.«Я був у безсвідомому стані. Дуже довго. Затримання проводили дві незнайомі мені людини. Вони зайшли до мене додому. А провозили мене уже потім через Мар'їнку. Я боєць, який захищав свою землю від тих, хто її розстрілював. Російських військовослужбовців там не бачив», — заявив він.Своєю чергою, адвокат бойовика Роман Гонтарев заявив, що до нього застосували насильство.«Рукояткою пістолета вдарили по голові. Застосовували психотропні снодійні речовини. Ми зараз не можемо довести ці обставини. Цемаха затримали без рішення суду.Не допитані в провадженні й свідки, які б вказували, що Цемах на момент затримання вчинив злочин. Також відсутній потерпілий, який говорив про Цемаха», — заявив він.Нагадаємо, про затримання у кінці червня 2019 року Службою безпеки України Володимира Цемаха повідомила Російська служба ВВС із посиланням на дочку і адвоката затриманого. Бойовика нібито схопили в окупованому Сніжному і невідомим способом переправили на підконтрольну Україні територію.Boeing 777 авіакомпанії Malaysia Airlines, який виконував рейс Амстердам — Куала-Лумпур, був збитий на Донбасі неподалік Сніжного Донецької області 17 липня 2014 року. На борту літака перебували 298 пасажирів та членів екіпажу, усі вони загинули.﻿</t>
   </si>
   <si>
-    <t>the court to leave the alleged suspect in the Tsemakh case, Kyiv Court of Appeal, July, refuse to release the guard, the detained DNR, former commander of the PPO, the city of Snezhnye, Volodymyr Tsemakh, the alleged suspect in the case, the Malaysian Boeing flight, Donbas, public, confirm the prosecutor, the case, the Tsemakh court, testify, write the insider, unconscious state, hold, a stranger, come home, drive already a fighter to defend the land to shoot a Russian serviceman to see declare your turn lawyer militant Roman Gontarev declare use violence pistol hit the head use a psychotropic hypnotic substance be able to prove the circumstances Tsemakh detain decision court interrogated proceedings witness indicate Tsemakh the moment of detention commit the crime absent victim Tsemakh state remind detention end of June security service of Ukraine Volodymyr Tsemakh inform Russian service in the military link daughter lawyer detained militant allegedly captured occupied snowy unknown way to cross Ukraine-controlled territory boeing airline malaysia airlines fly Amsterdam Kuala Lumpur shot down Donbas nearby snowy Donetsk region July board plane stay passenger crew member</t>
+    <t>court leave probable defendant case tsemakh guard court of appeal kiev july refuse to release guard detained dpr former air defense commander city snizhne volodymyr tsemakh probable defendant case disaster malaysian boeing flight donbas public confirm prosecutor case court tsemakh testify write the insider unconscious state detention carry out stranger person go home transport already fighter protect land shoot russian serviceman see declare your turn lawyer action film novel gontarev declare use violence pistol hit head apply psychotropic sleeping substance be able to prove circumstance tsemakh detain decision court interrogated proceedings witness indicate tsemakh moment of detention commit crime absent victim tsemakh declare remind detention end june service security ukraine volodymyr tsemakh notify russian air force service link daughter lawyer detained action film allegedly seize occupied snizhne unknown way to transport controlled ukraine territory boeing airline malaysia airlines perform flight amsterdam kuala lumpur shot down donbas nearby snowy donetsk region july board plane be passenger crew member</t>
   </si>
   <si>
     <t>У Каліфорнії розбився винищувач ВМС США. У Каліфорнії розбився винищувач F/A—18E Військово—морських сил Сполучених Штатів Америки.Про це повідомляє в ВМС США у Twitter.Згідно з інформацією, літак впав біля військово-морської авіабази China Lake в 125 милях на північ від Лос-Анджелеса.Про долю пілота наразі нічого невідомо. На даний час ведуться пошуково-рятувальні роботи.«Приблизно о 10:00 ранку за тихоокеанським часом F/A-18E зазнав аварії. Пошуково-рятувальні роботи вже ведуться», — йдеться в повідомленні.Нагадаємо, у Пакистані внаслідок падіння військового літака на житлові будинки загинули щонайменше 18 людей.</t>
   </si>
   <si>
-    <t>california crash fighter us navy california crash fighter f military naval force united states of america report us navy twitter according to information plane crash military naval air base china lake mile north los angeles fate pilot currently unknown given ongoing search and rescue robot morning pacific time f suffer accident search and rescue robot ongoing going message remind pakistan due to crash military plane residential building killed at least one person</t>
+    <t>california crash fighter us navy california crash fighter f military naval force united states america report us navy twitter according to information plane crash military naval air base china lake mile north los angeles fate pilot currently unknown given ongoing search and rescue robot morning pacific time f suffer accident search and rescue robot ongoing going message remind pakistan due to crash military plane residential building killed at least one person</t>
   </si>
   <si>
     <t>Вулиці українських міст з 1 серпня патрулюватимуть нацгвардійці — МВС. Військовослужбовці Національної гвардії з 1 серпня патрулюватимуть вулиці українських міст.Про це повідомляє прес-служба Міністерства внутрішніх справ.«Робимо вулиці безпечнішими! З 1 серпня 2019 року військовослужбовці Національної гвардії України виконуватимуть завдання з охорони громадського порядку у складі самостійних піших патрулів. До цього гвардійці несли службу спільно з працівниками Національної поліції», — йдеться у повідомленні.За даними МВС, для забезпечення правопорядку буде залучено близько 2 тисяч патрульних, 100 автівок та 100 службових собак. Патрулюватимуть гвардійці п'ять днів на тиждень по шість годин.</t>
@@ -2248,13 +2251,13 @@
     <t>У «лідера» невизнаного Придністров'я знайшли український паспорт. У так званого президента невизнаної республіки Придністров'я Вадима Красносельського виявили паспорт України.Про це повідомляє видання Rise Moldova, посилаючись на свої джерела в Державній прикордонній службі України.Красносельський нібито використовував український паспорт більше 10 разів при перетині державного кордону України. Основними пунктами призначення Красносільського були Одеса, Харків і Київ.Також повідомляється, що крім українського, у «лідера» Придністров’я є і російський паспорт. Ним він скористався понад 300 разів в період з 2007 по 2015 рік.Наголошується, що за допомогою цих паспортів Красносельському вдавалося перетинати придністровську ділянку молдавсько-українського кордону, перебуваючи при цьому 10 років в розшуку в Молдові.Красносельський перебував і в міжнародному розшуку з 2007 року, проте був знятий зі списку в 2015 році за ініціативою Молдови.читайте такожНагадаємо, Генеральна асамблея ООН підтримала резолюцію, яка закликає вивести з невизнаної республіки Придністров'я російські війська.Восени 2017 року в Австрії відбулися перші за півтора року переговори сторін щодо Придністров'я.Придністров'я — самопроголошена держава, яку міжнародна спільнота визнає частиною Молдови. Незалежність так званої «ПМР» було проголошено у серпні 1991 року за ініціативи сепаратистів, підтримуваних російською армією.На території Придністров’я розміщується контингент російських збройних сил і військова частина №13962 — два батальйони загальною чисельністю близько тисячі осіб.</t>
   </si>
   <si>
-    <t>leader unrecognized find Ukrainian passport called president unrecognized republic vadim krasnoselsky discover passport ukraine report edition rise moldova citing source state border service ukraine krasnoselsky allegedly use ukrainian passport once crossed state border ukraine main destination krasnoselsky Odesa kharkiv kiev reported ukrainian leader russian passport use more than once period emphasized help passport krasnoselsky resort to cross transnistrian section moldavian ukrainian border being wanted moldova krasnoselsky be international wanted list removed initiative also recall the un general assembly support resolution call to withdraw unrecognized republic russian army in autumn austria take place first one and a half negotiations party self-proclaimed state which international community recognize part of moldova independence called pmr declare august initiative separatist supported russian army territory stationed contingent russian armed force military unit battalion total number thousand person</t>
+    <t>leader unrecognized find Ukrainian passport called president unrecognized republic vadim krasnoselsky discover passport ukraine report edition rise moldova citing source state border service ukraine krasnoselsky allegedly use ukrainian passport once crossed state border ukraine main destination krasnoselsky Odesa kharkiv kiev reported ukrainian leader russian passport use more than once period emphasized help passport krasnoselsky resort to cross transnistrian section moldova ukrainian border being wanted moldova krasnoselsky be international wanted list removed initiative also recall the un general assembly support resolution call to withdraw unrecognized republic russian army in autumn austria take place first one and a half negotiations party self-proclaimed state which international community recognize part of moldova independence called pmr declare august initiative separatist supported russian army territory stationed contingent russian armed force military unit battalion total number thousand person</t>
   </si>
   <si>
     <t>Погром праворадикалами приміщення «Укрінформу» кваліфікували як хуліганство — поліція. Інцидент на прес—конференції кандидатів у народні депутати самовисуванця Андрія Аксьонова і кандидата від «Європейської солідарності» Сергія Кошукова в інформаційному агентстві «Укрінформ» слідчі столичної поліції кваліфікували як хуліганство.Про це повідомили у Відділі комунікації поліції Києва.За вчинення правопорушення за статтею про «хуліганство» передбачено до чотирьох років позбавлення волі.Як зазначається, правоохоронці опитали свідків та очевидців інциденту.«Двох правопорушників доставили до управління поліції, де вони надали пояснення. Також працівники карного розшуку вилучили записи з камер відеоспостереження», — йдеться у повідомленні.Нагадаємо, 30 липня в агентстві «Укрінформ» влаштували прес-конференцію, присвячену ймовірним фальсифікаціям на окрузі №50 у Покровську на Донеччині, але її зірвали молодики у футболках праворадикальної організації «Традиція і порядок».Поліція затримала двох осіб з групи молодиків у футболках праворадикальної організації «Традиція і порядок», які зірвали прес-конференцію.</t>
   </si>
   <si>
-    <t>pogrom right-wing radical premises ukrinform qualify hooliganism police incident press conference candidate people's deputy self-nominated Andriy Aksyonov candidate European solidarity Serhiy Koshukova information agency ukrinform investigator metropolitan police qualify hooliganism report department communication police kiev commission of offense article hooliganism provide four deprivation of liberty be noted law enforcement officer interview witness eyewitness incident offender deliver department police provide explanation employee criminal investigation seize recording camera video surveillance go message remind July agency ukrinform arrange press conference dedicated alleged falsification district pokrovsk donechnya tear young man t-shirt right-wing radical organization tradition police detain person group young man t-shirt right-wing radical organization tradition order tear press conference</t>
+    <t>pogrom right-wing radical premises ukrinform qualify hooliganism police incident press conference candidate people's deputy self-nominated Andriy Aksyonov candidate European solidarity Serhiy Koshukova information agency ukrinform investigator metropolitan police qualify hooliganism report department communication police kiev commission of offense article hooliganism foresee four deprivation of liberty be noted law enforcement officer interview witness eyewitness incident offender deliver department police provide explanation employee criminal investigation seize recording camera video surveillance go message remind July agency ukrinform arrange press conference dedicated alleged falsification district pokrovsk donechnya tear young man t-shirt right-wing radical organization tradition police detain person group young man t-shirt right-wing radical organization tradition order tear press conference</t>
   </si>
   <si>
     <t>Українця-капітана теплохода, що врізався в екскурсійне судно в Будапешті, повторно затримали. У Будапешті, за рішенням Верховного суду Угорщини, 31 липня знову затримали 64—річного одесита, капітана швейцарського круїзного судна «Viking Sygin» Юрія Ц., який є фігурантом справи про загибель 28 людей на Дунаї.31 липня Юрія Ц. привели на судове засідання у наручниках. Засідання відбувалося за зачиненими дверима і тривало понад три години, передає Index.Адвокат капітата заявив, що Юрій Ц. не порушив правил перебування під домашнім арештом. До того ж, через два місяці після катастрофи не може йтися про небезпеку знищення доказів, тому захисник вважає рішення суду безпідставним.31 липня адвокат українця оскаржив нову підозру, висунуту його підзахисному, і подав апеляцію. Захист стверджує, що капітан брав участь у наданні допомоги потерпілим — він кидав у воду рятувальні кола та спустив у Дунай рятувальні човни.Українець перебував під домашнім арештом із 13 червня без права залишати межі міста. За приписом, він мав двічі на тиждень з’являтися в офісі слідчих. 29 липня за рішенням Верховного суду Угорщини, Юрія Ц. взяли під варту за підозрою у ненаданні допомоги потерпілим.Нагадаємо, 29 травня на Дунаї у Будапешті зіткнулися велике круїзне судно «Viking Sygin» та малий прогулянковий катер «Hableány». На борту останнього перебували 35 людей — 22 жінки, 12 чоловіків і дитина, переважно туристи із Південної Кореї. Від сильного удару катер затонув приблизно за сім секунд — вижили тільки семеро пасажирів «Hableány». Тіло одного пасажира досі не знайдене.читайте також</t>
@@ -2266,7 +2269,7 @@
     <t>Вирок бразильцю Лусваргі, який воював на боці бойовиків на Донбасі, набув чинності. Вирок громадянину Бразилії Рафаелю Лусваргі, якого засуджено до 13 років позбавлення волі за обвинуваченням в участі у діяльності терористичних організацій «ЛДНР» та непередбачених законом збройних формувань, 31 липня набув чинності.Про це повідомляє прес-служба прокуратури міста Києва.Відповідне рішення ухвалив Дніпровський апеляційний суд під час розгляду апеляційної скарги, поданої стороною захисту.«У ході судового засідання обвинувачений Рафаель Лусваргі заявив клопотання про відмову від апеляційної скарги, у зв'язку з чим Дніпровський апеляційний суд ухвалив рішення про закриття апеляційного провадження. Згідно з законодавством, винесення судом такої ухвали тягне за собою набрання законної сили судовим рішенням, що було оскаржене в апеляційному порядку», — йдеться у повідомленні.В прокуратурі додали, що рішення апеляційної інстанції оскарженню не підлягає. Після засідання суду Лусваргі відбув у місця відбування покарань.2 травня суд визнав громадянина Бразилії Рафаеля Лусваргі винним в участі у незаконних збройних формуваннях в Україні та терористичній організації і засудив його до 13 років позбавлення волі з конфіскацією майна.читайте такожНагадаємо, 4 травня минулого року у Києві учасники праворадикальної організації С14 схопили бразильця Лусваргі, який воював на боці «ДНР». Представники праворадикальної організації привели його до СБУ. Напередодні 2 травня Лусваргі помітили у Свято-Покровському Голосіївському монастирі УПЦ МП.До цього українські правоохоронці затримали бразильця Лусваргі в жовтні 2016 року в аеропорту «Бориспіль» одразу після його прибуття в Україну з Бразилії.Слідство встановило, що з вересня 2014 — по травень 2015 року він перебував у складі 1-го мотострілецького батальйону «Вікінг» 1-ї бригади бойовиків «ДНР». Згодом, у січні 2017 року Печерський суд Києва засудив громадянина Бразилії Рафаеля Маркуса Лусваргі до 13 років в'язниці.Однак, 18 серпня 2017 року Апеляційний суд Києва скасував вирок бразильцю Рафаелеві Маркусу Лусваргі, засудженому за участь у бойових діях на Донбасі на боці бойовиків «ДНР».За словами адвоката Лусваргі, 18 грудня 2017 року Печерський районний суд змінив запобіжний захід бразильцю з тримання під вартою на особисте зобов’язання у межах процедури обміну полоненими. З того часу, зауважив адвокат, Лусваргі перебував у Києві.Коли між Києвом та самоназваними «ДНР» та «ЛНР» відбувся великий обмін заручників на Донбасі 27 грудня, Лусваргі мав отримати свій паспорт та повернутися до Бразилії.«Незважаючи на домовленості і повернення в Україну полонених військових, паспорт та проїзні документи бразильцю українська влада не повернула», — заявив Рибін.Як з'ясувало Громадське, передавати Лусваргі в межах великого обміну не стали, аби уникнути потенційного міжнародного скандалу. Оскільки він є громадянином Бразилії, Україна не має права передавати його таким квазіутворенням, як самоназвана «ДНР».</t>
   </si>
   <si>
-    <t>verdict brazilian lusvargi fight side militant donbas enter into force verdict citizen brazil rafael lusvargi convict deprivation of will accusation participation activity terrorist organization ldrn unforeseen law armed formation july enter into force notify press service prosecutor's office city kyiv relevant decision adopt dnipro court of appeal consideration appellate complaint filed party defense course court session accused rafael lusvargi declare petition refusal appellate complaint dnipro court of appeal adopt decision closure appellate proceedings according to legislation court such ruling drag recruitment legal force judicial decision appealed appellate procedure go notification prosecutor's office add decision appellate instance appeal subject to session court lusvargi serve place of service may court recognize citizen brazil rafael lusvargi guilty participation illegal armed formation ukraine terrorist organization convict deprivation of will confiscation alsoremind May last ky participant right-wing radical organization seize Brazilian lusvargi fight side of DPR representative right-wing radical organization bring SBU on the eve May lusvargi notice holiday Pokrovsky Golosievsky monastery UPC Ukrainian law enforcement officer detain Brazilian lusvargi October Boryspil airport immediately arrival Ukraine Brazil investigation establish September May stay in warehouse motorized rifle battalion Viking brigade militant DPR later January Pechersk court Kyiv convict citizen Brazil Rafael Marcus Lusvargi August Court of Appeal Kyiv cancel verdict Brazilian Rafael Marcus Lusvargi convicted participation combat action Donbas side militant word lawyer Lusvargi December Pechersk district court change preventive measure Brazilian detention guard personal border procedure exchange prisoner notice lawyer Lusvargi stay in ky Kyiv self-proclaimed DPR LPR take place a large exchange hostage donbas december lusvargi mother get your passport return brazil agreement return ukraine captive military passport travel document brazilian ukrainian power return declare rybin public transfer lusvargi border large exchange become to avoid potential international scandal because citizen brazil ukraine right to transfer such quasi-formation self-proclaimed dpr</t>
+    <t>verdict brazilian lusvargi fight side militant donbas enter into force verdict citizen brazil rafael lusvargi convict deprivation of will accusation participation activity terrorist organization ldrn unforeseen law armed formation july enter into force notify press service prosecutor's office city kyiv relevant decision adopt dnipro court of appeal consideration appeal complaint filed party defense course court session accused rafael lusvargi declare petition refusal appeal complaint dnipro court of appeal adopt decision closure appeal proceedings according to legislation court such ruling drag recruitment legal force judicial decision appealed appeal procedure go notification prosecutor's office add decision appellate instance appeal subject to session court lusvargi serve place of service may court recognize citizen brazil rafael lusvargi guilty participation illegal armed formation ukraine terrorist organization convict deprivation of will confiscation alsoremind May last ky participant right-wing radical organization seize Brazilian lusvargi fight side of DPR representative right-wing radical organization bring SBU on the eve May lusvargi notice holiday Pokrovsky Golosievsky monastery UPC Ukrainian law enforcement officer detain Brazilian lusvargi October Boryspil airport immediately arrival Ukraine Brazil investigation establish September May stay in warehouse motorized rifle battalion Viking brigade militant DPR later January Pechersk court Kyiv convict citizen Brazil Rafael Marcus Lusvargi August Court of Appeal Kyiv cancel verdict Brazilian Rafael Marcus Lusvargi convicted participation combat action Donbas side militant word lawyer Lusvargi December Pechersk district court change preventive measure Brazilian detention guard personal border procedure exchange prisoner notice lawyer Lusvargi stay in ky Kyiv self-proclaimed DPR LPR take place a large exchange hostage donbas december lusvargi mother get your passport return brazil agreement return ukraine captive military passport travel document brazilian ukrainian power return declare rybin public transfer lusvargi border large exchange become to avoid potential international scandal because citizen brazil ukraine right to transfer such quasi-formation self-proclaimed dpr</t>
   </si>
   <si>
     <t>Німеччина відмовляється брати участь у місії США в Ормузькій протоці. Німеччина відхилила прохання Вашингтона надіслати німецьких військових для участі в місії США в Ормузькій протоці. Берлін вважає стратегію максимального тиску на Іран невірною.Про це заявив 31 липня міністр закордонних справ ФРН Хайко Мас додавши, що в цьому питанні уряд у Берліні координує свої дії із французькими колегами, передає Deutsche Welle.«Ми вважаємо стратегію максимального тиску невірною. Ми не хочемо військової ескалації, ми і далі будемо виступати за дипломатичні кроки», — вказав Мас.Напередодні США запропонували Німеччини, Франції і Великій Британії приєднатися до американської місії із забезпечення безпеки судноплавства в Ормузькій протоці, що з'єднує Перську і Оманську затоки. Раніше Лондон пропонував створити для цих цілей загальноєвропейську місію.Нагадаємо, 19 липня, елітне іранське військово-політичне формування «Корпус вартових ісламської революції» затримало судна «Mesdar», що йшло під прапором Ліберії, та «Stena Impero» під британським прапором. На борту «Stena Impero» знаходилися 23 моряків.Зовнішньополітичне відомство Великої Британії пригрозило Ірану «наслідками», якщо арешт танкера не буде знятий найближчим часом, але виключив можливість військового втручання. Британським кораблям рекомендовано обходити Ормузьку протоку.Раніше 4 липня поліцейські і митні органи Гібралтару за підтримки загону британських морських піхотинців затримали іранський танкер Grace 1. За їхньою версією, судно мало доставити нафту на нафтопереробний завод в провінції Тартус на північному заході Сирії в обхід санкцій США. Тегеран це заперечував і висловив Лондону протест і пригрозив симетричною відповіддю.Незабаром представник уряду Великої Британії повідомив, що три військові кораблі Ірану намагалися захопити нафтовий танкер British Heritage у Перській затоці.Ще раніше, 13 червня в Оманській затоці зазнали аварії два танкери, що належать норвезькій і японській компаніям. За даними ЗМІ, судна стали жертвами торпедної атаки. Іранські екстрені служби врятували 44 моряки. Інших підібрало на борт військовий корабель США.Сполучені Штати Америки звинуватили у напад Іран і відправили в район Оманської затоки есмінець USS Mason.Пізніше міністерство закордонних справ Великої Британії також поклало на Іран відповідальність за інциденти із танкерами в Оманській затоці.Газета The Times дізналася про намір британської влади відправити до Перської затоки 100 морських піхотинців.Відносини між США та Іраном загострилися після того, як Сполучені Штати вийшли з багатосторонньої угоди щодо ядерної програми Ірану. Вашингтон запровадив проти Ірану санкції, зокрема повернув старі обмеження на експорт нафти.читайте також</t>
@@ -2278,7 +2281,7 @@
     <t>На Луганщині внаслідок обстрілу з боку бойовиків без води залишились 3 тисячі людей. У Луганській області внаслідок обстрілу з боку бойовиків пошкоджено водопровід.Про це повідомляє прес-служба Нацполіції Луганської області.«Сьогодні до Попаснянського відділу поліції надійшло повідомлення 38-річної місцевої мешканки про те, що в районі вулиці Кім, імовірно внаслідок обстрілу, було пошкоджено водопровід. Без водопостачання залишились 3 тисячі 312 абонентів», — йдеться у повідомленні.Згідно з інформацією, при виїзді на місце події поліцейські виявили яму, яка за ознаками схожа на вирву від вибуху снаряда.На місці події працюють співробітники слідчо-оперативної групи Попаснянського відділу поліції. По завершенні огляду ремонтні бригади приступлять до робіт з відновлення водопостачання.Нагадаємо, від початку доби 31 липня бойовики п’ять разів порушили режим припинення вогню на Донбасі із застосуванням мінометів і гранатометів.</t>
   </si>
   <si>
-    <t>Luhansk region due to shelling side militant water stay thousand people Luhansk region due to shelling side militant damage water supply report press service national police Luhansk region Popasnyansky department police receive message local resident district street kim presumably due to shelling damage water supply water supply stay thousand subscriber go message according to information departure place event policeman detect pit sign similar crater explosion shell place event work employee investigative operational group Popasnyansky department police completion inspection repair team start work restoration water supply remind day July militant once violate ceasefire fire Donbas use mortar grenade launcher</t>
+    <t>Luhansk region due to shelling side militant water stay thousand people Luhansk region due to shelling side militant damage water supply report press service national police Luhansk region Popasnyanskyi department police receive message local resident district street kim presumably due to shelling damage water supply water supply stay thousand subscriber go message according to information departure place event policeman detect pit sign similar crater explosion shell place event work employee investigative operational group Popasnyanskyi department police completion inspection repair team start work restoration water supply remind day July militant once violate ceasefire fire Donbas use mortar grenade launcher</t>
   </si>
   <si>
     <t>Комітет Сенату США схвалив санкції проти «Північного потоку-2». Комітет у закордонних справах Сенату США проголосував за введення санкцій щодо компаній—учасників будівництва магістрального газопроводу з Росії до Німеччини через Балтійське море «Північний потік—2».Як передає Reuters, законопроект «Про енергетичну безпеку Європи» схвалили 20 членів комітету, проти виступили 2.Документ передбачає введення обмежувальних заходів проти всіх компаній, які продають або здають в оренду морські судна для будівництва «Північного потоку-2», а також надають фінансову або технічну підтримку.Щоб набрати чинності, законопроект має пройти через увесь Сенат і Палату представників. Після цього документ очікуватиме підпису президента США Дональда Трампа.Раніше джерела американського видання The Daily Beast у верхній палаті законодавчого органу США назвали ім'я американського сенатора, який зірвав санкції проти «Північного потоку-2». Ним виявився Ренд Пол — республіканець із Кентуккі і близький друг президента Дональда Трампа.«Північний потік 2» — проект магістрального газопроводу з Росії у Німеччину через Балтійське море довжиною понад 1200 кілометрів. Проект є другою гілкою «Північного потоку», націленого на постачання російського газу до ЄС в обхід України та східних держав-членів Євросоюзу. Перша гілка (Nord Stream-1) функціонує від 2011 — 2012 років. Друга гілка мала дозволити Газпрому постачати російський газ до ЄС без використання української газотранспортної системи, проте російська енергетична компанія зіткнулася з труднощами щодо побудови «Північного потоку-2», тому майбутнє транзиту газу до ЄС невизначене. Зокрема, Данія може наполягати на прокладанні газопроводу за новим маршрутом на південний схід від острова Борнхольм. Наразі Данія залишається єдиною державою, що не видала російському «Газпрому» дозвіл на будівництво.Зазначимо, що послуги транзиту російського газу до ЄС щороку приносять Україні по 3 мільярди доларів.читайте також</t>
@@ -2673,15 +2676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="121.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="72.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,14 +2706,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2729,14 +2732,14 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2755,14 +2758,14 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2781,14 +2784,14 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2805,16 +2808,16 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
         <v>19</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2831,16 +2834,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2857,16 +2860,16 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2880,19 +2883,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
         <v>26</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2909,16 +2912,16 @@
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
         <v>28</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2935,16 +2938,16 @@
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
         <v>30</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2961,16 +2964,16 @@
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
         <v>32</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2984,19 +2987,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
         <v>35</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3013,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3039,16 +3042,16 @@
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
         <v>39</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3062,19 +3065,19 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
         <v>41</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3093,14 +3096,14 @@
       <c r="F16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3119,14 +3122,14 @@
       <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3145,14 +3148,14 @@
       <c r="F18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3171,14 +3174,14 @@
       <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3197,14 +3200,14 @@
       <c r="F20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3223,14 +3226,14 @@
       <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3249,14 +3252,14 @@
       <c r="F22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3270,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3301,14 +3304,14 @@
       <c r="F24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3322,19 +3325,19 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3348,19 +3351,19 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3379,14 +3382,14 @@
       <c r="F27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3405,14 +3408,14 @@
       <c r="F28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3431,14 +3434,14 @@
       <c r="F29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3457,11 +3460,11 @@
       <c r="F30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -3483,14 +3486,14 @@
       <c r="F31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3504,19 +3507,19 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3535,14 +3538,14 @@
       <c r="F33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3561,14 +3564,14 @@
       <c r="F34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3582,19 +3585,19 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3613,14 +3616,14 @@
       <c r="F36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3639,14 +3642,14 @@
       <c r="F37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3665,14 +3668,14 @@
       <c r="F38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3691,14 +3694,14 @@
       <c r="F39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3717,14 +3720,14 @@
       <c r="F40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3743,14 +3746,14 @@
       <c r="F41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3769,14 +3772,14 @@
       <c r="F42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3795,14 +3798,14 @@
       <c r="F43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3821,14 +3824,14 @@
       <c r="F44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3847,14 +3850,14 @@
       <c r="F45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3873,14 +3876,14 @@
       <c r="F46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3899,14 +3902,14 @@
       <c r="F47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3925,14 +3928,14 @@
       <c r="F48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3951,14 +3954,14 @@
       <c r="F49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3977,14 +3980,14 @@
       <c r="F50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4003,14 +4006,14 @@
       <c r="F51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>115</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4029,14 +4032,14 @@
       <c r="F52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>117</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4055,14 +4058,14 @@
       <c r="F53" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>119</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4081,14 +4084,14 @@
       <c r="F54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>121</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4107,14 +4110,14 @@
       <c r="F55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>123</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4133,11 +4136,11 @@
       <c r="F56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4159,7 +4162,7 @@
       <c r="F57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H57" t="s">
@@ -4185,7 +4188,7 @@
       <c r="F58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>129</v>
       </c>
       <c r="H58" t="s">
@@ -4211,14 +4214,14 @@
       <c r="F59" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4237,14 +4240,14 @@
       <c r="F60" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>133</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4263,14 +4266,14 @@
       <c r="F61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4289,14 +4292,14 @@
       <c r="F62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>137</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4315,14 +4318,14 @@
       <c r="F63" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>139</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4336,19 +4339,19 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>141</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4367,14 +4370,14 @@
       <c r="F65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4388,19 +4391,19 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>145</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4414,16 +4417,16 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>147</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -4445,14 +4448,14 @@
       <c r="F68" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>149</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4471,14 +4474,14 @@
       <c r="F69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>151</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4497,14 +4500,14 @@
       <c r="F70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4523,14 +4526,14 @@
       <c r="F71" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>155</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4544,19 +4547,19 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>157</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4575,14 +4578,14 @@
       <c r="F73" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>159</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4601,14 +4604,14 @@
       <c r="F74" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>161</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4627,14 +4630,14 @@
       <c r="F75" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3" t="s">
         <v>163</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4653,14 +4656,14 @@
       <c r="F76" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3" t="s">
         <v>165</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4679,14 +4682,14 @@
       <c r="F77" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3" t="s">
         <v>167</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4705,14 +4708,14 @@
       <c r="F78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>169</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4726,19 +4729,19 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>171</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4752,19 +4755,19 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4783,14 +4786,14 @@
       <c r="F81" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4809,14 +4812,14 @@
       <c r="F82" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3" t="s">
         <v>177</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4830,19 +4833,19 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3" t="s">
         <v>179</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4856,19 +4859,19 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3" t="s">
         <v>181</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4887,14 +4890,14 @@
       <c r="F85" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3" t="s">
         <v>183</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4913,14 +4916,14 @@
       <c r="F86" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3" t="s">
         <v>185</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4939,14 +4942,14 @@
       <c r="F87" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3" t="s">
         <v>187</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4965,14 +4968,14 @@
       <c r="F88" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>189</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4991,14 +4994,14 @@
       <c r="F89" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3" t="s">
         <v>191</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5012,19 +5015,19 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3" t="s">
         <v>193</v>
       </c>
       <c r="H90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5038,19 +5041,19 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3" t="s">
         <v>195</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5069,14 +5072,14 @@
       <c r="F92" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3" t="s">
         <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5090,19 +5093,19 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3" t="s">
         <v>199</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5121,14 +5124,14 @@
       <c r="F94" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>201</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5142,19 +5145,19 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3" t="s">
         <v>203</v>
       </c>
       <c r="H95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5173,14 +5176,14 @@
       <c r="F96" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3" t="s">
         <v>205</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5199,14 +5202,14 @@
       <c r="F97" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3" t="s">
         <v>207</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5225,14 +5228,14 @@
       <c r="F98" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3" t="s">
         <v>209</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5251,14 +5254,14 @@
       <c r="F99" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="3" t="s">
         <v>211</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5277,14 +5280,14 @@
       <c r="F100" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>213</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5303,14 +5306,14 @@
       <c r="F101" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>215</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5329,14 +5332,14 @@
       <c r="F102" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>217</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5350,19 +5353,19 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3" t="s">
         <v>219</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5381,14 +5384,14 @@
       <c r="F104" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="3" t="s">
         <v>221</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5407,14 +5410,14 @@
       <c r="F105" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3" t="s">
         <v>223</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5433,14 +5436,14 @@
       <c r="F106" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="3" t="s">
         <v>225</v>
       </c>
       <c r="H106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5459,14 +5462,14 @@
       <c r="F107" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="3" t="s">
         <v>227</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5480,19 +5483,19 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5511,14 +5514,14 @@
       <c r="F109" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="3" t="s">
         <v>231</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5532,19 +5535,19 @@
         <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="3" t="s">
         <v>233</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5563,14 +5566,14 @@
       <c r="F111" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="3" t="s">
         <v>236</v>
       </c>
       <c r="H111" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5589,14 +5592,14 @@
       <c r="F112" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3" t="s">
         <v>238</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5615,11 +5618,11 @@
       <c r="F113" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="3" t="s">
         <v>240</v>
       </c>
       <c r="H113" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -5636,19 +5639,19 @@
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="3" t="s">
         <v>242</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5667,14 +5670,14 @@
       <c r="F115" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5693,14 +5696,14 @@
       <c r="F116" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5714,19 +5717,19 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="3" t="s">
         <v>248</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5745,14 +5748,14 @@
       <c r="F118" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="3" t="s">
         <v>250</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5771,14 +5774,14 @@
       <c r="F119" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="3" t="s">
         <v>252</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5797,14 +5800,14 @@
       <c r="F120" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="3" t="s">
         <v>254</v>
       </c>
       <c r="H120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5823,14 +5826,14 @@
       <c r="F121" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5849,14 +5852,14 @@
       <c r="F122" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="3" t="s">
         <v>258</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5875,14 +5878,14 @@
       <c r="F123" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="3" t="s">
         <v>260</v>
       </c>
       <c r="H123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5901,14 +5904,14 @@
       <c r="F124" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="3" t="s">
         <v>262</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5927,14 +5930,14 @@
       <c r="F125" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="3" t="s">
         <v>264</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5953,14 +5956,14 @@
       <c r="F126" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="3" t="s">
         <v>266</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5979,14 +5982,14 @@
       <c r="F127" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="3" t="s">
         <v>268</v>
       </c>
       <c r="H127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6005,14 +6008,14 @@
       <c r="F128" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6031,14 +6034,14 @@
       <c r="F129" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="3" t="s">
         <v>272</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6057,14 +6060,14 @@
       <c r="F130" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="3" t="s">
         <v>274</v>
       </c>
       <c r="H130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6083,14 +6086,14 @@
       <c r="F131" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6109,14 +6112,14 @@
       <c r="F132" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="3" t="s">
         <v>278</v>
       </c>
       <c r="H132" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6135,14 +6138,14 @@
       <c r="F133" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3" t="s">
         <v>280</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6156,19 +6159,19 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="3" t="s">
         <v>282</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6187,14 +6190,14 @@
       <c r="F135" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="3" t="s">
         <v>284</v>
       </c>
       <c r="H135" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6213,14 +6216,14 @@
       <c r="F136" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="3" t="s">
         <v>286</v>
       </c>
       <c r="H136" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6239,11 +6242,11 @@
       <c r="F137" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="3" t="s">
         <v>288</v>
       </c>
       <c r="H137" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -6265,14 +6268,14 @@
       <c r="F138" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3" t="s">
         <v>290</v>
       </c>
       <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6286,19 +6289,19 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="3" t="s">
         <v>292</v>
       </c>
       <c r="H139" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6312,19 +6315,19 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3" t="s">
         <v>294</v>
       </c>
       <c r="H140" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6343,14 +6346,14 @@
       <c r="F141" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="3" t="s">
         <v>296</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6369,14 +6372,14 @@
       <c r="F142" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3" t="s">
         <v>298</v>
       </c>
       <c r="H142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6390,19 +6393,19 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="3" t="s">
         <v>300</v>
       </c>
       <c r="H143" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6421,14 +6424,14 @@
       <c r="F144" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3" t="s">
         <v>302</v>
       </c>
       <c r="H144" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6447,7 +6450,7 @@
       <c r="F145" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="3" t="s">
         <v>304</v>
       </c>
       <c r="H145" t="s">
@@ -6473,14 +6476,14 @@
       <c r="F146" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="3" t="s">
         <v>306</v>
       </c>
       <c r="H146" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6499,14 +6502,14 @@
       <c r="F147" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="3" t="s">
         <v>308</v>
       </c>
       <c r="H147" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6525,14 +6528,14 @@
       <c r="F148" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="3" t="s">
         <v>310</v>
       </c>
       <c r="H148" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6551,14 +6554,14 @@
       <c r="F149" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="3" t="s">
         <v>312</v>
       </c>
       <c r="H149" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6572,19 +6575,19 @@
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="3" t="s">
         <v>314</v>
       </c>
       <c r="H150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6603,7 +6606,7 @@
       <c r="F151" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="3" t="s">
         <v>316</v>
       </c>
       <c r="H151" t="s">
@@ -6629,14 +6632,14 @@
       <c r="F152" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="3" t="s">
         <v>318</v>
       </c>
       <c r="H152" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6655,14 +6658,14 @@
       <c r="F153" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H153" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6681,14 +6684,14 @@
       <c r="F154" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="3" t="s">
         <v>322</v>
       </c>
       <c r="H154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6705,16 +6708,16 @@
         <v>15</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G155" t="s">
         <v>324</v>
       </c>
+      <c r="G155" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="H155" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6731,16 +6734,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G156" t="s">
         <v>326</v>
       </c>
+      <c r="G156" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="H156" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6757,16 +6760,16 @@
         <v>15</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G157" t="s">
         <v>328</v>
       </c>
+      <c r="G157" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="H157" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6780,19 +6783,19 @@
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G158" t="s">
         <v>330</v>
       </c>
+      <c r="G158" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="H158" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6809,16 +6812,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G159" t="s">
         <v>332</v>
       </c>
+      <c r="G159" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="H159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6835,16 +6838,16 @@
         <v>15</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G160" t="s">
         <v>334</v>
       </c>
+      <c r="G160" s="3" t="s">
+        <v>335</v>
+      </c>
       <c r="H160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6861,16 +6864,16 @@
         <v>99</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G161" t="s">
         <v>336</v>
       </c>
+      <c r="G161" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="H161" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6887,16 +6890,16 @@
         <v>99</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G162" t="s">
         <v>338</v>
       </c>
+      <c r="G162" s="3" t="s">
+        <v>339</v>
+      </c>
       <c r="H162" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6913,16 +6916,16 @@
         <v>15</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G163" t="s">
         <v>340</v>
       </c>
+      <c r="G163" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="H163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6936,19 +6939,19 @@
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G164" t="s">
         <v>342</v>
       </c>
+      <c r="G164" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="H164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6965,16 +6968,16 @@
         <v>12</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G165" t="s">
         <v>344</v>
       </c>
+      <c r="G165" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="H165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6991,16 +6994,16 @@
         <v>15</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G166" t="s">
         <v>346</v>
       </c>
+      <c r="G166" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="H166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7014,19 +7017,19 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G167" t="s">
         <v>348</v>
       </c>
+      <c r="G167" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="H167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7043,16 +7046,16 @@
         <v>12</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G168" t="s">
         <v>350</v>
       </c>
+      <c r="G168" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="H168" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7069,16 +7072,16 @@
         <v>15</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G169" t="s">
         <v>352</v>
       </c>
+      <c r="G169" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="H169" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7092,19 +7095,19 @@
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G170" t="s">
         <v>354</v>
       </c>
+      <c r="G170" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="H170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7118,16 +7121,16 @@
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G171" t="s">
         <v>356</v>
       </c>
+      <c r="G171" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="H171" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -7147,16 +7150,16 @@
         <v>15</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G172" t="s">
         <v>358</v>
       </c>
+      <c r="G172" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="H172" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7173,16 +7176,16 @@
         <v>12</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G173" t="s">
         <v>360</v>
       </c>
+      <c r="G173" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="H173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7199,16 +7202,16 @@
         <v>15</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G174" t="s">
         <v>362</v>
       </c>
+      <c r="G174" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="H174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7225,16 +7228,16 @@
         <v>12</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G175" t="s">
         <v>364</v>
       </c>
+      <c r="G175" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="H175" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7251,16 +7254,16 @@
         <v>15</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G176" t="s">
         <v>366</v>
       </c>
+      <c r="G176" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="H176" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7277,16 +7280,16 @@
         <v>15</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G177" t="s">
         <v>368</v>
       </c>
+      <c r="G177" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="H177" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7303,16 +7306,16 @@
         <v>99</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G178" t="s">
         <v>370</v>
       </c>
+      <c r="G178" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="H178" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7329,16 +7332,16 @@
         <v>8</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G179" t="s">
         <v>372</v>
       </c>
+      <c r="G179" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="H179" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7355,16 +7358,16 @@
         <v>15</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G180" t="s">
         <v>374</v>
       </c>
+      <c r="G180" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="H180" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7381,16 +7384,16 @@
         <v>15</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G181" t="s">
         <v>376</v>
       </c>
+      <c r="G181" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="H181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7407,16 +7410,16 @@
         <v>99</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G182" t="s">
         <v>378</v>
       </c>
+      <c r="G182" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="H182" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7433,16 +7436,16 @@
         <v>99</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G183" t="s">
         <v>380</v>
       </c>
+      <c r="G183" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="H183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7459,16 +7462,16 @@
         <v>15</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G184" t="s">
         <v>382</v>
       </c>
+      <c r="G184" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="H184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7482,19 +7485,19 @@
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G185" t="s">
         <v>384</v>
       </c>
+      <c r="G185" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="H185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7511,16 +7514,16 @@
         <v>12</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G186" t="s">
         <v>386</v>
       </c>
+      <c r="G186" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="H186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7534,19 +7537,19 @@
         <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G187" t="s">
         <v>388</v>
       </c>
+      <c r="G187" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="H187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7563,16 +7566,16 @@
         <v>15</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G188" t="s">
         <v>390</v>
       </c>
+      <c r="G188" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="H188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7589,16 +7592,16 @@
         <v>15</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G189" t="s">
         <v>392</v>
       </c>
+      <c r="G189" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="H189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7615,16 +7618,16 @@
         <v>12</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G190" t="s">
         <v>394</v>
       </c>
+      <c r="G190" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="H190" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7638,16 +7641,16 @@
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G191" t="s">
         <v>396</v>
       </c>
+      <c r="G191" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="H191" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -7667,16 +7670,16 @@
         <v>12</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G192" t="s">
         <v>398</v>
       </c>
+      <c r="G192" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="H192" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7693,16 +7696,16 @@
         <v>12</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G193" t="s">
         <v>400</v>
       </c>
+      <c r="G193" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="H193" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7719,16 +7722,16 @@
         <v>12</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G194" t="s">
         <v>402</v>
       </c>
+      <c r="G194" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7745,16 +7748,16 @@
         <v>12</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G195" t="s">
         <v>404</v>
       </c>
+      <c r="G195" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="H195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7771,16 +7774,16 @@
         <v>99</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G196" t="s">
         <v>406</v>
       </c>
+      <c r="G196" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="H196" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7797,16 +7800,16 @@
         <v>8</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G197" t="s">
         <v>408</v>
       </c>
+      <c r="G197" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="H197" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7823,16 +7826,16 @@
         <v>15</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G198" t="s">
         <v>410</v>
       </c>
+      <c r="G198" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="H198" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7849,16 +7852,16 @@
         <v>15</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G199" t="s">
         <v>412</v>
       </c>
+      <c r="G199" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="H199" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7875,16 +7878,16 @@
         <v>8</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G200" t="s">
         <v>414</v>
       </c>
+      <c r="G200" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="H200" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7901,16 +7904,16 @@
         <v>15</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G201" t="s">
         <v>416</v>
       </c>
+      <c r="G201" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="H201" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7927,16 +7930,16 @@
         <v>15</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G202" t="s">
         <v>418</v>
       </c>
+      <c r="G202" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="H202" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -7953,16 +7956,16 @@
         <v>8</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G203" t="s">
         <v>420</v>
       </c>
+      <c r="G203" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="H203" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -7979,16 +7982,16 @@
         <v>15</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G204" t="s">
         <v>422</v>
       </c>
+      <c r="G204" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="H204" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8005,16 +8008,16 @@
         <v>12</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G205" t="s">
         <v>424</v>
       </c>
+      <c r="G205" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="H205" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8031,16 +8034,16 @@
         <v>8</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G206" t="s">
         <v>426</v>
       </c>
+      <c r="G206" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="H206" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8057,16 +8060,16 @@
         <v>15</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G207" t="s">
         <v>428</v>
       </c>
+      <c r="G207" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="H207" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8083,16 +8086,16 @@
         <v>8</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G208" t="s">
         <v>430</v>
       </c>
+      <c r="G208" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="H208" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8109,16 +8112,16 @@
         <v>8</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G209" t="s">
         <v>432</v>
       </c>
+      <c r="G209" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="H209" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8135,16 +8138,16 @@
         <v>8</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G210" t="s">
         <v>434</v>
       </c>
+      <c r="G210" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="H210" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8158,19 +8161,19 @@
         <v>18</v>
       </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G211" t="s">
         <v>436</v>
       </c>
+      <c r="G211" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="H211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8187,16 +8190,16 @@
         <v>15</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G212" t="s">
         <v>438</v>
       </c>
+      <c r="G212" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="H212" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8213,16 +8216,16 @@
         <v>12</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G213" t="s">
         <v>440</v>
       </c>
+      <c r="G213" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="H213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8236,19 +8239,19 @@
         <v>18</v>
       </c>
       <c r="E214" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G214" t="s">
         <v>442</v>
       </c>
+      <c r="G214" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="H214" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8262,16 +8265,16 @@
         <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G215" t="s">
         <v>444</v>
       </c>
+      <c r="G215" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="H215" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -8291,16 +8294,16 @@
         <v>15</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G216" t="s">
         <v>446</v>
       </c>
+      <c r="G216" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="H216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8317,16 +8320,16 @@
         <v>15</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G217" t="s">
         <v>448</v>
       </c>
+      <c r="G217" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="H217" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8340,19 +8343,19 @@
         <v>19</v>
       </c>
       <c r="E218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G218" t="s">
         <v>450</v>
       </c>
+      <c r="G218" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="H218" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8369,16 +8372,16 @@
         <v>15</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G219" t="s">
         <v>452</v>
       </c>
+      <c r="G219" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="H219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8395,16 +8398,16 @@
         <v>8</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G220" t="s">
         <v>454</v>
       </c>
+      <c r="G220" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="H220" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8421,16 +8424,16 @@
         <v>15</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G221" t="s">
         <v>456</v>
       </c>
+      <c r="G221" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="H221" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8447,16 +8450,16 @@
         <v>15</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="G222" t="s">
         <v>458</v>
       </c>
+      <c r="G222" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="H222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8473,16 +8476,16 @@
         <v>234</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G223" t="s">
         <v>460</v>
       </c>
+      <c r="G223" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="H223" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8499,16 +8502,16 @@
         <v>234</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G224" t="s">
         <v>462</v>
       </c>
+      <c r="G224" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="H224" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8525,16 +8528,16 @@
         <v>15</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G225" t="s">
         <v>464</v>
       </c>
+      <c r="G225" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="H225" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8551,16 +8554,16 @@
         <v>15</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G226" t="s">
         <v>466</v>
       </c>
+      <c r="G226" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="H226" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8574,19 +8577,19 @@
         <v>19</v>
       </c>
       <c r="E227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G227" t="s">
         <v>468</v>
       </c>
+      <c r="G227" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="H227" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8603,10 +8606,10 @@
         <v>12</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G228" t="s">
         <v>470</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="H228" t="s">
         <v>11</v>
@@ -8629,16 +8632,16 @@
         <v>15</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G229" t="s">
         <v>472</v>
       </c>
+      <c r="G229" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="H229" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8655,16 +8658,16 @@
         <v>15</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G230" t="s">
         <v>474</v>
       </c>
+      <c r="G230" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="H230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8678,19 +8681,19 @@
         <v>20</v>
       </c>
       <c r="E231" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G231" t="s">
         <v>476</v>
       </c>
+      <c r="G231" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="H231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8704,19 +8707,19 @@
         <v>20</v>
       </c>
       <c r="E232" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G232" t="s">
         <v>478</v>
       </c>
+      <c r="G232" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="H232" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8733,16 +8736,16 @@
         <v>12</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G233" t="s">
         <v>480</v>
       </c>
+      <c r="G233" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="H233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8759,16 +8762,16 @@
         <v>99</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G234" t="s">
         <v>482</v>
       </c>
+      <c r="G234" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="H234" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8785,16 +8788,16 @@
         <v>15</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G235" t="s">
         <v>484</v>
       </c>
+      <c r="G235" s="3" t="s">
+        <v>485</v>
+      </c>
       <c r="H235" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8808,19 +8811,19 @@
         <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="G236" t="s">
         <v>486</v>
       </c>
+      <c r="G236" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="H236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8837,16 +8840,16 @@
         <v>15</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G237" t="s">
         <v>488</v>
       </c>
+      <c r="G237" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="H237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8860,19 +8863,19 @@
         <v>20</v>
       </c>
       <c r="E238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G238" t="s">
         <v>490</v>
       </c>
+      <c r="G238" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="H238" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8889,16 +8892,16 @@
         <v>12</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G239" t="s">
         <v>492</v>
       </c>
+      <c r="G239" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="H239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8915,16 +8918,16 @@
         <v>8</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G240" t="s">
         <v>494</v>
       </c>
+      <c r="G240" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="H240" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8941,16 +8944,16 @@
         <v>15</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G241" t="s">
         <v>496</v>
       </c>
+      <c r="G241" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="H241" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8967,16 +8970,16 @@
         <v>12</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G242" t="s">
         <v>498</v>
       </c>
+      <c r="G242" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="H242" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8993,16 +8996,16 @@
         <v>12</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G243" t="s">
         <v>500</v>
       </c>
+      <c r="G243" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="H243" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9019,13 +9022,13 @@
         <v>12</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G244" t="s">
         <v>502</v>
       </c>
+      <c r="G244" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="H244" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -9042,19 +9045,19 @@
         <v>21</v>
       </c>
       <c r="E245" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="G245" t="s">
         <v>504</v>
       </c>
+      <c r="G245" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="H245" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9071,16 +9074,16 @@
         <v>12</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G246" t="s">
         <v>506</v>
       </c>
+      <c r="G246" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="H246" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9097,16 +9100,16 @@
         <v>12</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G247" t="s">
         <v>508</v>
       </c>
+      <c r="G247" s="3" t="s">
+        <v>509</v>
+      </c>
       <c r="H247" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9123,10 +9126,10 @@
         <v>15</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G248" t="s">
         <v>510</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="H248" t="s">
         <v>11</v>
@@ -9149,16 +9152,16 @@
         <v>12</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G249" t="s">
         <v>512</v>
       </c>
+      <c r="G249" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="H249" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9175,16 +9178,16 @@
         <v>12</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="G250" t="s">
         <v>514</v>
       </c>
+      <c r="G250" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="H250" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9201,16 +9204,16 @@
         <v>12</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="G251" t="s">
         <v>516</v>
       </c>
+      <c r="G251" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="H251" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9227,16 +9230,16 @@
         <v>12</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G252" t="s">
         <v>518</v>
       </c>
+      <c r="G252" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H252" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9253,16 +9256,16 @@
         <v>12</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G253" t="s">
         <v>520</v>
       </c>
+      <c r="G253" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="H253" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9279,16 +9282,16 @@
         <v>12</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G254" t="s">
         <v>522</v>
       </c>
+      <c r="G254" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="H254" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9305,16 +9308,16 @@
         <v>12</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G255" t="s">
         <v>524</v>
       </c>
+      <c r="G255" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="H255" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9328,19 +9331,19 @@
         <v>22</v>
       </c>
       <c r="E256" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="G256" t="s">
         <v>526</v>
       </c>
+      <c r="G256" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="H256" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9357,16 +9360,16 @@
         <v>12</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G257" t="s">
         <v>528</v>
       </c>
+      <c r="G257" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="H257" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9383,16 +9386,16 @@
         <v>12</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G258" t="s">
         <v>530</v>
       </c>
+      <c r="G258" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H258" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9409,16 +9412,16 @@
         <v>12</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G259" t="s">
         <v>532</v>
       </c>
+      <c r="G259" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="H259" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9435,16 +9438,16 @@
         <v>12</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G260" t="s">
         <v>534</v>
       </c>
+      <c r="G260" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H260" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9461,16 +9464,16 @@
         <v>15</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G261" t="s">
         <v>536</v>
       </c>
+      <c r="G261" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="H261" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9487,10 +9490,10 @@
         <v>12</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G262" t="s">
         <v>538</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="H262" t="s">
         <v>11</v>
@@ -9513,16 +9516,16 @@
         <v>12</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G263" t="s">
         <v>540</v>
       </c>
+      <c r="G263" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="H263" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9539,13 +9542,13 @@
         <v>12</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G264" t="s">
         <v>542</v>
       </c>
+      <c r="G264" s="3" t="s">
+        <v>543</v>
+      </c>
       <c r="H264" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -9565,16 +9568,16 @@
         <v>12</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="G265" t="s">
         <v>544</v>
       </c>
+      <c r="G265" s="3" t="s">
+        <v>545</v>
+      </c>
       <c r="H265" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9588,19 +9591,19 @@
         <v>23</v>
       </c>
       <c r="E266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G266" t="s">
         <v>546</v>
       </c>
+      <c r="G266" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="H266" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9614,19 +9617,19 @@
         <v>23</v>
       </c>
       <c r="E267" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G267" t="s">
         <v>548</v>
       </c>
+      <c r="G267" s="3" t="s">
+        <v>549</v>
+      </c>
       <c r="H267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9643,16 +9646,16 @@
         <v>12</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G268" t="s">
         <v>550</v>
       </c>
+      <c r="G268" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="H268" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9669,16 +9672,16 @@
         <v>99</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="G269" t="s">
         <v>552</v>
       </c>
+      <c r="G269" s="3" t="s">
+        <v>553</v>
+      </c>
       <c r="H269" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9695,16 +9698,16 @@
         <v>12</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G270" t="s">
         <v>554</v>
       </c>
+      <c r="G270" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="H270" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9721,16 +9724,16 @@
         <v>234</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G271" t="s">
         <v>556</v>
       </c>
+      <c r="G271" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="H271" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9747,13 +9750,13 @@
         <v>12</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="G272" t="s">
         <v>558</v>
       </c>
+      <c r="G272" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="H272" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -9773,16 +9776,16 @@
         <v>12</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="G273" t="s">
         <v>560</v>
       </c>
+      <c r="G273" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9799,16 +9802,16 @@
         <v>15</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="G274" t="s">
         <v>562</v>
       </c>
+      <c r="G274" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="H274" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9825,16 +9828,16 @@
         <v>12</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="G275" t="s">
         <v>564</v>
       </c>
+      <c r="G275" s="3" t="s">
+        <v>565</v>
+      </c>
       <c r="H275" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9851,16 +9854,16 @@
         <v>12</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="G276" t="s">
         <v>566</v>
       </c>
+      <c r="G276" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="H276" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9877,16 +9880,16 @@
         <v>12</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="G277" t="s">
         <v>568</v>
       </c>
+      <c r="G277" s="3" t="s">
+        <v>569</v>
+      </c>
       <c r="H277" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9900,16 +9903,16 @@
         <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="G278" t="s">
         <v>570</v>
       </c>
+      <c r="G278" s="3" t="s">
+        <v>571</v>
+      </c>
       <c r="H278" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -9926,19 +9929,19 @@
         <v>24</v>
       </c>
       <c r="E279" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="G279" t="s">
         <v>572</v>
       </c>
+      <c r="G279" s="3" t="s">
+        <v>573</v>
+      </c>
       <c r="H279" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9952,19 +9955,19 @@
         <v>24</v>
       </c>
       <c r="E280" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="G280" t="s">
         <v>574</v>
       </c>
+      <c r="G280" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="H280" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9981,16 +9984,16 @@
         <v>8</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G281" t="s">
         <v>576</v>
       </c>
+      <c r="G281" s="3" t="s">
+        <v>577</v>
+      </c>
       <c r="H281" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10007,16 +10010,16 @@
         <v>12</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="G282" t="s">
         <v>578</v>
       </c>
+      <c r="G282" s="3" t="s">
+        <v>579</v>
+      </c>
       <c r="H282" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10033,16 +10036,16 @@
         <v>15</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="G283" t="s">
         <v>580</v>
       </c>
+      <c r="G283" s="3" t="s">
+        <v>581</v>
+      </c>
       <c r="H283" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10059,16 +10062,16 @@
         <v>15</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G284" t="s">
         <v>582</v>
       </c>
+      <c r="G284" s="3" t="s">
+        <v>583</v>
+      </c>
       <c r="H284" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10085,16 +10088,16 @@
         <v>12</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="G285" t="s">
         <v>584</v>
       </c>
+      <c r="G285" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="H285" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -10108,19 +10111,19 @@
         <v>24</v>
       </c>
       <c r="E286" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G286" t="s">
         <v>586</v>
       </c>
+      <c r="G286" s="3" t="s">
+        <v>587</v>
+      </c>
       <c r="H286" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -10137,16 +10140,16 @@
         <v>15</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G287" t="s">
         <v>588</v>
       </c>
+      <c r="G287" s="3" t="s">
+        <v>589</v>
+      </c>
       <c r="H287" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -10160,19 +10163,19 @@
         <v>24</v>
       </c>
       <c r="E288" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="G288" t="s">
         <v>590</v>
       </c>
+      <c r="G288" s="3" t="s">
+        <v>591</v>
+      </c>
       <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -10189,16 +10192,16 @@
         <v>8</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G289" t="s">
         <v>592</v>
       </c>
+      <c r="G289" s="3" t="s">
+        <v>593</v>
+      </c>
       <c r="H289" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10215,16 +10218,16 @@
         <v>12</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G290" t="s">
         <v>594</v>
       </c>
+      <c r="G290" s="3" t="s">
+        <v>595</v>
+      </c>
       <c r="H290" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10241,16 +10244,16 @@
         <v>8</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="G291" t="s">
         <v>596</v>
       </c>
+      <c r="G291" s="3" t="s">
+        <v>597</v>
+      </c>
       <c r="H291" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10267,16 +10270,16 @@
         <v>12</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G292" t="s">
         <v>598</v>
       </c>
+      <c r="G292" s="3" t="s">
+        <v>599</v>
+      </c>
       <c r="H292" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10293,16 +10296,16 @@
         <v>8</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G293" t="s">
         <v>600</v>
       </c>
+      <c r="G293" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="H293" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10319,16 +10322,16 @@
         <v>15</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G294" t="s">
         <v>602</v>
       </c>
+      <c r="G294" s="3" t="s">
+        <v>603</v>
+      </c>
       <c r="H294" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10345,16 +10348,16 @@
         <v>12</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G295" t="s">
         <v>604</v>
       </c>
+      <c r="G295" s="3" t="s">
+        <v>605</v>
+      </c>
       <c r="H295" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10371,16 +10374,16 @@
         <v>12</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="G296" t="s">
         <v>606</v>
       </c>
+      <c r="G296" s="3" t="s">
+        <v>607</v>
+      </c>
       <c r="H296" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10397,16 +10400,16 @@
         <v>8</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="G297" t="s">
         <v>608</v>
       </c>
+      <c r="G297" s="3" t="s">
+        <v>609</v>
+      </c>
       <c r="H297" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10423,16 +10426,16 @@
         <v>8</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G298" t="s">
         <v>610</v>
       </c>
+      <c r="G298" s="3" t="s">
+        <v>611</v>
+      </c>
       <c r="H298" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10449,16 +10452,16 @@
         <v>15</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G299" t="s">
         <v>612</v>
       </c>
+      <c r="G299" s="3" t="s">
+        <v>613</v>
+      </c>
       <c r="H299" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10475,16 +10478,16 @@
         <v>8</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G300" t="s">
         <v>614</v>
       </c>
+      <c r="G300" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="H300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10498,19 +10501,19 @@
         <v>25</v>
       </c>
       <c r="E301" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="G301" t="s">
         <v>616</v>
       </c>
+      <c r="G301" s="3" t="s">
+        <v>617</v>
+      </c>
       <c r="H301" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10524,19 +10527,19 @@
         <v>26</v>
       </c>
       <c r="E302" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G302" t="s">
         <v>618</v>
       </c>
+      <c r="G302" s="3" t="s">
+        <v>619</v>
+      </c>
       <c r="H302" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -10553,16 +10556,16 @@
         <v>8</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G303" t="s">
         <v>620</v>
       </c>
+      <c r="G303" s="3" t="s">
+        <v>621</v>
+      </c>
       <c r="H303" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -10579,16 +10582,16 @@
         <v>15</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G304" t="s">
         <v>622</v>
       </c>
+      <c r="G304" s="3" t="s">
+        <v>623</v>
+      </c>
       <c r="H304" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -10605,13 +10608,13 @@
         <v>12</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G305" t="s">
         <v>624</v>
       </c>
+      <c r="G305" s="3" t="s">
+        <v>625</v>
+      </c>
       <c r="H305" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -10628,19 +10631,19 @@
         <v>26</v>
       </c>
       <c r="E306" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G306" t="s">
         <v>626</v>
       </c>
+      <c r="G306" s="3" t="s">
+        <v>627</v>
+      </c>
       <c r="H306" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -10657,16 +10660,16 @@
         <v>15</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G307" t="s">
         <v>628</v>
       </c>
+      <c r="G307" s="3" t="s">
+        <v>629</v>
+      </c>
       <c r="H307" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -10683,16 +10686,16 @@
         <v>15</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G308" t="s">
         <v>630</v>
       </c>
+      <c r="G308" s="3" t="s">
+        <v>631</v>
+      </c>
       <c r="H308" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -10709,16 +10712,16 @@
         <v>15</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G309" t="s">
         <v>632</v>
       </c>
+      <c r="G309" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="H309" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -10735,16 +10738,16 @@
         <v>15</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G310" t="s">
         <v>634</v>
       </c>
+      <c r="G310" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="H310" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -10761,16 +10764,16 @@
         <v>234</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G311" t="s">
         <v>636</v>
       </c>
+      <c r="G311" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="H311" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10784,19 +10787,19 @@
         <v>26</v>
       </c>
       <c r="E312" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G312" t="s">
         <v>638</v>
       </c>
+      <c r="G312" s="3" t="s">
+        <v>639</v>
+      </c>
       <c r="H312" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -10813,16 +10816,16 @@
         <v>15</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="G313" t="s">
         <v>640</v>
       </c>
+      <c r="G313" s="3" t="s">
+        <v>641</v>
+      </c>
       <c r="H313" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -10839,16 +10842,16 @@
         <v>15</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="G314" t="s">
         <v>642</v>
       </c>
+      <c r="G314" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="H314" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -10862,19 +10865,19 @@
         <v>27</v>
       </c>
       <c r="E315" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G315" t="s">
         <v>644</v>
       </c>
+      <c r="G315" s="3" t="s">
+        <v>645</v>
+      </c>
       <c r="H315" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -10891,16 +10894,16 @@
         <v>15</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="G316" t="s">
         <v>646</v>
       </c>
+      <c r="G316" s="3" t="s">
+        <v>647</v>
+      </c>
       <c r="H316" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -10917,16 +10920,16 @@
         <v>15</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G317" t="s">
         <v>648</v>
       </c>
+      <c r="G317" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="H317" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -10940,19 +10943,19 @@
         <v>27</v>
       </c>
       <c r="E318" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="G318" t="s">
         <v>650</v>
       </c>
+      <c r="G318" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="H318" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -10966,19 +10969,19 @@
         <v>27</v>
       </c>
       <c r="E319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G319" t="s">
         <v>652</v>
       </c>
+      <c r="G319" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="H319" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -10995,16 +10998,16 @@
         <v>15</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G320" t="s">
         <v>654</v>
       </c>
+      <c r="G320" s="3" t="s">
+        <v>655</v>
+      </c>
       <c r="H320" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -11018,13 +11021,13 @@
         <v>27</v>
       </c>
       <c r="E321" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="G321" t="s">
         <v>656</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="H321" t="s">
         <v>11</v>
@@ -11047,16 +11050,16 @@
         <v>15</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G322" t="s">
         <v>658</v>
       </c>
+      <c r="G322" s="3" t="s">
+        <v>659</v>
+      </c>
       <c r="H322" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -11073,16 +11076,16 @@
         <v>15</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="G323" t="s">
         <v>660</v>
       </c>
+      <c r="G323" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="H323" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -11099,16 +11102,16 @@
         <v>15</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G324" t="s">
         <v>662</v>
       </c>
+      <c r="G324" s="3" t="s">
+        <v>663</v>
+      </c>
       <c r="H324" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -11125,16 +11128,16 @@
         <v>15</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G325" t="s">
         <v>664</v>
       </c>
+      <c r="G325" s="3" t="s">
+        <v>665</v>
+      </c>
       <c r="H325" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -11151,16 +11154,16 @@
         <v>12</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G326" t="s">
         <v>666</v>
       </c>
+      <c r="G326" s="3" t="s">
+        <v>667</v>
+      </c>
       <c r="H326" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -11177,16 +11180,16 @@
         <v>99</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G327" t="s">
         <v>668</v>
       </c>
+      <c r="G327" s="3" t="s">
+        <v>669</v>
+      </c>
       <c r="H327" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -11203,16 +11206,16 @@
         <v>12</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="G328" t="s">
         <v>670</v>
       </c>
+      <c r="G328" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="H328" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -11229,16 +11232,16 @@
         <v>12</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G329" t="s">
         <v>672</v>
       </c>
+      <c r="G329" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="H329" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -11255,16 +11258,16 @@
         <v>15</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G330" t="s">
         <v>674</v>
       </c>
+      <c r="G330" s="3" t="s">
+        <v>675</v>
+      </c>
       <c r="H330" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -11281,16 +11284,16 @@
         <v>8</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G331" t="s">
         <v>676</v>
       </c>
+      <c r="G331" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="H331" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -11307,16 +11310,16 @@
         <v>12</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G332" t="s">
         <v>678</v>
       </c>
+      <c r="G332" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="H332" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -11333,16 +11336,16 @@
         <v>15</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="G333" t="s">
         <v>680</v>
       </c>
+      <c r="G333" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="H333" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -11356,19 +11359,19 @@
         <v>28</v>
       </c>
       <c r="E334" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G334" t="s">
         <v>682</v>
       </c>
+      <c r="G334" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="H334" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -11385,16 +11388,16 @@
         <v>8</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="G335" t="s">
         <v>684</v>
       </c>
+      <c r="G335" s="3" t="s">
+        <v>685</v>
+      </c>
       <c r="H335" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -11411,16 +11414,16 @@
         <v>15</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G336" t="s">
         <v>686</v>
       </c>
+      <c r="G336" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="H336" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -11437,16 +11440,16 @@
         <v>15</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="G337" t="s">
         <v>688</v>
       </c>
+      <c r="G337" s="3" t="s">
+        <v>689</v>
+      </c>
       <c r="H337" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -11460,19 +11463,19 @@
         <v>29</v>
       </c>
       <c r="E338" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="G338" t="s">
         <v>690</v>
       </c>
+      <c r="G338" s="3" t="s">
+        <v>691</v>
+      </c>
       <c r="H338" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -11489,16 +11492,16 @@
         <v>15</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="G339" t="s">
         <v>692</v>
       </c>
+      <c r="G339" s="3" t="s">
+        <v>693</v>
+      </c>
       <c r="H339" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -11512,19 +11515,19 @@
         <v>29</v>
       </c>
       <c r="E340" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="G340" t="s">
         <v>694</v>
       </c>
+      <c r="G340" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="H340" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -11538,19 +11541,19 @@
         <v>29</v>
       </c>
       <c r="E341" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="G341" t="s">
         <v>696</v>
       </c>
+      <c r="G341" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="H341" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -11567,16 +11570,16 @@
         <v>15</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="G342" t="s">
         <v>698</v>
       </c>
+      <c r="G342" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="H342" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -11593,16 +11596,16 @@
         <v>15</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="G343" t="s">
         <v>700</v>
       </c>
+      <c r="G343" s="3" t="s">
+        <v>701</v>
+      </c>
       <c r="H343" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -11619,16 +11622,16 @@
         <v>15</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="G344" t="s">
         <v>702</v>
       </c>
+      <c r="G344" s="3" t="s">
+        <v>703</v>
+      </c>
       <c r="H344" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -11645,16 +11648,16 @@
         <v>15</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G345" t="s">
         <v>704</v>
       </c>
+      <c r="G345" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="H345" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -11671,16 +11674,16 @@
         <v>15</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="G346" t="s">
         <v>706</v>
       </c>
+      <c r="G346" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="H346" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -11694,19 +11697,19 @@
         <v>29</v>
       </c>
       <c r="E347" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="G347" t="s">
         <v>708</v>
       </c>
+      <c r="G347" s="3" t="s">
+        <v>709</v>
+      </c>
       <c r="H347" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -11723,16 +11726,16 @@
         <v>15</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="G348" t="s">
         <v>710</v>
       </c>
+      <c r="G348" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="H348" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -11749,16 +11752,16 @@
         <v>8</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="G349" t="s">
         <v>712</v>
       </c>
+      <c r="G349" s="3" t="s">
+        <v>713</v>
+      </c>
       <c r="H349" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -11772,19 +11775,19 @@
         <v>30</v>
       </c>
       <c r="E350" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G350" t="s">
         <v>714</v>
       </c>
+      <c r="G350" s="3" t="s">
+        <v>715</v>
+      </c>
       <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -11801,16 +11804,16 @@
         <v>12</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="G351" t="s">
         <v>716</v>
       </c>
+      <c r="G351" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="H351" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -11827,16 +11830,16 @@
         <v>15</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="G352" t="s">
         <v>718</v>
       </c>
+      <c r="G352" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="H352" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -11853,16 +11856,16 @@
         <v>15</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="G353" t="s">
         <v>720</v>
       </c>
+      <c r="G353" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="H353" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -11879,16 +11882,16 @@
         <v>99</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="G354" t="s">
         <v>722</v>
       </c>
+      <c r="G354" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="H354" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -11902,19 +11905,19 @@
         <v>30</v>
       </c>
       <c r="E355" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="G355" t="s">
         <v>724</v>
       </c>
+      <c r="G355" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="H355" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -11931,16 +11934,16 @@
         <v>15</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="G356" t="s">
         <v>726</v>
       </c>
+      <c r="G356" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="H356" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -11957,16 +11960,16 @@
         <v>15</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="G357" t="s">
         <v>728</v>
       </c>
+      <c r="G357" s="3" t="s">
+        <v>729</v>
+      </c>
       <c r="H357" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -11980,19 +11983,19 @@
         <v>30</v>
       </c>
       <c r="E358" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="G358" t="s">
         <v>730</v>
       </c>
+      <c r="G358" s="3" t="s">
+        <v>731</v>
+      </c>
       <c r="H358" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -12006,19 +12009,19 @@
         <v>30</v>
       </c>
       <c r="E359" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G359" t="s">
         <v>732</v>
       </c>
+      <c r="G359" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="H359" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -12035,16 +12038,16 @@
         <v>12</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G360" t="s">
         <v>734</v>
       </c>
+      <c r="G360" s="3" t="s">
+        <v>735</v>
+      </c>
       <c r="H360" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -12061,16 +12064,16 @@
         <v>8</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="G361" t="s">
         <v>736</v>
       </c>
+      <c r="G361" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="H361" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -12084,19 +12087,19 @@
         <v>31</v>
       </c>
       <c r="E362" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="G362" t="s">
         <v>738</v>
       </c>
+      <c r="G362" s="3" t="s">
+        <v>739</v>
+      </c>
       <c r="H362" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -12113,16 +12116,16 @@
         <v>15</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="G363" t="s">
         <v>740</v>
       </c>
+      <c r="G363" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="H363" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -12139,16 +12142,16 @@
         <v>15</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G364" t="s">
         <v>742</v>
       </c>
+      <c r="G364" s="3" t="s">
+        <v>743</v>
+      </c>
       <c r="H364" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -12165,16 +12168,16 @@
         <v>15</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G365" t="s">
         <v>744</v>
       </c>
+      <c r="G365" s="3" t="s">
+        <v>745</v>
+      </c>
       <c r="H365" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -12191,16 +12194,16 @@
         <v>15</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="G366" t="s">
         <v>746</v>
       </c>
+      <c r="G366" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="H366" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -12217,16 +12220,16 @@
         <v>8</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="G367" t="s">
         <v>748</v>
       </c>
+      <c r="G367" s="3" t="s">
+        <v>749</v>
+      </c>
       <c r="H367" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -12243,16 +12246,16 @@
         <v>15</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="G368" t="s">
         <v>750</v>
       </c>
+      <c r="G368" s="3" t="s">
+        <v>751</v>
+      </c>
       <c r="H368" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -12269,16 +12272,16 @@
         <v>8</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="G369" t="s">
         <v>752</v>
       </c>
+      <c r="G369" s="3" t="s">
+        <v>753</v>
+      </c>
       <c r="H369" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -12295,16 +12298,16 @@
         <v>15</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="G370" t="s">
         <v>754</v>
       </c>
+      <c r="G370" s="3" t="s">
+        <v>755</v>
+      </c>
       <c r="H370" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -12321,16 +12324,16 @@
         <v>8</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="G371" t="s">
         <v>756</v>
       </c>
+      <c r="G371" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="H371" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -12347,16 +12350,16 @@
         <v>15</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="G372" t="s">
         <v>758</v>
       </c>
+      <c r="G372" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="H372" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -12373,13 +12376,13 @@
         <v>8</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G373" t="s">
         <v>760</v>
       </c>
+      <c r="G373" s="3" t="s">
+        <v>761</v>
+      </c>
       <c r="H373" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
